--- a/Analysis & Profiles/Output_2020A2.xlsx
+++ b/Analysis & Profiles/Output_2020A2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Projects\Veterans ELToDv2.3 2017-0628\Analysis &amp; Profiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Projects\Veterans ELToDv2.3 2017-0628\Analysis &amp; Profiles\Veterans 2017-0801_newpp_revisedparams_aawdt_for_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1448,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R764"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U44" sqref="U44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,25 +1641,25 @@
         <v>15</v>
       </c>
       <c r="B6" s="30">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="C6" s="31">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D6" s="32">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E6" s="32">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F6" s="33">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G6" s="84">
-        <v>6.3492063492063489E-2</v>
+        <v>0.13147410358565736</v>
       </c>
       <c r="H6" s="85">
-        <v>6.5789473684210523E-2</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="I6" s="90">
         <v>0.04</v>
@@ -1668,10 +1668,10 @@
         <v>0.01</v>
       </c>
       <c r="K6" s="92">
+        <v>0.02</v>
+      </c>
+      <c r="L6" s="93">
         <v>0.01</v>
-      </c>
-      <c r="L6" s="93">
-        <v>0</v>
       </c>
       <c r="M6" s="94">
         <v>60</v>
@@ -1697,25 +1697,25 @@
         <v>16</v>
       </c>
       <c r="B7" s="30">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C7" s="31">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D7" s="32">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E7" s="32">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F7" s="33">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G7" s="84">
-        <v>6.4285714285714279E-2</v>
+        <v>0.1357142857142857</v>
       </c>
       <c r="H7" s="85">
-        <v>7.2727272727272724E-2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="I7" s="94">
         <v>0.02</v>
@@ -1724,7 +1724,7 @@
         <v>0.01</v>
       </c>
       <c r="K7" s="78">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L7" s="79">
         <v>0</v>
@@ -1753,34 +1753,34 @@
         <v>17</v>
       </c>
       <c r="B8" s="30">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C8" s="31">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D8" s="32">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E8" s="32">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F8" s="33">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G8" s="84">
-        <v>6.3829787234042548E-2</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="H8" s="85">
-        <v>0.06</v>
+        <v>0.13725490196078433</v>
       </c>
       <c r="I8" s="94">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J8" s="95">
         <v>0.01</v>
       </c>
       <c r="K8" s="78">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L8" s="79">
         <v>0</v>
@@ -1809,25 +1809,25 @@
         <v>18</v>
       </c>
       <c r="B9" s="30">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C9" s="31">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D9" s="32">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E9" s="32">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F9" s="33">
         <v>191</v>
       </c>
       <c r="G9" s="84">
-        <v>6.8181818181818177E-2</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="H9" s="85">
-        <v>6.7961165048543687E-2</v>
+        <v>0.13592233009708737</v>
       </c>
       <c r="I9" s="94">
         <v>0.01</v>
@@ -1836,10 +1836,10 @@
         <v>0.02</v>
       </c>
       <c r="K9" s="78">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L9" s="79">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M9" s="94">
         <v>60</v>
@@ -1865,37 +1865,37 @@
         <v>19</v>
       </c>
       <c r="B10" s="30">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C10" s="31">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="D10" s="32">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E10" s="32">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F10" s="33">
         <v>406</v>
       </c>
       <c r="G10" s="84">
-        <v>6.6666666666666666E-2</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="H10" s="85">
-        <v>6.6433566433566432E-2</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="I10" s="94">
         <v>0.02</v>
       </c>
       <c r="J10" s="95">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="K10" s="78">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L10" s="79">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="M10" s="94">
         <v>60</v>
@@ -1921,37 +1921,37 @@
         <v>20</v>
       </c>
       <c r="B11" s="30">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C11" s="31">
-        <v>847</v>
+        <v>801</v>
       </c>
       <c r="D11" s="32">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E11" s="32">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="F11" s="33">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="G11" s="84">
-        <v>0.18421052631578946</v>
+        <v>0.22707423580786026</v>
       </c>
       <c r="H11" s="85">
-        <v>0.19179389312977099</v>
+        <v>0.23568702290076335</v>
       </c>
       <c r="I11" s="94">
         <v>0.03</v>
       </c>
       <c r="J11" s="95">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K11" s="78">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="L11" s="79">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M11" s="94">
         <v>60</v>
@@ -1977,40 +1977,40 @@
         <v>21</v>
       </c>
       <c r="B12" s="30">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="C12" s="31">
-        <v>2212</v>
+        <v>2309</v>
       </c>
       <c r="D12" s="32">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="E12" s="32">
-        <v>1025</v>
+        <v>927</v>
       </c>
       <c r="F12" s="33">
-        <v>3860</v>
+        <v>3859</v>
       </c>
       <c r="G12" s="84">
-        <v>0.3723916532905297</v>
+        <v>0.33547351524879615</v>
       </c>
       <c r="H12" s="85">
-        <v>0.3166512202656781</v>
+        <v>0.28646477132262049</v>
       </c>
       <c r="I12" s="94">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J12" s="95">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="K12" s="78">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="L12" s="79">
-        <v>0.56999999999999995</v>
+        <v>0.52</v>
       </c>
       <c r="M12" s="94">
-        <v>60</v>
+        <v>59.99</v>
       </c>
       <c r="N12" s="95">
         <v>59.98</v>
@@ -2019,7 +2019,7 @@
         <v>64.97</v>
       </c>
       <c r="P12" s="79">
-        <v>64.81</v>
+        <v>64.849999999999994</v>
       </c>
       <c r="Q12" s="42">
         <v>0</v>
@@ -2033,49 +2033,49 @@
         <v>22</v>
       </c>
       <c r="B13" s="45">
-        <v>633</v>
+        <v>652</v>
       </c>
       <c r="C13" s="46">
-        <v>2326</v>
+        <v>2420</v>
       </c>
       <c r="D13" s="47">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E13" s="47">
-        <v>1077</v>
+        <v>984</v>
       </c>
       <c r="F13" s="48">
-        <v>4385</v>
+        <v>4386</v>
       </c>
       <c r="G13" s="86">
-        <v>0.35539714867617106</v>
+        <v>0.33604887983706722</v>
       </c>
       <c r="H13" s="87">
-        <v>0.31648545401116662</v>
+        <v>0.28907168037602821</v>
       </c>
       <c r="I13" s="96">
         <v>0.11</v>
       </c>
       <c r="J13" s="97">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="K13" s="80">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="L13" s="81">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M13" s="96">
         <v>59.99</v>
       </c>
       <c r="N13" s="97">
-        <v>59.98</v>
+        <v>59.97</v>
       </c>
       <c r="O13" s="80">
         <v>64.959999999999994</v>
       </c>
       <c r="P13" s="81">
-        <v>64.78</v>
+        <v>64.83</v>
       </c>
       <c r="Q13" s="53">
         <v>0</v>
@@ -2089,37 +2089,37 @@
         <v>23</v>
       </c>
       <c r="B14" s="45">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="C14" s="46">
-        <v>2144</v>
+        <v>2242</v>
       </c>
       <c r="D14" s="47">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="E14" s="47">
-        <v>996</v>
+        <v>898</v>
       </c>
       <c r="F14" s="48">
         <v>4156</v>
       </c>
       <c r="G14" s="86">
-        <v>0.34547244094488189</v>
+        <v>0.33562992125984253</v>
       </c>
       <c r="H14" s="87">
-        <v>0.31719745222929935</v>
+        <v>0.28598726114649681</v>
       </c>
       <c r="I14" s="96">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="J14" s="97">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="K14" s="80">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="L14" s="81">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="M14" s="96">
         <v>59.99</v>
@@ -2131,7 +2131,7 @@
         <v>64.959999999999994</v>
       </c>
       <c r="P14" s="81">
-        <v>64.819999999999993</v>
+        <v>64.86</v>
       </c>
       <c r="Q14" s="53">
         <v>0</v>
@@ -2145,37 +2145,37 @@
         <v>24</v>
       </c>
       <c r="B15" s="45">
-        <v>699</v>
+        <v>718</v>
       </c>
       <c r="C15" s="46">
-        <v>1501</v>
+        <v>1582</v>
       </c>
       <c r="D15" s="47">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="E15" s="47">
-        <v>711</v>
+        <v>629</v>
       </c>
       <c r="F15" s="48">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="G15" s="86">
-        <v>0.3436619718309859</v>
+        <v>0.32582159624413143</v>
       </c>
       <c r="H15" s="87">
-        <v>0.32142857142857145</v>
+        <v>0.28448665762098596</v>
       </c>
       <c r="I15" s="96">
         <v>0.12</v>
       </c>
       <c r="J15" s="97">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="K15" s="80">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="L15" s="81">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="M15" s="96">
         <v>59.99</v>
@@ -2187,7 +2187,7 @@
         <v>64.959999999999994</v>
       </c>
       <c r="P15" s="81">
-        <v>64.91</v>
+        <v>64.92</v>
       </c>
       <c r="Q15" s="53">
         <v>0</v>
@@ -2201,25 +2201,25 @@
         <v>25</v>
       </c>
       <c r="B16" s="30">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="C16" s="31">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D16" s="32">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="E16" s="32">
         <v>450</v>
       </c>
       <c r="F16" s="33">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="G16" s="84">
-        <v>0.2662779397473275</v>
+        <v>0.2759961127308066</v>
       </c>
       <c r="H16" s="85">
-        <v>0.26071842410196988</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="I16" s="94">
         <v>0.13</v>
@@ -2228,7 +2228,7 @@
         <v>0.22</v>
       </c>
       <c r="K16" s="78">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="L16" s="79">
         <v>0.25</v>
@@ -2257,25 +2257,25 @@
         <v>26</v>
       </c>
       <c r="B17" s="30">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="C17" s="31">
-        <v>1108</v>
+        <v>1093</v>
       </c>
       <c r="D17" s="32">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="E17" s="32">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="F17" s="33">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="G17" s="84">
-        <v>0.26625111308993765</v>
+        <v>0.27604630454140694</v>
       </c>
       <c r="H17" s="85">
-        <v>0.27629000653167862</v>
+        <v>0.28655352480417756</v>
       </c>
       <c r="I17" s="94">
         <v>0.14000000000000001</v>
@@ -2287,7 +2287,7 @@
         <v>0.17</v>
       </c>
       <c r="L17" s="79">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="M17" s="94">
         <v>59.99</v>
@@ -2296,7 +2296,7 @@
         <v>59.99</v>
       </c>
       <c r="O17" s="78">
-        <v>64.97</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="P17" s="79">
         <v>64.95</v>
@@ -2313,25 +2313,25 @@
         <v>27</v>
       </c>
       <c r="B18" s="30">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C18" s="31">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="D18" s="32">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E18" s="32">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="F18" s="33">
         <v>2697</v>
       </c>
       <c r="G18" s="84">
-        <v>0.26599845797995375</v>
+        <v>0.26754047802621433</v>
       </c>
       <c r="H18" s="85">
-        <v>0.27642857142857141</v>
+        <v>0.28642857142857142</v>
       </c>
       <c r="I18" s="94">
         <v>0.16</v>
@@ -2343,7 +2343,7 @@
         <v>0.19</v>
       </c>
       <c r="L18" s="79">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="M18" s="94">
         <v>59.99</v>
@@ -2369,25 +2369,25 @@
         <v>28</v>
       </c>
       <c r="B19" s="30">
-        <v>1110</v>
+        <v>1098</v>
       </c>
       <c r="C19" s="31">
-        <v>936</v>
+        <v>923</v>
       </c>
       <c r="D19" s="32">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="E19" s="32">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="F19" s="33">
         <v>2756</v>
       </c>
       <c r="G19" s="84">
-        <v>0.24128503075871496</v>
+        <v>0.24897400820793433</v>
       </c>
       <c r="H19" s="85">
-        <v>0.27610208816705334</v>
+        <v>0.28670788253477592</v>
       </c>
       <c r="I19" s="94">
         <v>0.19</v>
@@ -2399,7 +2399,7 @@
         <v>0.2</v>
       </c>
       <c r="L19" s="79">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="M19" s="94">
         <v>59.99</v>
@@ -2425,34 +2425,34 @@
         <v>29</v>
       </c>
       <c r="B20" s="30">
-        <v>1357</v>
+        <v>1340</v>
       </c>
       <c r="C20" s="31">
-        <v>968</v>
+        <v>954</v>
       </c>
       <c r="D20" s="32">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="E20" s="32">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="F20" s="33">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="G20" s="84">
-        <v>0.23977591036414567</v>
+        <v>0.24887892376681614</v>
       </c>
       <c r="H20" s="85">
-        <v>0.27599102468212416</v>
+        <v>0.28646222887060585</v>
       </c>
       <c r="I20" s="94">
         <v>0.23</v>
       </c>
       <c r="J20" s="95">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="K20" s="78">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="L20" s="79">
         <v>0.21</v>
@@ -2481,37 +2481,37 @@
         <v>30</v>
       </c>
       <c r="B21" s="30">
-        <v>1808</v>
+        <v>1897</v>
       </c>
       <c r="C21" s="31">
-        <v>895</v>
+        <v>928</v>
       </c>
       <c r="D21" s="32">
-        <v>795</v>
+        <v>707</v>
       </c>
       <c r="E21" s="32">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="F21" s="33">
-        <v>3981</v>
+        <v>3982</v>
       </c>
       <c r="G21" s="84">
-        <v>0.30541682673837878</v>
+        <v>0.271505376344086</v>
       </c>
       <c r="H21" s="85">
-        <v>0.35050798258345428</v>
+        <v>0.32656023222060959</v>
       </c>
       <c r="I21" s="94">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="J21" s="95">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="K21" s="78">
-        <v>0.44</v>
+        <v>0.39</v>
       </c>
       <c r="L21" s="79">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="M21" s="94">
         <v>59.98</v>
@@ -2520,7 +2520,7 @@
         <v>59.99</v>
       </c>
       <c r="O21" s="78">
-        <v>64.89</v>
+        <v>64.91</v>
       </c>
       <c r="P21" s="79">
         <v>64.95</v>
@@ -2537,37 +2537,37 @@
         <v>31</v>
       </c>
       <c r="B22" s="45">
-        <v>2364</v>
+        <v>2477</v>
       </c>
       <c r="C22" s="46">
-        <v>896</v>
+        <v>929</v>
       </c>
       <c r="D22" s="47">
-        <v>1014</v>
+        <v>902</v>
       </c>
       <c r="E22" s="47">
-        <v>484</v>
+        <v>450</v>
       </c>
       <c r="F22" s="48">
         <v>4758</v>
       </c>
       <c r="G22" s="86">
-        <v>0.30017761989342806</v>
+        <v>0.26694288250961823</v>
       </c>
       <c r="H22" s="87">
-        <v>0.35072463768115941</v>
+        <v>0.32632342277012327</v>
       </c>
       <c r="I22" s="96">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="J22" s="97">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="K22" s="80">
-        <v>0.56000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="L22" s="81">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="M22" s="96">
         <v>59.97</v>
@@ -2576,7 +2576,7 @@
         <v>59.99</v>
       </c>
       <c r="O22" s="80">
-        <v>64.819999999999993</v>
+        <v>64.86</v>
       </c>
       <c r="P22" s="81">
         <v>64.95</v>
@@ -2593,37 +2593,37 @@
         <v>32</v>
       </c>
       <c r="B23" s="45">
-        <v>2346</v>
+        <v>2456</v>
       </c>
       <c r="C23" s="46">
-        <v>940</v>
+        <v>991</v>
       </c>
       <c r="D23" s="47">
-        <v>1005</v>
+        <v>896</v>
       </c>
       <c r="E23" s="47">
-        <v>501</v>
+        <v>450</v>
       </c>
       <c r="F23" s="48">
-        <v>4792</v>
+        <v>4793</v>
       </c>
       <c r="G23" s="86">
-        <v>0.29991047448522828</v>
+        <v>0.26730310262529833</v>
       </c>
       <c r="H23" s="87">
-        <v>0.34767522553782093</v>
+        <v>0.31228313671061764</v>
       </c>
       <c r="I23" s="96">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="J23" s="97">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="K23" s="80">
-        <v>0.56000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="L23" s="81">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="M23" s="96">
         <v>59.97</v>
@@ -2632,10 +2632,10 @@
         <v>59.99</v>
       </c>
       <c r="O23" s="80">
-        <v>64.819999999999993</v>
+        <v>64.86</v>
       </c>
       <c r="P23" s="81">
-        <v>64.94</v>
+        <v>64.95</v>
       </c>
       <c r="Q23" s="53">
         <v>0.23</v>
@@ -2649,37 +2649,37 @@
         <v>33</v>
       </c>
       <c r="B24" s="45">
-        <v>1809</v>
+        <v>1897</v>
       </c>
       <c r="C24" s="46">
-        <v>763</v>
+        <v>790</v>
       </c>
       <c r="D24" s="47">
-        <v>795</v>
+        <v>708</v>
       </c>
       <c r="E24" s="47">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="F24" s="48">
-        <v>3817</v>
+        <v>3819</v>
       </c>
       <c r="G24" s="86">
-        <v>0.3052995391705069</v>
+        <v>0.27178502879078698</v>
       </c>
       <c r="H24" s="87">
-        <v>0.37098103874690846</v>
+        <v>0.34925864909390447</v>
       </c>
       <c r="I24" s="96">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="J24" s="97">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K24" s="80">
-        <v>0.44</v>
+        <v>0.39</v>
       </c>
       <c r="L24" s="81">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="M24" s="96">
         <v>59.98</v>
@@ -2688,7 +2688,7 @@
         <v>59.99</v>
       </c>
       <c r="O24" s="80">
-        <v>64.89</v>
+        <v>64.91</v>
       </c>
       <c r="P24" s="81">
         <v>64.95</v>
@@ -2705,37 +2705,37 @@
         <v>34</v>
       </c>
       <c r="B25" s="30">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C25" s="31">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="D25" s="32">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="E25" s="32">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="F25" s="33">
-        <v>2548</v>
+        <v>2546</v>
       </c>
       <c r="G25" s="84">
-        <v>0.24006908462867013</v>
+        <v>0.24942396313364054</v>
       </c>
       <c r="H25" s="85">
-        <v>0.27620221948212081</v>
+        <v>0.28641975308641976</v>
       </c>
       <c r="I25" s="94">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="J25" s="95">
         <v>0.1</v>
       </c>
       <c r="K25" s="78">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="L25" s="79">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="M25" s="94">
         <v>59.99</v>
@@ -2761,25 +2761,25 @@
         <v>35</v>
       </c>
       <c r="B26" s="30">
-        <v>917</v>
+        <v>905</v>
       </c>
       <c r="C26" s="31">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D26" s="32">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="E26" s="32">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F26" s="33">
         <v>1781</v>
       </c>
       <c r="G26" s="84">
-        <v>0.26581265012009608</v>
+        <v>0.27542033626901519</v>
       </c>
       <c r="H26" s="85">
-        <v>0.27631578947368424</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I26" s="94">
         <v>0.16</v>
@@ -2788,7 +2788,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K26" s="78">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="L26" s="79">
         <v>0.08</v>
@@ -2817,37 +2817,37 @@
         <v>36</v>
       </c>
       <c r="B27" s="30">
-        <v>830</v>
+        <v>787</v>
       </c>
       <c r="C27" s="31">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="D27" s="32">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="E27" s="32">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F27" s="33">
         <v>1435</v>
       </c>
       <c r="G27" s="84">
-        <v>0.18467583497053044</v>
+        <v>0.2269155206286837</v>
       </c>
       <c r="H27" s="85">
-        <v>0.19184652278177458</v>
+        <v>0.23501199040767387</v>
       </c>
       <c r="I27" s="94">
         <v>0.14000000000000001</v>
       </c>
       <c r="J27" s="95">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="K27" s="78">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="L27" s="79">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="M27" s="94">
         <v>59.99</v>
@@ -2856,7 +2856,7 @@
         <v>60</v>
       </c>
       <c r="O27" s="78">
-        <v>64.98</v>
+        <v>64.97</v>
       </c>
       <c r="P27" s="79">
         <v>64.98</v>
@@ -2873,37 +2873,37 @@
         <v>37</v>
       </c>
       <c r="B28" s="30">
-        <v>691</v>
+        <v>641</v>
       </c>
       <c r="C28" s="31">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="D28" s="32">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="E28" s="32">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F28" s="33">
         <v>1022</v>
       </c>
       <c r="G28" s="84">
-        <v>6.3685636856368563E-2</v>
+        <v>0.13261163734776726</v>
       </c>
       <c r="H28" s="85">
-        <v>6.6901408450704219E-2</v>
+        <v>0.13780918727915195</v>
       </c>
       <c r="I28" s="94">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="J28" s="95">
+        <v>0.04</v>
+      </c>
+      <c r="K28" s="78">
         <v>0.05</v>
       </c>
-      <c r="K28" s="78">
-        <v>0.03</v>
-      </c>
       <c r="L28" s="79">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="M28" s="94">
         <v>59.99</v>
@@ -2912,7 +2912,7 @@
         <v>60</v>
       </c>
       <c r="O28" s="78">
-        <v>64.989999999999995</v>
+        <v>64.98</v>
       </c>
       <c r="P28" s="79">
         <v>64.989999999999995</v>
@@ -2929,34 +2929,34 @@
         <v>38</v>
       </c>
       <c r="B29" s="55">
-        <v>498</v>
+        <v>461</v>
       </c>
       <c r="C29" s="56">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D29" s="57">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E29" s="57">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F29" s="58">
         <v>689</v>
       </c>
       <c r="G29" s="88">
-        <v>6.3909774436090222E-2</v>
+        <v>0.13182674199623351</v>
       </c>
       <c r="H29" s="89">
-        <v>6.3694267515923567E-2</v>
+        <v>0.13924050632911392</v>
       </c>
       <c r="I29" s="98">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="J29" s="99">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="K29" s="82">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="L29" s="83">
         <v>0.01</v>
@@ -2968,7 +2968,7 @@
         <v>60</v>
       </c>
       <c r="O29" s="82">
-        <v>64.989999999999995</v>
+        <v>64.98</v>
       </c>
       <c r="P29" s="83">
         <v>64.989999999999995</v>
@@ -2986,31 +2986,31 @@
       </c>
       <c r="B30" s="65">
         <f>SUM(B6:B29)</f>
-        <v>20804</v>
+        <v>21007</v>
       </c>
       <c r="C30" s="66">
         <f t="shared" ref="C30:F30" si="0">SUM(C6:C29)</f>
-        <v>20078</v>
+        <v>20386</v>
       </c>
       <c r="D30" s="67">
         <f t="shared" si="0"/>
-        <v>7711</v>
+        <v>7509</v>
       </c>
       <c r="E30" s="67">
         <f t="shared" si="0"/>
-        <v>8432</v>
+        <v>8124</v>
       </c>
       <c r="F30" s="68">
         <f t="shared" si="0"/>
-        <v>57025</v>
+        <v>57026</v>
       </c>
       <c r="G30" s="100">
         <f>D30/B30</f>
-        <v>0.37064987502403385</v>
+        <v>0.35745227781215783</v>
       </c>
       <c r="H30" s="101">
         <f>E30/C30</f>
-        <v>0.41996214762426537</v>
+        <v>0.39850878053566174</v>
       </c>
       <c r="I30" s="71"/>
       <c r="J30" s="71"/>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="B32" s="72">
         <f>B30+C30</f>
-        <v>40882</v>
+        <v>41393</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="B33" s="72">
         <f>D30+E30</f>
-        <v>16143</v>
+        <v>15633</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="B34" s="72">
         <f>B32+B33</f>
-        <v>57025</v>
+        <v>57026</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -3342,37 +3342,37 @@
         <v>15</v>
       </c>
       <c r="B51" s="30">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="C51" s="31">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D51" s="32">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E51" s="32">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F51" s="33">
         <v>401</v>
       </c>
       <c r="G51" s="84">
-        <v>6.7961165048543687E-2</v>
+        <v>0.14239482200647249</v>
       </c>
       <c r="H51" s="85">
-        <v>5.434782608695652E-2</v>
+        <v>0.10869565217391304</v>
       </c>
       <c r="I51" s="90">
         <v>0.05</v>
       </c>
       <c r="J51" s="91">
+        <v>0.01</v>
+      </c>
+      <c r="K51" s="92">
         <v>0.02</v>
       </c>
-      <c r="K51" s="92">
+      <c r="L51" s="93">
         <v>0.01</v>
-      </c>
-      <c r="L51" s="93">
-        <v>0</v>
       </c>
       <c r="M51" s="94">
         <v>60</v>
@@ -3398,25 +3398,25 @@
         <v>16</v>
       </c>
       <c r="B52" s="30">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C52" s="31">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D52" s="32">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E52" s="32">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F52" s="33">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G52" s="84">
-        <v>6.9767441860465115E-2</v>
+        <v>0.14035087719298245</v>
       </c>
       <c r="H52" s="85">
-        <v>5.9701492537313432E-2</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="I52" s="94">
         <v>0.03</v>
@@ -3454,25 +3454,25 @@
         <v>17</v>
       </c>
       <c r="B53" s="30">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C53" s="31">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D53" s="32">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E53" s="32">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F53" s="33">
         <v>177</v>
       </c>
       <c r="G53" s="84">
-        <v>6.8965517241379309E-2</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="H53" s="85">
-        <v>4.9180327868852458E-2</v>
+        <v>0.11290322580645161</v>
       </c>
       <c r="I53" s="94">
         <v>0.02</v>
@@ -3481,7 +3481,7 @@
         <v>0.01</v>
       </c>
       <c r="K53" s="78">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L53" s="79">
         <v>0</v>
@@ -3510,25 +3510,25 @@
         <v>18</v>
       </c>
       <c r="B54" s="30">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C54" s="31">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D54" s="32">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E54" s="32">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F54" s="33">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G54" s="84">
-        <v>6.5420560747663545E-2</v>
+        <v>0.14018691588785046</v>
       </c>
       <c r="H54" s="85">
-        <v>5.5555555555555552E-2</v>
+        <v>0.112</v>
       </c>
       <c r="I54" s="94">
         <v>0.02</v>
@@ -3537,10 +3537,10 @@
         <v>0.02</v>
       </c>
       <c r="K54" s="78">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L54" s="79">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M54" s="94">
         <v>60</v>
@@ -3566,37 +3566,37 @@
         <v>19</v>
       </c>
       <c r="B55" s="30">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C55" s="31">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="D55" s="32">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E55" s="32">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F55" s="33">
         <v>495</v>
       </c>
       <c r="G55" s="84">
-        <v>6.8027210884353748E-2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="H55" s="85">
-        <v>5.459770114942529E-2</v>
+        <v>0.11206896551724138</v>
       </c>
       <c r="I55" s="94">
         <v>0.02</v>
       </c>
       <c r="J55" s="95">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="K55" s="78">
         <v>0.01</v>
       </c>
       <c r="L55" s="79">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="M55" s="94">
         <v>60</v>
@@ -3622,25 +3622,25 @@
         <v>20</v>
       </c>
       <c r="B56" s="30">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C56" s="31">
-        <v>1076</v>
+        <v>1030</v>
       </c>
       <c r="D56" s="32">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E56" s="32">
-        <v>199</v>
+        <v>244</v>
       </c>
       <c r="F56" s="33">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="G56" s="84">
-        <v>0.19642857142857142</v>
+        <v>0.24285714285714285</v>
       </c>
       <c r="H56" s="85">
-        <v>0.15607843137254901</v>
+        <v>0.19152276295133439</v>
       </c>
       <c r="I56" s="94">
         <v>0.04</v>
@@ -3649,10 +3649,10 @@
         <v>0.18</v>
       </c>
       <c r="K56" s="78">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="L56" s="79">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M56" s="94">
         <v>60</v>
@@ -3678,37 +3678,37 @@
         <v>21</v>
       </c>
       <c r="B57" s="30">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="C57" s="31">
-        <v>2912</v>
+        <v>3017</v>
       </c>
       <c r="D57" s="32">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="E57" s="32">
-        <v>1028</v>
+        <v>923</v>
       </c>
       <c r="F57" s="33">
         <v>4704</v>
       </c>
       <c r="G57" s="84">
-        <v>0.39659685863874344</v>
+        <v>0.35732984293193715</v>
       </c>
       <c r="H57" s="85">
-        <v>0.26091370558375637</v>
+        <v>0.23426395939086295</v>
       </c>
       <c r="I57" s="94">
         <v>0.08</v>
       </c>
       <c r="J57" s="95">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="K57" s="78">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="L57" s="79">
-        <v>0.56999999999999995</v>
+        <v>0.51</v>
       </c>
       <c r="M57" s="94">
         <v>59.99</v>
@@ -3720,7 +3720,7 @@
         <v>64.97</v>
       </c>
       <c r="P57" s="79">
-        <v>64.81</v>
+        <v>64.849999999999994</v>
       </c>
       <c r="Q57" s="42">
         <v>0</v>
@@ -3734,37 +3734,37 @@
         <v>22</v>
       </c>
       <c r="B58" s="45">
-        <v>754</v>
+        <v>774</v>
       </c>
       <c r="C58" s="46">
-        <v>3061</v>
+        <v>3160</v>
       </c>
       <c r="D58" s="47">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="E58" s="47">
-        <v>1082</v>
+        <v>983</v>
       </c>
       <c r="F58" s="48">
         <v>5347</v>
       </c>
       <c r="G58" s="86">
-        <v>0.37375415282392027</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="H58" s="87">
-        <v>0.26116340815833938</v>
+        <v>0.23726768042481294</v>
       </c>
       <c r="I58" s="96">
         <v>0.13</v>
       </c>
       <c r="J58" s="97">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="K58" s="80">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="L58" s="81">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M58" s="96">
         <v>59.99</v>
@@ -3776,7 +3776,7 @@
         <v>64.95</v>
       </c>
       <c r="P58" s="81">
-        <v>64.78</v>
+        <v>64.83</v>
       </c>
       <c r="Q58" s="53">
         <v>0</v>
@@ -3790,49 +3790,49 @@
         <v>23</v>
       </c>
       <c r="B59" s="45">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="C59" s="46">
-        <v>2824</v>
+        <v>2930</v>
       </c>
       <c r="D59" s="47">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E59" s="47">
-        <v>999</v>
+        <v>894</v>
       </c>
       <c r="F59" s="48">
-        <v>5069</v>
+        <v>5071</v>
       </c>
       <c r="G59" s="86">
-        <v>0.3611556982343499</v>
+        <v>0.35685645549318362</v>
       </c>
       <c r="H59" s="87">
-        <v>0.26131310489144649</v>
+        <v>0.23378661087866109</v>
       </c>
       <c r="I59" s="96">
         <v>0.14000000000000001</v>
       </c>
       <c r="J59" s="97">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="K59" s="80">
         <v>0.25</v>
       </c>
       <c r="L59" s="81">
-        <v>0.56000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="M59" s="96">
         <v>59.99</v>
       </c>
       <c r="N59" s="97">
-        <v>59.97</v>
+        <v>59.96</v>
       </c>
       <c r="O59" s="80">
         <v>64.95</v>
       </c>
       <c r="P59" s="81">
-        <v>64.819999999999993</v>
+        <v>64.86</v>
       </c>
       <c r="Q59" s="53">
         <v>0</v>
@@ -3846,37 +3846,37 @@
         <v>24</v>
       </c>
       <c r="B60" s="45">
-        <v>838</v>
+        <v>857</v>
       </c>
       <c r="C60" s="46">
-        <v>1987</v>
+        <v>2068</v>
       </c>
       <c r="D60" s="47">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="E60" s="47">
-        <v>705</v>
+        <v>624</v>
       </c>
       <c r="F60" s="48">
-        <v>3998</v>
+        <v>3999</v>
       </c>
       <c r="G60" s="86">
-        <v>0.35834609494640124</v>
+        <v>0.34429992348890587</v>
       </c>
       <c r="H60" s="87">
-        <v>0.26188707280832096</v>
+        <v>0.23179791976225855</v>
       </c>
       <c r="I60" s="96">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="J60" s="97">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="K60" s="80">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="L60" s="81">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="M60" s="96">
         <v>59.99</v>
@@ -3888,7 +3888,7 @@
         <v>64.95</v>
       </c>
       <c r="P60" s="81">
-        <v>64.91</v>
+        <v>64.92</v>
       </c>
       <c r="Q60" s="53">
         <v>0</v>
@@ -3902,34 +3902,34 @@
         <v>25</v>
       </c>
       <c r="B61" s="30">
-        <v>905</v>
+        <v>892</v>
       </c>
       <c r="C61" s="31">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="D61" s="32">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="E61" s="32">
         <v>450</v>
       </c>
       <c r="F61" s="33">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="G61" s="84">
-        <v>0.28345209817893902</v>
+        <v>0.29374505146476643</v>
       </c>
       <c r="H61" s="85">
-        <v>0.21418372203712518</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="I61" s="94">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="J61" s="95">
         <v>0.28000000000000003</v>
       </c>
       <c r="K61" s="78">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="L61" s="79">
         <v>0.25</v>
@@ -3958,25 +3958,25 @@
         <v>26</v>
       </c>
       <c r="B62" s="30">
-        <v>987</v>
+        <v>972</v>
       </c>
       <c r="C62" s="31">
-        <v>1445</v>
+        <v>1429</v>
       </c>
       <c r="D62" s="32">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="E62" s="32">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="F62" s="33">
-        <v>3241</v>
+        <v>3240</v>
       </c>
       <c r="G62" s="84">
-        <v>0.28322440087145967</v>
+        <v>0.29360465116279072</v>
       </c>
       <c r="H62" s="85">
-        <v>0.22478540772532188</v>
+        <v>0.23336909871244635</v>
       </c>
       <c r="I62" s="94">
         <v>0.17</v>
@@ -3988,7 +3988,7 @@
         <v>0.22</v>
       </c>
       <c r="L62" s="79">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="M62" s="94">
         <v>59.99</v>
@@ -3997,7 +3997,7 @@
         <v>59.99</v>
       </c>
       <c r="O62" s="78">
-        <v>64.959999999999994</v>
+        <v>64.95</v>
       </c>
       <c r="P62" s="79">
         <v>64.95</v>
@@ -4017,13 +4017,13 @@
         <v>1141</v>
       </c>
       <c r="C63" s="31">
-        <v>1321</v>
+        <v>1306</v>
       </c>
       <c r="D63" s="32">
         <v>450</v>
       </c>
       <c r="E63" s="32">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="F63" s="33">
         <v>3295</v>
@@ -4032,19 +4032,19 @@
         <v>0.28284098051539913</v>
       </c>
       <c r="H63" s="85">
-        <v>0.22476525821596244</v>
+        <v>0.2335680751173709</v>
       </c>
       <c r="I63" s="94">
         <v>0.2</v>
       </c>
       <c r="J63" s="95">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="K63" s="78">
         <v>0.25</v>
       </c>
       <c r="L63" s="79">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="M63" s="94">
         <v>59.99</v>
@@ -4070,25 +4070,25 @@
         <v>28</v>
       </c>
       <c r="B64" s="30">
-        <v>1344</v>
+        <v>1329</v>
       </c>
       <c r="C64" s="31">
-        <v>1221</v>
+        <v>1207</v>
       </c>
       <c r="D64" s="32">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="E64" s="32">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="F64" s="33">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="G64" s="84">
-        <v>0.25083612040133779</v>
+        <v>0.25919732441471571</v>
       </c>
       <c r="H64" s="85">
-        <v>0.22476190476190477</v>
+        <v>0.23316391359593391</v>
       </c>
       <c r="I64" s="94">
         <v>0.23</v>
@@ -4097,7 +4097,7 @@
         <v>0.21</v>
       </c>
       <c r="K64" s="78">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="L64" s="79">
         <v>0.2</v>
@@ -4126,37 +4126,37 @@
         <v>29</v>
       </c>
       <c r="B65" s="30">
-        <v>1643</v>
+        <v>1622</v>
       </c>
       <c r="C65" s="31">
-        <v>1261</v>
+        <v>1248</v>
       </c>
       <c r="D65" s="32">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="E65" s="32">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="F65" s="33">
-        <v>3816</v>
+        <v>3817</v>
       </c>
       <c r="G65" s="84">
-        <v>0.2494289629968022</v>
+        <v>0.25902238465052535</v>
       </c>
       <c r="H65" s="85">
-        <v>0.22495390288875231</v>
+        <v>0.2334152334152334</v>
       </c>
       <c r="I65" s="94">
         <v>0.28000000000000003</v>
       </c>
       <c r="J65" s="95">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="K65" s="78">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="L65" s="79">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="M65" s="94">
         <v>59.98</v>
@@ -4165,7 +4165,7 @@
         <v>59.99</v>
       </c>
       <c r="O65" s="78">
-        <v>64.94</v>
+        <v>64.930000000000007</v>
       </c>
       <c r="P65" s="79">
         <v>64.959999999999994</v>
@@ -4182,37 +4182,37 @@
         <v>30</v>
       </c>
       <c r="B66" s="30">
-        <v>2143</v>
+        <v>2250</v>
       </c>
       <c r="C66" s="31">
-        <v>1198</v>
+        <v>1228</v>
       </c>
       <c r="D66" s="32">
-        <v>1050</v>
+        <v>943</v>
       </c>
       <c r="E66" s="32">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="F66" s="33">
         <v>4871</v>
       </c>
       <c r="G66" s="84">
-        <v>0.32884434700908238</v>
+        <v>0.29533354212339491</v>
       </c>
       <c r="H66" s="85">
-        <v>0.28605482717520858</v>
+        <v>0.26817640047675806</v>
       </c>
       <c r="I66" s="94">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="J66" s="95">
         <v>0.21</v>
       </c>
       <c r="K66" s="78">
-        <v>0.57999999999999996</v>
+        <v>0.52</v>
       </c>
       <c r="L66" s="79">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="M66" s="94">
         <v>59.98</v>
@@ -4221,7 +4221,7 @@
         <v>59.99</v>
       </c>
       <c r="O66" s="78">
-        <v>64.8</v>
+        <v>64.84</v>
       </c>
       <c r="P66" s="79">
         <v>64.95</v>
@@ -4238,37 +4238,37 @@
         <v>31</v>
       </c>
       <c r="B67" s="45">
-        <v>2890</v>
+        <v>2952</v>
       </c>
       <c r="C67" s="46">
-        <v>1199</v>
+        <v>1229</v>
       </c>
       <c r="D67" s="47">
-        <v>1254</v>
+        <v>1192</v>
       </c>
       <c r="E67" s="47">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="F67" s="48">
         <v>5823</v>
       </c>
       <c r="G67" s="86">
-        <v>0.30260617760617758</v>
+        <v>0.28764478764478763</v>
       </c>
       <c r="H67" s="87">
-        <v>0.28588445503275761</v>
+        <v>0.26801667659321027</v>
       </c>
       <c r="I67" s="96">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J67" s="97">
         <v>0.21</v>
       </c>
       <c r="K67" s="80">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="L67" s="81">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="M67" s="96">
         <v>59.96</v>
@@ -4277,13 +4277,13 @@
         <v>59.99</v>
       </c>
       <c r="O67" s="80">
-        <v>64.64</v>
+        <v>64.7</v>
       </c>
       <c r="P67" s="81">
         <v>64.95</v>
       </c>
       <c r="Q67" s="53">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="R67" s="54">
         <v>0</v>
@@ -4294,37 +4294,37 @@
         <v>32</v>
       </c>
       <c r="B68" s="45">
-        <v>2858</v>
+        <v>2927</v>
       </c>
       <c r="C68" s="46">
-        <v>1257</v>
+        <v>1305</v>
       </c>
       <c r="D68" s="47">
-        <v>1253</v>
+        <v>1184</v>
       </c>
       <c r="E68" s="47">
-        <v>497</v>
+        <v>450</v>
       </c>
       <c r="F68" s="48">
-        <v>5865</v>
+        <v>5866</v>
       </c>
       <c r="G68" s="86">
-        <v>0.30479202140598394</v>
+        <v>0.28800778399416199</v>
       </c>
       <c r="H68" s="87">
-        <v>0.28335233751425315</v>
+        <v>0.25641025641025639</v>
       </c>
       <c r="I68" s="96">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="J68" s="97">
         <v>0.22</v>
       </c>
       <c r="K68" s="80">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="L68" s="81">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="M68" s="96">
         <v>59.96</v>
@@ -4333,13 +4333,13 @@
         <v>59.99</v>
       </c>
       <c r="O68" s="80">
-        <v>64.64</v>
+        <v>64.709999999999994</v>
       </c>
       <c r="P68" s="81">
-        <v>64.94</v>
+        <v>64.95</v>
       </c>
       <c r="Q68" s="53">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="R68" s="54">
         <v>0</v>
@@ -4350,37 +4350,37 @@
         <v>33</v>
       </c>
       <c r="B69" s="45">
-        <v>2145</v>
+        <v>2250</v>
       </c>
       <c r="C69" s="46">
-        <v>1027</v>
+        <v>1057</v>
       </c>
       <c r="D69" s="47">
-        <v>1050</v>
+        <v>945</v>
       </c>
       <c r="E69" s="47">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="F69" s="48">
         <v>4672</v>
       </c>
       <c r="G69" s="86">
-        <v>0.32863849765258218</v>
+        <v>0.29577464788732394</v>
       </c>
       <c r="H69" s="87">
-        <v>0.30467163168584971</v>
+        <v>0.28436018957345971</v>
       </c>
       <c r="I69" s="96">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="J69" s="97">
         <v>0.18</v>
       </c>
       <c r="K69" s="80">
-        <v>0.57999999999999996</v>
+        <v>0.52</v>
       </c>
       <c r="L69" s="81">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="M69" s="96">
         <v>59.98</v>
@@ -4389,7 +4389,7 @@
         <v>59.99</v>
       </c>
       <c r="O69" s="80">
-        <v>64.8</v>
+        <v>64.84</v>
       </c>
       <c r="P69" s="81">
         <v>64.95</v>
@@ -4406,25 +4406,25 @@
         <v>34</v>
       </c>
       <c r="B70" s="30">
-        <v>1598</v>
+        <v>1577</v>
       </c>
       <c r="C70" s="31">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="D70" s="32">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="E70" s="32">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F70" s="33">
-        <v>3117</v>
+        <v>3115</v>
       </c>
       <c r="G70" s="84">
-        <v>0.24976525821596243</v>
+        <v>0.25927665570690467</v>
       </c>
       <c r="H70" s="85">
-        <v>0.22492401215805471</v>
+        <v>0.23326572008113591</v>
       </c>
       <c r="I70" s="94">
         <v>0.27</v>
@@ -4433,10 +4433,10 @@
         <v>0.13</v>
       </c>
       <c r="K70" s="78">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="L70" s="79">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="M70" s="94">
         <v>59.99</v>
@@ -4451,7 +4451,7 @@
         <v>64.97</v>
       </c>
       <c r="Q70" s="42">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="R70" s="43">
         <v>0</v>
@@ -4462,25 +4462,25 @@
         <v>35</v>
       </c>
       <c r="B71" s="30">
-        <v>1099</v>
+        <v>1083</v>
       </c>
       <c r="C71" s="31">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D71" s="32">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="E71" s="32">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F71" s="33">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="G71" s="84">
-        <v>0.28310502283105021</v>
+        <v>0.29308093994778067</v>
       </c>
       <c r="H71" s="85">
-        <v>0.22530864197530864</v>
+        <v>0.2330246913580247</v>
       </c>
       <c r="I71" s="94">
         <v>0.19</v>
@@ -4489,7 +4489,7 @@
         <v>0.09</v>
       </c>
       <c r="K71" s="78">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="L71" s="79">
         <v>0.08</v>
@@ -4518,37 +4518,37 @@
         <v>36</v>
       </c>
       <c r="B72" s="30">
-        <v>1003</v>
+        <v>947</v>
       </c>
       <c r="C72" s="31">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="D72" s="32">
-        <v>246</v>
+        <v>302</v>
       </c>
       <c r="E72" s="32">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F72" s="33">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="G72" s="84">
-        <v>0.19695756605284229</v>
+        <v>0.24179343474779824</v>
       </c>
       <c r="H72" s="85">
-        <v>0.15551181102362205</v>
+        <v>0.19132149901380671</v>
       </c>
       <c r="I72" s="94">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="J72" s="95">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K72" s="78">
-        <v>0.14000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="L72" s="79">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="M72" s="94">
         <v>59.99</v>
@@ -4574,37 +4574,37 @@
         <v>37</v>
       </c>
       <c r="B73" s="30">
-        <v>844</v>
+        <v>778</v>
       </c>
       <c r="C73" s="31">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="D73" s="32">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="E73" s="32">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F73" s="33">
         <v>1250</v>
       </c>
       <c r="G73" s="84">
-        <v>6.8432671081677707E-2</v>
+        <v>0.141280353200883</v>
       </c>
       <c r="H73" s="85">
-        <v>5.232558139534884E-2</v>
+        <v>0.11046511627906977</v>
       </c>
       <c r="I73" s="94">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="J73" s="95">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="K73" s="78">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L73" s="79">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="M73" s="94">
         <v>59.99</v>
@@ -4613,7 +4613,7 @@
         <v>60</v>
       </c>
       <c r="O73" s="78">
-        <v>64.989999999999995</v>
+        <v>64.98</v>
       </c>
       <c r="P73" s="79">
         <v>64.989999999999995</v>
@@ -4630,25 +4630,25 @@
         <v>38</v>
       </c>
       <c r="B74" s="55">
-        <v>607</v>
+        <v>560</v>
       </c>
       <c r="C74" s="56">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D74" s="57">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="E74" s="57">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F74" s="58">
         <v>843</v>
       </c>
       <c r="G74" s="88">
-        <v>6.9018404907975464E-2</v>
+        <v>0.1411042944785276</v>
       </c>
       <c r="H74" s="89">
-        <v>5.2356020942408377E-2</v>
+        <v>0.1099476439790576</v>
       </c>
       <c r="I74" s="98">
         <v>0.1</v>
@@ -4657,7 +4657,7 @@
         <v>0.03</v>
       </c>
       <c r="K74" s="82">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="L74" s="83">
         <v>0.01</v>
@@ -4669,7 +4669,7 @@
         <v>60</v>
       </c>
       <c r="O74" s="82">
-        <v>64.989999999999995</v>
+        <v>64.98</v>
       </c>
       <c r="P74" s="83">
         <v>64.989999999999995</v>
@@ -4687,31 +4687,31 @@
       </c>
       <c r="B75" s="65">
         <f>SUM(B51:B74)</f>
-        <v>25074</v>
+        <v>25145</v>
       </c>
       <c r="C75" s="66">
         <f t="shared" ref="C75" si="1">SUM(C51:C74)</f>
-        <v>26299</v>
+        <v>26620</v>
       </c>
       <c r="D75" s="67">
         <f t="shared" ref="D75" si="2">SUM(D51:D74)</f>
-        <v>9904</v>
+        <v>9830</v>
       </c>
       <c r="E75" s="67">
         <f t="shared" ref="E75" si="3">SUM(E51:E74)</f>
-        <v>8405</v>
+        <v>8082</v>
       </c>
       <c r="F75" s="68">
         <f t="shared" ref="F75" si="4">SUM(F51:F74)</f>
-        <v>69682</v>
+        <v>69677</v>
       </c>
       <c r="G75" s="100">
         <f>D75/B75</f>
-        <v>0.3949908271516312</v>
+        <v>0.39093259097236033</v>
       </c>
       <c r="H75" s="101">
         <f>E75/C75</f>
-        <v>0.31959390090877982</v>
+        <v>0.30360631104432756</v>
       </c>
       <c r="I75" s="71"/>
       <c r="J75" s="71"/>
@@ -4724,7 +4724,7 @@
       </c>
       <c r="B77" s="72">
         <f>B75+C75</f>
-        <v>51373</v>
+        <v>51765</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="B78" s="72">
         <f>D75+E75</f>
-        <v>18309</v>
+        <v>17912</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="B79" s="72">
         <f>B77+B78</f>
-        <v>69682</v>
+        <v>69677</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
@@ -15236,16 +15236,64 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="B723:F723"/>
+    <mergeCell ref="G723:H723"/>
+    <mergeCell ref="I723:L723"/>
+    <mergeCell ref="M723:P723"/>
+    <mergeCell ref="Q723:R723"/>
+    <mergeCell ref="B633:F633"/>
+    <mergeCell ref="G633:H633"/>
+    <mergeCell ref="I633:L633"/>
+    <mergeCell ref="M633:P633"/>
+    <mergeCell ref="Q633:R633"/>
+    <mergeCell ref="B678:F678"/>
+    <mergeCell ref="G678:H678"/>
+    <mergeCell ref="I678:L678"/>
+    <mergeCell ref="M678:P678"/>
+    <mergeCell ref="Q678:R678"/>
+    <mergeCell ref="B543:F543"/>
+    <mergeCell ref="G543:H543"/>
+    <mergeCell ref="I543:L543"/>
+    <mergeCell ref="M543:P543"/>
+    <mergeCell ref="Q543:R543"/>
+    <mergeCell ref="B588:F588"/>
+    <mergeCell ref="G588:H588"/>
+    <mergeCell ref="I588:L588"/>
+    <mergeCell ref="M588:P588"/>
+    <mergeCell ref="Q588:R588"/>
+    <mergeCell ref="B453:F453"/>
+    <mergeCell ref="G453:H453"/>
+    <mergeCell ref="I453:L453"/>
+    <mergeCell ref="M453:P453"/>
+    <mergeCell ref="Q453:R453"/>
+    <mergeCell ref="B498:F498"/>
+    <mergeCell ref="G498:H498"/>
+    <mergeCell ref="I498:L498"/>
+    <mergeCell ref="M498:P498"/>
+    <mergeCell ref="Q498:R498"/>
+    <mergeCell ref="Q408:R408"/>
+    <mergeCell ref="B363:F363"/>
+    <mergeCell ref="G363:H363"/>
+    <mergeCell ref="I363:L363"/>
+    <mergeCell ref="M363:P363"/>
+    <mergeCell ref="Q363:R363"/>
+    <mergeCell ref="G228:H228"/>
+    <mergeCell ref="I228:L228"/>
+    <mergeCell ref="M228:P228"/>
+    <mergeCell ref="B408:F408"/>
+    <mergeCell ref="G408:H408"/>
+    <mergeCell ref="I408:L408"/>
+    <mergeCell ref="M408:P408"/>
+    <mergeCell ref="B273:F273"/>
+    <mergeCell ref="G273:H273"/>
+    <mergeCell ref="I273:L273"/>
+    <mergeCell ref="M273:P273"/>
+    <mergeCell ref="Q273:R273"/>
+    <mergeCell ref="B318:F318"/>
+    <mergeCell ref="G318:H318"/>
+    <mergeCell ref="I318:L318"/>
+    <mergeCell ref="M318:P318"/>
+    <mergeCell ref="Q318:R318"/>
     <mergeCell ref="Q228:R228"/>
     <mergeCell ref="B93:F93"/>
     <mergeCell ref="G93:H93"/>
@@ -15262,64 +15310,16 @@
     <mergeCell ref="I183:L183"/>
     <mergeCell ref="M183:P183"/>
     <mergeCell ref="Q183:R183"/>
-    <mergeCell ref="Q273:R273"/>
-    <mergeCell ref="B318:F318"/>
-    <mergeCell ref="G318:H318"/>
-    <mergeCell ref="I318:L318"/>
-    <mergeCell ref="M318:P318"/>
-    <mergeCell ref="Q318:R318"/>
-    <mergeCell ref="G228:H228"/>
-    <mergeCell ref="I228:L228"/>
-    <mergeCell ref="M228:P228"/>
-    <mergeCell ref="B408:F408"/>
-    <mergeCell ref="G408:H408"/>
-    <mergeCell ref="I408:L408"/>
-    <mergeCell ref="M408:P408"/>
-    <mergeCell ref="B273:F273"/>
-    <mergeCell ref="G273:H273"/>
-    <mergeCell ref="I273:L273"/>
-    <mergeCell ref="M273:P273"/>
-    <mergeCell ref="Q408:R408"/>
-    <mergeCell ref="B363:F363"/>
-    <mergeCell ref="G363:H363"/>
-    <mergeCell ref="I363:L363"/>
-    <mergeCell ref="M363:P363"/>
-    <mergeCell ref="Q363:R363"/>
-    <mergeCell ref="B498:F498"/>
-    <mergeCell ref="G498:H498"/>
-    <mergeCell ref="I498:L498"/>
-    <mergeCell ref="M498:P498"/>
-    <mergeCell ref="Q498:R498"/>
-    <mergeCell ref="B453:F453"/>
-    <mergeCell ref="G453:H453"/>
-    <mergeCell ref="I453:L453"/>
-    <mergeCell ref="M453:P453"/>
-    <mergeCell ref="Q453:R453"/>
-    <mergeCell ref="B588:F588"/>
-    <mergeCell ref="G588:H588"/>
-    <mergeCell ref="I588:L588"/>
-    <mergeCell ref="M588:P588"/>
-    <mergeCell ref="Q588:R588"/>
-    <mergeCell ref="B543:F543"/>
-    <mergeCell ref="G543:H543"/>
-    <mergeCell ref="I543:L543"/>
-    <mergeCell ref="M543:P543"/>
-    <mergeCell ref="Q543:R543"/>
-    <mergeCell ref="B678:F678"/>
-    <mergeCell ref="G678:H678"/>
-    <mergeCell ref="I678:L678"/>
-    <mergeCell ref="M678:P678"/>
-    <mergeCell ref="Q678:R678"/>
-    <mergeCell ref="B633:F633"/>
-    <mergeCell ref="G633:H633"/>
-    <mergeCell ref="I633:L633"/>
-    <mergeCell ref="M633:P633"/>
-    <mergeCell ref="Q633:R633"/>
-    <mergeCell ref="B723:F723"/>
-    <mergeCell ref="G723:H723"/>
-    <mergeCell ref="I723:L723"/>
-    <mergeCell ref="M723:P723"/>
-    <mergeCell ref="Q723:R723"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="Q48:R48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analysis & Profiles/Output_2020A2.xlsx
+++ b/Analysis & Profiles/Output_2020A2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Projects\Veterans ELToDv2.3 2017-0628\Analysis &amp; Profiles\Veterans 2017-0801_newpp_revisedparams_aawdt_for_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Projects\Veterans ELToDv2.3 2017-0628\Analysis &amp; Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1183,6 +1183,55 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>116542</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>545279</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47371</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8973671" y="1613647"/>
+          <a:ext cx="8066667" cy="2028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1448,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R764"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U44" sqref="U44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,25 +1690,25 @@
         <v>15</v>
       </c>
       <c r="B6" s="30">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="C6" s="31">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D6" s="32">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E6" s="32">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F6" s="33">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G6" s="84">
-        <v>0.13147410358565736</v>
+        <v>7.1713147410358571E-2</v>
       </c>
       <c r="H6" s="85">
-        <v>0.13333333333333333</v>
+        <v>7.8947368421052627E-2</v>
       </c>
       <c r="I6" s="90">
         <v>0.04</v>
@@ -1668,10 +1717,10 @@
         <v>0.01</v>
       </c>
       <c r="K6" s="92">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="L6" s="93">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M6" s="94">
         <v>60</v>
@@ -1697,25 +1746,25 @@
         <v>16</v>
       </c>
       <c r="B7" s="30">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C7" s="31">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D7" s="32">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E7" s="32">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F7" s="33">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G7" s="84">
-        <v>0.1357142857142857</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="H7" s="85">
-        <v>0.14285714285714285</v>
+        <v>7.2727272727272724E-2</v>
       </c>
       <c r="I7" s="94">
         <v>0.02</v>
@@ -1753,34 +1802,34 @@
         <v>17</v>
       </c>
       <c r="B8" s="30">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C8" s="31">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D8" s="32">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E8" s="32">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F8" s="33">
         <v>145</v>
       </c>
       <c r="G8" s="84">
-        <v>0.1276595744680851</v>
+        <v>7.4468085106382975E-2</v>
       </c>
       <c r="H8" s="85">
-        <v>0.13725490196078433</v>
+        <v>7.8431372549019607E-2</v>
       </c>
       <c r="I8" s="94">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J8" s="95">
         <v>0.01</v>
       </c>
       <c r="K8" s="78">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L8" s="79">
         <v>0</v>
@@ -1809,25 +1858,25 @@
         <v>18</v>
       </c>
       <c r="B9" s="30">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C9" s="31">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D9" s="32">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E9" s="32">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F9" s="33">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G9" s="84">
-        <v>0.13636363636363635</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="H9" s="85">
-        <v>0.13592233009708737</v>
+        <v>7.7669902912621352E-2</v>
       </c>
       <c r="I9" s="94">
         <v>0.01</v>
@@ -1836,10 +1885,10 @@
         <v>0.02</v>
       </c>
       <c r="K9" s="78">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L9" s="79">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M9" s="94">
         <v>60</v>
@@ -1865,37 +1914,37 @@
         <v>19</v>
       </c>
       <c r="B10" s="30">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C10" s="31">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="D10" s="32">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E10" s="32">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F10" s="33">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G10" s="84">
-        <v>0.13333333333333333</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H10" s="85">
-        <v>0.13636363636363635</v>
+        <v>7.3684210526315783E-2</v>
       </c>
       <c r="I10" s="94">
         <v>0.02</v>
       </c>
       <c r="J10" s="95">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="K10" s="78">
+        <v>0</v>
+      </c>
+      <c r="L10" s="79">
         <v>0.01</v>
-      </c>
-      <c r="L10" s="79">
-        <v>0.02</v>
       </c>
       <c r="M10" s="94">
         <v>60</v>
@@ -1921,37 +1970,37 @@
         <v>20</v>
       </c>
       <c r="B11" s="30">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C11" s="31">
-        <v>801</v>
+        <v>883</v>
       </c>
       <c r="D11" s="32">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E11" s="32">
-        <v>247</v>
+        <v>165</v>
       </c>
       <c r="F11" s="33">
         <v>1277</v>
       </c>
       <c r="G11" s="84">
-        <v>0.22707423580786026</v>
+        <v>0.15283842794759825</v>
       </c>
       <c r="H11" s="85">
-        <v>0.23568702290076335</v>
+        <v>0.15744274809160305</v>
       </c>
       <c r="I11" s="94">
         <v>0.03</v>
       </c>
       <c r="J11" s="95">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="K11" s="78">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="L11" s="79">
-        <v>0.14000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="M11" s="94">
         <v>60</v>
@@ -1963,7 +2012,7 @@
         <v>64.989999999999995</v>
       </c>
       <c r="P11" s="79">
-        <v>64.97</v>
+        <v>64.98</v>
       </c>
       <c r="Q11" s="42">
         <v>0</v>
@@ -1977,49 +2026,49 @@
         <v>21</v>
       </c>
       <c r="B12" s="30">
-        <v>414</v>
+        <v>450</v>
       </c>
       <c r="C12" s="31">
-        <v>2309</v>
+        <v>2477</v>
       </c>
       <c r="D12" s="32">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E12" s="32">
-        <v>927</v>
+        <v>759</v>
       </c>
       <c r="F12" s="33">
         <v>3859</v>
       </c>
       <c r="G12" s="84">
-        <v>0.33547351524879615</v>
+        <v>0.27768860353130015</v>
       </c>
       <c r="H12" s="85">
-        <v>0.28646477132262049</v>
+        <v>0.23454882571075403</v>
       </c>
       <c r="I12" s="94">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="J12" s="95">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="K12" s="78">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="L12" s="79">
-        <v>0.52</v>
+        <v>0.42</v>
       </c>
       <c r="M12" s="94">
         <v>59.99</v>
       </c>
       <c r="N12" s="95">
-        <v>59.98</v>
+        <v>59.97</v>
       </c>
       <c r="O12" s="78">
-        <v>64.97</v>
+        <v>64.98</v>
       </c>
       <c r="P12" s="79">
-        <v>64.849999999999994</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="Q12" s="42">
         <v>0</v>
@@ -2033,37 +2082,37 @@
         <v>22</v>
       </c>
       <c r="B13" s="45">
-        <v>652</v>
+        <v>710</v>
       </c>
       <c r="C13" s="46">
-        <v>2420</v>
+        <v>2584</v>
       </c>
       <c r="D13" s="47">
-        <v>330</v>
+        <v>272</v>
       </c>
       <c r="E13" s="47">
-        <v>984</v>
+        <v>819</v>
       </c>
       <c r="F13" s="48">
-        <v>4386</v>
+        <v>4385</v>
       </c>
       <c r="G13" s="86">
-        <v>0.33604887983706722</v>
+        <v>0.27698574338085541</v>
       </c>
       <c r="H13" s="87">
-        <v>0.28907168037602821</v>
+        <v>0.2406699970614164</v>
       </c>
       <c r="I13" s="96">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="J13" s="97">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="K13" s="80">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="L13" s="81">
-        <v>0.55000000000000004</v>
+        <v>0.46</v>
       </c>
       <c r="M13" s="96">
         <v>59.99</v>
@@ -2072,10 +2121,10 @@
         <v>59.97</v>
       </c>
       <c r="O13" s="80">
-        <v>64.959999999999994</v>
+        <v>64.97</v>
       </c>
       <c r="P13" s="81">
-        <v>64.83</v>
+        <v>64.88</v>
       </c>
       <c r="Q13" s="53">
         <v>0</v>
@@ -2089,49 +2138,49 @@
         <v>23</v>
       </c>
       <c r="B14" s="45">
-        <v>675</v>
+        <v>735</v>
       </c>
       <c r="C14" s="46">
-        <v>2242</v>
+        <v>2409</v>
       </c>
       <c r="D14" s="47">
-        <v>341</v>
+        <v>281</v>
       </c>
       <c r="E14" s="47">
-        <v>898</v>
+        <v>732</v>
       </c>
       <c r="F14" s="48">
-        <v>4156</v>
+        <v>4157</v>
       </c>
       <c r="G14" s="86">
-        <v>0.33562992125984253</v>
+        <v>0.27657480314960631</v>
       </c>
       <c r="H14" s="87">
-        <v>0.28598726114649681</v>
+        <v>0.23304680038204392</v>
       </c>
       <c r="I14" s="96">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="J14" s="97">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="K14" s="80">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="L14" s="81">
-        <v>0.5</v>
+        <v>0.41</v>
       </c>
       <c r="M14" s="96">
         <v>59.99</v>
       </c>
       <c r="N14" s="97">
-        <v>59.98</v>
+        <v>59.97</v>
       </c>
       <c r="O14" s="80">
-        <v>64.959999999999994</v>
+        <v>64.97</v>
       </c>
       <c r="P14" s="81">
-        <v>64.86</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="Q14" s="53">
         <v>0</v>
@@ -2145,55 +2194,55 @@
         <v>24</v>
       </c>
       <c r="B15" s="45">
-        <v>718</v>
+        <v>770</v>
       </c>
       <c r="C15" s="46">
-        <v>1582</v>
+        <v>1686</v>
       </c>
       <c r="D15" s="47">
-        <v>347</v>
+        <v>295</v>
       </c>
       <c r="E15" s="47">
-        <v>629</v>
+        <v>526</v>
       </c>
       <c r="F15" s="48">
-        <v>3276</v>
+        <v>3277</v>
       </c>
       <c r="G15" s="86">
-        <v>0.32582159624413143</v>
+        <v>0.27699530516431925</v>
       </c>
       <c r="H15" s="87">
-        <v>0.28448665762098596</v>
+        <v>0.23779385171790235</v>
       </c>
       <c r="I15" s="96">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="J15" s="97">
-        <v>0.27</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K15" s="80">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="L15" s="81">
-        <v>0.35</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M15" s="96">
         <v>59.99</v>
       </c>
       <c r="N15" s="97">
-        <v>59.99</v>
+        <v>59.98</v>
       </c>
       <c r="O15" s="80">
-        <v>64.959999999999994</v>
+        <v>64.97</v>
       </c>
       <c r="P15" s="81">
-        <v>64.92</v>
+        <v>64.94</v>
       </c>
       <c r="Q15" s="53">
         <v>0</v>
       </c>
       <c r="R15" s="54">
-        <v>0.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -2201,37 +2250,37 @@
         <v>25</v>
       </c>
       <c r="B16" s="30">
-        <v>745</v>
+        <v>818</v>
       </c>
       <c r="C16" s="31">
-        <v>1275</v>
+        <v>1359</v>
       </c>
       <c r="D16" s="32">
-        <v>284</v>
+        <v>211</v>
       </c>
       <c r="E16" s="32">
-        <v>450</v>
+        <v>366</v>
       </c>
       <c r="F16" s="33">
         <v>2754</v>
       </c>
       <c r="G16" s="84">
-        <v>0.2759961127308066</v>
+        <v>0.20505344995140914</v>
       </c>
       <c r="H16" s="85">
-        <v>0.2608695652173913</v>
+        <v>0.21217391304347827</v>
       </c>
       <c r="I16" s="94">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J16" s="95">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="K16" s="78">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="L16" s="79">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="M16" s="94">
         <v>59.99</v>
@@ -2243,7 +2292,7 @@
         <v>64.97</v>
       </c>
       <c r="P16" s="79">
-        <v>64.95</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="Q16" s="42">
         <v>0</v>
@@ -2257,37 +2306,37 @@
         <v>26</v>
       </c>
       <c r="B17" s="30">
-        <v>813</v>
+        <v>892</v>
       </c>
       <c r="C17" s="31">
-        <v>1093</v>
+        <v>1206</v>
       </c>
       <c r="D17" s="32">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="E17" s="32">
-        <v>439</v>
+        <v>325</v>
       </c>
       <c r="F17" s="33">
-        <v>2655</v>
+        <v>2653</v>
       </c>
       <c r="G17" s="84">
-        <v>0.27604630454140694</v>
+        <v>0.20499108734402852</v>
       </c>
       <c r="H17" s="85">
-        <v>0.28655352480417756</v>
+        <v>0.2122795558458524</v>
       </c>
       <c r="I17" s="94">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="J17" s="95">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="K17" s="78">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="L17" s="79">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="M17" s="94">
         <v>59.99</v>
@@ -2296,10 +2345,10 @@
         <v>59.99</v>
       </c>
       <c r="O17" s="78">
+        <v>64.97</v>
+      </c>
+      <c r="P17" s="79">
         <v>64.959999999999994</v>
-      </c>
-      <c r="P17" s="79">
-        <v>64.95</v>
       </c>
       <c r="Q17" s="42">
         <v>0</v>
@@ -2313,37 +2362,37 @@
         <v>27</v>
       </c>
       <c r="B18" s="30">
-        <v>950</v>
+        <v>1031</v>
       </c>
       <c r="C18" s="31">
-        <v>999</v>
+        <v>1103</v>
       </c>
       <c r="D18" s="32">
-        <v>347</v>
+        <v>266</v>
       </c>
       <c r="E18" s="32">
-        <v>401</v>
+        <v>297</v>
       </c>
       <c r="F18" s="33">
         <v>2697</v>
       </c>
       <c r="G18" s="84">
-        <v>0.26754047802621433</v>
+        <v>0.20508866615265997</v>
       </c>
       <c r="H18" s="85">
-        <v>0.28642857142857142</v>
+        <v>0.21214285714285713</v>
       </c>
       <c r="I18" s="94">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="J18" s="95">
+        <v>0.19</v>
+      </c>
+      <c r="K18" s="78">
+        <v>0.15</v>
+      </c>
+      <c r="L18" s="79">
         <v>0.17</v>
-      </c>
-      <c r="K18" s="78">
-        <v>0.19</v>
-      </c>
-      <c r="L18" s="79">
-        <v>0.22</v>
       </c>
       <c r="M18" s="94">
         <v>59.99</v>
@@ -2352,10 +2401,10 @@
         <v>59.99</v>
       </c>
       <c r="O18" s="78">
-        <v>64.959999999999994</v>
+        <v>64.97</v>
       </c>
       <c r="P18" s="79">
-        <v>64.959999999999994</v>
+        <v>64.97</v>
       </c>
       <c r="Q18" s="42">
         <v>0</v>
@@ -2369,37 +2418,37 @@
         <v>28</v>
       </c>
       <c r="B19" s="30">
-        <v>1098</v>
+        <v>1163</v>
       </c>
       <c r="C19" s="31">
-        <v>923</v>
+        <v>1019</v>
       </c>
       <c r="D19" s="32">
-        <v>364</v>
+        <v>300</v>
       </c>
       <c r="E19" s="32">
-        <v>371</v>
+        <v>275</v>
       </c>
       <c r="F19" s="33">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="G19" s="84">
-        <v>0.24897400820793433</v>
+        <v>0.20505809979494191</v>
       </c>
       <c r="H19" s="85">
-        <v>0.28670788253477592</v>
+        <v>0.21251931993817619</v>
       </c>
       <c r="I19" s="94">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="J19" s="95">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="K19" s="78">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="L19" s="79">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="M19" s="94">
         <v>59.99</v>
@@ -2408,10 +2457,10 @@
         <v>59.99</v>
       </c>
       <c r="O19" s="78">
-        <v>64.959999999999994</v>
+        <v>64.97</v>
       </c>
       <c r="P19" s="79">
-        <v>64.959999999999994</v>
+        <v>64.97</v>
       </c>
       <c r="Q19" s="42">
         <v>0</v>
@@ -2425,37 +2474,37 @@
         <v>29</v>
       </c>
       <c r="B20" s="30">
-        <v>1340</v>
+        <v>1436</v>
       </c>
       <c r="C20" s="31">
-        <v>954</v>
+        <v>1053</v>
       </c>
       <c r="D20" s="32">
-        <v>444</v>
+        <v>348</v>
       </c>
       <c r="E20" s="32">
-        <v>383</v>
+        <v>284</v>
       </c>
       <c r="F20" s="33">
         <v>3121</v>
       </c>
       <c r="G20" s="84">
-        <v>0.24887892376681614</v>
+        <v>0.19506726457399104</v>
       </c>
       <c r="H20" s="85">
-        <v>0.28646222887060585</v>
+        <v>0.21241585639491398</v>
       </c>
       <c r="I20" s="94">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="J20" s="95">
+        <v>0.18</v>
+      </c>
+      <c r="K20" s="78">
+        <v>0.19</v>
+      </c>
+      <c r="L20" s="79">
         <v>0.16</v>
-      </c>
-      <c r="K20" s="78">
-        <v>0.25</v>
-      </c>
-      <c r="L20" s="79">
-        <v>0.21</v>
       </c>
       <c r="M20" s="94">
         <v>59.99</v>
@@ -2464,10 +2513,10 @@
         <v>59.99</v>
       </c>
       <c r="O20" s="78">
-        <v>64.95</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="P20" s="79">
-        <v>64.959999999999994</v>
+        <v>64.97</v>
       </c>
       <c r="Q20" s="42">
         <v>0</v>
@@ -2481,37 +2530,37 @@
         <v>30</v>
       </c>
       <c r="B21" s="30">
-        <v>1897</v>
+        <v>2031</v>
       </c>
       <c r="C21" s="31">
-        <v>928</v>
+        <v>982</v>
       </c>
       <c r="D21" s="32">
-        <v>707</v>
+        <v>572</v>
       </c>
       <c r="E21" s="32">
-        <v>450</v>
+        <v>396</v>
       </c>
       <c r="F21" s="33">
-        <v>3982</v>
+        <v>3981</v>
       </c>
       <c r="G21" s="84">
-        <v>0.271505376344086</v>
+        <v>0.21974644640799079</v>
       </c>
       <c r="H21" s="85">
-        <v>0.32656023222060959</v>
+        <v>0.28737300435413643</v>
       </c>
       <c r="I21" s="94">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="J21" s="95">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="K21" s="78">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="L21" s="79">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="M21" s="94">
         <v>59.98</v>
@@ -2520,10 +2569,10 @@
         <v>59.99</v>
       </c>
       <c r="O21" s="78">
-        <v>64.91</v>
+        <v>64.930000000000007</v>
       </c>
       <c r="P21" s="79">
-        <v>64.95</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="Q21" s="42">
         <v>0.23</v>
@@ -2537,37 +2586,37 @@
         <v>31</v>
       </c>
       <c r="B22" s="45">
-        <v>2477</v>
+        <v>2635</v>
       </c>
       <c r="C22" s="46">
-        <v>929</v>
+        <v>983</v>
       </c>
       <c r="D22" s="47">
-        <v>902</v>
+        <v>743</v>
       </c>
       <c r="E22" s="47">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="F22" s="48">
         <v>4758</v>
       </c>
       <c r="G22" s="86">
-        <v>0.26694288250961823</v>
+        <v>0.21995263469508586</v>
       </c>
       <c r="H22" s="87">
-        <v>0.32632342277012327</v>
+        <v>0.28768115942028988</v>
       </c>
       <c r="I22" s="96">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="J22" s="97">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="K22" s="80">
-        <v>0.5</v>
+        <v>0.41</v>
       </c>
       <c r="L22" s="81">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="M22" s="96">
         <v>59.97</v>
@@ -2576,10 +2625,10 @@
         <v>59.99</v>
       </c>
       <c r="O22" s="80">
-        <v>64.86</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="P22" s="81">
-        <v>64.95</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="Q22" s="53">
         <v>0.23</v>
@@ -2593,37 +2642,37 @@
         <v>32</v>
       </c>
       <c r="B23" s="45">
-        <v>2456</v>
+        <v>2614</v>
       </c>
       <c r="C23" s="46">
-        <v>991</v>
+        <v>1027</v>
       </c>
       <c r="D23" s="47">
-        <v>896</v>
+        <v>737</v>
       </c>
       <c r="E23" s="47">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="F23" s="48">
-        <v>4793</v>
+        <v>4792</v>
       </c>
       <c r="G23" s="86">
-        <v>0.26730310262529833</v>
+        <v>0.21993434795583408</v>
       </c>
       <c r="H23" s="87">
-        <v>0.31228313671061764</v>
+        <v>0.28730048577376821</v>
       </c>
       <c r="I23" s="96">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="J23" s="97">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="K23" s="80">
-        <v>0.5</v>
+        <v>0.41</v>
       </c>
       <c r="L23" s="81">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="M23" s="96">
         <v>59.97</v>
@@ -2632,7 +2681,7 @@
         <v>59.99</v>
       </c>
       <c r="O23" s="80">
-        <v>64.86</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="P23" s="81">
         <v>64.95</v>
@@ -2649,37 +2698,37 @@
         <v>33</v>
       </c>
       <c r="B24" s="45">
-        <v>1897</v>
+        <v>2032</v>
       </c>
       <c r="C24" s="46">
-        <v>790</v>
+        <v>865</v>
       </c>
       <c r="D24" s="47">
-        <v>708</v>
+        <v>572</v>
       </c>
       <c r="E24" s="47">
-        <v>424</v>
+        <v>349</v>
       </c>
       <c r="F24" s="48">
-        <v>3819</v>
+        <v>3818</v>
       </c>
       <c r="G24" s="86">
-        <v>0.27178502879078698</v>
+        <v>0.2196620583717358</v>
       </c>
       <c r="H24" s="87">
-        <v>0.34925864909390447</v>
+        <v>0.28747940691927515</v>
       </c>
       <c r="I24" s="96">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="J24" s="97">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="K24" s="80">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="L24" s="81">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="M24" s="96">
         <v>59.98</v>
@@ -2688,10 +2737,10 @@
         <v>59.99</v>
       </c>
       <c r="O24" s="80">
-        <v>64.91</v>
+        <v>64.930000000000007</v>
       </c>
       <c r="P24" s="81">
-        <v>64.95</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="Q24" s="53">
         <v>0.23</v>
@@ -2705,37 +2754,37 @@
         <v>34</v>
       </c>
       <c r="B25" s="30">
-        <v>1303</v>
+        <v>1390</v>
       </c>
       <c r="C25" s="31">
-        <v>578</v>
+        <v>638</v>
       </c>
       <c r="D25" s="32">
-        <v>433</v>
+        <v>346</v>
       </c>
       <c r="E25" s="32">
-        <v>232</v>
+        <v>172</v>
       </c>
       <c r="F25" s="33">
         <v>2546</v>
       </c>
       <c r="G25" s="84">
-        <v>0.24942396313364054</v>
+        <v>0.19930875576036866</v>
       </c>
       <c r="H25" s="85">
-        <v>0.28641975308641976</v>
+        <v>0.21234567901234569</v>
       </c>
       <c r="I25" s="94">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="J25" s="95">
+        <v>0.11</v>
+      </c>
+      <c r="K25" s="78">
+        <v>0.19</v>
+      </c>
+      <c r="L25" s="79">
         <v>0.1</v>
-      </c>
-      <c r="K25" s="78">
-        <v>0.24</v>
-      </c>
-      <c r="L25" s="79">
-        <v>0.13</v>
       </c>
       <c r="M25" s="94">
         <v>59.99</v>
@@ -2744,10 +2793,10 @@
         <v>59.99</v>
       </c>
       <c r="O25" s="78">
-        <v>64.95</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="P25" s="79">
-        <v>64.97</v>
+        <v>64.98</v>
       </c>
       <c r="Q25" s="42">
         <v>0</v>
@@ -2761,46 +2810,46 @@
         <v>35</v>
       </c>
       <c r="B26" s="30">
-        <v>905</v>
+        <v>994</v>
       </c>
       <c r="C26" s="31">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="D26" s="32">
-        <v>344</v>
+        <v>255</v>
       </c>
       <c r="E26" s="32">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="F26" s="33">
         <v>1781</v>
       </c>
       <c r="G26" s="84">
-        <v>0.27542033626901519</v>
+        <v>0.20416333066453163</v>
       </c>
       <c r="H26" s="85">
-        <v>0.2857142857142857</v>
+        <v>0.21240601503759399</v>
       </c>
       <c r="I26" s="94">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="J26" s="95">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K26" s="78">
-        <v>0.19</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L26" s="79">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="M26" s="94">
         <v>59.99</v>
       </c>
       <c r="N26" s="95">
-        <v>60</v>
+        <v>59.99</v>
       </c>
       <c r="O26" s="78">
-        <v>64.959999999999994</v>
+        <v>64.97</v>
       </c>
       <c r="P26" s="79">
         <v>64.98</v>
@@ -2817,37 +2866,37 @@
         <v>36</v>
       </c>
       <c r="B27" s="30">
-        <v>787</v>
+        <v>864</v>
       </c>
       <c r="C27" s="31">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="D27" s="32">
-        <v>231</v>
+        <v>155</v>
       </c>
       <c r="E27" s="32">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="F27" s="33">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G27" s="84">
-        <v>0.2269155206286837</v>
+        <v>0.1521099116781158</v>
       </c>
       <c r="H27" s="85">
-        <v>0.23501199040767387</v>
+        <v>0.15827338129496402</v>
       </c>
       <c r="I27" s="94">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="J27" s="95">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="K27" s="78">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="L27" s="79">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="M27" s="94">
         <v>59.99</v>
@@ -2856,10 +2905,10 @@
         <v>60</v>
       </c>
       <c r="O27" s="78">
-        <v>64.97</v>
+        <v>64.98</v>
       </c>
       <c r="P27" s="79">
-        <v>64.98</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="Q27" s="42">
         <v>0</v>
@@ -2873,37 +2922,37 @@
         <v>37</v>
       </c>
       <c r="B28" s="30">
-        <v>641</v>
+        <v>685</v>
       </c>
       <c r="C28" s="31">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="D28" s="32">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="E28" s="32">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F28" s="33">
         <v>1022</v>
       </c>
       <c r="G28" s="84">
-        <v>0.13261163734776726</v>
+        <v>7.307171853856563E-2</v>
       </c>
       <c r="H28" s="85">
-        <v>0.13780918727915195</v>
+        <v>7.4204946996466431E-2</v>
       </c>
       <c r="I28" s="94">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="J28" s="95">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="K28" s="78">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="L28" s="79">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="M28" s="94">
         <v>59.99</v>
@@ -2912,7 +2961,7 @@
         <v>60</v>
       </c>
       <c r="O28" s="78">
-        <v>64.98</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="P28" s="79">
         <v>64.989999999999995</v>
@@ -2929,34 +2978,34 @@
         <v>38</v>
       </c>
       <c r="B29" s="55">
-        <v>461</v>
+        <v>493</v>
       </c>
       <c r="C29" s="56">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D29" s="57">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="E29" s="57">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F29" s="58">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G29" s="88">
-        <v>0.13182674199623351</v>
+        <v>7.3308270676691725E-2</v>
       </c>
       <c r="H29" s="89">
-        <v>0.13924050632911392</v>
+        <v>7.5949367088607597E-2</v>
       </c>
       <c r="I29" s="98">
         <v>0.08</v>
       </c>
       <c r="J29" s="99">
+        <v>0.03</v>
+      </c>
+      <c r="K29" s="82">
         <v>0.02</v>
-      </c>
-      <c r="K29" s="82">
-        <v>0.04</v>
       </c>
       <c r="L29" s="83">
         <v>0.01</v>
@@ -2968,7 +3017,7 @@
         <v>60</v>
       </c>
       <c r="O29" s="82">
-        <v>64.98</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="P29" s="83">
         <v>64.989999999999995</v>
@@ -2986,31 +3035,31 @@
       </c>
       <c r="B30" s="65">
         <f>SUM(B6:B29)</f>
-        <v>21007</v>
+        <v>22579</v>
       </c>
       <c r="C30" s="66">
         <f t="shared" ref="C30:F30" si="0">SUM(C6:C29)</f>
-        <v>20386</v>
+        <v>21979</v>
       </c>
       <c r="D30" s="67">
         <f t="shared" si="0"/>
-        <v>7509</v>
+        <v>5934</v>
       </c>
       <c r="E30" s="67">
         <f t="shared" si="0"/>
-        <v>8124</v>
+        <v>6531</v>
       </c>
       <c r="F30" s="68">
         <f t="shared" si="0"/>
-        <v>57026</v>
+        <v>57023</v>
       </c>
       <c r="G30" s="100">
         <f>D30/B30</f>
-        <v>0.35745227781215783</v>
+        <v>0.26281057619912307</v>
       </c>
       <c r="H30" s="101">
         <f>E30/C30</f>
-        <v>0.39850878053566174</v>
+        <v>0.29714727694617588</v>
       </c>
       <c r="I30" s="71"/>
       <c r="J30" s="71"/>
@@ -3023,7 +3072,7 @@
       </c>
       <c r="B32" s="72">
         <f>B30+C30</f>
-        <v>41393</v>
+        <v>44558</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -3032,7 +3081,7 @@
       </c>
       <c r="B33" s="72">
         <f>D30+E30</f>
-        <v>15633</v>
+        <v>12465</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -3041,7 +3090,7 @@
       </c>
       <c r="B34" s="72">
         <f>B32+B33</f>
-        <v>57026</v>
+        <v>57023</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -3342,25 +3391,25 @@
         <v>15</v>
       </c>
       <c r="B51" s="30">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="C51" s="31">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D51" s="32">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E51" s="32">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F51" s="33">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G51" s="84">
-        <v>0.14239482200647249</v>
+        <v>7.7669902912621352E-2</v>
       </c>
       <c r="H51" s="85">
-        <v>0.10869565217391304</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="I51" s="90">
         <v>0.05</v>
@@ -3369,10 +3418,10 @@
         <v>0.01</v>
       </c>
       <c r="K51" s="92">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="L51" s="93">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M51" s="94">
         <v>60</v>
@@ -3398,25 +3447,25 @@
         <v>16</v>
       </c>
       <c r="B52" s="30">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C52" s="31">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D52" s="32">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E52" s="32">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F52" s="33">
         <v>238</v>
       </c>
       <c r="G52" s="84">
-        <v>0.14035087719298245</v>
+        <v>7.6023391812865493E-2</v>
       </c>
       <c r="H52" s="85">
-        <v>0.1044776119402985</v>
+        <v>5.9701492537313432E-2</v>
       </c>
       <c r="I52" s="94">
         <v>0.03</v>
@@ -3454,25 +3503,25 @@
         <v>17</v>
       </c>
       <c r="B53" s="30">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C53" s="31">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D53" s="32">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E53" s="32">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F53" s="33">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G53" s="84">
-        <v>0.1391304347826087</v>
+        <v>7.7586206896551727E-2</v>
       </c>
       <c r="H53" s="85">
-        <v>0.11290322580645161</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="I53" s="94">
         <v>0.02</v>
@@ -3481,7 +3530,7 @@
         <v>0.01</v>
       </c>
       <c r="K53" s="78">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L53" s="79">
         <v>0</v>
@@ -3510,25 +3559,25 @@
         <v>18</v>
       </c>
       <c r="B54" s="30">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C54" s="31">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D54" s="32">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E54" s="32">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F54" s="33">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G54" s="84">
-        <v>0.14018691588785046</v>
+        <v>7.476635514018691E-2</v>
       </c>
       <c r="H54" s="85">
-        <v>0.112</v>
+        <v>6.3492063492063489E-2</v>
       </c>
       <c r="I54" s="94">
         <v>0.02</v>
@@ -3537,10 +3586,10 @@
         <v>0.02</v>
       </c>
       <c r="K54" s="78">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L54" s="79">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M54" s="94">
         <v>60</v>
@@ -3566,37 +3615,37 @@
         <v>19</v>
       </c>
       <c r="B55" s="30">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C55" s="31">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="D55" s="32">
+        <v>11</v>
+      </c>
+      <c r="E55" s="32">
         <v>21</v>
-      </c>
-      <c r="E55" s="32">
-        <v>39</v>
       </c>
       <c r="F55" s="33">
         <v>495</v>
       </c>
       <c r="G55" s="84">
-        <v>0.14285714285714285</v>
+        <v>7.4829931972789115E-2</v>
       </c>
       <c r="H55" s="85">
-        <v>0.11206896551724138</v>
+        <v>6.0344827586206899E-2</v>
       </c>
       <c r="I55" s="94">
         <v>0.02</v>
       </c>
       <c r="J55" s="95">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="K55" s="78">
         <v>0.01</v>
       </c>
       <c r="L55" s="79">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="M55" s="94">
         <v>60</v>
@@ -3622,37 +3671,37 @@
         <v>20</v>
       </c>
       <c r="B56" s="30">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="C56" s="31">
-        <v>1030</v>
+        <v>1112</v>
       </c>
       <c r="D56" s="32">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E56" s="32">
-        <v>244</v>
+        <v>163</v>
       </c>
       <c r="F56" s="33">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="G56" s="84">
-        <v>0.24285714285714285</v>
+        <v>0.16071428571428573</v>
       </c>
       <c r="H56" s="85">
-        <v>0.19152276295133439</v>
+        <v>0.12784313725490196</v>
       </c>
       <c r="I56" s="94">
         <v>0.04</v>
       </c>
       <c r="J56" s="95">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="K56" s="78">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="L56" s="79">
-        <v>0.14000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="M56" s="94">
         <v>60</v>
@@ -3664,7 +3713,7 @@
         <v>64.989999999999995</v>
       </c>
       <c r="P56" s="79">
-        <v>64.97</v>
+        <v>64.98</v>
       </c>
       <c r="Q56" s="42">
         <v>0</v>
@@ -3678,49 +3727,49 @@
         <v>21</v>
       </c>
       <c r="B57" s="30">
-        <v>491</v>
+        <v>539</v>
       </c>
       <c r="C57" s="31">
-        <v>3017</v>
+        <v>3182</v>
       </c>
       <c r="D57" s="32">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="E57" s="32">
-        <v>923</v>
+        <v>758</v>
       </c>
       <c r="F57" s="33">
         <v>4704</v>
       </c>
       <c r="G57" s="84">
-        <v>0.35732984293193715</v>
+        <v>0.29450261780104714</v>
       </c>
       <c r="H57" s="85">
-        <v>0.23426395939086295</v>
+        <v>0.19238578680203045</v>
       </c>
       <c r="I57" s="94">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="J57" s="95">
-        <v>0.52</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K57" s="78">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="L57" s="79">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="M57" s="94">
         <v>59.99</v>
       </c>
       <c r="N57" s="95">
-        <v>59.96</v>
+        <v>59.95</v>
       </c>
       <c r="O57" s="78">
         <v>64.97</v>
       </c>
       <c r="P57" s="79">
-        <v>64.849999999999994</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="Q57" s="42">
         <v>0</v>
@@ -3734,49 +3783,49 @@
         <v>22</v>
       </c>
       <c r="B58" s="45">
-        <v>774</v>
+        <v>849</v>
       </c>
       <c r="C58" s="46">
-        <v>3160</v>
+        <v>3319</v>
       </c>
       <c r="D58" s="47">
-        <v>430</v>
+        <v>355</v>
       </c>
       <c r="E58" s="47">
-        <v>983</v>
+        <v>824</v>
       </c>
       <c r="F58" s="48">
         <v>5347</v>
       </c>
       <c r="G58" s="86">
-        <v>0.35714285714285715</v>
+        <v>0.29485049833887045</v>
       </c>
       <c r="H58" s="87">
-        <v>0.23726768042481294</v>
+        <v>0.19888969345884625</v>
       </c>
       <c r="I58" s="96">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="J58" s="97">
-        <v>0.54</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K58" s="80">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="L58" s="81">
-        <v>0.55000000000000004</v>
+        <v>0.46</v>
       </c>
       <c r="M58" s="96">
         <v>59.99</v>
       </c>
       <c r="N58" s="97">
-        <v>59.96</v>
+        <v>59.95</v>
       </c>
       <c r="O58" s="80">
-        <v>64.95</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="P58" s="81">
-        <v>64.83</v>
+        <v>64.88</v>
       </c>
       <c r="Q58" s="53">
         <v>0</v>
@@ -3790,37 +3839,37 @@
         <v>23</v>
       </c>
       <c r="B59" s="45">
-        <v>802</v>
+        <v>879</v>
       </c>
       <c r="C59" s="46">
-        <v>2930</v>
+        <v>3095</v>
       </c>
       <c r="D59" s="47">
-        <v>445</v>
+        <v>367</v>
       </c>
       <c r="E59" s="47">
-        <v>894</v>
+        <v>729</v>
       </c>
       <c r="F59" s="48">
-        <v>5071</v>
+        <v>5070</v>
       </c>
       <c r="G59" s="86">
-        <v>0.35685645549318362</v>
+        <v>0.2945425361155698</v>
       </c>
       <c r="H59" s="87">
-        <v>0.23378661087866109</v>
+        <v>0.19063807531380753</v>
       </c>
       <c r="I59" s="96">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="J59" s="97">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="K59" s="80">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="L59" s="81">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="M59" s="96">
         <v>59.99</v>
@@ -3829,10 +3878,10 @@
         <v>59.96</v>
       </c>
       <c r="O59" s="80">
-        <v>64.95</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="P59" s="81">
-        <v>64.86</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="Q59" s="53">
         <v>0</v>
@@ -3846,37 +3895,37 @@
         <v>24</v>
       </c>
       <c r="B60" s="45">
-        <v>857</v>
+        <v>922</v>
       </c>
       <c r="C60" s="46">
-        <v>2068</v>
+        <v>2171</v>
       </c>
       <c r="D60" s="47">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="E60" s="47">
-        <v>624</v>
+        <v>521</v>
       </c>
       <c r="F60" s="48">
         <v>3999</v>
       </c>
       <c r="G60" s="86">
-        <v>0.34429992348890587</v>
+        <v>0.29456771231828616</v>
       </c>
       <c r="H60" s="87">
-        <v>0.23179791976225855</v>
+        <v>0.19353640416047549</v>
       </c>
       <c r="I60" s="96">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="J60" s="97">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="K60" s="80">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="L60" s="81">
-        <v>0.35</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M60" s="96">
         <v>59.99</v>
@@ -3885,16 +3934,16 @@
         <v>59.98</v>
       </c>
       <c r="O60" s="80">
-        <v>64.95</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="P60" s="81">
-        <v>64.92</v>
+        <v>64.94</v>
       </c>
       <c r="Q60" s="53">
         <v>0</v>
       </c>
       <c r="R60" s="54">
-        <v>0.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -3902,37 +3951,37 @@
         <v>25</v>
       </c>
       <c r="B61" s="30">
-        <v>892</v>
+        <v>987</v>
       </c>
       <c r="C61" s="31">
-        <v>1650</v>
+        <v>1737</v>
       </c>
       <c r="D61" s="32">
-        <v>371</v>
+        <v>276</v>
       </c>
       <c r="E61" s="32">
-        <v>450</v>
+        <v>363</v>
       </c>
       <c r="F61" s="33">
         <v>3363</v>
       </c>
       <c r="G61" s="84">
-        <v>0.29374505146476643</v>
+        <v>0.21852731591448932</v>
       </c>
       <c r="H61" s="85">
-        <v>0.21428571428571427</v>
+        <v>0.17285714285714285</v>
       </c>
       <c r="I61" s="94">
+        <v>0.17</v>
+      </c>
+      <c r="J61" s="95">
+        <v>0.3</v>
+      </c>
+      <c r="K61" s="78">
         <v>0.15</v>
       </c>
-      <c r="J61" s="95">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="K61" s="78">
-        <v>0.21</v>
-      </c>
       <c r="L61" s="79">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="M61" s="94">
         <v>59.99</v>
@@ -3941,10 +3990,10 @@
         <v>59.98</v>
       </c>
       <c r="O61" s="78">
+        <v>64.97</v>
+      </c>
+      <c r="P61" s="79">
         <v>64.959999999999994</v>
-      </c>
-      <c r="P61" s="79">
-        <v>64.95</v>
       </c>
       <c r="Q61" s="42">
         <v>0</v>
@@ -3958,37 +4007,37 @@
         <v>26</v>
       </c>
       <c r="B62" s="30">
-        <v>972</v>
+        <v>1076</v>
       </c>
       <c r="C62" s="31">
-        <v>1429</v>
+        <v>1542</v>
       </c>
       <c r="D62" s="32">
-        <v>404</v>
+        <v>301</v>
       </c>
       <c r="E62" s="32">
-        <v>435</v>
+        <v>322</v>
       </c>
       <c r="F62" s="33">
-        <v>3240</v>
+        <v>3241</v>
       </c>
       <c r="G62" s="84">
-        <v>0.29360465116279072</v>
+        <v>0.21859114015976761</v>
       </c>
       <c r="H62" s="85">
-        <v>0.23336909871244635</v>
+        <v>0.17274678111587982</v>
       </c>
       <c r="I62" s="94">
+        <v>0.18</v>
+      </c>
+      <c r="J62" s="95">
+        <v>0.26</v>
+      </c>
+      <c r="K62" s="78">
         <v>0.17</v>
       </c>
-      <c r="J62" s="95">
-        <v>0.25</v>
-      </c>
-      <c r="K62" s="78">
-        <v>0.22</v>
-      </c>
       <c r="L62" s="79">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="M62" s="94">
         <v>59.99</v>
@@ -3997,10 +4046,10 @@
         <v>59.99</v>
       </c>
       <c r="O62" s="78">
-        <v>64.95</v>
+        <v>64.97</v>
       </c>
       <c r="P62" s="79">
-        <v>64.95</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="Q62" s="42">
         <v>0</v>
@@ -4014,37 +4063,37 @@
         <v>27</v>
       </c>
       <c r="B63" s="30">
-        <v>1141</v>
+        <v>1244</v>
       </c>
       <c r="C63" s="31">
-        <v>1306</v>
+        <v>1410</v>
       </c>
       <c r="D63" s="32">
-        <v>450</v>
+        <v>347</v>
       </c>
       <c r="E63" s="32">
-        <v>398</v>
+        <v>294</v>
       </c>
       <c r="F63" s="33">
         <v>3295</v>
       </c>
       <c r="G63" s="84">
-        <v>0.28284098051539913</v>
+        <v>0.21810182275298554</v>
       </c>
       <c r="H63" s="85">
-        <v>0.2335680751173709</v>
+        <v>0.17253521126760563</v>
       </c>
       <c r="I63" s="94">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="J63" s="95">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="K63" s="78">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="L63" s="79">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="M63" s="94">
         <v>59.99</v>
@@ -4053,10 +4102,10 @@
         <v>59.99</v>
       </c>
       <c r="O63" s="78">
-        <v>64.95</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="P63" s="79">
-        <v>64.959999999999994</v>
+        <v>64.97</v>
       </c>
       <c r="Q63" s="42">
         <v>0</v>
@@ -4070,37 +4119,37 @@
         <v>28</v>
       </c>
       <c r="B64" s="30">
-        <v>1329</v>
+        <v>1403</v>
       </c>
       <c r="C64" s="31">
-        <v>1207</v>
+        <v>1303</v>
       </c>
       <c r="D64" s="32">
-        <v>465</v>
+        <v>392</v>
       </c>
       <c r="E64" s="32">
-        <v>367</v>
+        <v>272</v>
       </c>
       <c r="F64" s="33">
-        <v>3368</v>
+        <v>3370</v>
       </c>
       <c r="G64" s="84">
-        <v>0.25919732441471571</v>
+        <v>0.21838440111420612</v>
       </c>
       <c r="H64" s="85">
-        <v>0.23316391359593391</v>
+        <v>0.17269841269841271</v>
       </c>
       <c r="I64" s="94">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="J64" s="95">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="K64" s="78">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="L64" s="79">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="M64" s="94">
         <v>59.99</v>
@@ -4109,10 +4158,10 @@
         <v>59.99</v>
       </c>
       <c r="O64" s="78">
-        <v>64.95</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="P64" s="79">
-        <v>64.959999999999994</v>
+        <v>64.97</v>
       </c>
       <c r="Q64" s="42">
         <v>0</v>
@@ -4126,37 +4175,37 @@
         <v>29</v>
       </c>
       <c r="B65" s="30">
-        <v>1622</v>
+        <v>1739</v>
       </c>
       <c r="C65" s="31">
-        <v>1248</v>
+        <v>1346</v>
       </c>
       <c r="D65" s="32">
-        <v>567</v>
+        <v>450</v>
       </c>
       <c r="E65" s="32">
-        <v>380</v>
+        <v>281</v>
       </c>
       <c r="F65" s="33">
-        <v>3817</v>
+        <v>3816</v>
       </c>
       <c r="G65" s="84">
-        <v>0.25902238465052535</v>
+        <v>0.2055733211512106</v>
       </c>
       <c r="H65" s="85">
-        <v>0.2334152334152334</v>
+        <v>0.17271051014136449</v>
       </c>
       <c r="I65" s="94">
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="J65" s="95">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="K65" s="78">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="L65" s="79">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="M65" s="94">
         <v>59.98</v>
@@ -4165,13 +4214,13 @@
         <v>59.99</v>
       </c>
       <c r="O65" s="78">
-        <v>64.930000000000007</v>
+        <v>64.95</v>
       </c>
       <c r="P65" s="79">
-        <v>64.959999999999994</v>
+        <v>64.97</v>
       </c>
       <c r="Q65" s="42">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="R65" s="43">
         <v>0</v>
@@ -4182,49 +4231,49 @@
         <v>30</v>
       </c>
       <c r="B66" s="30">
-        <v>2250</v>
+        <v>2426</v>
       </c>
       <c r="C66" s="31">
-        <v>1228</v>
+        <v>1285</v>
       </c>
       <c r="D66" s="32">
-        <v>943</v>
+        <v>767</v>
       </c>
       <c r="E66" s="32">
-        <v>450</v>
+        <v>393</v>
       </c>
       <c r="F66" s="33">
         <v>4871</v>
       </c>
       <c r="G66" s="84">
-        <v>0.29533354212339491</v>
+        <v>0.24021296586282492</v>
       </c>
       <c r="H66" s="85">
-        <v>0.26817640047675806</v>
+        <v>0.23420738974970204</v>
       </c>
       <c r="I66" s="94">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="J66" s="95">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="K66" s="78">
-        <v>0.52</v>
+        <v>0.43</v>
       </c>
       <c r="L66" s="79">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="M66" s="94">
-        <v>59.98</v>
+        <v>59.97</v>
       </c>
       <c r="N66" s="95">
         <v>59.99</v>
       </c>
       <c r="O66" s="78">
-        <v>64.84</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="P66" s="79">
-        <v>64.95</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="Q66" s="42">
         <v>0.23</v>
@@ -4238,37 +4287,37 @@
         <v>31</v>
       </c>
       <c r="B67" s="45">
-        <v>2952</v>
+        <v>3147</v>
       </c>
       <c r="C67" s="46">
-        <v>1229</v>
+        <v>1286</v>
       </c>
       <c r="D67" s="47">
-        <v>1192</v>
+        <v>997</v>
       </c>
       <c r="E67" s="47">
-        <v>450</v>
+        <v>393</v>
       </c>
       <c r="F67" s="48">
         <v>5823</v>
       </c>
       <c r="G67" s="86">
-        <v>0.28764478764478763</v>
+        <v>0.24058880308880309</v>
       </c>
       <c r="H67" s="87">
-        <v>0.26801667659321027</v>
+        <v>0.23406789755807028</v>
       </c>
       <c r="I67" s="96">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="J67" s="97">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="K67" s="80">
-        <v>0.66</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L67" s="81">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="M67" s="96">
         <v>59.96</v>
@@ -4277,13 +4326,13 @@
         <v>59.99</v>
       </c>
       <c r="O67" s="80">
-        <v>64.7</v>
+        <v>64.819999999999993</v>
       </c>
       <c r="P67" s="81">
-        <v>64.95</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="Q67" s="53">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="R67" s="54">
         <v>0</v>
@@ -4294,37 +4343,37 @@
         <v>32</v>
       </c>
       <c r="B68" s="45">
-        <v>2927</v>
+        <v>3122</v>
       </c>
       <c r="C68" s="46">
-        <v>1305</v>
+        <v>1344</v>
       </c>
       <c r="D68" s="47">
-        <v>1184</v>
+        <v>989</v>
       </c>
       <c r="E68" s="47">
-        <v>450</v>
+        <v>411</v>
       </c>
       <c r="F68" s="48">
         <v>5866</v>
       </c>
       <c r="G68" s="86">
-        <v>0.28800778399416199</v>
+        <v>0.24057406956944782</v>
       </c>
       <c r="H68" s="87">
-        <v>0.25641025641025639</v>
+        <v>0.23418803418803419</v>
       </c>
       <c r="I68" s="96">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="J68" s="97">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="K68" s="80">
-        <v>0.66</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L68" s="81">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="M68" s="96">
         <v>59.96</v>
@@ -4333,13 +4382,13 @@
         <v>59.99</v>
       </c>
       <c r="O68" s="80">
-        <v>64.709999999999994</v>
+        <v>64.83</v>
       </c>
       <c r="P68" s="81">
         <v>64.95</v>
       </c>
       <c r="Q68" s="53">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="R68" s="54">
         <v>0</v>
@@ -4350,49 +4399,49 @@
         <v>33</v>
       </c>
       <c r="B69" s="45">
-        <v>2250</v>
+        <v>2427</v>
       </c>
       <c r="C69" s="46">
-        <v>1057</v>
+        <v>1131</v>
       </c>
       <c r="D69" s="47">
-        <v>945</v>
+        <v>768</v>
       </c>
       <c r="E69" s="47">
-        <v>420</v>
+        <v>346</v>
       </c>
       <c r="F69" s="48">
         <v>4672</v>
       </c>
       <c r="G69" s="86">
-        <v>0.29577464788732394</v>
+        <v>0.24037558685446009</v>
       </c>
       <c r="H69" s="87">
-        <v>0.28436018957345971</v>
+        <v>0.23425863236289776</v>
       </c>
       <c r="I69" s="96">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="J69" s="97">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="K69" s="80">
-        <v>0.52</v>
+        <v>0.43</v>
       </c>
       <c r="L69" s="81">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="M69" s="96">
-        <v>59.98</v>
+        <v>59.97</v>
       </c>
       <c r="N69" s="97">
         <v>59.99</v>
       </c>
       <c r="O69" s="80">
-        <v>64.84</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="P69" s="81">
-        <v>64.95</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="Q69" s="53">
         <v>0.23</v>
@@ -4406,52 +4455,52 @@
         <v>34</v>
       </c>
       <c r="B70" s="30">
-        <v>1577</v>
+        <v>1680</v>
       </c>
       <c r="C70" s="31">
-        <v>756</v>
+        <v>816</v>
       </c>
       <c r="D70" s="32">
-        <v>552</v>
+        <v>450</v>
       </c>
       <c r="E70" s="32">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="F70" s="33">
-        <v>3115</v>
+        <v>3116</v>
       </c>
       <c r="G70" s="84">
-        <v>0.25927665570690467</v>
+        <v>0.21126760563380281</v>
       </c>
       <c r="H70" s="85">
-        <v>0.23326572008113591</v>
+        <v>0.17241379310344829</v>
       </c>
       <c r="I70" s="94">
-        <v>0.27</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J70" s="95">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K70" s="78">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="L70" s="79">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="M70" s="94">
-        <v>59.99</v>
+        <v>59.98</v>
       </c>
       <c r="N70" s="95">
         <v>59.99</v>
       </c>
       <c r="O70" s="78">
-        <v>64.94</v>
+        <v>64.95</v>
       </c>
       <c r="P70" s="79">
-        <v>64.97</v>
+        <v>64.98</v>
       </c>
       <c r="Q70" s="42">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="R70" s="43">
         <v>0</v>
@@ -4462,37 +4511,37 @@
         <v>35</v>
       </c>
       <c r="B71" s="30">
-        <v>1083</v>
+        <v>1198</v>
       </c>
       <c r="C71" s="31">
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="D71" s="32">
-        <v>449</v>
+        <v>334</v>
       </c>
       <c r="E71" s="32">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="F71" s="33">
         <v>2180</v>
       </c>
       <c r="G71" s="84">
-        <v>0.29308093994778067</v>
+        <v>0.21801566579634465</v>
       </c>
       <c r="H71" s="85">
-        <v>0.2330246913580247</v>
+        <v>0.1728395061728395</v>
       </c>
       <c r="I71" s="94">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="J71" s="95">
         <v>0.09</v>
       </c>
       <c r="K71" s="78">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="L71" s="79">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="M71" s="94">
         <v>59.99</v>
@@ -4501,7 +4550,7 @@
         <v>59.99</v>
       </c>
       <c r="O71" s="78">
-        <v>64.95</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="P71" s="79">
         <v>64.98</v>
@@ -4518,37 +4567,37 @@
         <v>36</v>
       </c>
       <c r="B72" s="30">
-        <v>947</v>
+        <v>1047</v>
       </c>
       <c r="C72" s="31">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="D72" s="32">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="E72" s="32">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="F72" s="33">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="G72" s="84">
-        <v>0.24179343474779824</v>
+        <v>0.16239999999999999</v>
       </c>
       <c r="H72" s="85">
-        <v>0.19132149901380671</v>
+        <v>0.12795275590551181</v>
       </c>
       <c r="I72" s="94">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="J72" s="95">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K72" s="78">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="L72" s="79">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="M72" s="94">
         <v>59.99</v>
@@ -4560,7 +4609,7 @@
         <v>64.97</v>
       </c>
       <c r="P72" s="79">
-        <v>64.98</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="Q72" s="42">
         <v>0</v>
@@ -4574,37 +4623,37 @@
         <v>37</v>
       </c>
       <c r="B73" s="30">
-        <v>778</v>
+        <v>836</v>
       </c>
       <c r="C73" s="31">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="D73" s="32">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="E73" s="32">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F73" s="33">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="G73" s="84">
-        <v>0.141280353200883</v>
+        <v>7.7262693156732898E-2</v>
       </c>
       <c r="H73" s="85">
-        <v>0.11046511627906977</v>
+        <v>6.0869565217391307E-2</v>
       </c>
       <c r="I73" s="94">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J73" s="95">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="K73" s="78">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="L73" s="79">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="M73" s="94">
         <v>59.99</v>
@@ -4630,25 +4679,25 @@
         <v>38</v>
       </c>
       <c r="B74" s="55">
-        <v>560</v>
+        <v>601</v>
       </c>
       <c r="C74" s="56">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D74" s="57">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="E74" s="57">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F74" s="58">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="G74" s="88">
-        <v>0.1411042944785276</v>
+        <v>7.8220858895705528E-2</v>
       </c>
       <c r="H74" s="89">
-        <v>0.1099476439790576</v>
+        <v>6.25E-2</v>
       </c>
       <c r="I74" s="98">
         <v>0.1</v>
@@ -4657,7 +4706,7 @@
         <v>0.03</v>
       </c>
       <c r="K74" s="82">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="L74" s="83">
         <v>0.01</v>
@@ -4669,7 +4718,7 @@
         <v>60</v>
       </c>
       <c r="O74" s="82">
-        <v>64.98</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="P74" s="83">
         <v>64.989999999999995</v>
@@ -4687,31 +4736,31 @@
       </c>
       <c r="B75" s="65">
         <f>SUM(B51:B74)</f>
-        <v>25145</v>
+        <v>27142</v>
       </c>
       <c r="C75" s="66">
         <f t="shared" ref="C75" si="1">SUM(C51:C74)</f>
-        <v>26620</v>
+        <v>28215</v>
       </c>
       <c r="D75" s="67">
         <f t="shared" ref="D75" si="2">SUM(D51:D74)</f>
-        <v>9830</v>
+        <v>7837</v>
       </c>
       <c r="E75" s="67">
         <f t="shared" ref="E75" si="3">SUM(E51:E74)</f>
-        <v>8082</v>
+        <v>6493</v>
       </c>
       <c r="F75" s="68">
         <f t="shared" ref="F75" si="4">SUM(F51:F74)</f>
-        <v>69677</v>
+        <v>69687</v>
       </c>
       <c r="G75" s="100">
         <f>D75/B75</f>
-        <v>0.39093259097236033</v>
+        <v>0.28874069707464445</v>
       </c>
       <c r="H75" s="101">
         <f>E75/C75</f>
-        <v>0.30360631104432756</v>
+        <v>0.23012581959950382</v>
       </c>
       <c r="I75" s="71"/>
       <c r="J75" s="71"/>
@@ -4724,7 +4773,7 @@
       </c>
       <c r="B77" s="72">
         <f>B75+C75</f>
-        <v>51765</v>
+        <v>55357</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
@@ -4733,7 +4782,7 @@
       </c>
       <c r="B78" s="72">
         <f>D75+E75</f>
-        <v>17912</v>
+        <v>14330</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
@@ -4742,7 +4791,7 @@
       </c>
       <c r="B79" s="72">
         <f>B77+B78</f>
-        <v>69677</v>
+        <v>69687</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
@@ -15236,64 +15285,16 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="B723:F723"/>
-    <mergeCell ref="G723:H723"/>
-    <mergeCell ref="I723:L723"/>
-    <mergeCell ref="M723:P723"/>
-    <mergeCell ref="Q723:R723"/>
-    <mergeCell ref="B633:F633"/>
-    <mergeCell ref="G633:H633"/>
-    <mergeCell ref="I633:L633"/>
-    <mergeCell ref="M633:P633"/>
-    <mergeCell ref="Q633:R633"/>
-    <mergeCell ref="B678:F678"/>
-    <mergeCell ref="G678:H678"/>
-    <mergeCell ref="I678:L678"/>
-    <mergeCell ref="M678:P678"/>
-    <mergeCell ref="Q678:R678"/>
-    <mergeCell ref="B543:F543"/>
-    <mergeCell ref="G543:H543"/>
-    <mergeCell ref="I543:L543"/>
-    <mergeCell ref="M543:P543"/>
-    <mergeCell ref="Q543:R543"/>
-    <mergeCell ref="B588:F588"/>
-    <mergeCell ref="G588:H588"/>
-    <mergeCell ref="I588:L588"/>
-    <mergeCell ref="M588:P588"/>
-    <mergeCell ref="Q588:R588"/>
-    <mergeCell ref="B453:F453"/>
-    <mergeCell ref="G453:H453"/>
-    <mergeCell ref="I453:L453"/>
-    <mergeCell ref="M453:P453"/>
-    <mergeCell ref="Q453:R453"/>
-    <mergeCell ref="B498:F498"/>
-    <mergeCell ref="G498:H498"/>
-    <mergeCell ref="I498:L498"/>
-    <mergeCell ref="M498:P498"/>
-    <mergeCell ref="Q498:R498"/>
-    <mergeCell ref="Q408:R408"/>
-    <mergeCell ref="B363:F363"/>
-    <mergeCell ref="G363:H363"/>
-    <mergeCell ref="I363:L363"/>
-    <mergeCell ref="M363:P363"/>
-    <mergeCell ref="Q363:R363"/>
-    <mergeCell ref="G228:H228"/>
-    <mergeCell ref="I228:L228"/>
-    <mergeCell ref="M228:P228"/>
-    <mergeCell ref="B408:F408"/>
-    <mergeCell ref="G408:H408"/>
-    <mergeCell ref="I408:L408"/>
-    <mergeCell ref="M408:P408"/>
-    <mergeCell ref="B273:F273"/>
-    <mergeCell ref="G273:H273"/>
-    <mergeCell ref="I273:L273"/>
-    <mergeCell ref="M273:P273"/>
-    <mergeCell ref="Q273:R273"/>
-    <mergeCell ref="B318:F318"/>
-    <mergeCell ref="G318:H318"/>
-    <mergeCell ref="I318:L318"/>
-    <mergeCell ref="M318:P318"/>
-    <mergeCell ref="Q318:R318"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:R3"/>
     <mergeCell ref="Q228:R228"/>
     <mergeCell ref="B93:F93"/>
     <mergeCell ref="G93:H93"/>
@@ -15310,17 +15311,66 @@
     <mergeCell ref="I183:L183"/>
     <mergeCell ref="M183:P183"/>
     <mergeCell ref="Q183:R183"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="Q273:R273"/>
+    <mergeCell ref="B318:F318"/>
+    <mergeCell ref="G318:H318"/>
+    <mergeCell ref="I318:L318"/>
+    <mergeCell ref="M318:P318"/>
+    <mergeCell ref="Q318:R318"/>
+    <mergeCell ref="G228:H228"/>
+    <mergeCell ref="I228:L228"/>
+    <mergeCell ref="M228:P228"/>
+    <mergeCell ref="B408:F408"/>
+    <mergeCell ref="G408:H408"/>
+    <mergeCell ref="I408:L408"/>
+    <mergeCell ref="M408:P408"/>
+    <mergeCell ref="B273:F273"/>
+    <mergeCell ref="G273:H273"/>
+    <mergeCell ref="I273:L273"/>
+    <mergeCell ref="M273:P273"/>
+    <mergeCell ref="Q408:R408"/>
+    <mergeCell ref="B363:F363"/>
+    <mergeCell ref="G363:H363"/>
+    <mergeCell ref="I363:L363"/>
+    <mergeCell ref="M363:P363"/>
+    <mergeCell ref="Q363:R363"/>
+    <mergeCell ref="B498:F498"/>
+    <mergeCell ref="G498:H498"/>
+    <mergeCell ref="I498:L498"/>
+    <mergeCell ref="M498:P498"/>
+    <mergeCell ref="Q498:R498"/>
+    <mergeCell ref="B453:F453"/>
+    <mergeCell ref="G453:H453"/>
+    <mergeCell ref="I453:L453"/>
+    <mergeCell ref="M453:P453"/>
+    <mergeCell ref="Q453:R453"/>
+    <mergeCell ref="B588:F588"/>
+    <mergeCell ref="G588:H588"/>
+    <mergeCell ref="I588:L588"/>
+    <mergeCell ref="M588:P588"/>
+    <mergeCell ref="Q588:R588"/>
+    <mergeCell ref="B543:F543"/>
+    <mergeCell ref="G543:H543"/>
+    <mergeCell ref="I543:L543"/>
+    <mergeCell ref="M543:P543"/>
+    <mergeCell ref="Q543:R543"/>
+    <mergeCell ref="B678:F678"/>
+    <mergeCell ref="G678:H678"/>
+    <mergeCell ref="I678:L678"/>
+    <mergeCell ref="M678:P678"/>
+    <mergeCell ref="Q678:R678"/>
+    <mergeCell ref="B633:F633"/>
+    <mergeCell ref="G633:H633"/>
+    <mergeCell ref="I633:L633"/>
+    <mergeCell ref="M633:P633"/>
+    <mergeCell ref="Q633:R633"/>
+    <mergeCell ref="B723:F723"/>
+    <mergeCell ref="G723:H723"/>
+    <mergeCell ref="I723:L723"/>
+    <mergeCell ref="M723:P723"/>
+    <mergeCell ref="Q723:R723"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Analysis & Profiles/Output_2020A2.xlsx
+++ b/Analysis & Profiles/Output_2020A2.xlsx
@@ -1183,55 +1183,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>116542</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>170329</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>545279</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47371</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8973671" y="1613647"/>
-          <a:ext cx="8066667" cy="2028571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1498,7 +1449,7 @@
   <dimension ref="A1:R764"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1690,25 +1641,25 @@
         <v>15</v>
       </c>
       <c r="B6" s="30">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C6" s="31">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D6" s="32">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E6" s="32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" s="33">
         <v>327</v>
       </c>
       <c r="G6" s="84">
-        <v>7.1713147410358571E-2</v>
+        <v>5.1792828685258967E-2</v>
       </c>
       <c r="H6" s="85">
-        <v>7.8947368421052627E-2</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="I6" s="90">
         <v>0.04</v>
@@ -1746,25 +1697,25 @@
         <v>16</v>
       </c>
       <c r="B7" s="30">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C7" s="31">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" s="32">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E7" s="32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="33">
         <v>195</v>
       </c>
       <c r="G7" s="84">
-        <v>7.1428571428571425E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H7" s="85">
-        <v>7.2727272727272724E-2</v>
+        <v>5.4545454545454543E-2</v>
       </c>
       <c r="I7" s="94">
         <v>0.02</v>
@@ -1773,7 +1724,7 @@
         <v>0.01</v>
       </c>
       <c r="K7" s="78">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L7" s="79">
         <v>0</v>
@@ -1802,25 +1753,25 @@
         <v>17</v>
       </c>
       <c r="B8" s="30">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C8" s="31">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" s="32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8" s="32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="33">
         <v>145</v>
       </c>
       <c r="G8" s="84">
-        <v>7.4468085106382975E-2</v>
+        <v>5.3191489361702128E-2</v>
       </c>
       <c r="H8" s="85">
-        <v>7.8431372549019607E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="I8" s="94">
         <v>0.02</v>
@@ -1858,25 +1809,25 @@
         <v>18</v>
       </c>
       <c r="B9" s="30">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C9" s="31">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D9" s="32">
+        <v>5</v>
+      </c>
+      <c r="E9" s="32">
         <v>6</v>
       </c>
-      <c r="E9" s="32">
-        <v>8</v>
-      </c>
       <c r="F9" s="33">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G9" s="84">
-        <v>6.8965517241379309E-2</v>
+        <v>5.6818181818181816E-2</v>
       </c>
       <c r="H9" s="85">
-        <v>7.7669902912621352E-2</v>
+        <v>5.8252427184466021E-2</v>
       </c>
       <c r="I9" s="94">
         <v>0.01</v>
@@ -1914,25 +1865,25 @@
         <v>19</v>
       </c>
       <c r="B10" s="30">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C10" s="31">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D10" s="32">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E10" s="32">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F10" s="33">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G10" s="84">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H10" s="85">
-        <v>7.3684210526315783E-2</v>
+        <v>5.5944055944055944E-2</v>
       </c>
       <c r="I10" s="94">
         <v>0.02</v>
@@ -1970,25 +1921,25 @@
         <v>20</v>
       </c>
       <c r="B11" s="30">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C11" s="31">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="D11" s="32">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" s="32">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F11" s="33">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G11" s="84">
-        <v>0.15283842794759825</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="H11" s="85">
-        <v>0.15744274809160305</v>
+        <v>0.16412213740458015</v>
       </c>
       <c r="I11" s="94">
         <v>0.03</v>
@@ -2000,7 +1951,7 @@
         <v>0.02</v>
       </c>
       <c r="L11" s="79">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="M11" s="94">
         <v>60</v>
@@ -2026,49 +1977,49 @@
         <v>21</v>
       </c>
       <c r="B12" s="30">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="C12" s="31">
-        <v>2477</v>
+        <v>2309</v>
       </c>
       <c r="D12" s="32">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="E12" s="32">
-        <v>759</v>
+        <v>927</v>
       </c>
       <c r="F12" s="33">
         <v>3859</v>
       </c>
       <c r="G12" s="84">
-        <v>0.27768860353130015</v>
+        <v>0.33547351524879615</v>
       </c>
       <c r="H12" s="85">
-        <v>0.23454882571075403</v>
+        <v>0.28646477132262049</v>
       </c>
       <c r="I12" s="94">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J12" s="95">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="K12" s="78">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="L12" s="79">
-        <v>0.42</v>
+        <v>0.52</v>
       </c>
       <c r="M12" s="94">
         <v>59.99</v>
       </c>
       <c r="N12" s="95">
-        <v>59.97</v>
+        <v>59.98</v>
       </c>
       <c r="O12" s="78">
-        <v>64.98</v>
+        <v>64.97</v>
       </c>
       <c r="P12" s="79">
-        <v>64.900000000000006</v>
+        <v>64.849999999999994</v>
       </c>
       <c r="Q12" s="42">
         <v>0</v>
@@ -2082,37 +2033,37 @@
         <v>22</v>
       </c>
       <c r="B13" s="45">
-        <v>710</v>
+        <v>652</v>
       </c>
       <c r="C13" s="46">
-        <v>2584</v>
+        <v>2420</v>
       </c>
       <c r="D13" s="47">
-        <v>272</v>
+        <v>330</v>
       </c>
       <c r="E13" s="47">
-        <v>819</v>
+        <v>984</v>
       </c>
       <c r="F13" s="48">
-        <v>4385</v>
+        <v>4386</v>
       </c>
       <c r="G13" s="86">
-        <v>0.27698574338085541</v>
+        <v>0.33604887983706722</v>
       </c>
       <c r="H13" s="87">
-        <v>0.2406699970614164</v>
+        <v>0.28907168037602821</v>
       </c>
       <c r="I13" s="96">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="J13" s="97">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="K13" s="80">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="L13" s="81">
-        <v>0.46</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M13" s="96">
         <v>59.99</v>
@@ -2121,10 +2072,10 @@
         <v>59.97</v>
       </c>
       <c r="O13" s="80">
-        <v>64.97</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="P13" s="81">
-        <v>64.88</v>
+        <v>64.83</v>
       </c>
       <c r="Q13" s="53">
         <v>0</v>
@@ -2138,49 +2089,49 @@
         <v>23</v>
       </c>
       <c r="B14" s="45">
-        <v>735</v>
+        <v>675</v>
       </c>
       <c r="C14" s="46">
-        <v>2409</v>
+        <v>2242</v>
       </c>
       <c r="D14" s="47">
-        <v>281</v>
+        <v>341</v>
       </c>
       <c r="E14" s="47">
-        <v>732</v>
+        <v>898</v>
       </c>
       <c r="F14" s="48">
-        <v>4157</v>
+        <v>4156</v>
       </c>
       <c r="G14" s="86">
-        <v>0.27657480314960631</v>
+        <v>0.33562992125984253</v>
       </c>
       <c r="H14" s="87">
-        <v>0.23304680038204392</v>
+        <v>0.28598726114649681</v>
       </c>
       <c r="I14" s="96">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="J14" s="97">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="K14" s="80">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="L14" s="81">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="M14" s="96">
         <v>59.99</v>
       </c>
       <c r="N14" s="97">
-        <v>59.97</v>
+        <v>59.98</v>
       </c>
       <c r="O14" s="80">
-        <v>64.97</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="P14" s="81">
-        <v>64.900000000000006</v>
+        <v>64.86</v>
       </c>
       <c r="Q14" s="53">
         <v>0</v>
@@ -2194,55 +2145,55 @@
         <v>24</v>
       </c>
       <c r="B15" s="45">
-        <v>770</v>
+        <v>718</v>
       </c>
       <c r="C15" s="46">
-        <v>1686</v>
+        <v>1582</v>
       </c>
       <c r="D15" s="47">
-        <v>295</v>
+        <v>347</v>
       </c>
       <c r="E15" s="47">
-        <v>526</v>
+        <v>629</v>
       </c>
       <c r="F15" s="48">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="G15" s="86">
-        <v>0.27699530516431925</v>
+        <v>0.32582159624413143</v>
       </c>
       <c r="H15" s="87">
-        <v>0.23779385171790235</v>
+        <v>0.28448665762098596</v>
       </c>
       <c r="I15" s="96">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="J15" s="97">
-        <v>0.28999999999999998</v>
+        <v>0.27</v>
       </c>
       <c r="K15" s="80">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="L15" s="81">
-        <v>0.28999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="M15" s="96">
         <v>59.99</v>
       </c>
       <c r="N15" s="97">
-        <v>59.98</v>
+        <v>59.99</v>
       </c>
       <c r="O15" s="80">
-        <v>64.97</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="P15" s="81">
-        <v>64.94</v>
+        <v>64.92</v>
       </c>
       <c r="Q15" s="53">
         <v>0</v>
       </c>
       <c r="R15" s="54">
-        <v>0</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -2250,37 +2201,37 @@
         <v>25</v>
       </c>
       <c r="B16" s="30">
-        <v>818</v>
+        <v>790</v>
       </c>
       <c r="C16" s="31">
-        <v>1359</v>
+        <v>1309</v>
       </c>
       <c r="D16" s="32">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="E16" s="32">
-        <v>366</v>
+        <v>417</v>
       </c>
       <c r="F16" s="33">
-        <v>2754</v>
+        <v>2755</v>
       </c>
       <c r="G16" s="84">
-        <v>0.20505344995140914</v>
+        <v>0.23226433430515064</v>
       </c>
       <c r="H16" s="85">
-        <v>0.21217391304347827</v>
+        <v>0.24159907300115874</v>
       </c>
       <c r="I16" s="94">
         <v>0.14000000000000001</v>
       </c>
       <c r="J16" s="95">
+        <v>0.22</v>
+      </c>
+      <c r="K16" s="78">
+        <v>0.13</v>
+      </c>
+      <c r="L16" s="79">
         <v>0.23</v>
-      </c>
-      <c r="K16" s="78">
-        <v>0.12</v>
-      </c>
-      <c r="L16" s="79">
-        <v>0.2</v>
       </c>
       <c r="M16" s="94">
         <v>59.99</v>
@@ -2292,7 +2243,7 @@
         <v>64.97</v>
       </c>
       <c r="P16" s="79">
-        <v>64.959999999999994</v>
+        <v>64.95</v>
       </c>
       <c r="Q16" s="42">
         <v>0</v>
@@ -2306,37 +2257,37 @@
         <v>26</v>
       </c>
       <c r="B17" s="30">
-        <v>892</v>
+        <v>861</v>
       </c>
       <c r="C17" s="31">
-        <v>1206</v>
+        <v>1162</v>
       </c>
       <c r="D17" s="32">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="E17" s="32">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="F17" s="33">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="G17" s="84">
-        <v>0.20499108734402852</v>
+        <v>0.23262032085561499</v>
       </c>
       <c r="H17" s="85">
-        <v>0.2122795558458524</v>
+        <v>0.24151436031331594</v>
       </c>
       <c r="I17" s="94">
         <v>0.15</v>
       </c>
       <c r="J17" s="95">
+        <v>0.2</v>
+      </c>
+      <c r="K17" s="78">
+        <v>0.15</v>
+      </c>
+      <c r="L17" s="79">
         <v>0.21</v>
-      </c>
-      <c r="K17" s="78">
-        <v>0.13</v>
-      </c>
-      <c r="L17" s="79">
-        <v>0.18</v>
       </c>
       <c r="M17" s="94">
         <v>59.99</v>
@@ -2362,37 +2313,37 @@
         <v>27</v>
       </c>
       <c r="B18" s="30">
-        <v>1031</v>
+        <v>995</v>
       </c>
       <c r="C18" s="31">
-        <v>1103</v>
+        <v>1062</v>
       </c>
       <c r="D18" s="32">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="E18" s="32">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="F18" s="33">
         <v>2697</v>
       </c>
       <c r="G18" s="84">
-        <v>0.20508866615265997</v>
+        <v>0.23284502698535081</v>
       </c>
       <c r="H18" s="85">
-        <v>0.21214285714285713</v>
+        <v>0.24142857142857144</v>
       </c>
       <c r="I18" s="94">
+        <v>0.17</v>
+      </c>
+      <c r="J18" s="95">
         <v>0.18</v>
       </c>
-      <c r="J18" s="95">
+      <c r="K18" s="78">
+        <v>0.17</v>
+      </c>
+      <c r="L18" s="79">
         <v>0.19</v>
-      </c>
-      <c r="K18" s="78">
-        <v>0.15</v>
-      </c>
-      <c r="L18" s="79">
-        <v>0.17</v>
       </c>
       <c r="M18" s="94">
         <v>59.99</v>
@@ -2404,7 +2355,7 @@
         <v>64.97</v>
       </c>
       <c r="P18" s="79">
-        <v>64.97</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="Q18" s="42">
         <v>0</v>
@@ -2418,37 +2369,37 @@
         <v>28</v>
       </c>
       <c r="B19" s="30">
-        <v>1163</v>
+        <v>1122</v>
       </c>
       <c r="C19" s="31">
-        <v>1019</v>
+        <v>982</v>
       </c>
       <c r="D19" s="32">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="E19" s="32">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="F19" s="33">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="G19" s="84">
-        <v>0.20505809979494191</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="H19" s="85">
-        <v>0.21251931993817619</v>
+        <v>0.24111282843894899</v>
       </c>
       <c r="I19" s="94">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="J19" s="95">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="K19" s="78">
+        <v>0.19</v>
+      </c>
+      <c r="L19" s="79">
         <v>0.17</v>
-      </c>
-      <c r="L19" s="79">
-        <v>0.15</v>
       </c>
       <c r="M19" s="94">
         <v>59.99</v>
@@ -2457,10 +2408,10 @@
         <v>59.99</v>
       </c>
       <c r="O19" s="78">
-        <v>64.97</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="P19" s="79">
-        <v>64.97</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="Q19" s="42">
         <v>0</v>
@@ -2474,37 +2425,37 @@
         <v>29</v>
       </c>
       <c r="B20" s="30">
-        <v>1436</v>
+        <v>1413</v>
       </c>
       <c r="C20" s="31">
-        <v>1053</v>
+        <v>1014</v>
       </c>
       <c r="D20" s="32">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="E20" s="32">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="F20" s="33">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="G20" s="84">
-        <v>0.19506726457399104</v>
+        <v>0.20840336134453782</v>
       </c>
       <c r="H20" s="85">
-        <v>0.21241585639491398</v>
+        <v>0.24158563949139866</v>
       </c>
       <c r="I20" s="94">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="J20" s="95">
+        <v>0.17</v>
+      </c>
+      <c r="K20" s="78">
+        <v>0.21</v>
+      </c>
+      <c r="L20" s="79">
         <v>0.18</v>
-      </c>
-      <c r="K20" s="78">
-        <v>0.19</v>
-      </c>
-      <c r="L20" s="79">
-        <v>0.16</v>
       </c>
       <c r="M20" s="94">
         <v>59.99</v>
@@ -2516,7 +2467,7 @@
         <v>64.959999999999994</v>
       </c>
       <c r="P20" s="79">
-        <v>64.97</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="Q20" s="42">
         <v>0</v>
@@ -2530,37 +2481,37 @@
         <v>30</v>
       </c>
       <c r="B21" s="30">
-        <v>2031</v>
+        <v>1897</v>
       </c>
       <c r="C21" s="31">
-        <v>982</v>
+        <v>928</v>
       </c>
       <c r="D21" s="32">
-        <v>572</v>
+        <v>707</v>
       </c>
       <c r="E21" s="32">
-        <v>396</v>
+        <v>450</v>
       </c>
       <c r="F21" s="33">
-        <v>3981</v>
+        <v>3982</v>
       </c>
       <c r="G21" s="84">
-        <v>0.21974644640799079</v>
+        <v>0.271505376344086</v>
       </c>
       <c r="H21" s="85">
-        <v>0.28737300435413643</v>
+        <v>0.32656023222060959</v>
       </c>
       <c r="I21" s="94">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="J21" s="95">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="K21" s="78">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="L21" s="79">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="M21" s="94">
         <v>59.98</v>
@@ -2569,10 +2520,10 @@
         <v>59.99</v>
       </c>
       <c r="O21" s="78">
-        <v>64.930000000000007</v>
+        <v>64.91</v>
       </c>
       <c r="P21" s="79">
-        <v>64.959999999999994</v>
+        <v>64.95</v>
       </c>
       <c r="Q21" s="42">
         <v>0.23</v>
@@ -2586,37 +2537,37 @@
         <v>31</v>
       </c>
       <c r="B22" s="45">
-        <v>2635</v>
+        <v>2477</v>
       </c>
       <c r="C22" s="46">
-        <v>983</v>
+        <v>929</v>
       </c>
       <c r="D22" s="47">
-        <v>743</v>
+        <v>902</v>
       </c>
       <c r="E22" s="47">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="F22" s="48">
         <v>4758</v>
       </c>
       <c r="G22" s="86">
-        <v>0.21995263469508586</v>
+        <v>0.26694288250961823</v>
       </c>
       <c r="H22" s="87">
-        <v>0.28768115942028988</v>
+        <v>0.32632342277012327</v>
       </c>
       <c r="I22" s="96">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="J22" s="97">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="K22" s="80">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="L22" s="81">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="M22" s="96">
         <v>59.97</v>
@@ -2625,10 +2576,10 @@
         <v>59.99</v>
       </c>
       <c r="O22" s="80">
-        <v>64.900000000000006</v>
+        <v>64.86</v>
       </c>
       <c r="P22" s="81">
-        <v>64.959999999999994</v>
+        <v>64.95</v>
       </c>
       <c r="Q22" s="53">
         <v>0.23</v>
@@ -2642,37 +2593,37 @@
         <v>32</v>
       </c>
       <c r="B23" s="45">
-        <v>2614</v>
+        <v>2456</v>
       </c>
       <c r="C23" s="46">
-        <v>1027</v>
+        <v>991</v>
       </c>
       <c r="D23" s="47">
-        <v>737</v>
+        <v>896</v>
       </c>
       <c r="E23" s="47">
-        <v>414</v>
+        <v>450</v>
       </c>
       <c r="F23" s="48">
-        <v>4792</v>
+        <v>4793</v>
       </c>
       <c r="G23" s="86">
-        <v>0.21993434795583408</v>
+        <v>0.26730310262529833</v>
       </c>
       <c r="H23" s="87">
-        <v>0.28730048577376821</v>
+        <v>0.31228313671061764</v>
       </c>
       <c r="I23" s="96">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="J23" s="97">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="K23" s="80">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="L23" s="81">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="M23" s="96">
         <v>59.97</v>
@@ -2681,7 +2632,7 @@
         <v>59.99</v>
       </c>
       <c r="O23" s="80">
-        <v>64.900000000000006</v>
+        <v>64.86</v>
       </c>
       <c r="P23" s="81">
         <v>64.95</v>
@@ -2698,37 +2649,37 @@
         <v>33</v>
       </c>
       <c r="B24" s="45">
-        <v>2032</v>
+        <v>1897</v>
       </c>
       <c r="C24" s="46">
-        <v>865</v>
+        <v>790</v>
       </c>
       <c r="D24" s="47">
-        <v>572</v>
+        <v>708</v>
       </c>
       <c r="E24" s="47">
-        <v>349</v>
+        <v>424</v>
       </c>
       <c r="F24" s="48">
-        <v>3818</v>
+        <v>3819</v>
       </c>
       <c r="G24" s="86">
-        <v>0.2196620583717358</v>
+        <v>0.27178502879078698</v>
       </c>
       <c r="H24" s="87">
-        <v>0.28747940691927515</v>
+        <v>0.34925864909390447</v>
       </c>
       <c r="I24" s="96">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="J24" s="97">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K24" s="80">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="L24" s="81">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="M24" s="96">
         <v>59.98</v>
@@ -2737,10 +2688,10 @@
         <v>59.99</v>
       </c>
       <c r="O24" s="80">
-        <v>64.930000000000007</v>
+        <v>64.91</v>
       </c>
       <c r="P24" s="81">
-        <v>64.959999999999994</v>
+        <v>64.95</v>
       </c>
       <c r="Q24" s="53">
         <v>0.23</v>
@@ -2754,25 +2705,25 @@
         <v>34</v>
       </c>
       <c r="B25" s="30">
-        <v>1390</v>
+        <v>1374</v>
       </c>
       <c r="C25" s="31">
-        <v>638</v>
+        <v>615</v>
       </c>
       <c r="D25" s="32">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="E25" s="32">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="F25" s="33">
         <v>2546</v>
       </c>
       <c r="G25" s="84">
-        <v>0.19930875576036866</v>
+        <v>0.20852534562211983</v>
       </c>
       <c r="H25" s="85">
-        <v>0.21234567901234569</v>
+        <v>0.24074074074074073</v>
       </c>
       <c r="I25" s="94">
         <v>0.24</v>
@@ -2781,10 +2732,10 @@
         <v>0.11</v>
       </c>
       <c r="K25" s="78">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="L25" s="79">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="M25" s="94">
         <v>59.99</v>
@@ -2810,37 +2761,37 @@
         <v>35</v>
       </c>
       <c r="B26" s="30">
-        <v>994</v>
+        <v>959</v>
       </c>
       <c r="C26" s="31">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="D26" s="32">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="E26" s="32">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="F26" s="33">
         <v>1781</v>
       </c>
       <c r="G26" s="84">
-        <v>0.20416333066453163</v>
+        <v>0.23218574859887911</v>
       </c>
       <c r="H26" s="85">
-        <v>0.21240601503759399</v>
+        <v>0.24060150375939848</v>
       </c>
       <c r="I26" s="94">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="J26" s="95">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K26" s="78">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="L26" s="79">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M26" s="94">
         <v>59.99</v>
@@ -2866,25 +2817,25 @@
         <v>36</v>
       </c>
       <c r="B27" s="30">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="C27" s="31">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D27" s="32">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E27" s="32">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F27" s="33">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="G27" s="84">
-        <v>0.1521099116781158</v>
+        <v>0.15815324165029471</v>
       </c>
       <c r="H27" s="85">
-        <v>0.15827338129496402</v>
+        <v>0.16306954436450841</v>
       </c>
       <c r="I27" s="94">
         <v>0.15</v>
@@ -2908,7 +2859,7 @@
         <v>64.98</v>
       </c>
       <c r="P27" s="79">
-        <v>64.989999999999995</v>
+        <v>64.98</v>
       </c>
       <c r="Q27" s="42">
         <v>0</v>
@@ -2922,25 +2873,25 @@
         <v>37</v>
       </c>
       <c r="B28" s="30">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="C28" s="31">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D28" s="32">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E28" s="32">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F28" s="33">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="G28" s="84">
-        <v>7.307171853856563E-2</v>
+        <v>5.2774018944519621E-2</v>
       </c>
       <c r="H28" s="85">
-        <v>7.4204946996466431E-2</v>
+        <v>5.6338028169014086E-2</v>
       </c>
       <c r="I28" s="94">
         <v>0.12</v>
@@ -2949,7 +2900,7 @@
         <v>0.05</v>
       </c>
       <c r="K28" s="78">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="L28" s="79">
         <v>0.01</v>
@@ -2978,28 +2929,28 @@
         <v>38</v>
       </c>
       <c r="B29" s="55">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="C29" s="56">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D29" s="57">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E29" s="57">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F29" s="58">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G29" s="88">
-        <v>7.3308270676691725E-2</v>
+        <v>5.2730696798493411E-2</v>
       </c>
       <c r="H29" s="89">
-        <v>7.5949367088607597E-2</v>
+        <v>5.6962025316455694E-2</v>
       </c>
       <c r="I29" s="98">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="J29" s="99">
         <v>0.03</v>
@@ -3008,7 +2959,7 @@
         <v>0.02</v>
       </c>
       <c r="L29" s="83">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M29" s="98">
         <v>59.99</v>
@@ -3035,31 +2986,31 @@
       </c>
       <c r="B30" s="65">
         <f>SUM(B6:B29)</f>
-        <v>22579</v>
+        <v>21609</v>
       </c>
       <c r="C30" s="66">
         <f t="shared" ref="C30:F30" si="0">SUM(C6:C29)</f>
-        <v>21979</v>
+        <v>20920</v>
       </c>
       <c r="D30" s="67">
         <f t="shared" si="0"/>
-        <v>5934</v>
+        <v>6906</v>
       </c>
       <c r="E30" s="67">
         <f t="shared" si="0"/>
-        <v>6531</v>
+        <v>7592</v>
       </c>
       <c r="F30" s="68">
         <f t="shared" si="0"/>
-        <v>57023</v>
+        <v>57027</v>
       </c>
       <c r="G30" s="100">
         <f>D30/B30</f>
-        <v>0.26281057619912307</v>
+        <v>0.31958906011384147</v>
       </c>
       <c r="H30" s="101">
         <f>E30/C30</f>
-        <v>0.29714727694617588</v>
+        <v>0.36290630975143401</v>
       </c>
       <c r="I30" s="71"/>
       <c r="J30" s="71"/>
@@ -3072,7 +3023,7 @@
       </c>
       <c r="B32" s="72">
         <f>B30+C30</f>
-        <v>44558</v>
+        <v>42529</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -3081,7 +3032,7 @@
       </c>
       <c r="B33" s="72">
         <f>D30+E30</f>
-        <v>12465</v>
+        <v>14498</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -3090,7 +3041,7 @@
       </c>
       <c r="B34" s="72">
         <f>B32+B33</f>
-        <v>57023</v>
+        <v>57027</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -3391,31 +3342,31 @@
         <v>15</v>
       </c>
       <c r="B51" s="30">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C51" s="31">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D51" s="32">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E51" s="32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F51" s="33">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G51" s="84">
-        <v>7.7669902912621352E-2</v>
+        <v>5.8252427184466021E-2</v>
       </c>
       <c r="H51" s="85">
-        <v>6.4516129032258063E-2</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="I51" s="90">
         <v>0.05</v>
       </c>
       <c r="J51" s="91">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="K51" s="92">
         <v>0.01</v>
@@ -3447,25 +3398,25 @@
         <v>16</v>
       </c>
       <c r="B52" s="30">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C52" s="31">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D52" s="32">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E52" s="32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F52" s="33">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G52" s="84">
-        <v>7.6023391812865493E-2</v>
+        <v>5.8139534883720929E-2</v>
       </c>
       <c r="H52" s="85">
-        <v>5.9701492537313432E-2</v>
+        <v>4.4776119402985072E-2</v>
       </c>
       <c r="I52" s="94">
         <v>0.03</v>
@@ -3503,25 +3454,25 @@
         <v>17</v>
       </c>
       <c r="B53" s="30">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C53" s="31">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D53" s="32">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E53" s="32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F53" s="33">
         <v>178</v>
       </c>
       <c r="G53" s="84">
-        <v>7.7586206896551727E-2</v>
+        <v>6.0344827586206899E-2</v>
       </c>
       <c r="H53" s="85">
-        <v>6.4516129032258063E-2</v>
+        <v>4.8387096774193547E-2</v>
       </c>
       <c r="I53" s="94">
         <v>0.02</v>
@@ -3559,25 +3510,25 @@
         <v>18</v>
       </c>
       <c r="B54" s="30">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C54" s="31">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D54" s="32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E54" s="32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F54" s="33">
         <v>233</v>
       </c>
       <c r="G54" s="84">
-        <v>7.476635514018691E-2</v>
+        <v>5.6074766355140186E-2</v>
       </c>
       <c r="H54" s="85">
-        <v>6.3492063492063489E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="I54" s="94">
         <v>0.02</v>
@@ -3615,25 +3566,25 @@
         <v>19</v>
       </c>
       <c r="B55" s="30">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C55" s="31">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D55" s="32">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E55" s="32">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F55" s="33">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G55" s="84">
-        <v>7.4829931972789115E-2</v>
+        <v>5.4421768707482991E-2</v>
       </c>
       <c r="H55" s="85">
-        <v>6.0344827586206899E-2</v>
+        <v>4.3227665706051875E-2</v>
       </c>
       <c r="I55" s="94">
         <v>0.02</v>
@@ -3642,7 +3593,7 @@
         <v>0.06</v>
       </c>
       <c r="K55" s="78">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L55" s="79">
         <v>0.01</v>
@@ -3671,25 +3622,25 @@
         <v>20</v>
       </c>
       <c r="B56" s="30">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C56" s="31">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="D56" s="32">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E56" s="32">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F56" s="33">
         <v>1555</v>
       </c>
       <c r="G56" s="84">
-        <v>0.16071428571428573</v>
+        <v>0.16785714285714284</v>
       </c>
       <c r="H56" s="85">
-        <v>0.12784313725490196</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="I56" s="94">
         <v>0.04</v>
@@ -3727,49 +3678,49 @@
         <v>21</v>
       </c>
       <c r="B57" s="30">
-        <v>539</v>
+        <v>491</v>
       </c>
       <c r="C57" s="31">
-        <v>3182</v>
+        <v>3017</v>
       </c>
       <c r="D57" s="32">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="E57" s="32">
-        <v>758</v>
+        <v>923</v>
       </c>
       <c r="F57" s="33">
         <v>4704</v>
       </c>
       <c r="G57" s="84">
-        <v>0.29450261780104714</v>
+        <v>0.35732984293193715</v>
       </c>
       <c r="H57" s="85">
-        <v>0.19238578680203045</v>
+        <v>0.23426395939086295</v>
       </c>
       <c r="I57" s="94">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="J57" s="95">
-        <v>0.55000000000000004</v>
+        <v>0.52</v>
       </c>
       <c r="K57" s="78">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="L57" s="79">
-        <v>0.42</v>
+        <v>0.51</v>
       </c>
       <c r="M57" s="94">
         <v>59.99</v>
       </c>
       <c r="N57" s="95">
-        <v>59.95</v>
+        <v>59.96</v>
       </c>
       <c r="O57" s="78">
         <v>64.97</v>
       </c>
       <c r="P57" s="79">
-        <v>64.900000000000006</v>
+        <v>64.849999999999994</v>
       </c>
       <c r="Q57" s="42">
         <v>0</v>
@@ -3783,49 +3734,49 @@
         <v>22</v>
       </c>
       <c r="B58" s="45">
-        <v>849</v>
+        <v>774</v>
       </c>
       <c r="C58" s="46">
-        <v>3319</v>
+        <v>3160</v>
       </c>
       <c r="D58" s="47">
-        <v>355</v>
+        <v>430</v>
       </c>
       <c r="E58" s="47">
-        <v>824</v>
+        <v>983</v>
       </c>
       <c r="F58" s="48">
         <v>5347</v>
       </c>
       <c r="G58" s="86">
-        <v>0.29485049833887045</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="H58" s="87">
-        <v>0.19888969345884625</v>
+        <v>0.23726768042481294</v>
       </c>
       <c r="I58" s="96">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="J58" s="97">
-        <v>0.56999999999999995</v>
+        <v>0.54</v>
       </c>
       <c r="K58" s="80">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="L58" s="81">
-        <v>0.46</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M58" s="96">
         <v>59.99</v>
       </c>
       <c r="N58" s="97">
-        <v>59.95</v>
+        <v>59.96</v>
       </c>
       <c r="O58" s="80">
-        <v>64.959999999999994</v>
+        <v>64.95</v>
       </c>
       <c r="P58" s="81">
-        <v>64.88</v>
+        <v>64.83</v>
       </c>
       <c r="Q58" s="53">
         <v>0</v>
@@ -3839,37 +3790,37 @@
         <v>23</v>
       </c>
       <c r="B59" s="45">
-        <v>879</v>
+        <v>802</v>
       </c>
       <c r="C59" s="46">
-        <v>3095</v>
+        <v>2930</v>
       </c>
       <c r="D59" s="47">
-        <v>367</v>
+        <v>445</v>
       </c>
       <c r="E59" s="47">
-        <v>729</v>
+        <v>894</v>
       </c>
       <c r="F59" s="48">
-        <v>5070</v>
+        <v>5071</v>
       </c>
       <c r="G59" s="86">
-        <v>0.2945425361155698</v>
+        <v>0.35685645549318362</v>
       </c>
       <c r="H59" s="87">
-        <v>0.19063807531380753</v>
+        <v>0.23378661087866109</v>
       </c>
       <c r="I59" s="96">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J59" s="97">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="K59" s="80">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="L59" s="81">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="M59" s="96">
         <v>59.99</v>
@@ -3878,10 +3829,10 @@
         <v>59.96</v>
       </c>
       <c r="O59" s="80">
-        <v>64.959999999999994</v>
+        <v>64.95</v>
       </c>
       <c r="P59" s="81">
-        <v>64.900000000000006</v>
+        <v>64.86</v>
       </c>
       <c r="Q59" s="53">
         <v>0</v>
@@ -3895,37 +3846,37 @@
         <v>24</v>
       </c>
       <c r="B60" s="45">
-        <v>922</v>
+        <v>857</v>
       </c>
       <c r="C60" s="46">
-        <v>2171</v>
+        <v>2068</v>
       </c>
       <c r="D60" s="47">
-        <v>385</v>
+        <v>450</v>
       </c>
       <c r="E60" s="47">
-        <v>521</v>
+        <v>624</v>
       </c>
       <c r="F60" s="48">
         <v>3999</v>
       </c>
       <c r="G60" s="86">
-        <v>0.29456771231828616</v>
+        <v>0.34429992348890587</v>
       </c>
       <c r="H60" s="87">
-        <v>0.19353640416047549</v>
+        <v>0.23179791976225855</v>
       </c>
       <c r="I60" s="96">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="J60" s="97">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="K60" s="80">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="L60" s="81">
-        <v>0.28999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="M60" s="96">
         <v>59.99</v>
@@ -3934,16 +3885,16 @@
         <v>59.98</v>
       </c>
       <c r="O60" s="80">
-        <v>64.959999999999994</v>
+        <v>64.95</v>
       </c>
       <c r="P60" s="81">
-        <v>64.94</v>
+        <v>64.92</v>
       </c>
       <c r="Q60" s="53">
         <v>0</v>
       </c>
       <c r="R60" s="54">
-        <v>0</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -3951,37 +3902,37 @@
         <v>25</v>
       </c>
       <c r="B61" s="30">
-        <v>987</v>
+        <v>949</v>
       </c>
       <c r="C61" s="31">
-        <v>1737</v>
+        <v>1688</v>
       </c>
       <c r="D61" s="32">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="E61" s="32">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="F61" s="33">
         <v>3363</v>
       </c>
       <c r="G61" s="84">
-        <v>0.21852731591448932</v>
+        <v>0.24801901743264659</v>
       </c>
       <c r="H61" s="85">
-        <v>0.17285714285714285</v>
+        <v>0.196573060447406</v>
       </c>
       <c r="I61" s="94">
+        <v>0.16</v>
+      </c>
+      <c r="J61" s="95">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K61" s="78">
         <v>0.17</v>
       </c>
-      <c r="J61" s="95">
-        <v>0.3</v>
-      </c>
-      <c r="K61" s="78">
-        <v>0.15</v>
-      </c>
       <c r="L61" s="79">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="M61" s="94">
         <v>59.99</v>
@@ -3990,10 +3941,10 @@
         <v>59.98</v>
       </c>
       <c r="O61" s="78">
-        <v>64.97</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="P61" s="79">
-        <v>64.959999999999994</v>
+        <v>64.95</v>
       </c>
       <c r="Q61" s="42">
         <v>0</v>
@@ -4007,25 +3958,25 @@
         <v>26</v>
       </c>
       <c r="B62" s="30">
-        <v>1076</v>
+        <v>1035</v>
       </c>
       <c r="C62" s="31">
-        <v>1542</v>
+        <v>1498</v>
       </c>
       <c r="D62" s="32">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="E62" s="32">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="F62" s="33">
-        <v>3241</v>
+        <v>3240</v>
       </c>
       <c r="G62" s="84">
-        <v>0.21859114015976761</v>
+        <v>0.24781976744186046</v>
       </c>
       <c r="H62" s="85">
-        <v>0.17274678111587982</v>
+        <v>0.1963519313304721</v>
       </c>
       <c r="I62" s="94">
         <v>0.18</v>
@@ -4034,10 +3985,10 @@
         <v>0.26</v>
       </c>
       <c r="K62" s="78">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="L62" s="79">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="M62" s="94">
         <v>59.99</v>
@@ -4046,7 +3997,7 @@
         <v>59.99</v>
       </c>
       <c r="O62" s="78">
-        <v>64.97</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="P62" s="79">
         <v>64.959999999999994</v>
@@ -4063,25 +4014,25 @@
         <v>27</v>
       </c>
       <c r="B63" s="30">
-        <v>1244</v>
+        <v>1196</v>
       </c>
       <c r="C63" s="31">
-        <v>1410</v>
+        <v>1369</v>
       </c>
       <c r="D63" s="32">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="E63" s="32">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="F63" s="33">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="G63" s="84">
-        <v>0.21810182275298554</v>
+        <v>0.24779874213836478</v>
       </c>
       <c r="H63" s="85">
-        <v>0.17253521126760563</v>
+        <v>0.19659624413145541</v>
       </c>
       <c r="I63" s="94">
         <v>0.21</v>
@@ -4090,10 +4041,10 @@
         <v>0.24</v>
       </c>
       <c r="K63" s="78">
+        <v>0.22</v>
+      </c>
+      <c r="L63" s="79">
         <v>0.19</v>
-      </c>
-      <c r="L63" s="79">
-        <v>0.16</v>
       </c>
       <c r="M63" s="94">
         <v>59.99</v>
@@ -4105,7 +4056,7 @@
         <v>64.959999999999994</v>
       </c>
       <c r="P63" s="79">
-        <v>64.97</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="Q63" s="42">
         <v>0</v>
@@ -4119,37 +4070,37 @@
         <v>28</v>
       </c>
       <c r="B64" s="30">
-        <v>1403</v>
+        <v>1349</v>
       </c>
       <c r="C64" s="31">
-        <v>1303</v>
+        <v>1266</v>
       </c>
       <c r="D64" s="32">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="E64" s="32">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="F64" s="33">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="G64" s="84">
-        <v>0.21838440111420612</v>
+        <v>0.24804905239687849</v>
       </c>
       <c r="H64" s="85">
-        <v>0.17269841269841271</v>
+        <v>0.19619047619047619</v>
       </c>
       <c r="I64" s="94">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="J64" s="95">
         <v>0.22</v>
       </c>
       <c r="K64" s="78">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="L64" s="79">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="M64" s="94">
         <v>59.99</v>
@@ -4158,10 +4109,10 @@
         <v>59.99</v>
       </c>
       <c r="O64" s="78">
+        <v>64.95</v>
+      </c>
+      <c r="P64" s="79">
         <v>64.959999999999994</v>
-      </c>
-      <c r="P64" s="79">
-        <v>64.97</v>
       </c>
       <c r="Q64" s="42">
         <v>0</v>
@@ -4175,37 +4126,37 @@
         <v>29</v>
       </c>
       <c r="B65" s="30">
-        <v>1739</v>
+        <v>1715</v>
       </c>
       <c r="C65" s="31">
-        <v>1346</v>
+        <v>1308</v>
       </c>
       <c r="D65" s="32">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="E65" s="32">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="F65" s="33">
-        <v>3816</v>
+        <v>3817</v>
       </c>
       <c r="G65" s="84">
-        <v>0.2055733211512106</v>
+        <v>0.21653723161260849</v>
       </c>
       <c r="H65" s="85">
-        <v>0.17271051014136449</v>
+        <v>0.19656019656019655</v>
       </c>
       <c r="I65" s="94">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J65" s="95">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="K65" s="78">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="L65" s="79">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="M65" s="94">
         <v>59.98</v>
@@ -4217,7 +4168,7 @@
         <v>64.95</v>
       </c>
       <c r="P65" s="79">
-        <v>64.97</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="Q65" s="42">
         <v>0</v>
@@ -4231,49 +4182,49 @@
         <v>30</v>
       </c>
       <c r="B66" s="30">
-        <v>2426</v>
+        <v>2250</v>
       </c>
       <c r="C66" s="31">
-        <v>1285</v>
+        <v>1228</v>
       </c>
       <c r="D66" s="32">
-        <v>767</v>
+        <v>943</v>
       </c>
       <c r="E66" s="32">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="F66" s="33">
         <v>4871</v>
       </c>
       <c r="G66" s="84">
-        <v>0.24021296586282492</v>
+        <v>0.29533354212339491</v>
       </c>
       <c r="H66" s="85">
-        <v>0.23420738974970204</v>
+        <v>0.26817640047675806</v>
       </c>
       <c r="I66" s="94">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="J66" s="95">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="K66" s="78">
-        <v>0.43</v>
+        <v>0.52</v>
       </c>
       <c r="L66" s="79">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="M66" s="94">
-        <v>59.97</v>
+        <v>59.98</v>
       </c>
       <c r="N66" s="95">
         <v>59.99</v>
       </c>
       <c r="O66" s="78">
-        <v>64.900000000000006</v>
+        <v>64.84</v>
       </c>
       <c r="P66" s="79">
-        <v>64.959999999999994</v>
+        <v>64.95</v>
       </c>
       <c r="Q66" s="42">
         <v>0.23</v>
@@ -4287,37 +4238,37 @@
         <v>31</v>
       </c>
       <c r="B67" s="45">
-        <v>3147</v>
+        <v>2952</v>
       </c>
       <c r="C67" s="46">
-        <v>1286</v>
+        <v>1229</v>
       </c>
       <c r="D67" s="47">
-        <v>997</v>
+        <v>1192</v>
       </c>
       <c r="E67" s="47">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="F67" s="48">
         <v>5823</v>
       </c>
       <c r="G67" s="86">
-        <v>0.24058880308880309</v>
+        <v>0.28764478764478763</v>
       </c>
       <c r="H67" s="87">
-        <v>0.23406789755807028</v>
+        <v>0.26801667659321027</v>
       </c>
       <c r="I67" s="96">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="J67" s="97">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="K67" s="80">
-        <v>0.55000000000000004</v>
+        <v>0.66</v>
       </c>
       <c r="L67" s="81">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="M67" s="96">
         <v>59.96</v>
@@ -4326,13 +4277,13 @@
         <v>59.99</v>
       </c>
       <c r="O67" s="80">
-        <v>64.819999999999993</v>
+        <v>64.7</v>
       </c>
       <c r="P67" s="81">
-        <v>64.959999999999994</v>
+        <v>64.95</v>
       </c>
       <c r="Q67" s="53">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="R67" s="54">
         <v>0</v>
@@ -4343,37 +4294,37 @@
         <v>32</v>
       </c>
       <c r="B68" s="45">
-        <v>3122</v>
+        <v>2927</v>
       </c>
       <c r="C68" s="46">
-        <v>1344</v>
+        <v>1305</v>
       </c>
       <c r="D68" s="47">
-        <v>989</v>
+        <v>1184</v>
       </c>
       <c r="E68" s="47">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="F68" s="48">
         <v>5866</v>
       </c>
       <c r="G68" s="86">
-        <v>0.24057406956944782</v>
+        <v>0.28800778399416199</v>
       </c>
       <c r="H68" s="87">
-        <v>0.23418803418803419</v>
+        <v>0.25641025641025639</v>
       </c>
       <c r="I68" s="96">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="J68" s="97">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="K68" s="80">
-        <v>0.55000000000000004</v>
+        <v>0.66</v>
       </c>
       <c r="L68" s="81">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="M68" s="96">
         <v>59.96</v>
@@ -4382,13 +4333,13 @@
         <v>59.99</v>
       </c>
       <c r="O68" s="80">
-        <v>64.83</v>
+        <v>64.709999999999994</v>
       </c>
       <c r="P68" s="81">
         <v>64.95</v>
       </c>
       <c r="Q68" s="53">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="R68" s="54">
         <v>0</v>
@@ -4399,49 +4350,49 @@
         <v>33</v>
       </c>
       <c r="B69" s="45">
-        <v>2427</v>
+        <v>2250</v>
       </c>
       <c r="C69" s="46">
-        <v>1131</v>
+        <v>1057</v>
       </c>
       <c r="D69" s="47">
-        <v>768</v>
+        <v>945</v>
       </c>
       <c r="E69" s="47">
-        <v>346</v>
+        <v>420</v>
       </c>
       <c r="F69" s="48">
         <v>4672</v>
       </c>
       <c r="G69" s="86">
-        <v>0.24037558685446009</v>
+        <v>0.29577464788732394</v>
       </c>
       <c r="H69" s="87">
-        <v>0.23425863236289776</v>
+        <v>0.28436018957345971</v>
       </c>
       <c r="I69" s="96">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="J69" s="97">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="K69" s="80">
-        <v>0.43</v>
+        <v>0.52</v>
       </c>
       <c r="L69" s="81">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="M69" s="96">
-        <v>59.97</v>
+        <v>59.98</v>
       </c>
       <c r="N69" s="97">
         <v>59.99</v>
       </c>
       <c r="O69" s="80">
-        <v>64.900000000000006</v>
+        <v>64.84</v>
       </c>
       <c r="P69" s="81">
-        <v>64.959999999999994</v>
+        <v>64.95</v>
       </c>
       <c r="Q69" s="53">
         <v>0.23</v>
@@ -4455,25 +4406,25 @@
         <v>34</v>
       </c>
       <c r="B70" s="30">
-        <v>1680</v>
+        <v>1668</v>
       </c>
       <c r="C70" s="31">
-        <v>816</v>
+        <v>793</v>
       </c>
       <c r="D70" s="32">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="E70" s="32">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="F70" s="33">
-        <v>3116</v>
+        <v>3117</v>
       </c>
       <c r="G70" s="84">
-        <v>0.21126760563380281</v>
+        <v>0.21690140845070421</v>
       </c>
       <c r="H70" s="85">
-        <v>0.17241379310344829</v>
+        <v>0.19655521783181357</v>
       </c>
       <c r="I70" s="94">
         <v>0.28999999999999998</v>
@@ -4482,10 +4433,10 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="K70" s="78">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="L70" s="79">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="M70" s="94">
         <v>59.98</v>
@@ -4511,37 +4462,37 @@
         <v>35</v>
       </c>
       <c r="B71" s="30">
-        <v>1198</v>
+        <v>1153</v>
       </c>
       <c r="C71" s="31">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="D71" s="32">
-        <v>334</v>
+        <v>379</v>
       </c>
       <c r="E71" s="32">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="F71" s="33">
         <v>2180</v>
       </c>
       <c r="G71" s="84">
-        <v>0.21801566579634465</v>
+        <v>0.24738903394255873</v>
       </c>
       <c r="H71" s="85">
-        <v>0.1728395061728395</v>
+        <v>0.19598765432098766</v>
       </c>
       <c r="I71" s="94">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="J71" s="95">
         <v>0.09</v>
       </c>
       <c r="K71" s="78">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="L71" s="79">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M71" s="94">
         <v>59.99</v>
@@ -4567,25 +4518,25 @@
         <v>36</v>
       </c>
       <c r="B72" s="30">
-        <v>1047</v>
+        <v>1038</v>
       </c>
       <c r="C72" s="31">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D72" s="32">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="E72" s="32">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F72" s="33">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="G72" s="84">
-        <v>0.16239999999999999</v>
+        <v>0.1689351481184948</v>
       </c>
       <c r="H72" s="85">
-        <v>0.12795275590551181</v>
+        <v>0.13385826771653545</v>
       </c>
       <c r="I72" s="94">
         <v>0.18</v>
@@ -4594,7 +4545,7 @@
         <v>0.08</v>
       </c>
       <c r="K72" s="78">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="L72" s="79">
         <v>0.04</v>
@@ -4623,34 +4574,34 @@
         <v>37</v>
       </c>
       <c r="B73" s="30">
-        <v>836</v>
+        <v>855</v>
       </c>
       <c r="C73" s="31">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D73" s="32">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E73" s="32">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F73" s="33">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="G73" s="84">
-        <v>7.7262693156732898E-2</v>
+        <v>5.6291390728476824E-2</v>
       </c>
       <c r="H73" s="85">
-        <v>6.0869565217391307E-2</v>
+        <v>4.3604651162790699E-2</v>
       </c>
       <c r="I73" s="94">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="J73" s="95">
         <v>0.06</v>
       </c>
       <c r="K73" s="78">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="L73" s="79">
         <v>0.01</v>
@@ -4662,7 +4613,7 @@
         <v>60</v>
       </c>
       <c r="O73" s="78">
-        <v>64.98</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="P73" s="79">
         <v>64.989999999999995</v>
@@ -4679,37 +4630,37 @@
         <v>38</v>
       </c>
       <c r="B74" s="55">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="C74" s="56">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D74" s="57">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E74" s="57">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F74" s="58">
         <v>844</v>
       </c>
       <c r="G74" s="88">
-        <v>7.8220858895705528E-2</v>
+        <v>5.674846625766871E-2</v>
       </c>
       <c r="H74" s="89">
-        <v>6.25E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="I74" s="98">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="J74" s="99">
         <v>0.03</v>
       </c>
       <c r="K74" s="82">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="L74" s="83">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M74" s="98">
         <v>59.99</v>
@@ -4736,31 +4687,31 @@
       </c>
       <c r="B75" s="65">
         <f>SUM(B51:B74)</f>
-        <v>27142</v>
+        <v>25911</v>
       </c>
       <c r="C75" s="66">
         <f t="shared" ref="C75" si="1">SUM(C51:C74)</f>
-        <v>28215</v>
+        <v>27157</v>
       </c>
       <c r="D75" s="67">
         <f t="shared" ref="D75" si="2">SUM(D51:D74)</f>
-        <v>7837</v>
+        <v>9065</v>
       </c>
       <c r="E75" s="67">
         <f t="shared" ref="E75" si="3">SUM(E51:E74)</f>
-        <v>6493</v>
+        <v>7551</v>
       </c>
       <c r="F75" s="68">
         <f t="shared" ref="F75" si="4">SUM(F51:F74)</f>
-        <v>69687</v>
+        <v>69684</v>
       </c>
       <c r="G75" s="100">
         <f>D75/B75</f>
-        <v>0.28874069707464445</v>
+        <v>0.34985141445718032</v>
       </c>
       <c r="H75" s="101">
         <f>E75/C75</f>
-        <v>0.23012581959950382</v>
+        <v>0.27804985823176342</v>
       </c>
       <c r="I75" s="71"/>
       <c r="J75" s="71"/>
@@ -4773,7 +4724,7 @@
       </c>
       <c r="B77" s="72">
         <f>B75+C75</f>
-        <v>55357</v>
+        <v>53068</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
@@ -4782,7 +4733,7 @@
       </c>
       <c r="B78" s="72">
         <f>D75+E75</f>
-        <v>14330</v>
+        <v>16616</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
@@ -4791,7 +4742,7 @@
       </c>
       <c r="B79" s="72">
         <f>B77+B78</f>
-        <v>69687</v>
+        <v>69684</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
@@ -15371,6 +15322,5 @@
     <mergeCell ref="Q723:R723"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Analysis & Profiles/Output_2020A2.xlsx
+++ b/Analysis & Profiles/Output_2020A2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Projects\Veterans ELToDv2.3 2017-0628\Analysis &amp; Profiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Projects\Veterans ELToDv2.3 2017-0628_PDNE\Analysis &amp; Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1183,6 +1183,55 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>284631</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>377191</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47371</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12846425" y="943535"/>
+          <a:ext cx="7959090" cy="2163042"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1449,7 +1498,7 @@
   <dimension ref="A1:R764"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+      <selection activeCell="P13" sqref="A13:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,25 +1690,25 @@
         <v>15</v>
       </c>
       <c r="B6" s="30">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="C6" s="31">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D6" s="32">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E6" s="32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="33">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="G6" s="84">
-        <v>5.1792828685258967E-2</v>
+        <v>8.9285714285714288E-2</v>
       </c>
       <c r="H6" s="85">
-        <v>5.2631578947368418E-2</v>
+        <v>9.4339622641509441E-2</v>
       </c>
       <c r="I6" s="90">
         <v>0.04</v>
@@ -1697,34 +1746,34 @@
         <v>16</v>
       </c>
       <c r="B7" s="30">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="C7" s="31">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D7" s="32">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E7" s="32">
         <v>3</v>
       </c>
       <c r="F7" s="33">
-        <v>195</v>
+        <v>132</v>
       </c>
       <c r="G7" s="84">
-        <v>0.05</v>
+        <v>8.9108910891089105E-2</v>
       </c>
       <c r="H7" s="85">
-        <v>5.4545454545454543E-2</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="I7" s="94">
         <v>0.02</v>
       </c>
       <c r="J7" s="95">
+        <v>0</v>
+      </c>
+      <c r="K7" s="78">
         <v>0.01</v>
-      </c>
-      <c r="K7" s="78">
-        <v>0</v>
       </c>
       <c r="L7" s="79">
         <v>0</v>
@@ -1753,31 +1802,31 @@
         <v>17</v>
       </c>
       <c r="B8" s="30">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="C8" s="31">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D8" s="32">
         <v>5</v>
       </c>
       <c r="E8" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="33">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="G8" s="84">
-        <v>5.3191489361702128E-2</v>
+        <v>9.8039215686274508E-2</v>
       </c>
       <c r="H8" s="85">
-        <v>5.8823529411764705E-2</v>
+        <v>0.08</v>
       </c>
       <c r="I8" s="94">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J8" s="95">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K8" s="78">
         <v>0</v>
@@ -1809,31 +1858,31 @@
         <v>18</v>
       </c>
       <c r="B9" s="30">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="C9" s="31">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D9" s="32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" s="33">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="G9" s="84">
-        <v>5.6818181818181816E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="H9" s="85">
-        <v>5.8252427184466021E-2</v>
+        <v>9.6385542168674704E-2</v>
       </c>
       <c r="I9" s="94">
         <v>0.01</v>
       </c>
       <c r="J9" s="95">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="K9" s="78">
         <v>0</v>
@@ -1865,31 +1914,31 @@
         <v>19</v>
       </c>
       <c r="B10" s="30">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="C10" s="31">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D10" s="32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" s="32">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F10" s="33">
-        <v>406</v>
+        <v>364</v>
       </c>
       <c r="G10" s="84">
-        <v>0.05</v>
+        <v>8.8607594936708861E-2</v>
       </c>
       <c r="H10" s="85">
-        <v>5.5944055944055944E-2</v>
+        <v>9.4736842105263161E-2</v>
       </c>
       <c r="I10" s="94">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J10" s="95">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="K10" s="78">
         <v>0</v>
@@ -1921,25 +1970,25 @@
         <v>20</v>
       </c>
       <c r="B11" s="30">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="C11" s="31">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="D11" s="32">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E11" s="32">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="F11" s="33">
-        <v>1276</v>
+        <v>1320</v>
       </c>
       <c r="G11" s="84">
-        <v>0.15789473684210525</v>
+        <v>0.19597989949748743</v>
       </c>
       <c r="H11" s="85">
-        <v>0.16412213740458015</v>
+        <v>0.20249776984834969</v>
       </c>
       <c r="I11" s="94">
         <v>0.03</v>
@@ -1951,7 +2000,7 @@
         <v>0.02</v>
       </c>
       <c r="L11" s="79">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="M11" s="94">
         <v>60</v>
@@ -1963,7 +2012,7 @@
         <v>64.989999999999995</v>
       </c>
       <c r="P11" s="79">
-        <v>64.98</v>
+        <v>64.97</v>
       </c>
       <c r="Q11" s="42">
         <v>0</v>
@@ -1977,49 +2026,49 @@
         <v>21</v>
       </c>
       <c r="B12" s="30">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C12" s="31">
-        <v>2309</v>
+        <v>2629</v>
       </c>
       <c r="D12" s="32">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E12" s="32">
-        <v>927</v>
+        <v>1089</v>
       </c>
       <c r="F12" s="33">
-        <v>3859</v>
+        <v>4350</v>
       </c>
       <c r="G12" s="84">
-        <v>0.33547351524879615</v>
+        <v>0.33544303797468356</v>
       </c>
       <c r="H12" s="85">
-        <v>0.28646477132262049</v>
+        <v>0.29289940828402367</v>
       </c>
       <c r="I12" s="94">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J12" s="95">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="K12" s="78">
         <v>0.12</v>
       </c>
       <c r="L12" s="79">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
       <c r="M12" s="94">
         <v>59.99</v>
       </c>
       <c r="N12" s="95">
-        <v>59.98</v>
+        <v>59.97</v>
       </c>
       <c r="O12" s="78">
         <v>64.97</v>
       </c>
       <c r="P12" s="79">
-        <v>64.849999999999994</v>
+        <v>64.78</v>
       </c>
       <c r="Q12" s="42">
         <v>0</v>
@@ -2033,55 +2082,55 @@
         <v>22</v>
       </c>
       <c r="B13" s="45">
-        <v>652</v>
+        <v>682</v>
       </c>
       <c r="C13" s="46">
-        <v>2420</v>
+        <v>3003</v>
       </c>
       <c r="D13" s="47">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="E13" s="47">
-        <v>984</v>
+        <v>1212</v>
       </c>
       <c r="F13" s="48">
-        <v>4386</v>
+        <v>5242</v>
       </c>
       <c r="G13" s="86">
-        <v>0.33604887983706722</v>
+        <v>0.33592989289191821</v>
       </c>
       <c r="H13" s="87">
-        <v>0.28907168037602821</v>
+        <v>0.2875444839857651</v>
       </c>
       <c r="I13" s="96">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="J13" s="97">
-        <v>0.42</v>
+        <v>0.52</v>
       </c>
       <c r="K13" s="80">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="L13" s="81">
-        <v>0.55000000000000004</v>
+        <v>0.67</v>
       </c>
       <c r="M13" s="96">
         <v>59.99</v>
       </c>
       <c r="N13" s="97">
-        <v>59.97</v>
+        <v>59.96</v>
       </c>
       <c r="O13" s="80">
         <v>64.959999999999994</v>
       </c>
       <c r="P13" s="81">
-        <v>64.83</v>
+        <v>64.680000000000007</v>
       </c>
       <c r="Q13" s="53">
         <v>0</v>
       </c>
       <c r="R13" s="54">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -2089,49 +2138,49 @@
         <v>23</v>
       </c>
       <c r="B14" s="45">
-        <v>675</v>
+        <v>718</v>
       </c>
       <c r="C14" s="46">
-        <v>2242</v>
+        <v>2664</v>
       </c>
       <c r="D14" s="47">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="E14" s="47">
-        <v>898</v>
+        <v>1105</v>
       </c>
       <c r="F14" s="48">
-        <v>4156</v>
+        <v>4835</v>
       </c>
       <c r="G14" s="86">
-        <v>0.33562992125984253</v>
+        <v>0.32645403377110693</v>
       </c>
       <c r="H14" s="87">
-        <v>0.28598726114649681</v>
+        <v>0.29318121517643936</v>
       </c>
       <c r="I14" s="96">
         <v>0.12</v>
       </c>
       <c r="J14" s="97">
-        <v>0.39</v>
+        <v>0.46</v>
       </c>
       <c r="K14" s="80">
         <v>0.19</v>
       </c>
       <c r="L14" s="81">
-        <v>0.5</v>
+        <v>0.61</v>
       </c>
       <c r="M14" s="96">
         <v>59.99</v>
       </c>
       <c r="N14" s="97">
-        <v>59.98</v>
+        <v>59.97</v>
       </c>
       <c r="O14" s="80">
         <v>64.959999999999994</v>
       </c>
       <c r="P14" s="81">
-        <v>64.86</v>
+        <v>64.77</v>
       </c>
       <c r="Q14" s="53">
         <v>0</v>
@@ -2145,49 +2194,49 @@
         <v>24</v>
       </c>
       <c r="B15" s="45">
-        <v>718</v>
+        <v>768</v>
       </c>
       <c r="C15" s="46">
-        <v>1582</v>
+        <v>1834</v>
       </c>
       <c r="D15" s="47">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E15" s="47">
-        <v>629</v>
+        <v>733</v>
       </c>
       <c r="F15" s="48">
-        <v>3276</v>
+        <v>3686</v>
       </c>
       <c r="G15" s="86">
-        <v>0.32582159624413143</v>
+        <v>0.31367292225201071</v>
       </c>
       <c r="H15" s="87">
-        <v>0.28448665762098596</v>
+        <v>0.28554733151538764</v>
       </c>
       <c r="I15" s="96">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="J15" s="97">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="K15" s="80">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="L15" s="81">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
       <c r="M15" s="96">
         <v>59.99</v>
       </c>
       <c r="N15" s="97">
-        <v>59.99</v>
+        <v>59.98</v>
       </c>
       <c r="O15" s="80">
         <v>64.959999999999994</v>
       </c>
       <c r="P15" s="81">
-        <v>64.92</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="Q15" s="53">
         <v>0</v>
@@ -2201,37 +2250,37 @@
         <v>25</v>
       </c>
       <c r="B16" s="30">
-        <v>790</v>
+        <v>802</v>
       </c>
       <c r="C16" s="31">
-        <v>1309</v>
+        <v>1418</v>
       </c>
       <c r="D16" s="32">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="E16" s="32">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="F16" s="33">
-        <v>2755</v>
+        <v>2947</v>
       </c>
       <c r="G16" s="84">
-        <v>0.23226433430515064</v>
+        <v>0.25671918443002778</v>
       </c>
       <c r="H16" s="85">
-        <v>0.24159907300115874</v>
+        <v>0.24089935760171305</v>
       </c>
       <c r="I16" s="94">
         <v>0.14000000000000001</v>
       </c>
       <c r="J16" s="95">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="K16" s="78">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="L16" s="79">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="M16" s="94">
         <v>59.99</v>
@@ -2257,37 +2306,37 @@
         <v>26</v>
       </c>
       <c r="B17" s="30">
-        <v>861</v>
+        <v>878</v>
       </c>
       <c r="C17" s="31">
-        <v>1162</v>
+        <v>1213</v>
       </c>
       <c r="D17" s="32">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="E17" s="32">
-        <v>370</v>
+        <v>441</v>
       </c>
       <c r="F17" s="33">
-        <v>2654</v>
+        <v>2836</v>
       </c>
       <c r="G17" s="84">
-        <v>0.23262032085561499</v>
+        <v>0.25719120135363788</v>
       </c>
       <c r="H17" s="85">
-        <v>0.24151436031331594</v>
+        <v>0.26662636033857318</v>
       </c>
       <c r="I17" s="94">
         <v>0.15</v>
       </c>
       <c r="J17" s="95">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="K17" s="78">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="L17" s="79">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="M17" s="94">
         <v>59.99</v>
@@ -2299,7 +2348,7 @@
         <v>64.97</v>
       </c>
       <c r="P17" s="79">
-        <v>64.959999999999994</v>
+        <v>64.95</v>
       </c>
       <c r="Q17" s="42">
         <v>0</v>
@@ -2313,37 +2362,37 @@
         <v>27</v>
       </c>
       <c r="B18" s="30">
-        <v>995</v>
+        <v>1027</v>
       </c>
       <c r="C18" s="31">
-        <v>1062</v>
+        <v>1107</v>
       </c>
       <c r="D18" s="32">
-        <v>302</v>
+        <v>347</v>
       </c>
       <c r="E18" s="32">
-        <v>338</v>
+        <v>402</v>
       </c>
       <c r="F18" s="33">
-        <v>2697</v>
+        <v>2883</v>
       </c>
       <c r="G18" s="84">
-        <v>0.23284502698535081</v>
+        <v>0.25254730713245999</v>
       </c>
       <c r="H18" s="85">
-        <v>0.24142857142857144</v>
+        <v>0.26640159045725648</v>
       </c>
       <c r="I18" s="94">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="J18" s="95">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="K18" s="78">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="L18" s="79">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="M18" s="94">
         <v>59.99</v>
@@ -2352,7 +2401,7 @@
         <v>59.99</v>
       </c>
       <c r="O18" s="78">
-        <v>64.97</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="P18" s="79">
         <v>64.959999999999994</v>
@@ -2369,37 +2418,37 @@
         <v>28</v>
       </c>
       <c r="B19" s="30">
-        <v>1122</v>
+        <v>1197</v>
       </c>
       <c r="C19" s="31">
-        <v>982</v>
+        <v>1022</v>
       </c>
       <c r="D19" s="32">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="E19" s="32">
-        <v>312</v>
+        <v>371</v>
       </c>
       <c r="F19" s="33">
-        <v>2756</v>
+        <v>2950</v>
       </c>
       <c r="G19" s="84">
-        <v>0.23255813953488372</v>
+        <v>0.23121387283236994</v>
       </c>
       <c r="H19" s="85">
-        <v>0.24111282843894899</v>
+        <v>0.26633165829145727</v>
       </c>
       <c r="I19" s="94">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="J19" s="95">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="K19" s="78">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="L19" s="79">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="M19" s="94">
         <v>59.99</v>
@@ -2425,37 +2474,37 @@
         <v>29</v>
       </c>
       <c r="B20" s="30">
-        <v>1413</v>
+        <v>1469</v>
       </c>
       <c r="C20" s="31">
-        <v>1014</v>
+        <v>1056</v>
       </c>
       <c r="D20" s="32">
-        <v>372</v>
+        <v>442</v>
       </c>
       <c r="E20" s="32">
-        <v>323</v>
+        <v>384</v>
       </c>
       <c r="F20" s="33">
-        <v>3122</v>
+        <v>3351</v>
       </c>
       <c r="G20" s="84">
-        <v>0.20840336134453782</v>
+        <v>0.23129251700680273</v>
       </c>
       <c r="H20" s="85">
-        <v>0.24158563949139866</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="I20" s="94">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="J20" s="95">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="K20" s="78">
+        <v>0.25</v>
+      </c>
+      <c r="L20" s="79">
         <v>0.21</v>
-      </c>
-      <c r="L20" s="79">
-        <v>0.18</v>
       </c>
       <c r="M20" s="94">
         <v>59.99</v>
@@ -2464,7 +2513,7 @@
         <v>59.99</v>
       </c>
       <c r="O20" s="78">
-        <v>64.959999999999994</v>
+        <v>64.95</v>
       </c>
       <c r="P20" s="79">
         <v>64.959999999999994</v>
@@ -2481,37 +2530,37 @@
         <v>30</v>
       </c>
       <c r="B21" s="30">
-        <v>1897</v>
+        <v>2307</v>
       </c>
       <c r="C21" s="31">
-        <v>928</v>
+        <v>1022</v>
       </c>
       <c r="D21" s="32">
-        <v>707</v>
+        <v>848</v>
       </c>
       <c r="E21" s="32">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="F21" s="33">
-        <v>3982</v>
+        <v>4641</v>
       </c>
       <c r="G21" s="84">
-        <v>0.271505376344086</v>
+        <v>0.26877971473851031</v>
       </c>
       <c r="H21" s="85">
-        <v>0.32656023222060959</v>
+        <v>0.31224764468371469</v>
       </c>
       <c r="I21" s="94">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="J21" s="95">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="K21" s="78">
-        <v>0.39</v>
+        <v>0.47</v>
       </c>
       <c r="L21" s="79">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="M21" s="94">
         <v>59.98</v>
@@ -2520,7 +2569,7 @@
         <v>59.99</v>
       </c>
       <c r="O21" s="78">
-        <v>64.91</v>
+        <v>64.88</v>
       </c>
       <c r="P21" s="79">
         <v>64.95</v>
@@ -2537,46 +2586,46 @@
         <v>31</v>
       </c>
       <c r="B22" s="45">
-        <v>2477</v>
+        <v>3138</v>
       </c>
       <c r="C22" s="46">
-        <v>929</v>
+        <v>1022</v>
       </c>
       <c r="D22" s="47">
-        <v>902</v>
+        <v>1049</v>
       </c>
       <c r="E22" s="47">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="F22" s="48">
-        <v>4758</v>
+        <v>5674</v>
       </c>
       <c r="G22" s="86">
-        <v>0.26694288250961823</v>
+        <v>0.25053737759732503</v>
       </c>
       <c r="H22" s="87">
-        <v>0.32632342277012327</v>
+        <v>0.31271015467383995</v>
       </c>
       <c r="I22" s="96">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="J22" s="97">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="K22" s="80">
-        <v>0.5</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="L22" s="81">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="M22" s="96">
-        <v>59.97</v>
+        <v>59.96</v>
       </c>
       <c r="N22" s="97">
         <v>59.99</v>
       </c>
       <c r="O22" s="80">
-        <v>64.86</v>
+        <v>64.8</v>
       </c>
       <c r="P22" s="81">
         <v>64.95</v>
@@ -2593,49 +2642,49 @@
         <v>32</v>
       </c>
       <c r="B23" s="45">
-        <v>2456</v>
+        <v>3113</v>
       </c>
       <c r="C23" s="46">
-        <v>991</v>
+        <v>1070</v>
       </c>
       <c r="D23" s="47">
-        <v>896</v>
+        <v>1044</v>
       </c>
       <c r="E23" s="47">
-        <v>450</v>
+        <v>486</v>
       </c>
       <c r="F23" s="48">
-        <v>4793</v>
+        <v>5713</v>
       </c>
       <c r="G23" s="86">
-        <v>0.26730310262529833</v>
+        <v>0.25114265095020449</v>
       </c>
       <c r="H23" s="87">
-        <v>0.31228313671061764</v>
+        <v>0.31233933161953725</v>
       </c>
       <c r="I23" s="96">
-        <v>0.42</v>
+        <v>0.53</v>
       </c>
       <c r="J23" s="97">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="K23" s="80">
-        <v>0.5</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="L23" s="81">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="M23" s="96">
-        <v>59.97</v>
+        <v>59.96</v>
       </c>
       <c r="N23" s="97">
         <v>59.99</v>
       </c>
       <c r="O23" s="80">
-        <v>64.86</v>
+        <v>64.8</v>
       </c>
       <c r="P23" s="81">
-        <v>64.95</v>
+        <v>64.94</v>
       </c>
       <c r="Q23" s="53">
         <v>0.23</v>
@@ -2649,37 +2698,37 @@
         <v>33</v>
       </c>
       <c r="B24" s="45">
-        <v>1897</v>
+        <v>2308</v>
       </c>
       <c r="C24" s="46">
-        <v>790</v>
+        <v>855</v>
       </c>
       <c r="D24" s="47">
-        <v>708</v>
+        <v>848</v>
       </c>
       <c r="E24" s="47">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="F24" s="48">
-        <v>3819</v>
+        <v>4461</v>
       </c>
       <c r="G24" s="86">
-        <v>0.27178502879078698</v>
+        <v>0.26869455006337134</v>
       </c>
       <c r="H24" s="87">
-        <v>0.34925864909390447</v>
+        <v>0.34482758620689657</v>
       </c>
       <c r="I24" s="96">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="J24" s="97">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="K24" s="80">
-        <v>0.39</v>
+        <v>0.47</v>
       </c>
       <c r="L24" s="81">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="M24" s="96">
         <v>59.98</v>
@@ -2688,7 +2737,7 @@
         <v>59.99</v>
       </c>
       <c r="O24" s="80">
-        <v>64.91</v>
+        <v>64.88</v>
       </c>
       <c r="P24" s="81">
         <v>64.95</v>
@@ -2705,37 +2754,37 @@
         <v>34</v>
       </c>
       <c r="B25" s="30">
-        <v>1374</v>
+        <v>1509</v>
       </c>
       <c r="C25" s="31">
-        <v>615</v>
+        <v>686</v>
       </c>
       <c r="D25" s="32">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="E25" s="32">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="F25" s="33">
-        <v>2546</v>
+        <v>2718</v>
       </c>
       <c r="G25" s="84">
-        <v>0.20852534562211983</v>
+        <v>0.18739903069466882</v>
       </c>
       <c r="H25" s="85">
-        <v>0.24074074074074073</v>
+        <v>0.2032520325203252</v>
       </c>
       <c r="I25" s="94">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="J25" s="95">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="K25" s="78">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="L25" s="79">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="M25" s="94">
         <v>59.99</v>
@@ -2761,37 +2810,37 @@
         <v>35</v>
       </c>
       <c r="B26" s="30">
-        <v>959</v>
+        <v>1063</v>
       </c>
       <c r="C26" s="31">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="D26" s="32">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="E26" s="32">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F26" s="33">
-        <v>1781</v>
+        <v>1877</v>
       </c>
       <c r="G26" s="84">
-        <v>0.23218574859887911</v>
+        <v>0.19530658591975775</v>
       </c>
       <c r="H26" s="85">
-        <v>0.24060150375939848</v>
+        <v>0.20323741007194246</v>
       </c>
       <c r="I26" s="94">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="J26" s="95">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K26" s="78">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L26" s="79">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="M26" s="94">
         <v>59.99</v>
@@ -2817,37 +2866,37 @@
         <v>36</v>
       </c>
       <c r="B27" s="30">
-        <v>857</v>
+        <v>971</v>
       </c>
       <c r="C27" s="31">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="D27" s="32">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="E27" s="32">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="F27" s="33">
-        <v>1435</v>
+        <v>1496</v>
       </c>
       <c r="G27" s="84">
-        <v>0.15815324165029471</v>
+        <v>9.0823970037453183E-2</v>
       </c>
       <c r="H27" s="85">
-        <v>0.16306954436450841</v>
+        <v>9.3457943925233641E-2</v>
       </c>
       <c r="I27" s="94">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="J27" s="95">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K27" s="78">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="L27" s="79">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="M27" s="94">
         <v>59.99</v>
@@ -2859,7 +2908,7 @@
         <v>64.98</v>
       </c>
       <c r="P27" s="79">
-        <v>64.98</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="Q27" s="42">
         <v>0</v>
@@ -2873,34 +2922,34 @@
         <v>37</v>
       </c>
       <c r="B28" s="30">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="C28" s="31">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="D28" s="32">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="E28" s="32">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F28" s="33">
-        <v>1023</v>
+        <v>1041</v>
       </c>
       <c r="G28" s="84">
-        <v>5.2774018944519621E-2</v>
+        <v>9.0789473684210531E-2</v>
       </c>
       <c r="H28" s="85">
-        <v>5.6338028169014086E-2</v>
+        <v>9.2526690391459068E-2</v>
       </c>
       <c r="I28" s="94">
         <v>0.12</v>
       </c>
       <c r="J28" s="95">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="K28" s="78">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="L28" s="79">
         <v>0.01</v>
@@ -2912,7 +2961,7 @@
         <v>60</v>
       </c>
       <c r="O28" s="78">
-        <v>64.989999999999995</v>
+        <v>64.98</v>
       </c>
       <c r="P28" s="79">
         <v>64.989999999999995</v>
@@ -2929,37 +2978,37 @@
         <v>38</v>
       </c>
       <c r="B29" s="55">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="C29" s="56">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="D29" s="57">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E29" s="57">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F29" s="58">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="G29" s="88">
-        <v>5.2730696798493411E-2</v>
+        <v>9.0225563909774431E-2</v>
       </c>
       <c r="H29" s="89">
-        <v>5.6962025316455694E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="I29" s="98">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="J29" s="99">
+        <v>0.02</v>
+      </c>
+      <c r="K29" s="82">
         <v>0.03</v>
       </c>
-      <c r="K29" s="82">
-        <v>0.02</v>
-      </c>
       <c r="L29" s="83">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M29" s="98">
         <v>59.99</v>
@@ -2986,31 +3035,31 @@
       </c>
       <c r="B30" s="65">
         <f>SUM(B6:B29)</f>
-        <v>21609</v>
+        <v>24159</v>
       </c>
       <c r="C30" s="66">
         <f t="shared" ref="C30:F30" si="0">SUM(C6:C29)</f>
-        <v>20920</v>
+        <v>23143</v>
       </c>
       <c r="D30" s="67">
         <f t="shared" si="0"/>
-        <v>6906</v>
+        <v>7679</v>
       </c>
       <c r="E30" s="67">
         <f t="shared" si="0"/>
-        <v>7592</v>
+        <v>8691</v>
       </c>
       <c r="F30" s="68">
         <f t="shared" si="0"/>
-        <v>57027</v>
+        <v>63672</v>
       </c>
       <c r="G30" s="100">
         <f>D30/B30</f>
-        <v>0.31958906011384147</v>
+        <v>0.31785256012252161</v>
       </c>
       <c r="H30" s="101">
         <f>E30/C30</f>
-        <v>0.36290630975143401</v>
+        <v>0.37553471892148815</v>
       </c>
       <c r="I30" s="71"/>
       <c r="J30" s="71"/>
@@ -3023,7 +3072,7 @@
       </c>
       <c r="B32" s="72">
         <f>B30+C30</f>
-        <v>42529</v>
+        <v>47302</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -3032,7 +3081,7 @@
       </c>
       <c r="B33" s="72">
         <f>D30+E30</f>
-        <v>14498</v>
+        <v>16370</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -3041,7 +3090,7 @@
       </c>
       <c r="B34" s="72">
         <f>B32+B33</f>
-        <v>57027</v>
+        <v>63672</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -3342,31 +3391,31 @@
         <v>15</v>
       </c>
       <c r="B51" s="30">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="C51" s="31">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="D51" s="32">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E51" s="32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F51" s="33">
-        <v>401</v>
+        <v>333</v>
       </c>
       <c r="G51" s="84">
-        <v>5.8252427184466021E-2</v>
+        <v>9.5940959409594101E-2</v>
       </c>
       <c r="H51" s="85">
-        <v>4.3478260869565216E-2</v>
+        <v>8.0645161290322578E-2</v>
       </c>
       <c r="I51" s="90">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="J51" s="91">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="K51" s="92">
         <v>0.01</v>
@@ -3398,28 +3447,28 @@
         <v>16</v>
       </c>
       <c r="B52" s="30">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="C52" s="31">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="D52" s="32">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E52" s="32">
         <v>3</v>
       </c>
       <c r="F52" s="33">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c r="G52" s="84">
-        <v>5.8139534883720929E-2</v>
+        <v>9.9173553719008267E-2</v>
       </c>
       <c r="H52" s="85">
-        <v>4.4776119402985072E-2</v>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="I52" s="94">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="J52" s="95">
         <v>0.01</v>
@@ -3454,31 +3503,31 @@
         <v>17</v>
       </c>
       <c r="B53" s="30">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="C53" s="31">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D53" s="32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E53" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" s="33">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="G53" s="84">
-        <v>6.0344827586206899E-2</v>
+        <v>0.10169491525423729</v>
       </c>
       <c r="H53" s="85">
-        <v>4.8387096774193547E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="I53" s="94">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J53" s="95">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K53" s="78">
         <v>0</v>
@@ -3510,28 +3559,28 @@
         <v>18</v>
       </c>
       <c r="B54" s="30">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="C54" s="31">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D54" s="32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E54" s="32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F54" s="33">
-        <v>233</v>
+        <v>148</v>
       </c>
       <c r="G54" s="84">
-        <v>5.6074766355140186E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H54" s="85">
-        <v>4.7619047619047616E-2</v>
+        <v>8.1632653061224483E-2</v>
       </c>
       <c r="I54" s="94">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J54" s="95">
         <v>0.02</v>
@@ -3566,34 +3615,34 @@
         <v>19</v>
       </c>
       <c r="B55" s="30">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="C55" s="31">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="D55" s="32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E55" s="32">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F55" s="33">
-        <v>494</v>
+        <v>435</v>
       </c>
       <c r="G55" s="84">
-        <v>5.4421768707482991E-2</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="H55" s="85">
-        <v>4.3227665706051875E-2</v>
+        <v>7.6023391812865493E-2</v>
       </c>
       <c r="I55" s="94">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J55" s="95">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="K55" s="78">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L55" s="79">
         <v>0.01</v>
@@ -3622,37 +3671,37 @@
         <v>20</v>
       </c>
       <c r="B56" s="30">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="C56" s="31">
-        <v>1105</v>
+        <v>1137</v>
       </c>
       <c r="D56" s="32">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E56" s="32">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="F56" s="33">
-        <v>1555</v>
+        <v>1602</v>
       </c>
       <c r="G56" s="84">
-        <v>0.16785714285714284</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="H56" s="85">
-        <v>0.13333333333333333</v>
+        <v>0.16519823788546256</v>
       </c>
       <c r="I56" s="94">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="J56" s="95">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="K56" s="78">
         <v>0.03</v>
       </c>
       <c r="L56" s="79">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="M56" s="94">
         <v>60</v>
@@ -3664,7 +3713,7 @@
         <v>64.989999999999995</v>
       </c>
       <c r="P56" s="79">
-        <v>64.98</v>
+        <v>64.97</v>
       </c>
       <c r="Q56" s="42">
         <v>0</v>
@@ -3678,49 +3727,49 @@
         <v>21</v>
       </c>
       <c r="B57" s="30">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C57" s="31">
-        <v>3017</v>
+        <v>3475</v>
       </c>
       <c r="D57" s="32">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E57" s="32">
-        <v>923</v>
+        <v>1116</v>
       </c>
       <c r="F57" s="33">
-        <v>4704</v>
+        <v>5363</v>
       </c>
       <c r="G57" s="84">
-        <v>0.35732984293193715</v>
+        <v>0.35751295336787564</v>
       </c>
       <c r="H57" s="85">
-        <v>0.23426395939086295</v>
+        <v>0.24308429536048792</v>
       </c>
       <c r="I57" s="94">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="J57" s="95">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
       <c r="K57" s="78">
         <v>0.15</v>
       </c>
       <c r="L57" s="79">
-        <v>0.51</v>
+        <v>0.62</v>
       </c>
       <c r="M57" s="94">
         <v>59.99</v>
       </c>
       <c r="N57" s="95">
-        <v>59.96</v>
+        <v>59.94</v>
       </c>
       <c r="O57" s="78">
         <v>64.97</v>
       </c>
       <c r="P57" s="79">
-        <v>64.849999999999994</v>
+        <v>64.760000000000005</v>
       </c>
       <c r="Q57" s="42">
         <v>0</v>
@@ -3734,55 +3783,55 @@
         <v>22</v>
       </c>
       <c r="B58" s="45">
-        <v>774</v>
+        <v>808</v>
       </c>
       <c r="C58" s="46">
-        <v>3160</v>
+        <v>3907</v>
       </c>
       <c r="D58" s="47">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="E58" s="47">
-        <v>983</v>
+        <v>1289</v>
       </c>
       <c r="F58" s="48">
-        <v>5347</v>
+        <v>6453</v>
       </c>
       <c r="G58" s="86">
-        <v>0.35714285714285715</v>
+        <v>0.35719968178202066</v>
       </c>
       <c r="H58" s="87">
-        <v>0.23726768042481294</v>
+        <v>0.24807544264819092</v>
       </c>
       <c r="I58" s="96">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J58" s="97">
-        <v>0.54</v>
+        <v>0.67</v>
       </c>
       <c r="K58" s="80">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="L58" s="81">
-        <v>0.55000000000000004</v>
+        <v>0.72</v>
       </c>
       <c r="M58" s="96">
         <v>59.99</v>
       </c>
       <c r="N58" s="97">
-        <v>59.96</v>
+        <v>59.92</v>
       </c>
       <c r="O58" s="80">
         <v>64.95</v>
       </c>
       <c r="P58" s="81">
-        <v>64.83</v>
+        <v>64.59</v>
       </c>
       <c r="Q58" s="53">
         <v>0</v>
       </c>
       <c r="R58" s="54">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -3790,49 +3839,49 @@
         <v>23</v>
       </c>
       <c r="B59" s="45">
-        <v>802</v>
+        <v>853</v>
       </c>
       <c r="C59" s="46">
-        <v>2930</v>
+        <v>3519</v>
       </c>
       <c r="D59" s="47">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="E59" s="47">
-        <v>894</v>
+        <v>1133</v>
       </c>
       <c r="F59" s="48">
-        <v>5071</v>
+        <v>5955</v>
       </c>
       <c r="G59" s="86">
-        <v>0.35685645549318362</v>
+        <v>0.34535686876438987</v>
       </c>
       <c r="H59" s="87">
-        <v>0.23378661087866109</v>
+        <v>0.2435511607910576</v>
       </c>
       <c r="I59" s="96">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="J59" s="97">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K59" s="80">
         <v>0.25</v>
       </c>
       <c r="L59" s="81">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="M59" s="96">
         <v>59.99</v>
       </c>
       <c r="N59" s="97">
-        <v>59.96</v>
+        <v>59.94</v>
       </c>
       <c r="O59" s="80">
         <v>64.95</v>
       </c>
       <c r="P59" s="81">
-        <v>64.86</v>
+        <v>64.75</v>
       </c>
       <c r="Q59" s="53">
         <v>0</v>
@@ -3846,49 +3895,49 @@
         <v>24</v>
       </c>
       <c r="B60" s="45">
-        <v>857</v>
+        <v>919</v>
       </c>
       <c r="C60" s="46">
-        <v>2068</v>
+        <v>2453</v>
       </c>
       <c r="D60" s="47">
         <v>450</v>
       </c>
       <c r="E60" s="47">
-        <v>624</v>
+        <v>736</v>
       </c>
       <c r="F60" s="48">
-        <v>3999</v>
+        <v>4558</v>
       </c>
       <c r="G60" s="86">
-        <v>0.34429992348890587</v>
+        <v>0.3287070854638422</v>
       </c>
       <c r="H60" s="87">
-        <v>0.23179791976225855</v>
+        <v>0.23079335214800878</v>
       </c>
       <c r="I60" s="96">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="J60" s="97">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="K60" s="80">
         <v>0.25</v>
       </c>
       <c r="L60" s="81">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
       <c r="M60" s="96">
         <v>59.99</v>
       </c>
       <c r="N60" s="97">
-        <v>59.98</v>
+        <v>59.97</v>
       </c>
       <c r="O60" s="80">
         <v>64.95</v>
       </c>
       <c r="P60" s="81">
-        <v>64.92</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="Q60" s="53">
         <v>0</v>
@@ -3902,37 +3951,37 @@
         <v>25</v>
       </c>
       <c r="B61" s="30">
-        <v>949</v>
+        <v>959</v>
       </c>
       <c r="C61" s="31">
-        <v>1688</v>
+        <v>1820</v>
       </c>
       <c r="D61" s="32">
-        <v>313</v>
+        <v>361</v>
       </c>
       <c r="E61" s="32">
-        <v>413</v>
+        <v>450</v>
       </c>
       <c r="F61" s="33">
-        <v>3363</v>
+        <v>3590</v>
       </c>
       <c r="G61" s="84">
-        <v>0.24801901743264659</v>
+        <v>0.2734848484848485</v>
       </c>
       <c r="H61" s="85">
-        <v>0.196573060447406</v>
+        <v>0.19823788546255505</v>
       </c>
       <c r="I61" s="94">
         <v>0.16</v>
       </c>
       <c r="J61" s="95">
-        <v>0.28999999999999998</v>
+        <v>0.31</v>
       </c>
       <c r="K61" s="78">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="L61" s="79">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="M61" s="94">
         <v>59.99</v>
@@ -3958,37 +4007,37 @@
         <v>26</v>
       </c>
       <c r="B62" s="30">
-        <v>1035</v>
+        <v>1050</v>
       </c>
       <c r="C62" s="31">
-        <v>1498</v>
+        <v>1574</v>
       </c>
       <c r="D62" s="32">
-        <v>341</v>
+        <v>396</v>
       </c>
       <c r="E62" s="32">
-        <v>366</v>
+        <v>437</v>
       </c>
       <c r="F62" s="33">
-        <v>3240</v>
+        <v>3457</v>
       </c>
       <c r="G62" s="84">
-        <v>0.24781976744186046</v>
+        <v>0.27385892116182575</v>
       </c>
       <c r="H62" s="85">
-        <v>0.1963519313304721</v>
+        <v>0.21730482347090999</v>
       </c>
       <c r="I62" s="94">
         <v>0.18</v>
       </c>
       <c r="J62" s="95">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="K62" s="78">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="L62" s="79">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="M62" s="94">
         <v>59.99</v>
@@ -4000,7 +4049,7 @@
         <v>64.959999999999994</v>
       </c>
       <c r="P62" s="79">
-        <v>64.959999999999994</v>
+        <v>64.95</v>
       </c>
       <c r="Q62" s="42">
         <v>0</v>
@@ -4014,37 +4063,37 @@
         <v>27</v>
       </c>
       <c r="B63" s="30">
-        <v>1196</v>
+        <v>1231</v>
       </c>
       <c r="C63" s="31">
-        <v>1369</v>
+        <v>1436</v>
       </c>
       <c r="D63" s="32">
-        <v>394</v>
+        <v>450</v>
       </c>
       <c r="E63" s="32">
-        <v>335</v>
+        <v>399</v>
       </c>
       <c r="F63" s="33">
-        <v>3294</v>
+        <v>3516</v>
       </c>
       <c r="G63" s="84">
-        <v>0.24779874213836478</v>
+        <v>0.26769779892920881</v>
       </c>
       <c r="H63" s="85">
-        <v>0.19659624413145541</v>
+        <v>0.21743869209809263</v>
       </c>
       <c r="I63" s="94">
         <v>0.21</v>
       </c>
       <c r="J63" s="95">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="K63" s="78">
+        <v>0.25</v>
+      </c>
+      <c r="L63" s="79">
         <v>0.22</v>
-      </c>
-      <c r="L63" s="79">
-        <v>0.19</v>
       </c>
       <c r="M63" s="94">
         <v>59.99</v>
@@ -4053,7 +4102,7 @@
         <v>59.99</v>
       </c>
       <c r="O63" s="78">
-        <v>64.959999999999994</v>
+        <v>64.95</v>
       </c>
       <c r="P63" s="79">
         <v>64.959999999999994</v>
@@ -4070,37 +4119,37 @@
         <v>28</v>
       </c>
       <c r="B64" s="30">
-        <v>1349</v>
+        <v>1447</v>
       </c>
       <c r="C64" s="31">
-        <v>1266</v>
+        <v>1325</v>
       </c>
       <c r="D64" s="32">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="E64" s="32">
-        <v>309</v>
+        <v>368</v>
       </c>
       <c r="F64" s="33">
-        <v>3369</v>
+        <v>3598</v>
       </c>
       <c r="G64" s="84">
-        <v>0.24804905239687849</v>
+        <v>0.24041994750656168</v>
       </c>
       <c r="H64" s="85">
-        <v>0.19619047619047619</v>
+        <v>0.21736562315416422</v>
       </c>
       <c r="I64" s="94">
+        <v>0.25</v>
+      </c>
+      <c r="J64" s="95">
         <v>0.23</v>
-      </c>
-      <c r="J64" s="95">
-        <v>0.22</v>
       </c>
       <c r="K64" s="78">
         <v>0.25</v>
       </c>
       <c r="L64" s="79">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="M64" s="94">
         <v>59.99</v>
@@ -4126,37 +4175,37 @@
         <v>29</v>
       </c>
       <c r="B65" s="30">
-        <v>1715</v>
+        <v>1777</v>
       </c>
       <c r="C65" s="31">
-        <v>1308</v>
+        <v>1370</v>
       </c>
       <c r="D65" s="32">
-        <v>474</v>
+        <v>562</v>
       </c>
       <c r="E65" s="32">
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="F65" s="33">
-        <v>3817</v>
+        <v>4089</v>
       </c>
       <c r="G65" s="84">
-        <v>0.21653723161260849</v>
+        <v>0.24027362120564344</v>
       </c>
       <c r="H65" s="85">
-        <v>0.19656019656019655</v>
+        <v>0.21714285714285714</v>
       </c>
       <c r="I65" s="94">
-        <v>0.28999999999999998</v>
+        <v>0.31</v>
       </c>
       <c r="J65" s="95">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="K65" s="78">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="L65" s="79">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="M65" s="94">
         <v>59.98</v>
@@ -4165,13 +4214,13 @@
         <v>59.99</v>
       </c>
       <c r="O65" s="78">
-        <v>64.95</v>
+        <v>64.930000000000007</v>
       </c>
       <c r="P65" s="79">
         <v>64.959999999999994</v>
       </c>
       <c r="Q65" s="42">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="R65" s="43">
         <v>0</v>
@@ -4182,46 +4231,46 @@
         <v>30</v>
       </c>
       <c r="B66" s="30">
-        <v>2250</v>
+        <v>2805</v>
       </c>
       <c r="C66" s="31">
-        <v>1228</v>
+        <v>1346</v>
       </c>
       <c r="D66" s="32">
-        <v>943</v>
+        <v>1140</v>
       </c>
       <c r="E66" s="32">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="F66" s="33">
-        <v>4871</v>
+        <v>5751</v>
       </c>
       <c r="G66" s="84">
-        <v>0.29533354212339491</v>
+        <v>0.28897338403041822</v>
       </c>
       <c r="H66" s="85">
-        <v>0.26817640047675806</v>
+        <v>0.2547065337763012</v>
       </c>
       <c r="I66" s="94">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
       <c r="J66" s="95">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="K66" s="78">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="L66" s="79">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="M66" s="94">
-        <v>59.98</v>
+        <v>59.97</v>
       </c>
       <c r="N66" s="95">
         <v>59.99</v>
       </c>
       <c r="O66" s="78">
-        <v>64.84</v>
+        <v>64.739999999999995</v>
       </c>
       <c r="P66" s="79">
         <v>64.95</v>
@@ -4238,52 +4287,52 @@
         <v>31</v>
       </c>
       <c r="B67" s="45">
-        <v>2952</v>
+        <v>3811</v>
       </c>
       <c r="C67" s="46">
-        <v>1229</v>
+        <v>1347</v>
       </c>
       <c r="D67" s="47">
-        <v>1192</v>
+        <v>1401</v>
       </c>
       <c r="E67" s="47">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="F67" s="48">
-        <v>5823</v>
+        <v>7019</v>
       </c>
       <c r="G67" s="86">
-        <v>0.28764478764478763</v>
+        <v>0.26880276285495014</v>
       </c>
       <c r="H67" s="87">
-        <v>0.26801667659321027</v>
+        <v>0.25456557830658549</v>
       </c>
       <c r="I67" s="96">
-        <v>0.51</v>
+        <v>0.65</v>
       </c>
       <c r="J67" s="97">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="K67" s="80">
-        <v>0.66</v>
+        <v>0.78</v>
       </c>
       <c r="L67" s="81">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="M67" s="96">
-        <v>59.96</v>
+        <v>59.92</v>
       </c>
       <c r="N67" s="97">
         <v>59.99</v>
       </c>
       <c r="O67" s="80">
-        <v>64.7</v>
+        <v>64.34</v>
       </c>
       <c r="P67" s="81">
         <v>64.95</v>
       </c>
       <c r="Q67" s="53">
-        <v>0.24</v>
+        <v>0.34</v>
       </c>
       <c r="R67" s="54">
         <v>0</v>
@@ -4294,52 +4343,52 @@
         <v>32</v>
       </c>
       <c r="B68" s="45">
-        <v>2927</v>
+        <v>3780</v>
       </c>
       <c r="C68" s="46">
-        <v>1305</v>
+        <v>1409</v>
       </c>
       <c r="D68" s="47">
-        <v>1184</v>
+        <v>1395</v>
       </c>
       <c r="E68" s="47">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="F68" s="48">
-        <v>5866</v>
+        <v>7065</v>
       </c>
       <c r="G68" s="86">
-        <v>0.28800778399416199</v>
+        <v>0.26956521739130435</v>
       </c>
       <c r="H68" s="87">
-        <v>0.25641025641025639</v>
+        <v>0.2544973544973545</v>
       </c>
       <c r="I68" s="96">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="J68" s="97">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="K68" s="80">
-        <v>0.66</v>
+        <v>0.78</v>
       </c>
       <c r="L68" s="81">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="M68" s="96">
-        <v>59.96</v>
+        <v>59.93</v>
       </c>
       <c r="N68" s="97">
         <v>59.99</v>
       </c>
       <c r="O68" s="80">
-        <v>64.709999999999994</v>
+        <v>64.349999999999994</v>
       </c>
       <c r="P68" s="81">
         <v>64.95</v>
       </c>
       <c r="Q68" s="53">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
       <c r="R68" s="54">
         <v>0</v>
@@ -4350,46 +4399,46 @@
         <v>33</v>
       </c>
       <c r="B69" s="45">
-        <v>2250</v>
+        <v>2807</v>
       </c>
       <c r="C69" s="46">
-        <v>1057</v>
+        <v>1138</v>
       </c>
       <c r="D69" s="47">
-        <v>945</v>
+        <v>1141</v>
       </c>
       <c r="E69" s="47">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="F69" s="48">
-        <v>4672</v>
+        <v>5533</v>
       </c>
       <c r="G69" s="86">
-        <v>0.29577464788732394</v>
+        <v>0.28900709219858156</v>
       </c>
       <c r="H69" s="87">
-        <v>0.28436018957345971</v>
+        <v>0.28201892744479495</v>
       </c>
       <c r="I69" s="96">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
       <c r="J69" s="97">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="K69" s="80">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="L69" s="81">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="M69" s="96">
-        <v>59.98</v>
+        <v>59.97</v>
       </c>
       <c r="N69" s="97">
         <v>59.99</v>
       </c>
       <c r="O69" s="80">
-        <v>64.84</v>
+        <v>64.739999999999995</v>
       </c>
       <c r="P69" s="81">
         <v>64.95</v>
@@ -4406,37 +4455,37 @@
         <v>34</v>
       </c>
       <c r="B70" s="30">
-        <v>1668</v>
+        <v>1824</v>
       </c>
       <c r="C70" s="31">
-        <v>793</v>
+        <v>872</v>
       </c>
       <c r="D70" s="32">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="E70" s="32">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="F70" s="33">
-        <v>3117</v>
+        <v>3319</v>
       </c>
       <c r="G70" s="84">
-        <v>0.21690140845070421</v>
+        <v>0.19788918205804748</v>
       </c>
       <c r="H70" s="85">
-        <v>0.19655521783181357</v>
+        <v>0.16555023923444975</v>
       </c>
       <c r="I70" s="94">
-        <v>0.28999999999999998</v>
+        <v>0.31</v>
       </c>
       <c r="J70" s="95">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="K70" s="78">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="L70" s="79">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="M70" s="94">
         <v>59.98</v>
@@ -4462,37 +4511,37 @@
         <v>35</v>
       </c>
       <c r="B71" s="30">
-        <v>1153</v>
+        <v>1279</v>
       </c>
       <c r="C71" s="31">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="D71" s="32">
-        <v>379</v>
+        <v>337</v>
       </c>
       <c r="E71" s="32">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F71" s="33">
-        <v>2180</v>
+        <v>2289</v>
       </c>
       <c r="G71" s="84">
-        <v>0.24738903394255873</v>
+        <v>0.20853960396039603</v>
       </c>
       <c r="H71" s="85">
-        <v>0.19598765432098766</v>
+        <v>0.16493313521545319</v>
       </c>
       <c r="I71" s="94">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="J71" s="95">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="K71" s="78">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="L71" s="79">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="M71" s="94">
         <v>59.99</v>
@@ -4518,37 +4567,37 @@
         <v>36</v>
       </c>
       <c r="B72" s="30">
-        <v>1038</v>
+        <v>1179</v>
       </c>
       <c r="C72" s="31">
-        <v>440</v>
+        <v>479</v>
       </c>
       <c r="D72" s="32">
-        <v>211</v>
+        <v>127</v>
       </c>
       <c r="E72" s="32">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="F72" s="33">
-        <v>1757</v>
+        <v>1825</v>
       </c>
       <c r="G72" s="84">
-        <v>0.1689351481184948</v>
+        <v>9.7243491577335375E-2</v>
       </c>
       <c r="H72" s="85">
-        <v>0.13385826771653545</v>
+        <v>7.7071290944123308E-2</v>
       </c>
       <c r="I72" s="94">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="J72" s="95">
         <v>0.08</v>
       </c>
       <c r="K72" s="78">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L72" s="79">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="M72" s="94">
         <v>59.99</v>
@@ -4557,7 +4606,7 @@
         <v>59.99</v>
       </c>
       <c r="O72" s="78">
-        <v>64.97</v>
+        <v>64.98</v>
       </c>
       <c r="P72" s="79">
         <v>64.989999999999995</v>
@@ -4574,34 +4623,34 @@
         <v>37</v>
       </c>
       <c r="B73" s="30">
-        <v>855</v>
+        <v>838</v>
       </c>
       <c r="C73" s="31">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="D73" s="32">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="E73" s="32">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F73" s="33">
-        <v>1250</v>
+        <v>1267</v>
       </c>
       <c r="G73" s="84">
-        <v>5.6291390728476824E-2</v>
+        <v>9.6982758620689655E-2</v>
       </c>
       <c r="H73" s="85">
-        <v>4.3604651162790699E-2</v>
+        <v>7.6696165191740412E-2</v>
       </c>
       <c r="I73" s="94">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J73" s="95">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="K73" s="78">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="L73" s="79">
         <v>0.01</v>
@@ -4613,7 +4662,7 @@
         <v>60</v>
       </c>
       <c r="O73" s="78">
-        <v>64.989999999999995</v>
+        <v>64.98</v>
       </c>
       <c r="P73" s="79">
         <v>64.989999999999995</v>
@@ -4630,37 +4679,37 @@
         <v>38</v>
       </c>
       <c r="B74" s="55">
-        <v>615</v>
+        <v>586</v>
       </c>
       <c r="C74" s="56">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="D74" s="57">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="E74" s="57">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F74" s="58">
-        <v>844</v>
+        <v>820</v>
       </c>
       <c r="G74" s="88">
-        <v>5.674846625766871E-2</v>
+        <v>9.7072419106317406E-2</v>
       </c>
       <c r="H74" s="89">
-        <v>4.6875E-2</v>
+        <v>7.6023391812865493E-2</v>
       </c>
       <c r="I74" s="98">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="J74" s="99">
         <v>0.03</v>
       </c>
       <c r="K74" s="82">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="L74" s="83">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M74" s="98">
         <v>59.99</v>
@@ -4687,31 +4736,31 @@
       </c>
       <c r="B75" s="65">
         <f>SUM(B51:B74)</f>
-        <v>25911</v>
+        <v>29175</v>
       </c>
       <c r="C75" s="66">
         <f t="shared" ref="C75" si="1">SUM(C51:C74)</f>
-        <v>27157</v>
+        <v>30160</v>
       </c>
       <c r="D75" s="67">
         <f t="shared" ref="D75" si="2">SUM(D51:D74)</f>
-        <v>9065</v>
+        <v>10104</v>
       </c>
       <c r="E75" s="67">
         <f t="shared" ref="E75" si="3">SUM(E51:E74)</f>
-        <v>7551</v>
+        <v>8788</v>
       </c>
       <c r="F75" s="68">
         <f t="shared" ref="F75" si="4">SUM(F51:F74)</f>
-        <v>69684</v>
+        <v>78227</v>
       </c>
       <c r="G75" s="100">
         <f>D75/B75</f>
-        <v>0.34985141445718032</v>
+        <v>0.34632390745501285</v>
       </c>
       <c r="H75" s="101">
         <f>E75/C75</f>
-        <v>0.27804985823176342</v>
+        <v>0.29137931034482761</v>
       </c>
       <c r="I75" s="71"/>
       <c r="J75" s="71"/>
@@ -4724,7 +4773,7 @@
       </c>
       <c r="B77" s="72">
         <f>B75+C75</f>
-        <v>53068</v>
+        <v>59335</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
@@ -4733,7 +4782,7 @@
       </c>
       <c r="B78" s="72">
         <f>D75+E75</f>
-        <v>16616</v>
+        <v>18892</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
@@ -4742,7 +4791,7 @@
       </c>
       <c r="B79" s="72">
         <f>B77+B78</f>
-        <v>69684</v>
+        <v>78227</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
@@ -15322,5 +15371,6 @@
     <mergeCell ref="Q723:R723"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Analysis & Profiles/Output_2020A2.xlsx
+++ b/Analysis & Profiles/Output_2020A2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Projects\Veterans ELToDv2.3 2017-0628_PDNE\Analysis &amp; Profiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Projects\Veterans ELToDv2.3 2017-0628_PDNE\Analysis &amp; Profiles\Veterans 2017-0801_newpp_revisedparams_aawdt_for_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,17 @@
   <sheets>
     <sheet name="Output" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="59">
   <si>
     <t>SEGMENT: 1</t>
   </si>
@@ -184,6 +189,18 @@
   </si>
   <si>
     <t>Anderson Mainline</t>
+  </si>
+  <si>
+    <t>EL_SB Increase</t>
+  </si>
+  <si>
+    <t>More Peak</t>
+  </si>
+  <si>
+    <t>10% OD trips</t>
+  </si>
+  <si>
+    <t>Both</t>
   </si>
 </sst>
 </file>
@@ -375,7 +392,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -575,6 +592,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -931,7 +954,7 @@
     <xf numFmtId="0" fontId="1" fillId="36" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="16" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1116,6 +1139,11 @@
     <xf numFmtId="44" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -1183,53 +1211,910 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>284631</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>170329</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>377191</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47371</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12846425" y="943535"/>
-          <a:ext cx="7959090" cy="2163042"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Output"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="E6">
+            <v>5</v>
+          </cell>
+          <cell r="F6">
+            <v>277</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
+            <v>3</v>
+          </cell>
+          <cell r="F7">
+            <v>132</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>2</v>
+          </cell>
+          <cell r="F8">
+            <v>76</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9">
+            <v>8</v>
+          </cell>
+          <cell r="F9">
+            <v>127</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10">
+            <v>27</v>
+          </cell>
+          <cell r="F10">
+            <v>364</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11">
+            <v>227</v>
+          </cell>
+          <cell r="F11">
+            <v>1320</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12">
+            <v>1089</v>
+          </cell>
+          <cell r="F12">
+            <v>4350</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13">
+            <v>1212</v>
+          </cell>
+          <cell r="F13">
+            <v>5242</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14">
+            <v>1105</v>
+          </cell>
+          <cell r="F14">
+            <v>4835</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15">
+            <v>733</v>
+          </cell>
+          <cell r="F15">
+            <v>3686</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16">
+            <v>450</v>
+          </cell>
+          <cell r="F16">
+            <v>2947</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17">
+            <v>441</v>
+          </cell>
+          <cell r="F17">
+            <v>2836</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18">
+            <v>402</v>
+          </cell>
+          <cell r="F18">
+            <v>2883</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19">
+            <v>371</v>
+          </cell>
+          <cell r="F19">
+            <v>2950</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="E20">
+            <v>384</v>
+          </cell>
+          <cell r="F20">
+            <v>3351</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="E21">
+            <v>464</v>
+          </cell>
+          <cell r="F21">
+            <v>4641</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22">
+            <v>465</v>
+          </cell>
+          <cell r="F22">
+            <v>5674</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="E23">
+            <v>486</v>
+          </cell>
+          <cell r="F23">
+            <v>5713</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24">
+            <v>450</v>
+          </cell>
+          <cell r="F24">
+            <v>4461</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25">
+            <v>175</v>
+          </cell>
+          <cell r="F25">
+            <v>2718</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="E26">
+            <v>113</v>
+          </cell>
+          <cell r="F26">
+            <v>1877</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27">
+            <v>40</v>
+          </cell>
+          <cell r="F27">
+            <v>1496</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="E28">
+            <v>26</v>
+          </cell>
+          <cell r="F28">
+            <v>1041</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="E29">
+            <v>13</v>
+          </cell>
+          <cell r="F29">
+            <v>675</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="E51">
+            <v>5</v>
+          </cell>
+          <cell r="F51">
+            <v>333</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="E52">
+            <v>3</v>
+          </cell>
+          <cell r="F52">
+            <v>155</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="E53">
+            <v>2</v>
+          </cell>
+          <cell r="F53">
+            <v>87</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="E54">
+            <v>8</v>
+          </cell>
+          <cell r="F54">
+            <v>148</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="E55">
+            <v>26</v>
+          </cell>
+          <cell r="F55">
+            <v>435</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="E56">
+            <v>225</v>
+          </cell>
+          <cell r="F56">
+            <v>1602</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="E57">
+            <v>1116</v>
+          </cell>
+          <cell r="F57">
+            <v>5363</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="E58">
+            <v>1289</v>
+          </cell>
+          <cell r="F58">
+            <v>6453</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="E59">
+            <v>1133</v>
+          </cell>
+          <cell r="F59">
+            <v>5955</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="E60">
+            <v>736</v>
+          </cell>
+          <cell r="F60">
+            <v>4558</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="E61">
+            <v>450</v>
+          </cell>
+          <cell r="F61">
+            <v>3590</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="E62">
+            <v>437</v>
+          </cell>
+          <cell r="F62">
+            <v>3457</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="E63">
+            <v>399</v>
+          </cell>
+          <cell r="F63">
+            <v>3516</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="E64">
+            <v>368</v>
+          </cell>
+          <cell r="F64">
+            <v>3598</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="E65">
+            <v>380</v>
+          </cell>
+          <cell r="F65">
+            <v>4089</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="E66">
+            <v>460</v>
+          </cell>
+          <cell r="F66">
+            <v>5751</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="E67">
+            <v>460</v>
+          </cell>
+          <cell r="F67">
+            <v>7019</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="E68">
+            <v>481</v>
+          </cell>
+          <cell r="F68">
+            <v>7065</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="E69">
+            <v>447</v>
+          </cell>
+          <cell r="F69">
+            <v>5533</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="E70">
+            <v>173</v>
+          </cell>
+          <cell r="F70">
+            <v>3319</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="E71">
+            <v>111</v>
+          </cell>
+          <cell r="F71">
+            <v>2289</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="E72">
+            <v>40</v>
+          </cell>
+          <cell r="F72">
+            <v>1825</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="E73">
+            <v>26</v>
+          </cell>
+          <cell r="F73">
+            <v>1267</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="E74">
+            <v>13</v>
+          </cell>
+          <cell r="F74">
+            <v>820</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Output"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="E6">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11">
+            <v>212</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12">
+            <v>927</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13">
+            <v>984</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14">
+            <v>898</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15">
+            <v>629</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16">
+            <v>450</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17">
+            <v>408</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18">
+            <v>373</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19">
+            <v>345</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="E20">
+            <v>356</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="E21">
+            <v>450</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22">
+            <v>450</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="E23">
+            <v>450</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24">
+            <v>424</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25">
+            <v>164</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="E26">
+            <v>108</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27">
+            <v>39</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="E28">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="E29">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="E51">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="E52">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="E53">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="E54">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="E55">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="E56">
+            <v>210</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="E57">
+            <v>923</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="E58">
+            <v>983</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="E59">
+            <v>894</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="E60">
+            <v>624</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="E61">
+            <v>448</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="E62">
+            <v>405</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="E63">
+            <v>370</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="E64">
+            <v>342</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="E65">
+            <v>353</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="E66">
+            <v>450</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="E67">
+            <v>450</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="E68">
+            <v>450</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="E69">
+            <v>420</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="E70">
+            <v>163</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="E71">
+            <v>107</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="E72">
+            <v>39</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="E73">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="E74">
+            <v>15</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Output"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="E6">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11">
+            <v>233</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12">
+            <v>1033</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13">
+            <v>1091</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14">
+            <v>1005</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15">
+            <v>693</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16">
+            <v>450</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17">
+            <v>449</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18">
+            <v>411</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19">
+            <v>379</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="E20">
+            <v>392</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="E21">
+            <v>474</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22">
+            <v>474</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="E23">
+            <v>495</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24">
+            <v>450</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25">
+            <v>181</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="E26">
+            <v>119</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="E28">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="E29">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="E51">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="E52">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="E53">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="E54">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="E55">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="E56">
+            <v>231</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="E57">
+            <v>1045</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="E58">
+            <v>1108</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="E59">
+            <v>1006</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="E60">
+            <v>688</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="E61">
+            <v>450</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="E62">
+            <v>445</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="E63">
+            <v>407</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="E64">
+            <v>376</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="E65">
+            <v>389</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="E66">
+            <v>470</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="E67">
+            <v>470</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="E68">
+            <v>491</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="E69">
+            <v>449</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="E70">
+            <v>179</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="E71">
+            <v>118</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="E72">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="E73">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="E74">
+            <v>16</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1495,10 +2380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R764"/>
+  <dimension ref="A1:V764"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P13" sqref="A13:P15"/>
+      <selection activeCell="O58" sqref="O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,9 +2393,11 @@
     <col min="6" max="6" width="12.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="16" width="9.7109375" customWidth="1" collapsed="1"/>
     <col min="17" max="18" width="9.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1519,7 +2406,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1573,7 +2460,7 @@
       </c>
       <c r="R3" s="109"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1628,8 +2515,13 @@
       <c r="R4" s="17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T4" s="111" t="s">
+        <v>55</v>
+      </c>
+      <c r="U4" s="111"/>
+      <c r="V4" s="111"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>11</v>
       </c>
@@ -1684,34 +2576,43 @@
       <c r="R5" s="28" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T5" s="112" t="s">
+        <v>56</v>
+      </c>
+      <c r="U5" s="112" t="s">
+        <v>57</v>
+      </c>
+      <c r="V5" s="112" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="30">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C6" s="31">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6" s="32">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="32">
         <v>5</v>
       </c>
       <c r="F6" s="33">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="G6" s="84">
-        <v>8.9285714285714288E-2</v>
+        <v>8.8669950738916259E-2</v>
       </c>
       <c r="H6" s="85">
-        <v>9.4339622641509441E-2</v>
+        <v>0.10204081632653061</v>
       </c>
       <c r="I6" s="90">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="J6" s="91">
         <v>0.01</v>
@@ -1740,40 +2641,56 @@
       <c r="R6" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="110">
+        <f>[1]Output!$F6/F6</f>
+        <v>1.0992063492063493</v>
+      </c>
+      <c r="T6" s="110">
+        <f>E6/[2]Output!$E6</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U6" s="110">
+        <f>E6/[3]Output!$E6</f>
+        <v>0.625</v>
+      </c>
+      <c r="V6" s="110">
+        <f>E6/[1]Output!$E6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="30">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C7" s="31">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" s="32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="32">
         <v>3</v>
       </c>
       <c r="F7" s="33">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="G7" s="84">
-        <v>8.9108910891089105E-2</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="H7" s="85">
-        <v>9.6774193548387094E-2</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="I7" s="94">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J7" s="95">
         <v>0</v>
       </c>
       <c r="K7" s="78">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L7" s="79">
         <v>0</v>
@@ -1796,31 +2713,47 @@
       <c r="R7" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="110">
+        <f>[1]Output!$F7/F7</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T7" s="110">
+        <f>E7/[2]Output!$E7</f>
+        <v>0.6</v>
+      </c>
+      <c r="U7" s="110">
+        <f>E7/[3]Output!$E7</f>
+        <v>0.5</v>
+      </c>
+      <c r="V7" s="110">
+        <f>E7/[1]Output!$E7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="30">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C8" s="31">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="32">
         <v>2</v>
       </c>
       <c r="F8" s="33">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G8" s="84">
-        <v>9.8039215686274508E-2</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="H8" s="85">
-        <v>0.08</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="I8" s="94">
         <v>0.01</v>
@@ -1852,31 +2785,47 @@
       <c r="R8" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="110">
+        <f>[1]Output!$F8/F8</f>
+        <v>1.1014492753623188</v>
+      </c>
+      <c r="T8" s="110">
+        <f>E8/[2]Output!$E8</f>
+        <v>0.4</v>
+      </c>
+      <c r="U8" s="110">
+        <f>E8/[3]Output!$E8</f>
+        <v>0.4</v>
+      </c>
+      <c r="V8" s="110">
+        <f>E8/[1]Output!$E8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="30">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C9" s="31">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D9" s="32">
         <v>4</v>
       </c>
       <c r="E9" s="32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="33">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G9" s="84">
-        <v>9.0909090909090912E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H9" s="85">
-        <v>9.6385542168674704E-2</v>
+        <v>9.3333333333333338E-2</v>
       </c>
       <c r="I9" s="94">
         <v>0.01</v>
@@ -1908,31 +2857,47 @@
       <c r="R9" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="110">
+        <f>[1]Output!$F9/F9</f>
+        <v>1.1043478260869566</v>
+      </c>
+      <c r="T9" s="110">
+        <f>E9/[2]Output!$E9</f>
+        <v>0.7</v>
+      </c>
+      <c r="U9" s="110">
+        <f>E9/[3]Output!$E9</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="V9" s="110">
+        <f>E9/[1]Output!$E9</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="30">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C10" s="31">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="D10" s="32">
         <v>7</v>
       </c>
       <c r="E10" s="32">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F10" s="33">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="G10" s="84">
-        <v>8.8607594936708861E-2</v>
+        <v>9.5890410958904104E-2</v>
       </c>
       <c r="H10" s="85">
-        <v>9.4736842105263161E-2</v>
+        <v>9.3023255813953487E-2</v>
       </c>
       <c r="I10" s="94">
         <v>0.01</v>
@@ -1964,43 +2929,59 @@
       <c r="R10" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="110">
+        <f>[1]Output!$F10/F10</f>
+        <v>1.0996978851963746</v>
+      </c>
+      <c r="T10" s="110">
+        <f>E10/[2]Output!$E10</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="U10" s="110">
+        <f>E10/[3]Output!$E10</f>
+        <v>0.82758620689655171</v>
+      </c>
+      <c r="V10" s="110">
+        <f>E10/[1]Output!$E10</f>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="30">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C11" s="31">
-        <v>894</v>
+        <v>813</v>
       </c>
       <c r="D11" s="32">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E11" s="32">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="F11" s="33">
-        <v>1320</v>
+        <v>1200</v>
       </c>
       <c r="G11" s="84">
-        <v>0.19597989949748743</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="H11" s="85">
-        <v>0.20249776984834969</v>
+        <v>0.20294117647058824</v>
       </c>
       <c r="I11" s="94">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="J11" s="95">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K11" s="78">
         <v>0.02</v>
       </c>
       <c r="L11" s="79">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="M11" s="94">
         <v>60</v>
@@ -2020,55 +3001,71 @@
       <c r="R11" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="110">
+        <f>[1]Output!$F11/F11</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T11" s="110">
+        <f>E11/[2]Output!$E11</f>
+        <v>0.97641509433962259</v>
+      </c>
+      <c r="U11" s="110">
+        <f>E11/[3]Output!$E11</f>
+        <v>0.88841201716738194</v>
+      </c>
+      <c r="V11" s="110">
+        <f>E11/[1]Output!$E11</f>
+        <v>0.91189427312775329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="30">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="C12" s="31">
-        <v>2629</v>
+        <v>2393</v>
       </c>
       <c r="D12" s="32">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="E12" s="32">
-        <v>1089</v>
+        <v>987</v>
       </c>
       <c r="F12" s="33">
-        <v>4350</v>
+        <v>3955</v>
       </c>
       <c r="G12" s="84">
-        <v>0.33544303797468356</v>
+        <v>0.33565217391304347</v>
       </c>
       <c r="H12" s="85">
-        <v>0.29289940828402367</v>
+        <v>0.29201183431952665</v>
       </c>
       <c r="I12" s="94">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J12" s="95">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="K12" s="78">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="L12" s="79">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M12" s="94">
-        <v>59.99</v>
+        <v>60</v>
       </c>
       <c r="N12" s="95">
         <v>59.97</v>
       </c>
       <c r="O12" s="78">
-        <v>64.97</v>
+        <v>64.98</v>
       </c>
       <c r="P12" s="79">
-        <v>64.78</v>
+        <v>64.83</v>
       </c>
       <c r="Q12" s="42">
         <v>0</v>
@@ -2076,99 +3073,131 @@
       <c r="R12" s="43">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="110">
+        <f>[1]Output!$F12/F12</f>
+        <v>1.099873577749684</v>
+      </c>
+      <c r="T12" s="110">
+        <f>E12/[2]Output!$E12</f>
+        <v>1.064724919093851</v>
+      </c>
+      <c r="U12" s="110">
+        <f>E12/[3]Output!$E12</f>
+        <v>0.95546950629235239</v>
+      </c>
+      <c r="V12" s="110">
+        <f>E12/[1]Output!$E12</f>
+        <v>0.90633608815427003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="45">
-        <v>682</v>
+        <v>620</v>
       </c>
       <c r="C13" s="46">
-        <v>3003</v>
+        <v>2708</v>
       </c>
       <c r="D13" s="47">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="E13" s="47">
-        <v>1212</v>
+        <v>1123</v>
       </c>
       <c r="F13" s="48">
-        <v>5242</v>
+        <v>4765</v>
       </c>
       <c r="G13" s="86">
-        <v>0.33592989289191821</v>
+        <v>0.3361884368308351</v>
       </c>
       <c r="H13" s="87">
-        <v>0.2875444839857651</v>
+        <v>0.29313495170973636</v>
       </c>
       <c r="I13" s="96">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="J13" s="97">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="K13" s="80">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="L13" s="81">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="M13" s="96">
         <v>59.99</v>
       </c>
       <c r="N13" s="97">
-        <v>59.96</v>
+        <v>59.97</v>
       </c>
       <c r="O13" s="80">
         <v>64.959999999999994</v>
       </c>
       <c r="P13" s="81">
-        <v>64.680000000000007</v>
+        <v>64.75</v>
       </c>
       <c r="Q13" s="53">
         <v>0</v>
       </c>
       <c r="R13" s="54">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.23</v>
+      </c>
+      <c r="S13" s="110">
+        <f>[1]Output!$F13/F13</f>
+        <v>1.1001049317943337</v>
+      </c>
+      <c r="T13" s="110">
+        <f>E13/[2]Output!$E13</f>
+        <v>1.1412601626016261</v>
+      </c>
+      <c r="U13" s="110">
+        <f>E13/[3]Output!$E13</f>
+        <v>1.0293308890925756</v>
+      </c>
+      <c r="V13" s="110">
+        <f>E13/[1]Output!$E13</f>
+        <v>0.92656765676567654</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="45">
-        <v>718</v>
+        <v>643</v>
       </c>
       <c r="C14" s="46">
-        <v>2664</v>
+        <v>2424</v>
       </c>
       <c r="D14" s="47">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="E14" s="47">
-        <v>1105</v>
+        <v>1002</v>
       </c>
       <c r="F14" s="48">
-        <v>4835</v>
+        <v>4394</v>
       </c>
       <c r="G14" s="86">
-        <v>0.32645403377110693</v>
+        <v>0.33574380165289258</v>
       </c>
       <c r="H14" s="87">
-        <v>0.29318121517643936</v>
+        <v>0.29246935201401053</v>
       </c>
       <c r="I14" s="96">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="J14" s="97">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="K14" s="80">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="L14" s="81">
-        <v>0.61</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="M14" s="96">
         <v>59.99</v>
@@ -2180,7 +3209,7 @@
         <v>64.959999999999994</v>
       </c>
       <c r="P14" s="81">
-        <v>64.77</v>
+        <v>64.819999999999993</v>
       </c>
       <c r="Q14" s="53">
         <v>0</v>
@@ -2188,43 +3217,59 @@
       <c r="R14" s="54">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14" s="110">
+        <f>[1]Output!$F14/F14</f>
+        <v>1.1003641329085116</v>
+      </c>
+      <c r="T14" s="110">
+        <f>E14/[2]Output!$E14</f>
+        <v>1.1158129175946547</v>
+      </c>
+      <c r="U14" s="110">
+        <f>E14/[3]Output!$E14</f>
+        <v>0.9970149253731343</v>
+      </c>
+      <c r="V14" s="110">
+        <f>E14/[1]Output!$E14</f>
+        <v>0.90678733031674208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="45">
-        <v>768</v>
+        <v>676</v>
       </c>
       <c r="C15" s="46">
-        <v>1834</v>
+        <v>1668</v>
       </c>
       <c r="D15" s="47">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="E15" s="47">
-        <v>733</v>
+        <v>665</v>
       </c>
       <c r="F15" s="48">
-        <v>3686</v>
+        <v>3351</v>
       </c>
       <c r="G15" s="86">
-        <v>0.31367292225201071</v>
+        <v>0.33595284872298625</v>
       </c>
       <c r="H15" s="87">
-        <v>0.28554733151538764</v>
+        <v>0.28504072010287185</v>
       </c>
       <c r="I15" s="96">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="J15" s="97">
-        <v>0.32</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K15" s="80">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="L15" s="81">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="M15" s="96">
         <v>59.99</v>
@@ -2236,7 +3281,7 @@
         <v>64.959999999999994</v>
       </c>
       <c r="P15" s="81">
-        <v>64.900000000000006</v>
+        <v>64.92</v>
       </c>
       <c r="Q15" s="53">
         <v>0</v>
@@ -2244,40 +3289,56 @@
       <c r="R15" s="54">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15" s="110">
+        <f>[1]Output!$F15/F15</f>
+        <v>1.0999701581617427</v>
+      </c>
+      <c r="T15" s="110">
+        <f>E15/[2]Output!$E15</f>
+        <v>1.0572337042925277</v>
+      </c>
+      <c r="U15" s="110">
+        <f>E15/[3]Output!$E15</f>
+        <v>0.95959595959595956</v>
+      </c>
+      <c r="V15" s="110">
+        <f>E15/[1]Output!$E15</f>
+        <v>0.90723055934515684</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="30">
-        <v>802</v>
+        <v>729</v>
       </c>
       <c r="C16" s="31">
-        <v>1418</v>
+        <v>1248</v>
       </c>
       <c r="D16" s="32">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="E16" s="32">
         <v>450</v>
       </c>
       <c r="F16" s="33">
-        <v>2947</v>
+        <v>2679</v>
       </c>
       <c r="G16" s="84">
-        <v>0.25671918443002778</v>
+        <v>0.25688073394495414</v>
       </c>
       <c r="H16" s="85">
-        <v>0.24089935760171305</v>
+        <v>0.26501766784452296</v>
       </c>
       <c r="I16" s="94">
+        <v>0.13</v>
+      </c>
+      <c r="J16" s="95">
+        <v>0.21</v>
+      </c>
+      <c r="K16" s="78">
         <v>0.14000000000000001</v>
-      </c>
-      <c r="J16" s="95">
-        <v>0.24</v>
-      </c>
-      <c r="K16" s="78">
-        <v>0.15</v>
       </c>
       <c r="L16" s="79">
         <v>0.25</v>
@@ -2300,43 +3361,59 @@
       <c r="R16" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" s="110">
+        <f>[1]Output!$F16/F16</f>
+        <v>1.1000373273609556</v>
+      </c>
+      <c r="T16" s="110">
+        <f>E16/[2]Output!$E16</f>
+        <v>1</v>
+      </c>
+      <c r="U16" s="110">
+        <f>E16/[3]Output!$E16</f>
+        <v>1</v>
+      </c>
+      <c r="V16" s="110">
+        <f>E16/[1]Output!$E16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="30">
-        <v>878</v>
+        <v>798</v>
       </c>
       <c r="C17" s="31">
-        <v>1213</v>
+        <v>1103</v>
       </c>
       <c r="D17" s="32">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="E17" s="32">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="F17" s="33">
-        <v>2836</v>
+        <v>2578</v>
       </c>
       <c r="G17" s="84">
-        <v>0.25719120135363788</v>
+        <v>0.25698324022346369</v>
       </c>
       <c r="H17" s="85">
-        <v>0.26662636033857318</v>
+        <v>0.2666223404255319</v>
       </c>
       <c r="I17" s="94">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J17" s="95">
+        <v>0.19</v>
+      </c>
+      <c r="K17" s="78">
         <v>0.15</v>
       </c>
-      <c r="J17" s="95">
-        <v>0.21</v>
-      </c>
-      <c r="K17" s="78">
-        <v>0.17</v>
-      </c>
       <c r="L17" s="79">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="M17" s="94">
         <v>59.99</v>
@@ -2348,7 +3425,7 @@
         <v>64.97</v>
       </c>
       <c r="P17" s="79">
-        <v>64.95</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="Q17" s="42">
         <v>0</v>
@@ -2356,43 +3433,59 @@
       <c r="R17" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17" s="110">
+        <f>[1]Output!$F17/F17</f>
+        <v>1.100077579519007</v>
+      </c>
+      <c r="T17" s="110">
+        <f>E17/[2]Output!$E17</f>
+        <v>0.98284313725490191</v>
+      </c>
+      <c r="U17" s="110">
+        <f>E17/[3]Output!$E17</f>
+        <v>0.89309576837416482</v>
+      </c>
+      <c r="V17" s="110">
+        <f>E17/[1]Output!$E17</f>
+        <v>0.90929705215419498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="30">
-        <v>1027</v>
+        <v>928</v>
       </c>
       <c r="C18" s="31">
-        <v>1107</v>
+        <v>1006</v>
       </c>
       <c r="D18" s="32">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="E18" s="32">
-        <v>402</v>
+        <v>366</v>
       </c>
       <c r="F18" s="33">
-        <v>2883</v>
+        <v>2621</v>
       </c>
       <c r="G18" s="84">
-        <v>0.25254730713245999</v>
+        <v>0.25700560448358689</v>
       </c>
       <c r="H18" s="85">
-        <v>0.26640159045725648</v>
+        <v>0.26676384839650147</v>
       </c>
       <c r="I18" s="94">
+        <v>0.16</v>
+      </c>
+      <c r="J18" s="95">
+        <v>0.17</v>
+      </c>
+      <c r="K18" s="78">
         <v>0.18</v>
       </c>
-      <c r="J18" s="95">
-        <v>0.19</v>
-      </c>
-      <c r="K18" s="78">
-        <v>0.19</v>
-      </c>
       <c r="L18" s="79">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="M18" s="94">
         <v>59.99</v>
@@ -2412,43 +3505,59 @@
       <c r="R18" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18" s="110">
+        <f>[1]Output!$F18/F18</f>
+        <v>1.0999618466234262</v>
+      </c>
+      <c r="T18" s="110">
+        <f>E18/[2]Output!$E18</f>
+        <v>0.98123324396782841</v>
+      </c>
+      <c r="U18" s="110">
+        <f>E18/[3]Output!$E18</f>
+        <v>0.89051094890510951</v>
+      </c>
+      <c r="V18" s="110">
+        <f>E18/[1]Output!$E18</f>
+        <v>0.91044776119402981</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="30">
-        <v>1197</v>
+        <v>1066</v>
       </c>
       <c r="C19" s="31">
-        <v>1022</v>
+        <v>929</v>
       </c>
       <c r="D19" s="32">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="E19" s="32">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="F19" s="33">
-        <v>2950</v>
+        <v>2681</v>
       </c>
       <c r="G19" s="84">
-        <v>0.23121387283236994</v>
+        <v>0.24611032531824611</v>
       </c>
       <c r="H19" s="85">
-        <v>0.26633165829145727</v>
+        <v>0.26677190213101815</v>
       </c>
       <c r="I19" s="94">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="J19" s="95">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="K19" s="78">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="L19" s="79">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="M19" s="94">
         <v>59.99</v>
@@ -2468,43 +3577,59 @@
       <c r="R19" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="110">
+        <f>[1]Output!$F19/F19</f>
+        <v>1.1003356956359567</v>
+      </c>
+      <c r="T19" s="110">
+        <f>E19/[2]Output!$E19</f>
+        <v>0.97971014492753628</v>
+      </c>
+      <c r="U19" s="110">
+        <f>E19/[3]Output!$E19</f>
+        <v>0.89182058047493407</v>
+      </c>
+      <c r="V19" s="110">
+        <f>E19/[1]Output!$E19</f>
+        <v>0.91105121293800539</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="30">
-        <v>1469</v>
+        <v>1335</v>
       </c>
       <c r="C20" s="31">
-        <v>1056</v>
+        <v>960</v>
       </c>
       <c r="D20" s="32">
-        <v>442</v>
+        <v>402</v>
       </c>
       <c r="E20" s="32">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="F20" s="33">
-        <v>3351</v>
+        <v>3046</v>
       </c>
       <c r="G20" s="84">
-        <v>0.23129251700680273</v>
+        <v>0.23143350604490501</v>
       </c>
       <c r="H20" s="85">
-        <v>0.26666666666666666</v>
+        <v>0.26661573720397252</v>
       </c>
       <c r="I20" s="94">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="J20" s="95">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="K20" s="78">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="L20" s="79">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="M20" s="94">
         <v>59.99</v>
@@ -2513,7 +3638,7 @@
         <v>59.99</v>
       </c>
       <c r="O20" s="78">
-        <v>64.95</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="P20" s="79">
         <v>64.959999999999994</v>
@@ -2524,43 +3649,59 @@
       <c r="R20" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="110">
+        <f>[1]Output!$F20/F20</f>
+        <v>1.1001313197636244</v>
+      </c>
+      <c r="T20" s="110">
+        <f>E20/[2]Output!$E20</f>
+        <v>0.9803370786516854</v>
+      </c>
+      <c r="U20" s="110">
+        <f>E20/[3]Output!$E20</f>
+        <v>0.89030612244897955</v>
+      </c>
+      <c r="V20" s="110">
+        <f>E20/[1]Output!$E20</f>
+        <v>0.90885416666666663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="30">
-        <v>2307</v>
+        <v>2094</v>
       </c>
       <c r="C21" s="31">
-        <v>1022</v>
+        <v>901</v>
       </c>
       <c r="D21" s="32">
-        <v>848</v>
+        <v>774</v>
       </c>
       <c r="E21" s="32">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="F21" s="33">
-        <v>4641</v>
+        <v>4219</v>
       </c>
       <c r="G21" s="84">
-        <v>0.26877971473851031</v>
+        <v>0.26987447698744771</v>
       </c>
       <c r="H21" s="85">
-        <v>0.31224764468371469</v>
+        <v>0.33308660251665434</v>
       </c>
       <c r="I21" s="94">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="J21" s="95">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="K21" s="78">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="L21" s="79">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="M21" s="94">
         <v>59.98</v>
@@ -2569,7 +3710,7 @@
         <v>59.99</v>
       </c>
       <c r="O21" s="78">
-        <v>64.88</v>
+        <v>64.89</v>
       </c>
       <c r="P21" s="79">
         <v>64.95</v>
@@ -2580,52 +3721,68 @@
       <c r="R21" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21" s="110">
+        <f>[1]Output!$F21/F21</f>
+        <v>1.1000237022991231</v>
+      </c>
+      <c r="T21" s="110">
+        <f>E21/[2]Output!$E21</f>
+        <v>1</v>
+      </c>
+      <c r="U21" s="110">
+        <f>E21/[3]Output!$E21</f>
+        <v>0.94936708860759489</v>
+      </c>
+      <c r="V21" s="110">
+        <f>E21/[1]Output!$E21</f>
+        <v>0.96982758620689657</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="45">
-        <v>3138</v>
+        <v>2821</v>
       </c>
       <c r="C22" s="46">
-        <v>1022</v>
+        <v>902</v>
       </c>
       <c r="D22" s="47">
-        <v>1049</v>
+        <v>985</v>
       </c>
       <c r="E22" s="47">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="F22" s="48">
-        <v>5674</v>
+        <v>5158</v>
       </c>
       <c r="G22" s="86">
-        <v>0.25053737759732503</v>
+        <v>0.25880189174986862</v>
       </c>
       <c r="H22" s="87">
-        <v>0.31271015467383995</v>
+        <v>0.33284023668639051</v>
       </c>
       <c r="I22" s="96">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="J22" s="97">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="K22" s="80">
-        <v>0.57999999999999996</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L22" s="81">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="M22" s="96">
-        <v>59.96</v>
+        <v>59.97</v>
       </c>
       <c r="N22" s="97">
         <v>59.99</v>
       </c>
       <c r="O22" s="80">
-        <v>64.8</v>
+        <v>64.83</v>
       </c>
       <c r="P22" s="81">
         <v>64.95</v>
@@ -2636,55 +3793,71 @@
       <c r="R22" s="54">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22" s="110">
+        <f>[1]Output!$F22/F22</f>
+        <v>1.1000387747188833</v>
+      </c>
+      <c r="T22" s="110">
+        <f>E22/[2]Output!$E22</f>
+        <v>1</v>
+      </c>
+      <c r="U22" s="110">
+        <f>E22/[3]Output!$E22</f>
+        <v>0.94936708860759489</v>
+      </c>
+      <c r="V22" s="110">
+        <f>E22/[1]Output!$E22</f>
+        <v>0.967741935483871</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="45">
-        <v>3113</v>
+        <v>2793</v>
       </c>
       <c r="C23" s="46">
-        <v>1070</v>
+        <v>964</v>
       </c>
       <c r="D23" s="47">
-        <v>1044</v>
+        <v>986</v>
       </c>
       <c r="E23" s="47">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="F23" s="48">
-        <v>5713</v>
+        <v>5193</v>
       </c>
       <c r="G23" s="86">
-        <v>0.25114265095020449</v>
+        <v>0.26091558613389787</v>
       </c>
       <c r="H23" s="87">
-        <v>0.31233933161953725</v>
+        <v>0.31824611032531824</v>
       </c>
       <c r="I23" s="96">
-        <v>0.53</v>
+        <v>0.48</v>
       </c>
       <c r="J23" s="97">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="K23" s="80">
-        <v>0.57999999999999996</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L23" s="81">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="M23" s="96">
-        <v>59.96</v>
+        <v>59.97</v>
       </c>
       <c r="N23" s="97">
         <v>59.99</v>
       </c>
       <c r="O23" s="80">
-        <v>64.8</v>
+        <v>64.83</v>
       </c>
       <c r="P23" s="81">
-        <v>64.94</v>
+        <v>64.95</v>
       </c>
       <c r="Q23" s="53">
         <v>0.23</v>
@@ -2692,43 +3865,59 @@
       <c r="R23" s="54">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23" s="110">
+        <f>[1]Output!$F23/F23</f>
+        <v>1.1001347968419026</v>
+      </c>
+      <c r="T23" s="110">
+        <f>E23/[2]Output!$E23</f>
+        <v>1</v>
+      </c>
+      <c r="U23" s="110">
+        <f>E23/[3]Output!$E23</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="V23" s="110">
+        <f>E23/[1]Output!$E23</f>
+        <v>0.92592592592592593</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="45">
-        <v>2308</v>
+        <v>2095</v>
       </c>
       <c r="C24" s="46">
-        <v>855</v>
+        <v>772</v>
       </c>
       <c r="D24" s="47">
-        <v>848</v>
+        <v>775</v>
       </c>
       <c r="E24" s="47">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="F24" s="48">
-        <v>4461</v>
+        <v>4056</v>
       </c>
       <c r="G24" s="86">
-        <v>0.26869455006337134</v>
+        <v>0.27003484320557491</v>
       </c>
       <c r="H24" s="87">
-        <v>0.34482758620689657</v>
+        <v>0.34907251264755479</v>
       </c>
       <c r="I24" s="96">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="J24" s="97">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="K24" s="80">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="L24" s="81">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="M24" s="96">
         <v>59.98</v>
@@ -2737,7 +3926,7 @@
         <v>59.99</v>
       </c>
       <c r="O24" s="80">
-        <v>64.88</v>
+        <v>64.89</v>
       </c>
       <c r="P24" s="81">
         <v>64.95</v>
@@ -2748,43 +3937,59 @@
       <c r="R24" s="54">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24" s="110">
+        <f>[1]Output!$F24/F24</f>
+        <v>1.0998520710059172</v>
+      </c>
+      <c r="T24" s="110">
+        <f>E24/[2]Output!$E24</f>
+        <v>0.97641509433962259</v>
+      </c>
+      <c r="U24" s="110">
+        <f>E24/[3]Output!$E24</f>
+        <v>0.92</v>
+      </c>
+      <c r="V24" s="110">
+        <f>E24/[1]Output!$E24</f>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="30">
-        <v>1509</v>
+        <v>1358</v>
       </c>
       <c r="C25" s="31">
-        <v>686</v>
+        <v>624</v>
       </c>
       <c r="D25" s="32">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="E25" s="32">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="F25" s="33">
-        <v>2718</v>
+        <v>2471</v>
       </c>
       <c r="G25" s="84">
-        <v>0.18739903069466882</v>
+        <v>0.19549763033175355</v>
       </c>
       <c r="H25" s="85">
-        <v>0.2032520325203252</v>
+        <v>0.20306513409961685</v>
       </c>
       <c r="I25" s="94">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="J25" s="95">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="K25" s="78">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="L25" s="79">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="M25" s="94">
         <v>59.99</v>
@@ -2804,40 +4009,56 @@
       <c r="R25" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25" s="110">
+        <f>[1]Output!$F25/F25</f>
+        <v>1.0999595305544314</v>
+      </c>
+      <c r="T25" s="110">
+        <f>E25/[2]Output!$E25</f>
+        <v>0.96951219512195119</v>
+      </c>
+      <c r="U25" s="110">
+        <f>E25/[3]Output!$E25</f>
+        <v>0.87845303867403313</v>
+      </c>
+      <c r="V25" s="110">
+        <f>E25/[1]Output!$E25</f>
+        <v>0.90857142857142859</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="30">
-        <v>1063</v>
+        <v>966</v>
       </c>
       <c r="C26" s="31">
-        <v>443</v>
+        <v>403</v>
       </c>
       <c r="D26" s="32">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="E26" s="32">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F26" s="33">
-        <v>1877</v>
+        <v>1706</v>
       </c>
       <c r="G26" s="84">
-        <v>0.19530658591975775</v>
+        <v>0.19567027477102414</v>
       </c>
       <c r="H26" s="85">
-        <v>0.20323741007194246</v>
+        <v>0.20198019801980199</v>
       </c>
       <c r="I26" s="94">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="J26" s="95">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K26" s="78">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="L26" s="79">
         <v>0.06</v>
@@ -2860,37 +4081,53 @@
       <c r="R26" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" s="110">
+        <f>[1]Output!$F26/F26</f>
+        <v>1.1002344665885111</v>
+      </c>
+      <c r="T26" s="110">
+        <f>E26/[2]Output!$E26</f>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="U26" s="110">
+        <f>E26/[3]Output!$E26</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="V26" s="110">
+        <f>E26/[1]Output!$E26</f>
+        <v>0.90265486725663713</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="30">
-        <v>971</v>
+        <v>882</v>
       </c>
       <c r="C27" s="31">
-        <v>388</v>
+        <v>353</v>
       </c>
       <c r="D27" s="32">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E27" s="32">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F27" s="33">
-        <v>1496</v>
+        <v>1359</v>
       </c>
       <c r="G27" s="84">
-        <v>9.0823970037453183E-2</v>
+        <v>9.0721649484536079E-2</v>
       </c>
       <c r="H27" s="85">
-        <v>9.3457943925233641E-2</v>
+        <v>9.2544987146529561E-2</v>
       </c>
       <c r="I27" s="94">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="J27" s="95">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K27" s="78">
         <v>0.05</v>
@@ -2916,40 +4153,56 @@
       <c r="R27" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27" s="110">
+        <f>[1]Output!$F27/F27</f>
+        <v>1.1008094186902133</v>
+      </c>
+      <c r="T27" s="110">
+        <f>E27/[2]Output!$E27</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="U27" s="110">
+        <f>E27/[3]Output!$E27</f>
+        <v>0.83720930232558144</v>
+      </c>
+      <c r="V27" s="110">
+        <f>E27/[1]Output!$E27</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="30">
-        <v>691</v>
+        <v>628</v>
       </c>
       <c r="C28" s="31">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="D28" s="32">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E28" s="32">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F28" s="33">
-        <v>1041</v>
+        <v>947</v>
       </c>
       <c r="G28" s="84">
-        <v>9.0789473684210531E-2</v>
+        <v>9.1172214182344433E-2</v>
       </c>
       <c r="H28" s="85">
-        <v>9.2526690391459068E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="I28" s="94">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="J28" s="95">
         <v>0.04</v>
       </c>
       <c r="K28" s="78">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="L28" s="79">
         <v>0.01</v>
@@ -2961,7 +4214,7 @@
         <v>60</v>
       </c>
       <c r="O28" s="78">
-        <v>64.98</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="P28" s="79">
         <v>64.989999999999995</v>
@@ -2972,31 +4225,47 @@
       <c r="R28" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28" s="110">
+        <f>[1]Output!$F28/F28</f>
+        <v>1.0992608236536432</v>
+      </c>
+      <c r="T28" s="110">
+        <f>E28/[2]Output!$E28</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="U28" s="110">
+        <f>E28/[3]Output!$E28</f>
+        <v>0.82758620689655171</v>
+      </c>
+      <c r="V28" s="110">
+        <f>E28/[1]Output!$E28</f>
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="55">
-        <v>484</v>
+        <v>440</v>
       </c>
       <c r="C29" s="56">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D29" s="57">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E29" s="57">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F29" s="58">
-        <v>675</v>
+        <v>614</v>
       </c>
       <c r="G29" s="88">
-        <v>9.0225563909774431E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="H29" s="89">
-        <v>9.0909090909090912E-2</v>
+        <v>9.2307692307692313E-2</v>
       </c>
       <c r="I29" s="98">
         <v>0.08</v>
@@ -3005,7 +4274,7 @@
         <v>0.02</v>
       </c>
       <c r="K29" s="82">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="L29" s="83">
         <v>0.01</v>
@@ -3028,51 +4297,67 @@
       <c r="R29" s="64">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S29" s="110">
+        <f>[1]Output!$F29/F29</f>
+        <v>1.0993485342019544</v>
+      </c>
+      <c r="T29" s="110">
+        <f>E29/[2]Output!$E29</f>
+        <v>0.8</v>
+      </c>
+      <c r="U29" s="110">
+        <f>E29/[3]Output!$E29</f>
+        <v>0.75</v>
+      </c>
+      <c r="V29" s="110">
+        <f>E29/[1]Output!$E29</f>
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="65">
         <f>SUM(B6:B29)</f>
-        <v>24159</v>
+        <v>21812</v>
       </c>
       <c r="C30" s="66">
         <f t="shared" ref="C30:F30" si="0">SUM(C6:C29)</f>
-        <v>23143</v>
+        <v>20913</v>
       </c>
       <c r="D30" s="67">
         <f t="shared" si="0"/>
-        <v>7679</v>
+        <v>7129</v>
       </c>
       <c r="E30" s="67">
         <f t="shared" si="0"/>
-        <v>8691</v>
+        <v>8026</v>
       </c>
       <c r="F30" s="68">
         <f t="shared" si="0"/>
-        <v>63672</v>
+        <v>57880</v>
       </c>
       <c r="G30" s="100">
         <f>D30/B30</f>
-        <v>0.31785256012252161</v>
+        <v>0.3268384375573079</v>
       </c>
       <c r="H30" s="101">
         <f>E30/C30</f>
-        <v>0.37553471892148815</v>
+        <v>0.38378042365992443</v>
       </c>
       <c r="I30" s="71"/>
       <c r="J30" s="71"/>
       <c r="K30" s="71"/>
       <c r="L30" s="71"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B32" s="72">
         <f>B30+C30</f>
-        <v>47302</v>
+        <v>42725</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -3081,7 +4366,7 @@
       </c>
       <c r="B33" s="72">
         <f>D30+E30</f>
-        <v>16370</v>
+        <v>15155</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -3090,7 +4375,7 @@
       </c>
       <c r="B34" s="72">
         <f>B32+B33</f>
-        <v>63672</v>
+        <v>57880</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -3274,7 +4559,7 @@
       </c>
       <c r="R48" s="109"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>7</v>
       </c>
@@ -3329,8 +4614,13 @@
       <c r="R49" s="17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T49" s="111" t="s">
+        <v>55</v>
+      </c>
+      <c r="U49" s="111"/>
+      <c r="V49" s="111"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>11</v>
       </c>
@@ -3385,31 +4675,40 @@
       <c r="R50" s="28" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T50" s="112" t="s">
+        <v>56</v>
+      </c>
+      <c r="U50" s="112" t="s">
+        <v>57</v>
+      </c>
+      <c r="V50" s="112" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B51" s="30">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="C51" s="31">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D51" s="32">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E51" s="32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F51" s="33">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="G51" s="84">
-        <v>9.5940959409594101E-2</v>
+        <v>9.7165991902834009E-2</v>
       </c>
       <c r="H51" s="85">
-        <v>8.0645161290322578E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="I51" s="90">
         <v>0.04</v>
@@ -3441,37 +4740,53 @@
       <c r="R51" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S51" s="110">
+        <f>[1]Output!$F51/F51</f>
+        <v>1.0990099009900991</v>
+      </c>
+      <c r="T51" s="110">
+        <f>E51/[2]Output!$E51</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U51" s="110">
+        <f>E51/[3]Output!$E51</f>
+        <v>0.5</v>
+      </c>
+      <c r="V51" s="110">
+        <f>E51/[1]Output!$E51</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B52" s="30">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C52" s="31">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D52" s="32">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E52" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" s="33">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="G52" s="84">
-        <v>9.9173553719008267E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H52" s="85">
-        <v>8.8235294117647065E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="I52" s="94">
         <v>0.02</v>
       </c>
       <c r="J52" s="95">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K52" s="78">
         <v>0.01</v>
@@ -3497,31 +4812,47 @@
       <c r="R52" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S52" s="110">
+        <f>[1]Output!$F52/F52</f>
+        <v>1.1071428571428572</v>
+      </c>
+      <c r="T52" s="110">
+        <f>E52/[2]Output!$E52</f>
+        <v>0.4</v>
+      </c>
+      <c r="U52" s="110">
+        <f>E52/[3]Output!$E52</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V52" s="110">
+        <f>E52/[1]Output!$E52</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B53" s="30">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C53" s="31">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D53" s="32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E53" s="32">
         <v>2</v>
       </c>
       <c r="F53" s="33">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G53" s="84">
-        <v>0.10169491525423729</v>
+        <v>9.4339622641509441E-2</v>
       </c>
       <c r="H53" s="85">
-        <v>7.1428571428571425E-2</v>
+        <v>0.08</v>
       </c>
       <c r="I53" s="94">
         <v>0.01</v>
@@ -3553,37 +4884,53 @@
       <c r="R53" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S53" s="110">
+        <f>[1]Output!$F53/F53</f>
+        <v>1.1153846153846154</v>
+      </c>
+      <c r="T53" s="110">
+        <f>E53/[2]Output!$E53</f>
+        <v>0.4</v>
+      </c>
+      <c r="U53" s="110">
+        <f>E53/[3]Output!$E53</f>
+        <v>0.4</v>
+      </c>
+      <c r="V53" s="110">
+        <f>E53/[1]Output!$E53</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B54" s="30">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C54" s="31">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D54" s="32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E54" s="32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" s="33">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G54" s="84">
-        <v>0.1</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="H54" s="85">
-        <v>8.1632653061224483E-2</v>
+        <v>7.8651685393258425E-2</v>
       </c>
       <c r="I54" s="94">
         <v>0.01</v>
       </c>
       <c r="J54" s="95">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="K54" s="78">
         <v>0</v>
@@ -3609,31 +4956,47 @@
       <c r="R54" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S54" s="110">
+        <f>[1]Output!$F54/F54</f>
+        <v>1.1044776119402986</v>
+      </c>
+      <c r="T54" s="110">
+        <f>E54/[2]Output!$E54</f>
+        <v>0.7</v>
+      </c>
+      <c r="U54" s="110">
+        <f>E54/[3]Output!$E54</f>
+        <v>0.7</v>
+      </c>
+      <c r="V54" s="110">
+        <f>E54/[1]Output!$E54</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B55" s="30">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C55" s="31">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="D55" s="32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E55" s="32">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F55" s="33">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="G55" s="84">
-        <v>9.6774193548387094E-2</v>
+        <v>9.4117647058823528E-2</v>
       </c>
       <c r="H55" s="85">
-        <v>7.6023391812865493E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="I55" s="94">
         <v>0.01</v>
@@ -3642,7 +5005,7 @@
         <v>0.05</v>
       </c>
       <c r="K55" s="78">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L55" s="79">
         <v>0.01</v>
@@ -3665,43 +5028,59 @@
       <c r="R55" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S55" s="110">
+        <f>[1]Output!$F55/F55</f>
+        <v>1.0957178841309825</v>
+      </c>
+      <c r="T55" s="110">
+        <f>E55/[2]Output!$E55</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="U55" s="110">
+        <f>E55/[3]Output!$E55</f>
+        <v>0.82758620689655171</v>
+      </c>
+      <c r="V55" s="110">
+        <f>E55/[1]Output!$E55</f>
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B56" s="30">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="C56" s="31">
-        <v>1137</v>
+        <v>1034</v>
       </c>
       <c r="D56" s="32">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E56" s="32">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="F56" s="33">
-        <v>1602</v>
+        <v>1456</v>
       </c>
       <c r="G56" s="84">
-        <v>0.20833333333333334</v>
+        <v>0.21100917431192662</v>
       </c>
       <c r="H56" s="85">
-        <v>0.16519823788546256</v>
+        <v>0.16478190630048464</v>
       </c>
       <c r="I56" s="94">
         <v>0.03</v>
       </c>
       <c r="J56" s="95">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="K56" s="78">
         <v>0.03</v>
       </c>
       <c r="L56" s="79">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="M56" s="94">
         <v>60</v>
@@ -3721,55 +5100,71 @@
       <c r="R56" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S56" s="110">
+        <f>[1]Output!$F56/F56</f>
+        <v>1.1002747252747254</v>
+      </c>
+      <c r="T56" s="110">
+        <f>E56/[2]Output!$E56</f>
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="U56" s="110">
+        <f>E56/[3]Output!$E56</f>
+        <v>0.88311688311688308</v>
+      </c>
+      <c r="V56" s="110">
+        <f>E56/[1]Output!$E56</f>
+        <v>0.90666666666666662</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B57" s="30">
-        <v>496</v>
+        <v>451</v>
       </c>
       <c r="C57" s="31">
-        <v>3475</v>
+        <v>3177</v>
       </c>
       <c r="D57" s="32">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="E57" s="32">
-        <v>1116</v>
+        <v>996</v>
       </c>
       <c r="F57" s="33">
-        <v>5363</v>
+        <v>4875</v>
       </c>
       <c r="G57" s="84">
-        <v>0.35751295336787564</v>
+        <v>0.35754985754985757</v>
       </c>
       <c r="H57" s="85">
-        <v>0.24308429536048792</v>
+        <v>0.23867721063982747</v>
       </c>
       <c r="I57" s="94">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="J57" s="95">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K57" s="78">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L57" s="79">
-        <v>0.62</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M57" s="94">
         <v>59.99</v>
       </c>
       <c r="N57" s="95">
-        <v>59.94</v>
+        <v>59.95</v>
       </c>
       <c r="O57" s="78">
         <v>64.97</v>
       </c>
       <c r="P57" s="79">
-        <v>64.760000000000005</v>
+        <v>64.819999999999993</v>
       </c>
       <c r="Q57" s="42">
         <v>0</v>
@@ -3777,111 +5172,143 @@
       <c r="R57" s="43">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S57" s="110">
+        <f>[1]Output!$F57/F57</f>
+        <v>1.1001025641025641</v>
+      </c>
+      <c r="T57" s="110">
+        <f>E57/[2]Output!$E57</f>
+        <v>1.0790899241603467</v>
+      </c>
+      <c r="U57" s="110">
+        <f>E57/[3]Output!$E57</f>
+        <v>0.95311004784688991</v>
+      </c>
+      <c r="V57" s="110">
+        <f>E57/[1]Output!$E57</f>
+        <v>0.89247311827956988</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="s">
         <v>22</v>
       </c>
       <c r="B58" s="45">
-        <v>808</v>
+        <v>734</v>
       </c>
       <c r="C58" s="46">
-        <v>3907</v>
+        <v>3571</v>
       </c>
       <c r="D58" s="47">
-        <v>449</v>
+        <v>408</v>
       </c>
       <c r="E58" s="47">
-        <v>1289</v>
+        <v>1152</v>
       </c>
       <c r="F58" s="48">
-        <v>6453</v>
+        <v>5865</v>
       </c>
       <c r="G58" s="86">
-        <v>0.35719968178202066</v>
+        <v>0.35726795096322239</v>
       </c>
       <c r="H58" s="87">
-        <v>0.24807544264819092</v>
+        <v>0.24391276730891381</v>
       </c>
       <c r="I58" s="96">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="J58" s="97">
-        <v>0.67</v>
+        <v>0.61</v>
       </c>
       <c r="K58" s="80">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="L58" s="81">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
       <c r="M58" s="96">
         <v>59.99</v>
       </c>
       <c r="N58" s="97">
-        <v>59.92</v>
+        <v>59.94</v>
       </c>
       <c r="O58" s="80">
         <v>64.95</v>
       </c>
       <c r="P58" s="81">
-        <v>64.59</v>
+        <v>64.73</v>
       </c>
       <c r="Q58" s="53">
         <v>0</v>
       </c>
       <c r="R58" s="54">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.23</v>
+      </c>
+      <c r="S58" s="110">
+        <f>[1]Output!$F58/F58</f>
+        <v>1.1002557544757032</v>
+      </c>
+      <c r="T58" s="110">
+        <f>E58/[2]Output!$E58</f>
+        <v>1.1719226856561547</v>
+      </c>
+      <c r="U58" s="110">
+        <f>E58/[3]Output!$E58</f>
+        <v>1.03971119133574</v>
+      </c>
+      <c r="V58" s="110">
+        <f>E58/[1]Output!$E58</f>
+        <v>0.89371605896043449</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
         <v>23</v>
       </c>
       <c r="B59" s="45">
-        <v>853</v>
+        <v>761</v>
       </c>
       <c r="C59" s="46">
-        <v>3519</v>
+        <v>3217</v>
       </c>
       <c r="D59" s="47">
-        <v>450</v>
+        <v>423</v>
       </c>
       <c r="E59" s="47">
-        <v>1133</v>
+        <v>1012</v>
       </c>
       <c r="F59" s="48">
-        <v>5955</v>
+        <v>5413</v>
       </c>
       <c r="G59" s="86">
-        <v>0.34535686876438987</v>
+        <v>0.35726351351351349</v>
       </c>
       <c r="H59" s="87">
-        <v>0.2435511607910576</v>
+        <v>0.23930007093875622</v>
       </c>
       <c r="I59" s="96">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="J59" s="97">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K59" s="80">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="L59" s="81">
-        <v>0.63</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="M59" s="96">
         <v>59.99</v>
       </c>
       <c r="N59" s="97">
-        <v>59.94</v>
+        <v>59.95</v>
       </c>
       <c r="O59" s="80">
         <v>64.95</v>
       </c>
       <c r="P59" s="81">
-        <v>64.75</v>
+        <v>64.819999999999993</v>
       </c>
       <c r="Q59" s="53">
         <v>0</v>
@@ -3889,55 +5316,71 @@
       <c r="R59" s="54">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S59" s="110">
+        <f>[1]Output!$F59/F59</f>
+        <v>1.1001293183077776</v>
+      </c>
+      <c r="T59" s="110">
+        <f>E59/[2]Output!$E59</f>
+        <v>1.1319910514541387</v>
+      </c>
+      <c r="U59" s="110">
+        <f>E59/[3]Output!$E59</f>
+        <v>1.0059642147117296</v>
+      </c>
+      <c r="V59" s="110">
+        <f>E59/[1]Output!$E59</f>
+        <v>0.89320388349514568</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="s">
         <v>24</v>
       </c>
       <c r="B60" s="45">
-        <v>919</v>
+        <v>800</v>
       </c>
       <c r="C60" s="46">
-        <v>2453</v>
+        <v>2232</v>
       </c>
       <c r="D60" s="47">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E60" s="47">
-        <v>736</v>
+        <v>667</v>
       </c>
       <c r="F60" s="48">
-        <v>4558</v>
+        <v>4143</v>
       </c>
       <c r="G60" s="86">
-        <v>0.3287070854638422</v>
+        <v>0.35691318327974275</v>
       </c>
       <c r="H60" s="87">
-        <v>0.23079335214800878</v>
+        <v>0.23007933770265609</v>
       </c>
       <c r="I60" s="96">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J60" s="97">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="K60" s="80">
         <v>0.25</v>
       </c>
       <c r="L60" s="81">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="M60" s="96">
         <v>59.99</v>
       </c>
       <c r="N60" s="97">
-        <v>59.97</v>
+        <v>59.98</v>
       </c>
       <c r="O60" s="80">
         <v>64.95</v>
       </c>
       <c r="P60" s="81">
-        <v>64.900000000000006</v>
+        <v>64.92</v>
       </c>
       <c r="Q60" s="53">
         <v>0</v>
@@ -3945,40 +5388,56 @@
       <c r="R60" s="54">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S60" s="110">
+        <f>[1]Output!$F60/F60</f>
+        <v>1.1001689596910451</v>
+      </c>
+      <c r="T60" s="110">
+        <f>E60/[2]Output!$E60</f>
+        <v>1.0689102564102564</v>
+      </c>
+      <c r="U60" s="110">
+        <f>E60/[3]Output!$E60</f>
+        <v>0.96947674418604646</v>
+      </c>
+      <c r="V60" s="110">
+        <f>E60/[1]Output!$E60</f>
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B61" s="30">
-        <v>959</v>
+        <v>871</v>
       </c>
       <c r="C61" s="31">
-        <v>1820</v>
+        <v>1618</v>
       </c>
       <c r="D61" s="32">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="E61" s="32">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F61" s="33">
-        <v>3590</v>
+        <v>3264</v>
       </c>
       <c r="G61" s="84">
-        <v>0.2734848484848485</v>
+        <v>0.27416666666666667</v>
       </c>
       <c r="H61" s="85">
-        <v>0.19823788546255505</v>
+        <v>0.21608527131782945</v>
       </c>
       <c r="I61" s="94">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="J61" s="95">
-        <v>0.31</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K61" s="78">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="L61" s="79">
         <v>0.25</v>
@@ -4001,43 +5460,59 @@
       <c r="R61" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S61" s="110">
+        <f>[1]Output!$F61/F61</f>
+        <v>1.0998774509803921</v>
+      </c>
+      <c r="T61" s="110">
+        <f>E61/[2]Output!$E61</f>
+        <v>0.9955357142857143</v>
+      </c>
+      <c r="U61" s="110">
+        <f>E61/[3]Output!$E61</f>
+        <v>0.99111111111111116</v>
+      </c>
+      <c r="V61" s="110">
+        <f>E61/[1]Output!$E61</f>
+        <v>0.99111111111111116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B62" s="30">
-        <v>1050</v>
+        <v>954</v>
       </c>
       <c r="C62" s="31">
-        <v>1574</v>
+        <v>1430</v>
       </c>
       <c r="D62" s="32">
-        <v>396</v>
+        <v>360</v>
       </c>
       <c r="E62" s="32">
-        <v>437</v>
+        <v>397</v>
       </c>
       <c r="F62" s="33">
-        <v>3457</v>
+        <v>3141</v>
       </c>
       <c r="G62" s="84">
-        <v>0.27385892116182575</v>
+        <v>0.27397260273972601</v>
       </c>
       <c r="H62" s="85">
-        <v>0.21730482347090999</v>
+        <v>0.21729611384783798</v>
       </c>
       <c r="I62" s="94">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="J62" s="95">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="K62" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="L62" s="79">
         <v>0.22</v>
-      </c>
-      <c r="L62" s="79">
-        <v>0.24</v>
       </c>
       <c r="M62" s="94">
         <v>59.99</v>
@@ -4049,7 +5524,7 @@
         <v>64.959999999999994</v>
       </c>
       <c r="P62" s="79">
-        <v>64.95</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="Q62" s="42">
         <v>0</v>
@@ -4057,43 +5532,59 @@
       <c r="R62" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S62" s="110">
+        <f>[1]Output!$F62/F62</f>
+        <v>1.1006049028971665</v>
+      </c>
+      <c r="T62" s="110">
+        <f>E62/[2]Output!$E62</f>
+        <v>0.98024691358024696</v>
+      </c>
+      <c r="U62" s="110">
+        <f>E62/[3]Output!$E62</f>
+        <v>0.89213483146067418</v>
+      </c>
+      <c r="V62" s="110">
+        <f>E62/[1]Output!$E62</f>
+        <v>0.90846681922196793</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B63" s="30">
-        <v>1231</v>
+        <v>1110</v>
       </c>
       <c r="C63" s="31">
-        <v>1436</v>
+        <v>1305</v>
       </c>
       <c r="D63" s="32">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="E63" s="32">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="F63" s="33">
-        <v>3516</v>
+        <v>3195</v>
       </c>
       <c r="G63" s="84">
-        <v>0.26769779892920881</v>
+        <v>0.27356020942408377</v>
       </c>
       <c r="H63" s="85">
-        <v>0.21743869209809263</v>
+        <v>0.21715656868626274</v>
       </c>
       <c r="I63" s="94">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="J63" s="95">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="K63" s="78">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="L63" s="79">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="M63" s="94">
         <v>59.99</v>
@@ -4113,43 +5604,59 @@
       <c r="R63" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S63" s="110">
+        <f>[1]Output!$F63/F63</f>
+        <v>1.1004694835680751</v>
+      </c>
+      <c r="T63" s="110">
+        <f>E63/[2]Output!$E63</f>
+        <v>0.97837837837837838</v>
+      </c>
+      <c r="U63" s="110">
+        <f>E63/[3]Output!$E63</f>
+        <v>0.88943488943488946</v>
+      </c>
+      <c r="V63" s="110">
+        <f>E63/[1]Output!$E63</f>
+        <v>0.90726817042606511</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B64" s="30">
-        <v>1447</v>
+        <v>1282</v>
       </c>
       <c r="C64" s="31">
-        <v>1325</v>
+        <v>1204</v>
       </c>
       <c r="D64" s="32">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="E64" s="32">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="F64" s="33">
-        <v>3598</v>
+        <v>3270</v>
       </c>
       <c r="G64" s="84">
-        <v>0.24041994750656168</v>
+        <v>0.25981524249422633</v>
       </c>
       <c r="H64" s="85">
-        <v>0.21736562315416422</v>
+        <v>0.21716514954486346</v>
       </c>
       <c r="I64" s="94">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="J64" s="95">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="K64" s="78">
         <v>0.25</v>
       </c>
       <c r="L64" s="79">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="M64" s="94">
         <v>59.99</v>
@@ -4169,43 +5676,59 @@
       <c r="R64" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S64" s="110">
+        <f>[1]Output!$F64/F64</f>
+        <v>1.1003058103975536</v>
+      </c>
+      <c r="T64" s="110">
+        <f>E64/[2]Output!$E64</f>
+        <v>0.97660818713450293</v>
+      </c>
+      <c r="U64" s="110">
+        <f>E64/[3]Output!$E64</f>
+        <v>0.88829787234042556</v>
+      </c>
+      <c r="V64" s="110">
+        <f>E64/[1]Output!$E64</f>
+        <v>0.90760869565217395</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B65" s="30">
-        <v>1777</v>
+        <v>1616</v>
       </c>
       <c r="C65" s="31">
-        <v>1370</v>
+        <v>1245</v>
       </c>
       <c r="D65" s="32">
-        <v>562</v>
+        <v>511</v>
       </c>
       <c r="E65" s="32">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="F65" s="33">
-        <v>4089</v>
+        <v>3718</v>
       </c>
       <c r="G65" s="84">
-        <v>0.24027362120564344</v>
+        <v>0.24024447578749411</v>
       </c>
       <c r="H65" s="85">
-        <v>0.21714285714285714</v>
+        <v>0.21747328724072909</v>
       </c>
       <c r="I65" s="94">
-        <v>0.31</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J65" s="95">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="K65" s="78">
-        <v>0.31</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L65" s="79">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="M65" s="94">
         <v>59.98</v>
@@ -4214,54 +5737,70 @@
         <v>59.99</v>
       </c>
       <c r="O65" s="78">
-        <v>64.930000000000007</v>
+        <v>64.94</v>
       </c>
       <c r="P65" s="79">
         <v>64.959999999999994</v>
       </c>
       <c r="Q65" s="42">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="R65" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S65" s="110">
+        <f>[1]Output!$F65/F65</f>
+        <v>1.0997848305540614</v>
+      </c>
+      <c r="T65" s="110">
+        <f>E65/[2]Output!$E65</f>
+        <v>0.98016997167138808</v>
+      </c>
+      <c r="U65" s="110">
+        <f>E65/[3]Output!$E65</f>
+        <v>0.88946015424164526</v>
+      </c>
+      <c r="V65" s="110">
+        <f>E65/[1]Output!$E65</f>
+        <v>0.91052631578947374</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B66" s="30">
-        <v>2805</v>
+        <v>2537</v>
       </c>
       <c r="C66" s="31">
-        <v>1346</v>
+        <v>1192</v>
       </c>
       <c r="D66" s="32">
-        <v>1140</v>
+        <v>1049</v>
       </c>
       <c r="E66" s="32">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F66" s="33">
-        <v>5751</v>
+        <v>5228</v>
       </c>
       <c r="G66" s="84">
-        <v>0.28897338403041822</v>
+        <v>0.29252649191299496</v>
       </c>
       <c r="H66" s="85">
-        <v>0.2547065337763012</v>
+        <v>0.27405602923264311</v>
       </c>
       <c r="I66" s="94">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="J66" s="95">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="K66" s="78">
-        <v>0.63</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="L66" s="79">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="M66" s="94">
         <v>59.97</v>
@@ -4270,7 +5809,7 @@
         <v>59.99</v>
       </c>
       <c r="O66" s="78">
-        <v>64.739999999999995</v>
+        <v>64.8</v>
       </c>
       <c r="P66" s="79">
         <v>64.95</v>
@@ -4281,155 +5820,203 @@
       <c r="R66" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S66" s="110">
+        <f>[1]Output!$F66/F66</f>
+        <v>1.1000382555470543</v>
+      </c>
+      <c r="T66" s="110">
+        <f>E66/[2]Output!$E66</f>
+        <v>1</v>
+      </c>
+      <c r="U66" s="110">
+        <f>E66/[3]Output!$E66</f>
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="V66" s="110">
+        <f>E66/[1]Output!$E66</f>
+        <v>0.97826086956521741</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="44" t="s">
         <v>31</v>
       </c>
       <c r="B67" s="45">
-        <v>3811</v>
+        <v>3416</v>
       </c>
       <c r="C67" s="46">
-        <v>1347</v>
+        <v>1193</v>
       </c>
       <c r="D67" s="47">
-        <v>1401</v>
+        <v>1322</v>
       </c>
       <c r="E67" s="47">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F67" s="48">
-        <v>7019</v>
+        <v>6381</v>
       </c>
       <c r="G67" s="86">
-        <v>0.26880276285495014</v>
+        <v>0.27902068383284084</v>
       </c>
       <c r="H67" s="87">
-        <v>0.25456557830658549</v>
+        <v>0.27388922702373708</v>
       </c>
       <c r="I67" s="96">
-        <v>0.65</v>
+        <v>0.59</v>
       </c>
       <c r="J67" s="97">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="K67" s="80">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
       <c r="L67" s="81">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="M67" s="96">
-        <v>59.92</v>
+        <v>59.95</v>
       </c>
       <c r="N67" s="97">
         <v>59.99</v>
       </c>
       <c r="O67" s="80">
-        <v>64.34</v>
+        <v>64.53</v>
       </c>
       <c r="P67" s="81">
         <v>64.95</v>
       </c>
       <c r="Q67" s="53">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
       <c r="R67" s="54">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S67" s="110">
+        <f>[1]Output!$F67/F67</f>
+        <v>1.0999843284751607</v>
+      </c>
+      <c r="T67" s="110">
+        <f>E67/[2]Output!$E67</f>
+        <v>1</v>
+      </c>
+      <c r="U67" s="110">
+        <f>E67/[3]Output!$E67</f>
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="V67" s="110">
+        <f>E67/[1]Output!$E67</f>
+        <v>0.97826086956521741</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="44" t="s">
         <v>32</v>
       </c>
       <c r="B68" s="45">
-        <v>3780</v>
+        <v>3390</v>
       </c>
       <c r="C68" s="46">
-        <v>1409</v>
+        <v>1268</v>
       </c>
       <c r="D68" s="47">
-        <v>1395</v>
+        <v>1314</v>
       </c>
       <c r="E68" s="47">
-        <v>481</v>
+        <v>450</v>
       </c>
       <c r="F68" s="48">
-        <v>7065</v>
+        <v>6422</v>
       </c>
       <c r="G68" s="86">
-        <v>0.26956521739130435</v>
+        <v>0.27933673469387754</v>
       </c>
       <c r="H68" s="87">
-        <v>0.2544973544973545</v>
+        <v>0.26193247962747379</v>
       </c>
       <c r="I68" s="96">
-        <v>0.65</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J68" s="97">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="K68" s="80">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
       <c r="L68" s="81">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="M68" s="96">
-        <v>59.93</v>
+        <v>59.95</v>
       </c>
       <c r="N68" s="97">
         <v>59.99</v>
       </c>
       <c r="O68" s="80">
-        <v>64.349999999999994</v>
+        <v>64.55</v>
       </c>
       <c r="P68" s="81">
         <v>64.95</v>
       </c>
       <c r="Q68" s="53">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="R68" s="54">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S68" s="110">
+        <f>[1]Output!$F68/F68</f>
+        <v>1.1001245717844907</v>
+      </c>
+      <c r="T68" s="110">
+        <f>E68/[2]Output!$E68</f>
+        <v>1</v>
+      </c>
+      <c r="U68" s="110">
+        <f>E68/[3]Output!$E68</f>
+        <v>0.91649694501018331</v>
+      </c>
+      <c r="V68" s="110">
+        <f>E68/[1]Output!$E68</f>
+        <v>0.9355509355509356</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B69" s="45">
-        <v>2807</v>
+        <v>2539</v>
       </c>
       <c r="C69" s="46">
-        <v>1138</v>
+        <v>1030</v>
       </c>
       <c r="D69" s="47">
-        <v>1141</v>
+        <v>1050</v>
       </c>
       <c r="E69" s="47">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="F69" s="48">
-        <v>5533</v>
+        <v>5030</v>
       </c>
       <c r="G69" s="86">
-        <v>0.28900709219858156</v>
+        <v>0.29256060183895233</v>
       </c>
       <c r="H69" s="87">
-        <v>0.28201892744479495</v>
+        <v>0.28521859819569745</v>
       </c>
       <c r="I69" s="96">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="J69" s="97">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="K69" s="80">
-        <v>0.63</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="L69" s="81">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="M69" s="96">
         <v>59.97</v>
@@ -4438,7 +6025,7 @@
         <v>59.99</v>
       </c>
       <c r="O69" s="80">
-        <v>64.739999999999995</v>
+        <v>64.8</v>
       </c>
       <c r="P69" s="81">
         <v>64.95</v>
@@ -4449,43 +6036,59 @@
       <c r="R69" s="54">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S69" s="110">
+        <f>[1]Output!$F69/F69</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T69" s="110">
+        <f>E69/[2]Output!$E69</f>
+        <v>0.97857142857142854</v>
+      </c>
+      <c r="U69" s="110">
+        <f>E69/[3]Output!$E69</f>
+        <v>0.91536748329621376</v>
+      </c>
+      <c r="V69" s="110">
+        <f>E69/[1]Output!$E69</f>
+        <v>0.91946308724832215</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="29" t="s">
         <v>34</v>
       </c>
       <c r="B70" s="30">
-        <v>1824</v>
+        <v>1636</v>
       </c>
       <c r="C70" s="31">
-        <v>872</v>
+        <v>793</v>
       </c>
       <c r="D70" s="32">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="E70" s="32">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="F70" s="33">
-        <v>3319</v>
+        <v>3017</v>
       </c>
       <c r="G70" s="84">
-        <v>0.19788918205804748</v>
+        <v>0.20851475568456701</v>
       </c>
       <c r="H70" s="85">
-        <v>0.16555023923444975</v>
+        <v>0.16526315789473683</v>
       </c>
       <c r="I70" s="94">
-        <v>0.31</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J70" s="95">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K70" s="78">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="L70" s="79">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="M70" s="94">
         <v>59.98</v>
@@ -4505,40 +6108,56 @@
       <c r="R70" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S70" s="110">
+        <f>[1]Output!$F70/F70</f>
+        <v>1.1000994365263508</v>
+      </c>
+      <c r="T70" s="110">
+        <f>E70/[2]Output!$E70</f>
+        <v>0.96319018404907975</v>
+      </c>
+      <c r="U70" s="110">
+        <f>E70/[3]Output!$E70</f>
+        <v>0.87709497206703912</v>
+      </c>
+      <c r="V70" s="110">
+        <f>E70/[1]Output!$E70</f>
+        <v>0.90751445086705207</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="29" t="s">
         <v>35</v>
       </c>
       <c r="B71" s="30">
-        <v>1279</v>
+        <v>1163</v>
       </c>
       <c r="C71" s="31">
-        <v>562</v>
+        <v>510</v>
       </c>
       <c r="D71" s="32">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="E71" s="32">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F71" s="33">
-        <v>2289</v>
+        <v>2081</v>
       </c>
       <c r="G71" s="84">
-        <v>0.20853960396039603</v>
+        <v>0.20884353741496597</v>
       </c>
       <c r="H71" s="85">
-        <v>0.16493313521545319</v>
+        <v>0.16530278232405893</v>
       </c>
       <c r="I71" s="94">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="J71" s="95">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="K71" s="78">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="L71" s="79">
         <v>0.06</v>
@@ -4550,7 +6169,7 @@
         <v>59.99</v>
       </c>
       <c r="O71" s="78">
-        <v>64.959999999999994</v>
+        <v>64.97</v>
       </c>
       <c r="P71" s="79">
         <v>64.98</v>
@@ -4561,40 +6180,56 @@
       <c r="R71" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S71" s="110">
+        <f>[1]Output!$F71/F71</f>
+        <v>1.0999519461797214</v>
+      </c>
+      <c r="T71" s="110">
+        <f>E71/[2]Output!$E71</f>
+        <v>0.94392523364485981</v>
+      </c>
+      <c r="U71" s="110">
+        <f>E71/[3]Output!$E71</f>
+        <v>0.85593220338983056</v>
+      </c>
+      <c r="V71" s="110">
+        <f>E71/[1]Output!$E71</f>
+        <v>0.90990990990990994</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="29" t="s">
         <v>36</v>
       </c>
       <c r="B72" s="30">
-        <v>1179</v>
+        <v>1072</v>
       </c>
       <c r="C72" s="31">
-        <v>479</v>
+        <v>435</v>
       </c>
       <c r="D72" s="32">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E72" s="32">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F72" s="33">
-        <v>1825</v>
+        <v>1658</v>
       </c>
       <c r="G72" s="84">
-        <v>9.7243491577335375E-2</v>
+        <v>9.6882898062342043E-2</v>
       </c>
       <c r="H72" s="85">
-        <v>7.7071290944123308E-2</v>
+        <v>7.6433121019108277E-2</v>
       </c>
       <c r="I72" s="94">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="J72" s="95">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K72" s="78">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="L72" s="79">
         <v>0.02</v>
@@ -4617,34 +6252,50 @@
       <c r="R72" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S72" s="110">
+        <f>[1]Output!$F72/F72</f>
+        <v>1.1007237635705669</v>
+      </c>
+      <c r="T72" s="110">
+        <f>E72/[2]Output!$E72</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="U72" s="110">
+        <f>E72/[3]Output!$E72</f>
+        <v>0.83720930232558144</v>
+      </c>
+      <c r="V72" s="110">
+        <f>E72/[1]Output!$E72</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="29" t="s">
         <v>37</v>
       </c>
       <c r="B73" s="30">
-        <v>838</v>
+        <v>762</v>
       </c>
       <c r="C73" s="31">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="D73" s="32">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E73" s="32">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F73" s="33">
-        <v>1267</v>
+        <v>1153</v>
       </c>
       <c r="G73" s="84">
-        <v>9.6982758620689655E-2</v>
+        <v>9.7156398104265407E-2</v>
       </c>
       <c r="H73" s="85">
-        <v>7.6696165191740412E-2</v>
+        <v>7.7669902912621352E-2</v>
       </c>
       <c r="I73" s="94">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="J73" s="95">
         <v>0.05</v>
@@ -4673,37 +6324,53 @@
       <c r="R73" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S73" s="110">
+        <f>[1]Output!$F73/F73</f>
+        <v>1.0988725065047702</v>
+      </c>
+      <c r="T73" s="110">
+        <f>E73/[2]Output!$E73</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="U73" s="110">
+        <f>E73/[3]Output!$E73</f>
+        <v>0.82758620689655171</v>
+      </c>
+      <c r="V73" s="110">
+        <f>E73/[1]Output!$E73</f>
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="29" t="s">
         <v>38</v>
       </c>
       <c r="B74" s="55">
-        <v>586</v>
+        <v>533</v>
       </c>
       <c r="C74" s="56">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D74" s="57">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E74" s="57">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F74" s="58">
-        <v>820</v>
+        <v>745</v>
       </c>
       <c r="G74" s="88">
-        <v>9.7072419106317406E-2</v>
+        <v>9.6610169491525427E-2</v>
       </c>
       <c r="H74" s="89">
-        <v>7.6023391812865493E-2</v>
+        <v>7.7419354838709681E-2</v>
       </c>
       <c r="I74" s="98">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="J74" s="99">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="K74" s="82">
         <v>0.03</v>
@@ -4729,72 +6396,88 @@
       <c r="R74" s="64">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S74" s="110">
+        <f>[1]Output!$F74/F74</f>
+        <v>1.1006711409395973</v>
+      </c>
+      <c r="T74" s="110">
+        <f>E74/[2]Output!$E74</f>
+        <v>0.8</v>
+      </c>
+      <c r="U74" s="110">
+        <f>E74/[3]Output!$E74</f>
+        <v>0.75</v>
+      </c>
+      <c r="V74" s="110">
+        <f>E74/[1]Output!$E74</f>
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="29" t="s">
         <v>39</v>
       </c>
       <c r="B75" s="65">
         <f>SUM(B51:B74)</f>
-        <v>29175</v>
+        <v>26287</v>
       </c>
       <c r="C75" s="66">
         <f t="shared" ref="C75" si="1">SUM(C51:C74)</f>
-        <v>30160</v>
+        <v>27355</v>
       </c>
       <c r="D75" s="67">
         <f t="shared" ref="D75" si="2">SUM(D51:D74)</f>
-        <v>10104</v>
+        <v>9419</v>
       </c>
       <c r="E75" s="67">
         <f t="shared" ref="E75" si="3">SUM(E51:E74)</f>
-        <v>8788</v>
+        <v>8046</v>
       </c>
       <c r="F75" s="68">
         <f t="shared" ref="F75" si="4">SUM(F51:F74)</f>
-        <v>78227</v>
+        <v>71107</v>
       </c>
       <c r="G75" s="100">
         <f>D75/B75</f>
-        <v>0.34632390745501285</v>
+        <v>0.35831399551108911</v>
       </c>
       <c r="H75" s="101">
         <f>E75/C75</f>
-        <v>0.29137931034482761</v>
+        <v>0.29413269968927069</v>
       </c>
       <c r="I75" s="71"/>
       <c r="J75" s="71"/>
       <c r="K75" s="71"/>
       <c r="L75" s="71"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B77" s="72">
         <f>B75+C75</f>
-        <v>59335</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+        <v>53642</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B78" s="72">
         <f>D75+E75</f>
-        <v>18892</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+        <v>17465</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B79" s="72">
         <f>B77+B78</f>
-        <v>78227</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+        <v>71107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -15284,17 +16967,67 @@
       <c r="R764"/>
     </row>
   </sheetData>
-  <mergeCells count="84">
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:R3"/>
+  <mergeCells count="86">
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="B723:F723"/>
+    <mergeCell ref="G723:H723"/>
+    <mergeCell ref="I723:L723"/>
+    <mergeCell ref="M723:P723"/>
+    <mergeCell ref="Q723:R723"/>
+    <mergeCell ref="B633:F633"/>
+    <mergeCell ref="G633:H633"/>
+    <mergeCell ref="I633:L633"/>
+    <mergeCell ref="M633:P633"/>
+    <mergeCell ref="Q633:R633"/>
+    <mergeCell ref="B678:F678"/>
+    <mergeCell ref="G678:H678"/>
+    <mergeCell ref="I678:L678"/>
+    <mergeCell ref="M678:P678"/>
+    <mergeCell ref="Q678:R678"/>
+    <mergeCell ref="B543:F543"/>
+    <mergeCell ref="G543:H543"/>
+    <mergeCell ref="I543:L543"/>
+    <mergeCell ref="M543:P543"/>
+    <mergeCell ref="Q543:R543"/>
+    <mergeCell ref="B588:F588"/>
+    <mergeCell ref="G588:H588"/>
+    <mergeCell ref="I588:L588"/>
+    <mergeCell ref="M588:P588"/>
+    <mergeCell ref="Q588:R588"/>
+    <mergeCell ref="B453:F453"/>
+    <mergeCell ref="G453:H453"/>
+    <mergeCell ref="I453:L453"/>
+    <mergeCell ref="M453:P453"/>
+    <mergeCell ref="Q453:R453"/>
+    <mergeCell ref="B498:F498"/>
+    <mergeCell ref="G498:H498"/>
+    <mergeCell ref="I498:L498"/>
+    <mergeCell ref="M498:P498"/>
+    <mergeCell ref="Q498:R498"/>
+    <mergeCell ref="Q408:R408"/>
+    <mergeCell ref="B363:F363"/>
+    <mergeCell ref="G363:H363"/>
+    <mergeCell ref="I363:L363"/>
+    <mergeCell ref="M363:P363"/>
+    <mergeCell ref="Q363:R363"/>
+    <mergeCell ref="G228:H228"/>
+    <mergeCell ref="I228:L228"/>
+    <mergeCell ref="M228:P228"/>
+    <mergeCell ref="B408:F408"/>
+    <mergeCell ref="G408:H408"/>
+    <mergeCell ref="I408:L408"/>
+    <mergeCell ref="M408:P408"/>
+    <mergeCell ref="B273:F273"/>
+    <mergeCell ref="G273:H273"/>
+    <mergeCell ref="I273:L273"/>
+    <mergeCell ref="M273:P273"/>
+    <mergeCell ref="Q273:R273"/>
+    <mergeCell ref="B318:F318"/>
+    <mergeCell ref="G318:H318"/>
+    <mergeCell ref="I318:L318"/>
+    <mergeCell ref="M318:P318"/>
+    <mergeCell ref="Q318:R318"/>
     <mergeCell ref="Q228:R228"/>
     <mergeCell ref="B93:F93"/>
     <mergeCell ref="G93:H93"/>
@@ -15311,66 +17044,18 @@
     <mergeCell ref="I183:L183"/>
     <mergeCell ref="M183:P183"/>
     <mergeCell ref="Q183:R183"/>
-    <mergeCell ref="Q273:R273"/>
-    <mergeCell ref="B318:F318"/>
-    <mergeCell ref="G318:H318"/>
-    <mergeCell ref="I318:L318"/>
-    <mergeCell ref="M318:P318"/>
-    <mergeCell ref="Q318:R318"/>
-    <mergeCell ref="G228:H228"/>
-    <mergeCell ref="I228:L228"/>
-    <mergeCell ref="M228:P228"/>
-    <mergeCell ref="B408:F408"/>
-    <mergeCell ref="G408:H408"/>
-    <mergeCell ref="I408:L408"/>
-    <mergeCell ref="M408:P408"/>
-    <mergeCell ref="B273:F273"/>
-    <mergeCell ref="G273:H273"/>
-    <mergeCell ref="I273:L273"/>
-    <mergeCell ref="M273:P273"/>
-    <mergeCell ref="Q408:R408"/>
-    <mergeCell ref="B363:F363"/>
-    <mergeCell ref="G363:H363"/>
-    <mergeCell ref="I363:L363"/>
-    <mergeCell ref="M363:P363"/>
-    <mergeCell ref="Q363:R363"/>
-    <mergeCell ref="B498:F498"/>
-    <mergeCell ref="G498:H498"/>
-    <mergeCell ref="I498:L498"/>
-    <mergeCell ref="M498:P498"/>
-    <mergeCell ref="Q498:R498"/>
-    <mergeCell ref="B453:F453"/>
-    <mergeCell ref="G453:H453"/>
-    <mergeCell ref="I453:L453"/>
-    <mergeCell ref="M453:P453"/>
-    <mergeCell ref="Q453:R453"/>
-    <mergeCell ref="B588:F588"/>
-    <mergeCell ref="G588:H588"/>
-    <mergeCell ref="I588:L588"/>
-    <mergeCell ref="M588:P588"/>
-    <mergeCell ref="Q588:R588"/>
-    <mergeCell ref="B543:F543"/>
-    <mergeCell ref="G543:H543"/>
-    <mergeCell ref="I543:L543"/>
-    <mergeCell ref="M543:P543"/>
-    <mergeCell ref="Q543:R543"/>
-    <mergeCell ref="B678:F678"/>
-    <mergeCell ref="G678:H678"/>
-    <mergeCell ref="I678:L678"/>
-    <mergeCell ref="M678:P678"/>
-    <mergeCell ref="Q678:R678"/>
-    <mergeCell ref="B633:F633"/>
-    <mergeCell ref="G633:H633"/>
-    <mergeCell ref="I633:L633"/>
-    <mergeCell ref="M633:P633"/>
-    <mergeCell ref="Q633:R633"/>
-    <mergeCell ref="B723:F723"/>
-    <mergeCell ref="G723:H723"/>
-    <mergeCell ref="I723:L723"/>
-    <mergeCell ref="M723:P723"/>
-    <mergeCell ref="Q723:R723"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="Q48:R48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Analysis & Profiles/Output_2020A2.xlsx
+++ b/Analysis & Profiles/Output_2020A2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Projects\Veterans ELToDv2.3 2017-0628_PDNE\Analysis &amp; Profiles\Veterans 2017-0801_newpp_revisedparams_aawdt_for_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Projects\Veterans ELToDv2.3 2017-0628_PDNE\Analysis &amp; Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,17 +14,12 @@
   <sheets>
     <sheet name="Output" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="55">
   <si>
     <t>SEGMENT: 1</t>
   </si>
@@ -189,18 +184,6 @@
   </si>
   <si>
     <t>Anderson Mainline</t>
-  </si>
-  <si>
-    <t>EL_SB Increase</t>
-  </si>
-  <si>
-    <t>More Peak</t>
-  </si>
-  <si>
-    <t>10% OD trips</t>
-  </si>
-  <si>
-    <t>Both</t>
   </si>
 </sst>
 </file>
@@ -392,7 +375,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -592,12 +575,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -954,7 +931,7 @@
     <xf numFmtId="0" fontId="1" fillId="36" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="16" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1139,11 +1116,6 @@
     <xf numFmtId="44" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -1209,912 +1181,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Output"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="E6">
-            <v>5</v>
-          </cell>
-          <cell r="F6">
-            <v>277</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="E7">
-            <v>3</v>
-          </cell>
-          <cell r="F7">
-            <v>132</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8">
-            <v>2</v>
-          </cell>
-          <cell r="F8">
-            <v>76</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="E9">
-            <v>8</v>
-          </cell>
-          <cell r="F9">
-            <v>127</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="E10">
-            <v>27</v>
-          </cell>
-          <cell r="F10">
-            <v>364</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="E11">
-            <v>227</v>
-          </cell>
-          <cell r="F11">
-            <v>1320</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="E12">
-            <v>1089</v>
-          </cell>
-          <cell r="F12">
-            <v>4350</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="E13">
-            <v>1212</v>
-          </cell>
-          <cell r="F13">
-            <v>5242</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="E14">
-            <v>1105</v>
-          </cell>
-          <cell r="F14">
-            <v>4835</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="E15">
-            <v>733</v>
-          </cell>
-          <cell r="F15">
-            <v>3686</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="E16">
-            <v>450</v>
-          </cell>
-          <cell r="F16">
-            <v>2947</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="E17">
-            <v>441</v>
-          </cell>
-          <cell r="F17">
-            <v>2836</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="E18">
-            <v>402</v>
-          </cell>
-          <cell r="F18">
-            <v>2883</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="E19">
-            <v>371</v>
-          </cell>
-          <cell r="F19">
-            <v>2950</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="E20">
-            <v>384</v>
-          </cell>
-          <cell r="F20">
-            <v>3351</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="E21">
-            <v>464</v>
-          </cell>
-          <cell r="F21">
-            <v>4641</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="E22">
-            <v>465</v>
-          </cell>
-          <cell r="F22">
-            <v>5674</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="E23">
-            <v>486</v>
-          </cell>
-          <cell r="F23">
-            <v>5713</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="E24">
-            <v>450</v>
-          </cell>
-          <cell r="F24">
-            <v>4461</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="E25">
-            <v>175</v>
-          </cell>
-          <cell r="F25">
-            <v>2718</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="E26">
-            <v>113</v>
-          </cell>
-          <cell r="F26">
-            <v>1877</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="E27">
-            <v>40</v>
-          </cell>
-          <cell r="F27">
-            <v>1496</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="E28">
-            <v>26</v>
-          </cell>
-          <cell r="F28">
-            <v>1041</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="E29">
-            <v>13</v>
-          </cell>
-          <cell r="F29">
-            <v>675</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="E51">
-            <v>5</v>
-          </cell>
-          <cell r="F51">
-            <v>333</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="E52">
-            <v>3</v>
-          </cell>
-          <cell r="F52">
-            <v>155</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="E53">
-            <v>2</v>
-          </cell>
-          <cell r="F53">
-            <v>87</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="E54">
-            <v>8</v>
-          </cell>
-          <cell r="F54">
-            <v>148</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="E55">
-            <v>26</v>
-          </cell>
-          <cell r="F55">
-            <v>435</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="E56">
-            <v>225</v>
-          </cell>
-          <cell r="F56">
-            <v>1602</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="E57">
-            <v>1116</v>
-          </cell>
-          <cell r="F57">
-            <v>5363</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="E58">
-            <v>1289</v>
-          </cell>
-          <cell r="F58">
-            <v>6453</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="E59">
-            <v>1133</v>
-          </cell>
-          <cell r="F59">
-            <v>5955</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="E60">
-            <v>736</v>
-          </cell>
-          <cell r="F60">
-            <v>4558</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="E61">
-            <v>450</v>
-          </cell>
-          <cell r="F61">
-            <v>3590</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="E62">
-            <v>437</v>
-          </cell>
-          <cell r="F62">
-            <v>3457</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="E63">
-            <v>399</v>
-          </cell>
-          <cell r="F63">
-            <v>3516</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="E64">
-            <v>368</v>
-          </cell>
-          <cell r="F64">
-            <v>3598</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="E65">
-            <v>380</v>
-          </cell>
-          <cell r="F65">
-            <v>4089</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="E66">
-            <v>460</v>
-          </cell>
-          <cell r="F66">
-            <v>5751</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="E67">
-            <v>460</v>
-          </cell>
-          <cell r="F67">
-            <v>7019</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="E68">
-            <v>481</v>
-          </cell>
-          <cell r="F68">
-            <v>7065</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="E69">
-            <v>447</v>
-          </cell>
-          <cell r="F69">
-            <v>5533</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="E70">
-            <v>173</v>
-          </cell>
-          <cell r="F70">
-            <v>3319</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="E71">
-            <v>111</v>
-          </cell>
-          <cell r="F71">
-            <v>2289</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="E72">
-            <v>40</v>
-          </cell>
-          <cell r="F72">
-            <v>1825</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="E73">
-            <v>26</v>
-          </cell>
-          <cell r="F73">
-            <v>1267</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="E74">
-            <v>13</v>
-          </cell>
-          <cell r="F74">
-            <v>820</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Output"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="E6">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="E7">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="E9">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="E10">
-            <v>27</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="E11">
-            <v>212</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="E12">
-            <v>927</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="E13">
-            <v>984</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="E14">
-            <v>898</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="E15">
-            <v>629</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="E16">
-            <v>450</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="E17">
-            <v>408</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="E18">
-            <v>373</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="E19">
-            <v>345</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="E20">
-            <v>356</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="E21">
-            <v>450</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="E22">
-            <v>450</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="E23">
-            <v>450</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="E24">
-            <v>424</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="E25">
-            <v>164</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="E26">
-            <v>108</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="E27">
-            <v>39</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="E28">
-            <v>27</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="E29">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="E51">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="E52">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="E53">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="E54">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="E55">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="E56">
-            <v>210</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="E57">
-            <v>923</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="E58">
-            <v>983</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="E59">
-            <v>894</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="E60">
-            <v>624</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="E61">
-            <v>448</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="E62">
-            <v>405</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="E63">
-            <v>370</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="E64">
-            <v>342</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="E65">
-            <v>353</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="E66">
-            <v>450</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="E67">
-            <v>450</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="E68">
-            <v>450</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="E69">
-            <v>420</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="E70">
-            <v>163</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="E71">
-            <v>107</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="E72">
-            <v>39</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="E73">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="E74">
-            <v>15</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Output"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="E6">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="E7">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="E9">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="E10">
-            <v>29</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="E11">
-            <v>233</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="E12">
-            <v>1033</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="E13">
-            <v>1091</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="E14">
-            <v>1005</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="E15">
-            <v>693</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="E16">
-            <v>450</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="E17">
-            <v>449</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="E18">
-            <v>411</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="E19">
-            <v>379</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="E20">
-            <v>392</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="E21">
-            <v>474</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="E22">
-            <v>474</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="E23">
-            <v>495</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="E24">
-            <v>450</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="E25">
-            <v>181</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="E26">
-            <v>119</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="E27">
-            <v>43</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="E28">
-            <v>29</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="E29">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="E51">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="E52">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="E53">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="E54">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="E55">
-            <v>29</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="E56">
-            <v>231</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="E57">
-            <v>1045</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="E58">
-            <v>1108</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="E59">
-            <v>1006</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="E60">
-            <v>688</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="E61">
-            <v>450</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="E62">
-            <v>445</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="E63">
-            <v>407</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="E64">
-            <v>376</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="E65">
-            <v>389</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="E66">
-            <v>470</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="E67">
-            <v>470</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="E68">
-            <v>491</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="E69">
-            <v>449</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="E70">
-            <v>179</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="E71">
-            <v>118</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="E72">
-            <v>43</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="E73">
-            <v>29</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="E74">
-            <v>16</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2380,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V764"/>
+  <dimension ref="A1:R764"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O58" sqref="O58"/>
+      <selection activeCell="E13" sqref="E13:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2393,11 +1459,9 @@
     <col min="6" max="6" width="12.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="16" width="9.7109375" customWidth="1" collapsed="1"/>
     <col min="17" max="18" width="9.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2406,7 +1470,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -2460,7 +1524,7 @@
       </c>
       <c r="R3" s="109"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -2515,13 +1579,8 @@
       <c r="R4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="111" t="s">
-        <v>55</v>
-      </c>
-      <c r="U4" s="111"/>
-      <c r="V4" s="111"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>11</v>
       </c>
@@ -2576,43 +1635,34 @@
       <c r="R5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="112" t="s">
-        <v>56</v>
-      </c>
-      <c r="U5" s="112" t="s">
-        <v>57</v>
-      </c>
-      <c r="V5" s="112" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="30">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="C6" s="31">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D6" s="32">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E6" s="32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" s="33">
-        <v>252</v>
+        <v>310</v>
       </c>
       <c r="G6" s="84">
-        <v>8.8669950738916259E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="H6" s="85">
-        <v>0.10204081632653061</v>
+        <v>8.8607594936708861E-2</v>
       </c>
       <c r="I6" s="90">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J6" s="91">
         <v>0.01</v>
@@ -2641,56 +1691,40 @@
       <c r="R6" s="43">
         <v>0</v>
       </c>
-      <c r="S6" s="110">
-        <f>[1]Output!$F6/F6</f>
-        <v>1.0992063492063493</v>
-      </c>
-      <c r="T6" s="110">
-        <f>E6/[2]Output!$E6</f>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="U6" s="110">
-        <f>E6/[3]Output!$E6</f>
-        <v>0.625</v>
-      </c>
-      <c r="V6" s="110">
-        <f>E6/[1]Output!$E6</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="30">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C7" s="31">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D7" s="32">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E7" s="32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7" s="33">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="G7" s="84">
-        <v>8.6956521739130432E-2</v>
+        <v>9.0163934426229511E-2</v>
       </c>
       <c r="H7" s="85">
-        <v>0.10714285714285714</v>
+        <v>9.2592592592592587E-2</v>
       </c>
       <c r="I7" s="94">
+        <v>0.02</v>
+      </c>
+      <c r="J7" s="95">
         <v>0.01</v>
       </c>
-      <c r="J7" s="95">
-        <v>0</v>
-      </c>
       <c r="K7" s="78">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L7" s="79">
         <v>0</v>
@@ -2713,53 +1747,37 @@
       <c r="R7" s="43">
         <v>0</v>
       </c>
-      <c r="S7" s="110">
-        <f>[1]Output!$F7/F7</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="T7" s="110">
-        <f>E7/[2]Output!$E7</f>
-        <v>0.6</v>
-      </c>
-      <c r="U7" s="110">
-        <f>E7/[3]Output!$E7</f>
-        <v>0.5</v>
-      </c>
-      <c r="V7" s="110">
-        <f>E7/[1]Output!$E7</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="30">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C8" s="31">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D8" s="32">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E8" s="32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8" s="33">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="G8" s="84">
-        <v>8.6956521739130432E-2</v>
+        <v>9.3333333333333338E-2</v>
       </c>
       <c r="H8" s="85">
-        <v>8.6956521739130432E-2</v>
+        <v>9.8039215686274508E-2</v>
       </c>
       <c r="I8" s="94">
         <v>0.01</v>
       </c>
       <c r="J8" s="95">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K8" s="78">
         <v>0</v>
@@ -2785,59 +1803,43 @@
       <c r="R8" s="43">
         <v>0</v>
       </c>
-      <c r="S8" s="110">
-        <f>[1]Output!$F8/F8</f>
-        <v>1.1014492753623188</v>
-      </c>
-      <c r="T8" s="110">
-        <f>E8/[2]Output!$E8</f>
-        <v>0.4</v>
-      </c>
-      <c r="U8" s="110">
-        <f>E8/[3]Output!$E8</f>
-        <v>0.4</v>
-      </c>
-      <c r="V8" s="110">
-        <f>E8/[1]Output!$E8</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="30">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C9" s="31">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="D9" s="32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E9" s="32">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F9" s="33">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="G9" s="84">
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="H9" s="85">
-        <v>9.3333333333333338E-2</v>
+        <v>9.2783505154639179E-2</v>
       </c>
       <c r="I9" s="94">
         <v>0.01</v>
       </c>
       <c r="J9" s="95">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="K9" s="78">
         <v>0</v>
       </c>
       <c r="L9" s="79">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M9" s="94">
         <v>60</v>
@@ -2857,47 +1859,31 @@
       <c r="R9" s="43">
         <v>0</v>
       </c>
-      <c r="S9" s="110">
-        <f>[1]Output!$F9/F9</f>
-        <v>1.1043478260869566</v>
-      </c>
-      <c r="T9" s="110">
-        <f>E9/[2]Output!$E9</f>
-        <v>0.7</v>
-      </c>
-      <c r="U9" s="110">
-        <f>E9/[3]Output!$E9</f>
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="V9" s="110">
-        <f>E9/[1]Output!$E9</f>
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="30">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C10" s="31">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="D10" s="32">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E10" s="32">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F10" s="33">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="G10" s="84">
-        <v>9.5890410958904104E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="H10" s="85">
-        <v>9.3023255813953487E-2</v>
+        <v>9.3189964157706098E-2</v>
       </c>
       <c r="I10" s="94">
         <v>0.01</v>
@@ -2929,50 +1915,34 @@
       <c r="R10" s="43">
         <v>0</v>
       </c>
-      <c r="S10" s="110">
-        <f>[1]Output!$F10/F10</f>
-        <v>1.0996978851963746</v>
-      </c>
-      <c r="T10" s="110">
-        <f>E10/[2]Output!$E10</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="U10" s="110">
-        <f>E10/[3]Output!$E10</f>
-        <v>0.82758620689655171</v>
-      </c>
-      <c r="V10" s="110">
-        <f>E10/[1]Output!$E10</f>
-        <v>0.88888888888888884</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="30">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C11" s="31">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="D11" s="32">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E11" s="32">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F11" s="33">
-        <v>1200</v>
+        <v>1227</v>
       </c>
       <c r="G11" s="84">
-        <v>0.19444444444444445</v>
+        <v>0.19597989949748743</v>
       </c>
       <c r="H11" s="85">
-        <v>0.20294117647058824</v>
+        <v>0.20233463035019456</v>
       </c>
       <c r="I11" s="94">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J11" s="95">
         <v>0.14000000000000001</v>
@@ -2981,7 +1951,7 @@
         <v>0.02</v>
       </c>
       <c r="L11" s="79">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="M11" s="94">
         <v>60</v>
@@ -3001,71 +1971,55 @@
       <c r="R11" s="43">
         <v>0</v>
       </c>
-      <c r="S11" s="110">
-        <f>[1]Output!$F11/F11</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="T11" s="110">
-        <f>E11/[2]Output!$E11</f>
-        <v>0.97641509433962259</v>
-      </c>
-      <c r="U11" s="110">
-        <f>E11/[3]Output!$E11</f>
-        <v>0.88841201716738194</v>
-      </c>
-      <c r="V11" s="110">
-        <f>E11/[1]Output!$E11</f>
-        <v>0.91189427312775329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="30">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C12" s="31">
-        <v>2393</v>
+        <v>2183</v>
       </c>
       <c r="D12" s="32">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E12" s="32">
-        <v>987</v>
+        <v>875</v>
       </c>
       <c r="F12" s="33">
-        <v>3955</v>
+        <v>3630</v>
       </c>
       <c r="G12" s="84">
-        <v>0.33565217391304347</v>
+        <v>0.33566433566433568</v>
       </c>
       <c r="H12" s="85">
-        <v>0.29201183431952665</v>
+        <v>0.28613472858077177</v>
       </c>
       <c r="I12" s="94">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J12" s="95">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="K12" s="78">
         <v>0.11</v>
       </c>
       <c r="L12" s="79">
-        <v>0.55000000000000004</v>
+        <v>0.49</v>
       </c>
       <c r="M12" s="94">
         <v>60</v>
       </c>
       <c r="N12" s="95">
-        <v>59.97</v>
+        <v>59.98</v>
       </c>
       <c r="O12" s="78">
         <v>64.98</v>
       </c>
       <c r="P12" s="79">
-        <v>64.83</v>
+        <v>64.87</v>
       </c>
       <c r="Q12" s="42">
         <v>0</v>
@@ -3073,59 +2027,43 @@
       <c r="R12" s="43">
         <v>0.23</v>
       </c>
-      <c r="S12" s="110">
-        <f>[1]Output!$F12/F12</f>
-        <v>1.099873577749684</v>
-      </c>
-      <c r="T12" s="110">
-        <f>E12/[2]Output!$E12</f>
-        <v>1.064724919093851</v>
-      </c>
-      <c r="U12" s="110">
-        <f>E12/[3]Output!$E12</f>
-        <v>0.95546950629235239</v>
-      </c>
-      <c r="V12" s="110">
-        <f>E12/[1]Output!$E12</f>
-        <v>0.90633608815427003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="45">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="C13" s="46">
-        <v>2708</v>
+        <v>2580</v>
       </c>
       <c r="D13" s="47">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="E13" s="47">
-        <v>1123</v>
+        <v>1057</v>
       </c>
       <c r="F13" s="48">
-        <v>4765</v>
+        <v>4510</v>
       </c>
       <c r="G13" s="86">
-        <v>0.3361884368308351</v>
+        <v>0.3356242840778923</v>
       </c>
       <c r="H13" s="87">
-        <v>0.29313495170973636</v>
+        <v>0.2906241407753643</v>
       </c>
       <c r="I13" s="96">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="J13" s="97">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="K13" s="80">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="L13" s="81">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="M13" s="96">
         <v>59.99</v>
@@ -3134,10 +2072,10 @@
         <v>59.97</v>
       </c>
       <c r="O13" s="80">
-        <v>64.959999999999994</v>
+        <v>64.97</v>
       </c>
       <c r="P13" s="81">
-        <v>64.75</v>
+        <v>64.790000000000006</v>
       </c>
       <c r="Q13" s="53">
         <v>0</v>
@@ -3145,71 +2083,55 @@
       <c r="R13" s="54">
         <v>0.23</v>
       </c>
-      <c r="S13" s="110">
-        <f>[1]Output!$F13/F13</f>
-        <v>1.1001049317943337</v>
-      </c>
-      <c r="T13" s="110">
-        <f>E13/[2]Output!$E13</f>
-        <v>1.1412601626016261</v>
-      </c>
-      <c r="U13" s="110">
-        <f>E13/[3]Output!$E13</f>
-        <v>1.0293308890925756</v>
-      </c>
-      <c r="V13" s="110">
-        <f>E13/[1]Output!$E13</f>
-        <v>0.92656765676567654</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="45">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C14" s="46">
-        <v>2424</v>
+        <v>2269</v>
       </c>
       <c r="D14" s="47">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E14" s="47">
-        <v>1002</v>
+        <v>909</v>
       </c>
       <c r="F14" s="48">
-        <v>4394</v>
+        <v>4150</v>
       </c>
       <c r="G14" s="86">
-        <v>0.33574380165289258</v>
+        <v>0.33539094650205764</v>
       </c>
       <c r="H14" s="87">
-        <v>0.29246935201401053</v>
+        <v>0.28602894902454373</v>
       </c>
       <c r="I14" s="96">
         <v>0.11</v>
       </c>
       <c r="J14" s="97">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="K14" s="80">
         <v>0.18</v>
       </c>
       <c r="L14" s="81">
-        <v>0.56000000000000005</v>
+        <v>0.51</v>
       </c>
       <c r="M14" s="96">
         <v>59.99</v>
       </c>
       <c r="N14" s="97">
-        <v>59.97</v>
+        <v>59.98</v>
       </c>
       <c r="O14" s="80">
         <v>64.959999999999994</v>
       </c>
       <c r="P14" s="81">
-        <v>64.819999999999993</v>
+        <v>64.86</v>
       </c>
       <c r="Q14" s="53">
         <v>0</v>
@@ -3217,59 +2139,43 @@
       <c r="R14" s="54">
         <v>0.23</v>
       </c>
-      <c r="S14" s="110">
-        <f>[1]Output!$F14/F14</f>
-        <v>1.1003641329085116</v>
-      </c>
-      <c r="T14" s="110">
-        <f>E14/[2]Output!$E14</f>
-        <v>1.1158129175946547</v>
-      </c>
-      <c r="U14" s="110">
-        <f>E14/[3]Output!$E14</f>
-        <v>0.9970149253731343</v>
-      </c>
-      <c r="V14" s="110">
-        <f>E14/[1]Output!$E14</f>
-        <v>0.90678733031674208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="45">
-        <v>676</v>
+        <v>702</v>
       </c>
       <c r="C15" s="46">
-        <v>1668</v>
+        <v>1619</v>
       </c>
       <c r="D15" s="47">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E15" s="47">
-        <v>665</v>
+        <v>644</v>
       </c>
       <c r="F15" s="48">
-        <v>3351</v>
+        <v>3311</v>
       </c>
       <c r="G15" s="86">
-        <v>0.33595284872298625</v>
+        <v>0.33015267175572521</v>
       </c>
       <c r="H15" s="87">
-        <v>0.28504072010287185</v>
+        <v>0.28457799381352189</v>
       </c>
       <c r="I15" s="96">
         <v>0.12</v>
       </c>
       <c r="J15" s="97">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K15" s="80">
         <v>0.19</v>
       </c>
       <c r="L15" s="81">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="M15" s="96">
         <v>59.99</v>
@@ -3289,56 +2195,40 @@
       <c r="R15" s="54">
         <v>0.23</v>
       </c>
-      <c r="S15" s="110">
-        <f>[1]Output!$F15/F15</f>
-        <v>1.0999701581617427</v>
-      </c>
-      <c r="T15" s="110">
-        <f>E15/[2]Output!$E15</f>
-        <v>1.0572337042925277</v>
-      </c>
-      <c r="U15" s="110">
-        <f>E15/[3]Output!$E15</f>
-        <v>0.95959595959595956</v>
-      </c>
-      <c r="V15" s="110">
-        <f>E15/[1]Output!$E15</f>
-        <v>0.90723055934515684</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="30">
-        <v>729</v>
+        <v>757</v>
       </c>
       <c r="C16" s="31">
-        <v>1248</v>
+        <v>1298</v>
       </c>
       <c r="D16" s="32">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="E16" s="32">
         <v>450</v>
       </c>
       <c r="F16" s="33">
-        <v>2679</v>
+        <v>2767</v>
       </c>
       <c r="G16" s="84">
-        <v>0.25688073394495414</v>
+        <v>0.25711481844946027</v>
       </c>
       <c r="H16" s="85">
-        <v>0.26501766784452296</v>
+        <v>0.25743707093821511</v>
       </c>
       <c r="I16" s="94">
         <v>0.13</v>
       </c>
       <c r="J16" s="95">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="K16" s="78">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="L16" s="79">
         <v>0.25</v>
@@ -3361,59 +2251,43 @@
       <c r="R16" s="43">
         <v>0</v>
       </c>
-      <c r="S16" s="110">
-        <f>[1]Output!$F16/F16</f>
-        <v>1.1000373273609556</v>
-      </c>
-      <c r="T16" s="110">
-        <f>E16/[2]Output!$E16</f>
-        <v>1</v>
-      </c>
-      <c r="U16" s="110">
-        <f>E16/[3]Output!$E16</f>
-        <v>1</v>
-      </c>
-      <c r="V16" s="110">
-        <f>E16/[1]Output!$E16</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="30">
-        <v>798</v>
+        <v>846</v>
       </c>
       <c r="C17" s="31">
-        <v>1103</v>
+        <v>1138</v>
       </c>
       <c r="D17" s="32">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="E17" s="32">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="F17" s="33">
-        <v>2578</v>
+        <v>2690</v>
       </c>
       <c r="G17" s="84">
-        <v>0.25698324022346369</v>
+        <v>0.25659050966608082</v>
       </c>
       <c r="H17" s="85">
-        <v>0.2666223404255319</v>
+        <v>0.26675257731958762</v>
       </c>
       <c r="I17" s="94">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="J17" s="95">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="K17" s="78">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="L17" s="79">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="M17" s="94">
         <v>59.99</v>
@@ -3425,7 +2299,7 @@
         <v>64.97</v>
       </c>
       <c r="P17" s="79">
-        <v>64.959999999999994</v>
+        <v>64.95</v>
       </c>
       <c r="Q17" s="42">
         <v>0</v>
@@ -3433,59 +2307,43 @@
       <c r="R17" s="43">
         <v>0</v>
       </c>
-      <c r="S17" s="110">
-        <f>[1]Output!$F17/F17</f>
-        <v>1.100077579519007</v>
-      </c>
-      <c r="T17" s="110">
-        <f>E17/[2]Output!$E17</f>
-        <v>0.98284313725490191</v>
-      </c>
-      <c r="U17" s="110">
-        <f>E17/[3]Output!$E17</f>
-        <v>0.89309576837416482</v>
-      </c>
-      <c r="V17" s="110">
-        <f>E17/[1]Output!$E17</f>
-        <v>0.90929705215419498</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="30">
-        <v>928</v>
+        <v>978</v>
       </c>
       <c r="C18" s="31">
-        <v>1006</v>
+        <v>1045</v>
       </c>
       <c r="D18" s="32">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="E18" s="32">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="F18" s="33">
-        <v>2621</v>
+        <v>2741</v>
       </c>
       <c r="G18" s="84">
-        <v>0.25700560448358689</v>
+        <v>0.25683890577507601</v>
       </c>
       <c r="H18" s="85">
-        <v>0.26676384839650147</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="I18" s="94">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="J18" s="95">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="K18" s="78">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="L18" s="79">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="M18" s="94">
         <v>59.99</v>
@@ -3505,59 +2363,43 @@
       <c r="R18" s="43">
         <v>0</v>
       </c>
-      <c r="S18" s="110">
-        <f>[1]Output!$F18/F18</f>
-        <v>1.0999618466234262</v>
-      </c>
-      <c r="T18" s="110">
-        <f>E18/[2]Output!$E18</f>
-        <v>0.98123324396782841</v>
-      </c>
-      <c r="U18" s="110">
-        <f>E18/[3]Output!$E18</f>
-        <v>0.89051094890510951</v>
-      </c>
-      <c r="V18" s="110">
-        <f>E18/[1]Output!$E18</f>
-        <v>0.91044776119402981</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="30">
-        <v>1066</v>
+        <v>1113</v>
       </c>
       <c r="C19" s="31">
-        <v>929</v>
+        <v>968</v>
       </c>
       <c r="D19" s="32">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E19" s="32">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="F19" s="33">
-        <v>2681</v>
+        <v>2783</v>
       </c>
       <c r="G19" s="84">
-        <v>0.24611032531824611</v>
+        <v>0.23923444976076555</v>
       </c>
       <c r="H19" s="85">
-        <v>0.26677190213101815</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="I19" s="94">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="J19" s="95">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="K19" s="78">
         <v>0.19</v>
       </c>
       <c r="L19" s="79">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="M19" s="94">
         <v>59.99</v>
@@ -3577,47 +2419,31 @@
       <c r="R19" s="43">
         <v>0</v>
       </c>
-      <c r="S19" s="110">
-        <f>[1]Output!$F19/F19</f>
-        <v>1.1003356956359567</v>
-      </c>
-      <c r="T19" s="110">
-        <f>E19/[2]Output!$E19</f>
-        <v>0.97971014492753628</v>
-      </c>
-      <c r="U19" s="110">
-        <f>E19/[3]Output!$E19</f>
-        <v>0.89182058047493407</v>
-      </c>
-      <c r="V19" s="110">
-        <f>E19/[1]Output!$E19</f>
-        <v>0.91105121293800539</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="30">
-        <v>1335</v>
+        <v>1360</v>
       </c>
       <c r="C20" s="31">
-        <v>960</v>
+        <v>981</v>
       </c>
       <c r="D20" s="32">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="E20" s="32">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="F20" s="33">
-        <v>3046</v>
+        <v>3107</v>
       </c>
       <c r="G20" s="84">
-        <v>0.23143350604490501</v>
+        <v>0.2312040700960995</v>
       </c>
       <c r="H20" s="85">
-        <v>0.26661573720397252</v>
+        <v>0.26681614349775784</v>
       </c>
       <c r="I20" s="94">
         <v>0.23</v>
@@ -3626,10 +2452,10 @@
         <v>0.17</v>
       </c>
       <c r="K20" s="78">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="L20" s="79">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="M20" s="94">
         <v>59.99</v>
@@ -3638,7 +2464,7 @@
         <v>59.99</v>
       </c>
       <c r="O20" s="78">
-        <v>64.959999999999994</v>
+        <v>64.95</v>
       </c>
       <c r="P20" s="79">
         <v>64.959999999999994</v>
@@ -3649,56 +2475,40 @@
       <c r="R20" s="43">
         <v>0</v>
       </c>
-      <c r="S20" s="110">
-        <f>[1]Output!$F20/F20</f>
-        <v>1.1001313197636244</v>
-      </c>
-      <c r="T20" s="110">
-        <f>E20/[2]Output!$E20</f>
-        <v>0.9803370786516854</v>
-      </c>
-      <c r="U20" s="110">
-        <f>E20/[3]Output!$E20</f>
-        <v>0.89030612244897955</v>
-      </c>
-      <c r="V20" s="110">
-        <f>E20/[1]Output!$E20</f>
-        <v>0.90885416666666663</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="30">
-        <v>2094</v>
+        <v>1883</v>
       </c>
       <c r="C21" s="31">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="D21" s="32">
-        <v>774</v>
+        <v>702</v>
       </c>
       <c r="E21" s="32">
         <v>450</v>
       </c>
       <c r="F21" s="33">
-        <v>4219</v>
+        <v>3910</v>
       </c>
       <c r="G21" s="84">
-        <v>0.26987447698744771</v>
+        <v>0.27156673114119922</v>
       </c>
       <c r="H21" s="85">
-        <v>0.33308660251665434</v>
+        <v>0.33962264150943394</v>
       </c>
       <c r="I21" s="94">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="J21" s="95">
         <v>0.15</v>
       </c>
       <c r="K21" s="78">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
       <c r="L21" s="79">
         <v>0.25</v>
@@ -3710,7 +2520,7 @@
         <v>59.99</v>
       </c>
       <c r="O21" s="78">
-        <v>64.89</v>
+        <v>64.91</v>
       </c>
       <c r="P21" s="79">
         <v>64.95</v>
@@ -3721,56 +2531,40 @@
       <c r="R21" s="43">
         <v>0</v>
       </c>
-      <c r="S21" s="110">
-        <f>[1]Output!$F21/F21</f>
-        <v>1.1000237022991231</v>
-      </c>
-      <c r="T21" s="110">
-        <f>E21/[2]Output!$E21</f>
-        <v>1</v>
-      </c>
-      <c r="U21" s="110">
-        <f>E21/[3]Output!$E21</f>
-        <v>0.94936708860759489</v>
-      </c>
-      <c r="V21" s="110">
-        <f>E21/[1]Output!$E21</f>
-        <v>0.96982758620689657</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="45">
-        <v>2821</v>
+        <v>2669</v>
       </c>
       <c r="C22" s="46">
-        <v>902</v>
+        <v>881</v>
       </c>
       <c r="D22" s="47">
-        <v>985</v>
+        <v>957</v>
       </c>
       <c r="E22" s="47">
         <v>450</v>
       </c>
       <c r="F22" s="48">
-        <v>5158</v>
+        <v>4957</v>
       </c>
       <c r="G22" s="86">
-        <v>0.25880189174986862</v>
+        <v>0.26392719249862107</v>
       </c>
       <c r="H22" s="87">
-        <v>0.33284023668639051</v>
+        <v>0.33809166040570998</v>
       </c>
       <c r="I22" s="96">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="J22" s="97">
         <v>0.15</v>
       </c>
       <c r="K22" s="80">
-        <v>0.55000000000000004</v>
+        <v>0.53</v>
       </c>
       <c r="L22" s="81">
         <v>0.25</v>
@@ -3782,7 +2576,7 @@
         <v>59.99</v>
       </c>
       <c r="O22" s="80">
-        <v>64.83</v>
+        <v>64.84</v>
       </c>
       <c r="P22" s="81">
         <v>64.95</v>
@@ -3793,56 +2587,40 @@
       <c r="R22" s="54">
         <v>0</v>
       </c>
-      <c r="S22" s="110">
-        <f>[1]Output!$F22/F22</f>
-        <v>1.1000387747188833</v>
-      </c>
-      <c r="T22" s="110">
-        <f>E22/[2]Output!$E22</f>
-        <v>1</v>
-      </c>
-      <c r="U22" s="110">
-        <f>E22/[3]Output!$E22</f>
-        <v>0.94936708860759489</v>
-      </c>
-      <c r="V22" s="110">
-        <f>E22/[1]Output!$E22</f>
-        <v>0.967741935483871</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="45">
-        <v>2793</v>
+        <v>2521</v>
       </c>
       <c r="C23" s="46">
-        <v>964</v>
+        <v>908</v>
       </c>
       <c r="D23" s="47">
-        <v>986</v>
+        <v>915</v>
       </c>
       <c r="E23" s="47">
         <v>450</v>
       </c>
       <c r="F23" s="48">
-        <v>5193</v>
+        <v>4794</v>
       </c>
       <c r="G23" s="86">
-        <v>0.26091558613389787</v>
+        <v>0.26629802095459837</v>
       </c>
       <c r="H23" s="87">
-        <v>0.31824611032531824</v>
+        <v>0.33136966126656847</v>
       </c>
       <c r="I23" s="96">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
       <c r="J23" s="97">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="K23" s="80">
-        <v>0.55000000000000004</v>
+        <v>0.51</v>
       </c>
       <c r="L23" s="81">
         <v>0.25</v>
@@ -3854,7 +2632,7 @@
         <v>59.99</v>
       </c>
       <c r="O23" s="80">
-        <v>64.83</v>
+        <v>64.849999999999994</v>
       </c>
       <c r="P23" s="81">
         <v>64.95</v>
@@ -3865,56 +2643,40 @@
       <c r="R23" s="54">
         <v>0</v>
       </c>
-      <c r="S23" s="110">
-        <f>[1]Output!$F23/F23</f>
-        <v>1.1001347968419026</v>
-      </c>
-      <c r="T23" s="110">
-        <f>E23/[2]Output!$E23</f>
-        <v>1</v>
-      </c>
-      <c r="U23" s="110">
-        <f>E23/[3]Output!$E23</f>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="V23" s="110">
-        <f>E23/[1]Output!$E23</f>
-        <v>0.92592592592592593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="45">
-        <v>2095</v>
+        <v>1942</v>
       </c>
       <c r="C24" s="46">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="D24" s="47">
-        <v>775</v>
+        <v>722</v>
       </c>
       <c r="E24" s="47">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F24" s="48">
-        <v>4056</v>
+        <v>3832</v>
       </c>
       <c r="G24" s="86">
-        <v>0.27003484320557491</v>
+        <v>0.27102102102102105</v>
       </c>
       <c r="H24" s="87">
-        <v>0.34907251264755479</v>
+        <v>0.34931506849315069</v>
       </c>
       <c r="I24" s="96">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="J24" s="97">
         <v>0.13</v>
       </c>
       <c r="K24" s="80">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="L24" s="81">
         <v>0.23</v>
@@ -3926,7 +2688,7 @@
         <v>59.99</v>
       </c>
       <c r="O24" s="80">
-        <v>64.89</v>
+        <v>64.91</v>
       </c>
       <c r="P24" s="81">
         <v>64.95</v>
@@ -3937,56 +2699,40 @@
       <c r="R24" s="54">
         <v>0</v>
       </c>
-      <c r="S24" s="110">
-        <f>[1]Output!$F24/F24</f>
-        <v>1.0998520710059172</v>
-      </c>
-      <c r="T24" s="110">
-        <f>E24/[2]Output!$E24</f>
-        <v>0.97641509433962259</v>
-      </c>
-      <c r="U24" s="110">
-        <f>E24/[3]Output!$E24</f>
-        <v>0.92</v>
-      </c>
-      <c r="V24" s="110">
-        <f>E24/[1]Output!$E24</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="30">
-        <v>1358</v>
+        <v>1395</v>
       </c>
       <c r="C25" s="31">
-        <v>624</v>
+        <v>643</v>
       </c>
       <c r="D25" s="32">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="E25" s="32">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F25" s="33">
-        <v>2471</v>
+        <v>2540</v>
       </c>
       <c r="G25" s="84">
-        <v>0.19549763033175355</v>
+        <v>0.19550173010380623</v>
       </c>
       <c r="H25" s="85">
-        <v>0.20306513409961685</v>
+        <v>0.20223325062034739</v>
       </c>
       <c r="I25" s="94">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="J25" s="95">
         <v>0.11</v>
       </c>
       <c r="K25" s="78">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="L25" s="79">
         <v>0.09</v>
@@ -4009,47 +2755,31 @@
       <c r="R25" s="43">
         <v>0</v>
       </c>
-      <c r="S25" s="110">
-        <f>[1]Output!$F25/F25</f>
-        <v>1.0999595305544314</v>
-      </c>
-      <c r="T25" s="110">
-        <f>E25/[2]Output!$E25</f>
-        <v>0.96951219512195119</v>
-      </c>
-      <c r="U25" s="110">
-        <f>E25/[3]Output!$E25</f>
-        <v>0.87845303867403313</v>
-      </c>
-      <c r="V25" s="110">
-        <f>E25/[1]Output!$E25</f>
-        <v>0.90857142857142859</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="30">
-        <v>966</v>
+        <v>988</v>
       </c>
       <c r="C26" s="31">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="D26" s="32">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E26" s="32">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F26" s="33">
-        <v>1706</v>
+        <v>1757</v>
       </c>
       <c r="G26" s="84">
-        <v>0.19567027477102414</v>
+        <v>0.19543973941368079</v>
       </c>
       <c r="H26" s="85">
-        <v>0.20198019801980199</v>
+        <v>0.20226843100189035</v>
       </c>
       <c r="I26" s="94">
         <v>0.17</v>
@@ -4081,53 +2811,37 @@
       <c r="R26" s="43">
         <v>0</v>
       </c>
-      <c r="S26" s="110">
-        <f>[1]Output!$F26/F26</f>
-        <v>1.1002344665885111</v>
-      </c>
-      <c r="T26" s="110">
-        <f>E26/[2]Output!$E26</f>
-        <v>0.94444444444444442</v>
-      </c>
-      <c r="U26" s="110">
-        <f>E26/[3]Output!$E26</f>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="V26" s="110">
-        <f>E26/[1]Output!$E26</f>
-        <v>0.90265486725663713</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="30">
-        <v>882</v>
+        <v>918</v>
       </c>
       <c r="C27" s="31">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="D27" s="32">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E27" s="32">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F27" s="33">
-        <v>1359</v>
+        <v>1443</v>
       </c>
       <c r="G27" s="84">
-        <v>9.0721649484536079E-2</v>
+        <v>9.1089108910891087E-2</v>
       </c>
       <c r="H27" s="85">
-        <v>9.2544987146529561E-2</v>
+        <v>9.4688221709006926E-2</v>
       </c>
       <c r="I27" s="94">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="J27" s="95">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K27" s="78">
         <v>0.05</v>
@@ -4153,59 +2867,43 @@
       <c r="R27" s="43">
         <v>0</v>
       </c>
-      <c r="S27" s="110">
-        <f>[1]Output!$F27/F27</f>
-        <v>1.1008094186902133</v>
-      </c>
-      <c r="T27" s="110">
-        <f>E27/[2]Output!$E27</f>
-        <v>0.92307692307692313</v>
-      </c>
-      <c r="U27" s="110">
-        <f>E27/[3]Output!$E27</f>
-        <v>0.83720930232558144</v>
-      </c>
-      <c r="V27" s="110">
-        <f>E27/[1]Output!$E27</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="30">
-        <v>628</v>
+        <v>681</v>
       </c>
       <c r="C28" s="31">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="D28" s="32">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E28" s="32">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F28" s="33">
-        <v>947</v>
+        <v>1041</v>
       </c>
       <c r="G28" s="84">
-        <v>9.1172214182344433E-2</v>
+        <v>9.0787716955941261E-2</v>
       </c>
       <c r="H28" s="85">
-        <v>9.375E-2</v>
+        <v>9.2465753424657529E-2</v>
       </c>
       <c r="I28" s="94">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="J28" s="95">
+        <v>0.05</v>
+      </c>
+      <c r="K28" s="78">
         <v>0.04</v>
       </c>
-      <c r="K28" s="78">
-        <v>0.03</v>
-      </c>
       <c r="L28" s="79">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="M28" s="94">
         <v>59.99</v>
@@ -4225,56 +2923,40 @@
       <c r="R28" s="43">
         <v>0</v>
       </c>
-      <c r="S28" s="110">
-        <f>[1]Output!$F28/F28</f>
-        <v>1.0992608236536432</v>
-      </c>
-      <c r="T28" s="110">
-        <f>E28/[2]Output!$E28</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="U28" s="110">
-        <f>E28/[3]Output!$E28</f>
-        <v>0.82758620689655171</v>
-      </c>
-      <c r="V28" s="110">
-        <f>E28/[1]Output!$E28</f>
-        <v>0.92307692307692313</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="55">
-        <v>440</v>
+        <v>477</v>
       </c>
       <c r="C29" s="56">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="D29" s="57">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E29" s="57">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F29" s="58">
-        <v>614</v>
+        <v>688</v>
       </c>
       <c r="G29" s="88">
-        <v>9.0909090909090912E-2</v>
+        <v>9.1428571428571428E-2</v>
       </c>
       <c r="H29" s="89">
-        <v>9.2307692307692313E-2</v>
+        <v>9.202453987730061E-2</v>
       </c>
       <c r="I29" s="98">
         <v>0.08</v>
       </c>
       <c r="J29" s="99">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="K29" s="82">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="L29" s="83">
         <v>0.01</v>
@@ -4297,67 +2979,51 @@
       <c r="R29" s="64">
         <v>0</v>
       </c>
-      <c r="S29" s="110">
-        <f>[1]Output!$F29/F29</f>
-        <v>1.0993485342019544</v>
-      </c>
-      <c r="T29" s="110">
-        <f>E29/[2]Output!$E29</f>
-        <v>0.8</v>
-      </c>
-      <c r="U29" s="110">
-        <f>E29/[3]Output!$E29</f>
-        <v>0.75</v>
-      </c>
-      <c r="V29" s="110">
-        <f>E29/[1]Output!$E29</f>
-        <v>0.92307692307692313</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="65">
         <f>SUM(B6:B29)</f>
-        <v>21812</v>
+        <v>21532</v>
       </c>
       <c r="C30" s="66">
         <f t="shared" ref="C30:F30" si="0">SUM(C6:C29)</f>
-        <v>20913</v>
+        <v>20703</v>
       </c>
       <c r="D30" s="67">
         <f t="shared" si="0"/>
-        <v>7129</v>
+        <v>6984</v>
       </c>
       <c r="E30" s="67">
         <f t="shared" si="0"/>
-        <v>8026</v>
+        <v>7809</v>
       </c>
       <c r="F30" s="68">
         <f t="shared" si="0"/>
-        <v>57880</v>
+        <v>57028</v>
       </c>
       <c r="G30" s="100">
         <f>D30/B30</f>
-        <v>0.3268384375573079</v>
+        <v>0.32435444919190043</v>
       </c>
       <c r="H30" s="101">
         <f>E30/C30</f>
-        <v>0.38378042365992443</v>
+        <v>0.37719171134618174</v>
       </c>
       <c r="I30" s="71"/>
       <c r="J30" s="71"/>
       <c r="K30" s="71"/>
       <c r="L30" s="71"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B32" s="72">
         <f>B30+C30</f>
-        <v>42725</v>
+        <v>42235</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -4366,7 +3032,7 @@
       </c>
       <c r="B33" s="72">
         <f>D30+E30</f>
-        <v>15155</v>
+        <v>14793</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -4375,7 +3041,7 @@
       </c>
       <c r="B34" s="72">
         <f>B32+B33</f>
-        <v>57880</v>
+        <v>57028</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -4559,7 +3225,7 @@
       </c>
       <c r="R48" s="109"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>7</v>
       </c>
@@ -4614,13 +3280,8 @@
       <c r="R49" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="T49" s="111" t="s">
-        <v>55</v>
-      </c>
-      <c r="U49" s="111"/>
-      <c r="V49" s="111"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>11</v>
       </c>
@@ -4675,49 +3336,40 @@
       <c r="R50" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="T50" s="112" t="s">
-        <v>56</v>
-      </c>
-      <c r="U50" s="112" t="s">
-        <v>57</v>
-      </c>
-      <c r="V50" s="112" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B51" s="30">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="C51" s="31">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="D51" s="32">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E51" s="32">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F51" s="33">
-        <v>303</v>
+        <v>378</v>
       </c>
       <c r="G51" s="84">
-        <v>9.7165991902834009E-2</v>
+        <v>9.5744680851063829E-2</v>
       </c>
       <c r="H51" s="85">
-        <v>7.1428571428571425E-2</v>
+        <v>7.2916666666666671E-2</v>
       </c>
       <c r="I51" s="90">
         <v>0.04</v>
       </c>
       <c r="J51" s="91">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="K51" s="92">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="L51" s="93">
         <v>0</v>
@@ -4740,53 +3392,37 @@
       <c r="R51" s="43">
         <v>0</v>
       </c>
-      <c r="S51" s="110">
-        <f>[1]Output!$F51/F51</f>
-        <v>1.0990099009900991</v>
-      </c>
-      <c r="T51" s="110">
-        <f>E51/[2]Output!$E51</f>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="U51" s="110">
-        <f>E51/[3]Output!$E51</f>
-        <v>0.5</v>
-      </c>
-      <c r="V51" s="110">
-        <f>E51/[1]Output!$E51</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B52" s="30">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="C52" s="31">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="D52" s="32">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E52" s="32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F52" s="33">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c r="G52" s="84">
         <v>0.1</v>
       </c>
       <c r="H52" s="85">
-        <v>6.6666666666666666E-2</v>
+        <v>7.575757575757576E-2</v>
       </c>
       <c r="I52" s="94">
         <v>0.02</v>
       </c>
       <c r="J52" s="95">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K52" s="78">
         <v>0.01</v>
@@ -4812,53 +3448,37 @@
       <c r="R52" s="43">
         <v>0</v>
       </c>
-      <c r="S52" s="110">
-        <f>[1]Output!$F52/F52</f>
-        <v>1.1071428571428572</v>
-      </c>
-      <c r="T52" s="110">
-        <f>E52/[2]Output!$E52</f>
-        <v>0.4</v>
-      </c>
-      <c r="U52" s="110">
-        <f>E52/[3]Output!$E52</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="V52" s="110">
-        <f>E52/[1]Output!$E52</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B53" s="30">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C53" s="31">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="D53" s="32">
+        <v>9</v>
+      </c>
+      <c r="E53" s="32">
         <v>5</v>
       </c>
-      <c r="E53" s="32">
-        <v>2</v>
-      </c>
       <c r="F53" s="33">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="G53" s="84">
-        <v>9.4339622641509441E-2</v>
+        <v>9.7826086956521743E-2</v>
       </c>
       <c r="H53" s="85">
-        <v>0.08</v>
+        <v>8.0645161290322578E-2</v>
       </c>
       <c r="I53" s="94">
         <v>0.01</v>
       </c>
       <c r="J53" s="95">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K53" s="78">
         <v>0</v>
@@ -4884,53 +3504,37 @@
       <c r="R53" s="43">
         <v>0</v>
       </c>
-      <c r="S53" s="110">
-        <f>[1]Output!$F53/F53</f>
-        <v>1.1153846153846154</v>
-      </c>
-      <c r="T53" s="110">
-        <f>E53/[2]Output!$E53</f>
-        <v>0.4</v>
-      </c>
-      <c r="U53" s="110">
-        <f>E53/[3]Output!$E53</f>
-        <v>0.4</v>
-      </c>
-      <c r="V53" s="110">
-        <f>E53/[1]Output!$E53</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B54" s="30">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C54" s="31">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="D54" s="32">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E54" s="32">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F54" s="33">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="G54" s="84">
-        <v>8.8888888888888892E-2</v>
+        <v>9.7560975609756101E-2</v>
       </c>
       <c r="H54" s="85">
-        <v>7.8651685393258425E-2</v>
+        <v>7.6271186440677971E-2</v>
       </c>
       <c r="I54" s="94">
         <v>0.01</v>
       </c>
       <c r="J54" s="95">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="K54" s="78">
         <v>0</v>
@@ -4956,56 +3560,40 @@
       <c r="R54" s="43">
         <v>0</v>
       </c>
-      <c r="S54" s="110">
-        <f>[1]Output!$F54/F54</f>
-        <v>1.1044776119402986</v>
-      </c>
-      <c r="T54" s="110">
-        <f>E54/[2]Output!$E54</f>
-        <v>0.7</v>
-      </c>
-      <c r="U54" s="110">
-        <f>E54/[3]Output!$E54</f>
-        <v>0.7</v>
-      </c>
-      <c r="V54" s="110">
-        <f>E54/[1]Output!$E54</f>
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B55" s="30">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="C55" s="31">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="D55" s="32">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E55" s="32">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F55" s="33">
-        <v>397</v>
+        <v>456</v>
       </c>
       <c r="G55" s="84">
-        <v>9.4117647058823528E-2</v>
+        <v>9.4017094017094016E-2</v>
       </c>
       <c r="H55" s="85">
-        <v>7.6923076923076927E-2</v>
+        <v>7.6696165191740412E-2</v>
       </c>
       <c r="I55" s="94">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J55" s="95">
         <v>0.05</v>
       </c>
       <c r="K55" s="78">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L55" s="79">
         <v>0.01</v>
@@ -5028,47 +3616,31 @@
       <c r="R55" s="43">
         <v>0</v>
       </c>
-      <c r="S55" s="110">
-        <f>[1]Output!$F55/F55</f>
-        <v>1.0957178841309825</v>
-      </c>
-      <c r="T55" s="110">
-        <f>E55/[2]Output!$E55</f>
-        <v>0.92307692307692313</v>
-      </c>
-      <c r="U55" s="110">
-        <f>E55/[3]Output!$E55</f>
-        <v>0.82758620689655171</v>
-      </c>
-      <c r="V55" s="110">
-        <f>E55/[1]Output!$E55</f>
-        <v>0.92307692307692313</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B56" s="30">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="C56" s="31">
-        <v>1034</v>
+        <v>1045</v>
       </c>
       <c r="D56" s="32">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E56" s="32">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F56" s="33">
-        <v>1456</v>
+        <v>1495</v>
       </c>
       <c r="G56" s="84">
-        <v>0.21100917431192662</v>
+        <v>0.20901639344262296</v>
       </c>
       <c r="H56" s="85">
-        <v>0.16478190630048464</v>
+        <v>0.16466826538768986</v>
       </c>
       <c r="I56" s="94">
         <v>0.03</v>
@@ -5100,24 +3672,8 @@
       <c r="R56" s="43">
         <v>0</v>
       </c>
-      <c r="S56" s="110">
-        <f>[1]Output!$F56/F56</f>
-        <v>1.1002747252747254</v>
-      </c>
-      <c r="T56" s="110">
-        <f>E56/[2]Output!$E56</f>
-        <v>0.97142857142857142</v>
-      </c>
-      <c r="U56" s="110">
-        <f>E56/[3]Output!$E56</f>
-        <v>0.88311688311688308</v>
-      </c>
-      <c r="V56" s="110">
-        <f>E56/[1]Output!$E56</f>
-        <v>0.90666666666666662</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
         <v>21</v>
       </c>
@@ -5125,46 +3681,46 @@
         <v>451</v>
       </c>
       <c r="C57" s="31">
-        <v>3177</v>
+        <v>2853</v>
       </c>
       <c r="D57" s="32">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E57" s="32">
-        <v>996</v>
+        <v>870</v>
       </c>
       <c r="F57" s="33">
-        <v>4875</v>
+        <v>4424</v>
       </c>
       <c r="G57" s="84">
-        <v>0.35754985754985757</v>
+        <v>0.35663338088445079</v>
       </c>
       <c r="H57" s="85">
-        <v>0.23867721063982747</v>
+        <v>0.23368251410153101</v>
       </c>
       <c r="I57" s="94">
         <v>0.08</v>
       </c>
       <c r="J57" s="95">
-        <v>0.55000000000000004</v>
+        <v>0.49</v>
       </c>
       <c r="K57" s="78">
         <v>0.14000000000000001</v>
       </c>
       <c r="L57" s="79">
-        <v>0.55000000000000004</v>
+        <v>0.48</v>
       </c>
       <c r="M57" s="94">
         <v>59.99</v>
       </c>
       <c r="N57" s="95">
-        <v>59.95</v>
+        <v>59.96</v>
       </c>
       <c r="O57" s="78">
         <v>64.97</v>
       </c>
       <c r="P57" s="79">
-        <v>64.819999999999993</v>
+        <v>64.87</v>
       </c>
       <c r="Q57" s="42">
         <v>0</v>
@@ -5172,71 +3728,55 @@
       <c r="R57" s="43">
         <v>0.23</v>
       </c>
-      <c r="S57" s="110">
-        <f>[1]Output!$F57/F57</f>
-        <v>1.1001025641025641</v>
-      </c>
-      <c r="T57" s="110">
-        <f>E57/[2]Output!$E57</f>
-        <v>1.0790899241603467</v>
-      </c>
-      <c r="U57" s="110">
-        <f>E57/[3]Output!$E57</f>
-        <v>0.95311004784688991</v>
-      </c>
-      <c r="V57" s="110">
-        <f>E57/[1]Output!$E57</f>
-        <v>0.89247311827956988</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="s">
         <v>22</v>
       </c>
       <c r="B58" s="45">
-        <v>734</v>
+        <v>688</v>
       </c>
       <c r="C58" s="46">
-        <v>3571</v>
+        <v>3356</v>
       </c>
       <c r="D58" s="47">
-        <v>408</v>
+        <v>382</v>
       </c>
       <c r="E58" s="47">
-        <v>1152</v>
+        <v>1072</v>
       </c>
       <c r="F58" s="48">
-        <v>5865</v>
+        <v>5498</v>
       </c>
       <c r="G58" s="86">
-        <v>0.35726795096322239</v>
+        <v>0.35700934579439253</v>
       </c>
       <c r="H58" s="87">
-        <v>0.24391276730891381</v>
+        <v>0.24209575429087624</v>
       </c>
       <c r="I58" s="96">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="J58" s="97">
-        <v>0.61</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K58" s="80">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="L58" s="81">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="M58" s="96">
         <v>59.99</v>
       </c>
       <c r="N58" s="97">
-        <v>59.94</v>
+        <v>59.95</v>
       </c>
       <c r="O58" s="80">
-        <v>64.95</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="P58" s="81">
-        <v>64.73</v>
+        <v>64.790000000000006</v>
       </c>
       <c r="Q58" s="53">
         <v>0</v>
@@ -5244,71 +3784,55 @@
       <c r="R58" s="54">
         <v>0.23</v>
       </c>
-      <c r="S58" s="110">
-        <f>[1]Output!$F58/F58</f>
-        <v>1.1002557544757032</v>
-      </c>
-      <c r="T58" s="110">
-        <f>E58/[2]Output!$E58</f>
-        <v>1.1719226856561547</v>
-      </c>
-      <c r="U58" s="110">
-        <f>E58/[3]Output!$E58</f>
-        <v>1.03971119133574</v>
-      </c>
-      <c r="V58" s="110">
-        <f>E58/[1]Output!$E58</f>
-        <v>0.89371605896043449</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
         <v>23</v>
       </c>
       <c r="B59" s="45">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="C59" s="46">
-        <v>3217</v>
+        <v>2964</v>
       </c>
       <c r="D59" s="47">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E59" s="47">
-        <v>1012</v>
+        <v>905</v>
       </c>
       <c r="F59" s="48">
-        <v>5413</v>
+        <v>5061</v>
       </c>
       <c r="G59" s="86">
-        <v>0.35726351351351349</v>
+        <v>0.35654362416107382</v>
       </c>
       <c r="H59" s="87">
-        <v>0.23930007093875622</v>
+        <v>0.23391057120703024</v>
       </c>
       <c r="I59" s="96">
         <v>0.13</v>
       </c>
       <c r="J59" s="97">
-        <v>0.55000000000000004</v>
+        <v>0.51</v>
       </c>
       <c r="K59" s="80">
         <v>0.24</v>
       </c>
       <c r="L59" s="81">
-        <v>0.56000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="M59" s="96">
         <v>59.99</v>
       </c>
       <c r="N59" s="97">
-        <v>59.95</v>
+        <v>59.96</v>
       </c>
       <c r="O59" s="80">
         <v>64.95</v>
       </c>
       <c r="P59" s="81">
-        <v>64.819999999999993</v>
+        <v>64.86</v>
       </c>
       <c r="Q59" s="53">
         <v>0</v>
@@ -5316,59 +3840,43 @@
       <c r="R59" s="54">
         <v>0.23</v>
       </c>
-      <c r="S59" s="110">
-        <f>[1]Output!$F59/F59</f>
-        <v>1.1001293183077776</v>
-      </c>
-      <c r="T59" s="110">
-        <f>E59/[2]Output!$E59</f>
-        <v>1.1319910514541387</v>
-      </c>
-      <c r="U59" s="110">
-        <f>E59/[3]Output!$E59</f>
-        <v>1.0059642147117296</v>
-      </c>
-      <c r="V59" s="110">
-        <f>E59/[1]Output!$E59</f>
-        <v>0.89320388349514568</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="s">
         <v>24</v>
       </c>
       <c r="B60" s="45">
-        <v>800</v>
+        <v>836</v>
       </c>
       <c r="C60" s="46">
-        <v>2232</v>
+        <v>2116</v>
       </c>
       <c r="D60" s="47">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="E60" s="47">
-        <v>667</v>
+        <v>639</v>
       </c>
       <c r="F60" s="48">
-        <v>4143</v>
+        <v>4041</v>
       </c>
       <c r="G60" s="86">
-        <v>0.35691318327974275</v>
+        <v>0.34992223950233281</v>
       </c>
       <c r="H60" s="87">
-        <v>0.23007933770265609</v>
+        <v>0.23194192377495462</v>
       </c>
       <c r="I60" s="96">
         <v>0.14000000000000001</v>
       </c>
       <c r="J60" s="97">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="K60" s="80">
         <v>0.25</v>
       </c>
       <c r="L60" s="81">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="M60" s="96">
         <v>59.99</v>
@@ -5388,56 +3896,40 @@
       <c r="R60" s="54">
         <v>0.23</v>
       </c>
-      <c r="S60" s="110">
-        <f>[1]Output!$F60/F60</f>
-        <v>1.1001689596910451</v>
-      </c>
-      <c r="T60" s="110">
-        <f>E60/[2]Output!$E60</f>
-        <v>1.0689102564102564</v>
-      </c>
-      <c r="U60" s="110">
-        <f>E60/[3]Output!$E60</f>
-        <v>0.96947674418604646</v>
-      </c>
-      <c r="V60" s="110">
-        <f>E60/[1]Output!$E60</f>
-        <v>0.90625</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B61" s="30">
-        <v>871</v>
+        <v>908</v>
       </c>
       <c r="C61" s="31">
-        <v>1618</v>
+        <v>1678</v>
       </c>
       <c r="D61" s="32">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="E61" s="32">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="F61" s="33">
-        <v>3264</v>
+        <v>3377</v>
       </c>
       <c r="G61" s="84">
-        <v>0.27416666666666667</v>
+        <v>0.27360000000000001</v>
       </c>
       <c r="H61" s="85">
-        <v>0.21608527131782945</v>
+        <v>0.21109543958627175</v>
       </c>
       <c r="I61" s="94">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="J61" s="95">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K61" s="78">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="L61" s="79">
         <v>0.25</v>
@@ -5460,59 +3952,43 @@
       <c r="R61" s="43">
         <v>0</v>
       </c>
-      <c r="S61" s="110">
-        <f>[1]Output!$F61/F61</f>
-        <v>1.0998774509803921</v>
-      </c>
-      <c r="T61" s="110">
-        <f>E61/[2]Output!$E61</f>
-        <v>0.9955357142857143</v>
-      </c>
-      <c r="U61" s="110">
-        <f>E61/[3]Output!$E61</f>
-        <v>0.99111111111111116</v>
-      </c>
-      <c r="V61" s="110">
-        <f>E61/[1]Output!$E61</f>
-        <v>0.99111111111111116</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B62" s="30">
-        <v>954</v>
+        <v>1014</v>
       </c>
       <c r="C62" s="31">
-        <v>1430</v>
+        <v>1479</v>
       </c>
       <c r="D62" s="32">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="E62" s="32">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F62" s="33">
-        <v>3141</v>
+        <v>3285</v>
       </c>
       <c r="G62" s="84">
-        <v>0.27397260273972601</v>
+        <v>0.27363896848137537</v>
       </c>
       <c r="H62" s="85">
-        <v>0.21729611384783798</v>
+        <v>0.21704605611434621</v>
       </c>
       <c r="I62" s="94">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="J62" s="95">
         <v>0.25</v>
       </c>
       <c r="K62" s="78">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="L62" s="79">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="M62" s="94">
         <v>59.99</v>
@@ -5524,7 +4000,7 @@
         <v>64.959999999999994</v>
       </c>
       <c r="P62" s="79">
-        <v>64.959999999999994</v>
+        <v>64.95</v>
       </c>
       <c r="Q62" s="42">
         <v>0</v>
@@ -5532,59 +4008,43 @@
       <c r="R62" s="43">
         <v>0</v>
       </c>
-      <c r="S62" s="110">
-        <f>[1]Output!$F62/F62</f>
-        <v>1.1006049028971665</v>
-      </c>
-      <c r="T62" s="110">
-        <f>E62/[2]Output!$E62</f>
-        <v>0.98024691358024696</v>
-      </c>
-      <c r="U62" s="110">
-        <f>E62/[3]Output!$E62</f>
-        <v>0.89213483146067418</v>
-      </c>
-      <c r="V62" s="110">
-        <f>E62/[1]Output!$E62</f>
-        <v>0.90846681922196793</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B63" s="30">
-        <v>1110</v>
+        <v>1173</v>
       </c>
       <c r="C63" s="31">
-        <v>1305</v>
+        <v>1358</v>
       </c>
       <c r="D63" s="32">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="E63" s="32">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="F63" s="33">
-        <v>3195</v>
+        <v>3350</v>
       </c>
       <c r="G63" s="84">
-        <v>0.27356020942408377</v>
+        <v>0.27368421052631581</v>
       </c>
       <c r="H63" s="85">
-        <v>0.21715656868626274</v>
+        <v>0.21729106628242076</v>
       </c>
       <c r="I63" s="94">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="J63" s="95">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="K63" s="78">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="L63" s="79">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="M63" s="94">
         <v>59.99</v>
@@ -5604,53 +4064,37 @@
       <c r="R63" s="43">
         <v>0</v>
       </c>
-      <c r="S63" s="110">
-        <f>[1]Output!$F63/F63</f>
-        <v>1.1004694835680751</v>
-      </c>
-      <c r="T63" s="110">
-        <f>E63/[2]Output!$E63</f>
-        <v>0.97837837837837838</v>
-      </c>
-      <c r="U63" s="110">
-        <f>E63/[3]Output!$E63</f>
-        <v>0.88943488943488946</v>
-      </c>
-      <c r="V63" s="110">
-        <f>E63/[1]Output!$E63</f>
-        <v>0.90726817042606511</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B64" s="30">
-        <v>1282</v>
+        <v>1345</v>
       </c>
       <c r="C64" s="31">
-        <v>1204</v>
+        <v>1258</v>
       </c>
       <c r="D64" s="32">
         <v>450</v>
       </c>
       <c r="E64" s="32">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="F64" s="33">
-        <v>3270</v>
+        <v>3402</v>
       </c>
       <c r="G64" s="84">
-        <v>0.25981524249422633</v>
+        <v>0.25069637883008355</v>
       </c>
       <c r="H64" s="85">
-        <v>0.21716514954486346</v>
+        <v>0.21717485998755445</v>
       </c>
       <c r="I64" s="94">
+        <v>0.23</v>
+      </c>
+      <c r="J64" s="95">
         <v>0.22</v>
-      </c>
-      <c r="J64" s="95">
-        <v>0.21</v>
       </c>
       <c r="K64" s="78">
         <v>0.25</v>
@@ -5676,59 +4120,43 @@
       <c r="R64" s="43">
         <v>0</v>
       </c>
-      <c r="S64" s="110">
-        <f>[1]Output!$F64/F64</f>
-        <v>1.1003058103975536</v>
-      </c>
-      <c r="T64" s="110">
-        <f>E64/[2]Output!$E64</f>
-        <v>0.97660818713450293</v>
-      </c>
-      <c r="U64" s="110">
-        <f>E64/[3]Output!$E64</f>
-        <v>0.88829787234042556</v>
-      </c>
-      <c r="V64" s="110">
-        <f>E64/[1]Output!$E64</f>
-        <v>0.90760869565217395</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B65" s="30">
-        <v>1616</v>
+        <v>1648</v>
       </c>
       <c r="C65" s="31">
-        <v>1245</v>
+        <v>1275</v>
       </c>
       <c r="D65" s="32">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="E65" s="32">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="F65" s="33">
-        <v>3718</v>
+        <v>3798</v>
       </c>
       <c r="G65" s="84">
-        <v>0.24024447578749411</v>
+        <v>0.24020285846011988</v>
       </c>
       <c r="H65" s="85">
-        <v>0.21747328724072909</v>
+        <v>0.21731123388581952</v>
       </c>
       <c r="I65" s="94">
         <v>0.28000000000000003</v>
       </c>
       <c r="J65" s="95">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="K65" s="78">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L65" s="79">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="M65" s="94">
         <v>59.98</v>
@@ -5748,68 +4176,52 @@
       <c r="R65" s="43">
         <v>0</v>
       </c>
-      <c r="S65" s="110">
-        <f>[1]Output!$F65/F65</f>
-        <v>1.0997848305540614</v>
-      </c>
-      <c r="T65" s="110">
-        <f>E65/[2]Output!$E65</f>
-        <v>0.98016997167138808</v>
-      </c>
-      <c r="U65" s="110">
-        <f>E65/[3]Output!$E65</f>
-        <v>0.88946015424164526</v>
-      </c>
-      <c r="V65" s="110">
-        <f>E65/[1]Output!$E65</f>
-        <v>0.91052631578947374</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B66" s="30">
-        <v>2537</v>
+        <v>2234</v>
       </c>
       <c r="C66" s="31">
-        <v>1192</v>
+        <v>1164</v>
       </c>
       <c r="D66" s="32">
-        <v>1049</v>
+        <v>937</v>
       </c>
       <c r="E66" s="32">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F66" s="33">
-        <v>5228</v>
+        <v>4784</v>
       </c>
       <c r="G66" s="84">
-        <v>0.29252649191299496</v>
+        <v>0.29549038158309682</v>
       </c>
       <c r="H66" s="85">
-        <v>0.27405602923264311</v>
+        <v>0.27836329820210787</v>
       </c>
       <c r="I66" s="94">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="J66" s="95">
         <v>0.2</v>
       </c>
       <c r="K66" s="78">
-        <v>0.57999999999999996</v>
+        <v>0.52</v>
       </c>
       <c r="L66" s="79">
         <v>0.25</v>
       </c>
       <c r="M66" s="94">
-        <v>59.97</v>
+        <v>59.98</v>
       </c>
       <c r="N66" s="95">
         <v>59.99</v>
       </c>
       <c r="O66" s="78">
-        <v>64.8</v>
+        <v>64.849999999999994</v>
       </c>
       <c r="P66" s="79">
         <v>64.95</v>
@@ -5820,56 +4232,40 @@
       <c r="R66" s="43">
         <v>0</v>
       </c>
-      <c r="S66" s="110">
-        <f>[1]Output!$F66/F66</f>
-        <v>1.1000382555470543</v>
-      </c>
-      <c r="T66" s="110">
-        <f>E66/[2]Output!$E66</f>
-        <v>1</v>
-      </c>
-      <c r="U66" s="110">
-        <f>E66/[3]Output!$E66</f>
-        <v>0.95744680851063835</v>
-      </c>
-      <c r="V66" s="110">
-        <f>E66/[1]Output!$E66</f>
-        <v>0.97826086956521741</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="44" t="s">
         <v>31</v>
       </c>
       <c r="B67" s="45">
-        <v>3416</v>
+        <v>3185</v>
       </c>
       <c r="C67" s="46">
-        <v>1193</v>
+        <v>1171</v>
       </c>
       <c r="D67" s="47">
-        <v>1322</v>
+        <v>1262</v>
       </c>
       <c r="E67" s="47">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F67" s="48">
-        <v>6381</v>
+        <v>6067</v>
       </c>
       <c r="G67" s="86">
-        <v>0.27902068383284084</v>
+        <v>0.28378682257701821</v>
       </c>
       <c r="H67" s="87">
-        <v>0.27388922702373708</v>
+        <v>0.27716049382716051</v>
       </c>
       <c r="I67" s="96">
-        <v>0.59</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J67" s="97">
         <v>0.2</v>
       </c>
       <c r="K67" s="80">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="L67" s="81">
         <v>0.25</v>
@@ -5881,151 +4277,119 @@
         <v>59.99</v>
       </c>
       <c r="O67" s="80">
-        <v>64.53</v>
+        <v>64.62</v>
       </c>
       <c r="P67" s="81">
         <v>64.95</v>
       </c>
       <c r="Q67" s="53">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="R67" s="54">
         <v>0</v>
       </c>
-      <c r="S67" s="110">
-        <f>[1]Output!$F67/F67</f>
-        <v>1.0999843284751607</v>
-      </c>
-      <c r="T67" s="110">
-        <f>E67/[2]Output!$E67</f>
-        <v>1</v>
-      </c>
-      <c r="U67" s="110">
-        <f>E67/[3]Output!$E67</f>
-        <v>0.95744680851063835</v>
-      </c>
-      <c r="V67" s="110">
-        <f>E67/[1]Output!$E67</f>
-        <v>0.97826086956521741</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="44" t="s">
         <v>32</v>
       </c>
       <c r="B68" s="45">
-        <v>3390</v>
+        <v>3006</v>
       </c>
       <c r="C68" s="46">
-        <v>1268</v>
+        <v>1203</v>
       </c>
       <c r="D68" s="47">
-        <v>1314</v>
+        <v>1209</v>
       </c>
       <c r="E68" s="47">
         <v>450</v>
       </c>
       <c r="F68" s="48">
-        <v>6422</v>
+        <v>5868</v>
       </c>
       <c r="G68" s="86">
-        <v>0.27933673469387754</v>
+        <v>0.28683274021352312</v>
       </c>
       <c r="H68" s="87">
-        <v>0.26193247962747379</v>
+        <v>0.27223230490018147</v>
       </c>
       <c r="I68" s="96">
-        <v>0.57999999999999996</v>
+        <v>0.52</v>
       </c>
       <c r="J68" s="97">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="K68" s="80">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="L68" s="81">
         <v>0.25</v>
       </c>
       <c r="M68" s="96">
-        <v>59.95</v>
+        <v>59.96</v>
       </c>
       <c r="N68" s="97">
         <v>59.99</v>
       </c>
       <c r="O68" s="80">
-        <v>64.55</v>
+        <v>64.680000000000007</v>
       </c>
       <c r="P68" s="81">
         <v>64.95</v>
       </c>
       <c r="Q68" s="53">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="R68" s="54">
         <v>0</v>
       </c>
-      <c r="S68" s="110">
-        <f>[1]Output!$F68/F68</f>
-        <v>1.1001245717844907</v>
-      </c>
-      <c r="T68" s="110">
-        <f>E68/[2]Output!$E68</f>
-        <v>1</v>
-      </c>
-      <c r="U68" s="110">
-        <f>E68/[3]Output!$E68</f>
-        <v>0.91649694501018331</v>
-      </c>
-      <c r="V68" s="110">
-        <f>E68/[1]Output!$E68</f>
-        <v>0.9355509355509356</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B69" s="45">
-        <v>2539</v>
+        <v>2303</v>
       </c>
       <c r="C69" s="46">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="D69" s="47">
-        <v>1050</v>
+        <v>964</v>
       </c>
       <c r="E69" s="47">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F69" s="48">
-        <v>5030</v>
+        <v>4687</v>
       </c>
       <c r="G69" s="86">
-        <v>0.29256060183895233</v>
+        <v>0.29507193143556781</v>
       </c>
       <c r="H69" s="87">
-        <v>0.28521859819569745</v>
+        <v>0.28450704225352114</v>
       </c>
       <c r="I69" s="96">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="J69" s="97">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="K69" s="80">
-        <v>0.57999999999999996</v>
+        <v>0.54</v>
       </c>
       <c r="L69" s="81">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="M69" s="96">
-        <v>59.97</v>
+        <v>59.98</v>
       </c>
       <c r="N69" s="97">
         <v>59.99</v>
       </c>
       <c r="O69" s="80">
-        <v>64.8</v>
+        <v>64.84</v>
       </c>
       <c r="P69" s="81">
         <v>64.95</v>
@@ -6036,56 +4400,40 @@
       <c r="R69" s="54">
         <v>0</v>
       </c>
-      <c r="S69" s="110">
-        <f>[1]Output!$F69/F69</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="T69" s="110">
-        <f>E69/[2]Output!$E69</f>
-        <v>0.97857142857142854</v>
-      </c>
-      <c r="U69" s="110">
-        <f>E69/[3]Output!$E69</f>
-        <v>0.91536748329621376</v>
-      </c>
-      <c r="V69" s="110">
-        <f>E69/[1]Output!$E69</f>
-        <v>0.91946308724832215</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="29" t="s">
         <v>34</v>
       </c>
       <c r="B70" s="30">
-        <v>1636</v>
+        <v>1684</v>
       </c>
       <c r="C70" s="31">
-        <v>793</v>
+        <v>819</v>
       </c>
       <c r="D70" s="32">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="E70" s="32">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F70" s="33">
-        <v>3017</v>
+        <v>3109</v>
       </c>
       <c r="G70" s="84">
-        <v>0.20851475568456701</v>
+        <v>0.20864661654135339</v>
       </c>
       <c r="H70" s="85">
-        <v>0.16526315789473683</v>
+        <v>0.16513761467889909</v>
       </c>
       <c r="I70" s="94">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J70" s="95">
         <v>0.14000000000000001</v>
       </c>
       <c r="K70" s="78">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="L70" s="79">
         <v>0.09</v>
@@ -6108,47 +4456,31 @@
       <c r="R70" s="43">
         <v>0</v>
       </c>
-      <c r="S70" s="110">
-        <f>[1]Output!$F70/F70</f>
-        <v>1.1000994365263508</v>
-      </c>
-      <c r="T70" s="110">
-        <f>E70/[2]Output!$E70</f>
-        <v>0.96319018404907975</v>
-      </c>
-      <c r="U70" s="110">
-        <f>E70/[3]Output!$E70</f>
-        <v>0.87709497206703912</v>
-      </c>
-      <c r="V70" s="110">
-        <f>E70/[1]Output!$E70</f>
-        <v>0.90751445086705207</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="29" t="s">
         <v>35</v>
       </c>
       <c r="B71" s="30">
-        <v>1163</v>
+        <v>1192</v>
       </c>
       <c r="C71" s="31">
-        <v>510</v>
+        <v>538</v>
       </c>
       <c r="D71" s="32">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="E71" s="32">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F71" s="33">
-        <v>2081</v>
+        <v>2150</v>
       </c>
       <c r="G71" s="84">
-        <v>0.20884353741496597</v>
+        <v>0.20849933598937584</v>
       </c>
       <c r="H71" s="85">
-        <v>0.16530278232405893</v>
+        <v>0.16459627329192547</v>
       </c>
       <c r="I71" s="94">
         <v>0.2</v>
@@ -6169,7 +4501,7 @@
         <v>59.99</v>
       </c>
       <c r="O71" s="78">
-        <v>64.97</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="P71" s="79">
         <v>64.98</v>
@@ -6180,56 +4512,40 @@
       <c r="R71" s="43">
         <v>0</v>
       </c>
-      <c r="S71" s="110">
-        <f>[1]Output!$F71/F71</f>
-        <v>1.0999519461797214</v>
-      </c>
-      <c r="T71" s="110">
-        <f>E71/[2]Output!$E71</f>
-        <v>0.94392523364485981</v>
-      </c>
-      <c r="U71" s="110">
-        <f>E71/[3]Output!$E71</f>
-        <v>0.85593220338983056</v>
-      </c>
-      <c r="V71" s="110">
-        <f>E71/[1]Output!$E71</f>
-        <v>0.90990990990990994</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="29" t="s">
         <v>36</v>
       </c>
       <c r="B72" s="30">
-        <v>1072</v>
+        <v>1118</v>
       </c>
       <c r="C72" s="31">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="D72" s="32">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E72" s="32">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F72" s="33">
-        <v>1658</v>
+        <v>1765</v>
       </c>
       <c r="G72" s="84">
-        <v>9.6882898062342043E-2</v>
+        <v>9.6930533117932149E-2</v>
       </c>
       <c r="H72" s="85">
-        <v>7.6433121019108277E-2</v>
+        <v>7.5901328273244778E-2</v>
       </c>
       <c r="I72" s="94">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="J72" s="95">
+        <v>0.08</v>
+      </c>
+      <c r="K72" s="78">
         <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K72" s="78">
-        <v>0.06</v>
       </c>
       <c r="L72" s="79">
         <v>0.02</v>
@@ -6252,59 +4568,43 @@
       <c r="R72" s="43">
         <v>0</v>
       </c>
-      <c r="S72" s="110">
-        <f>[1]Output!$F72/F72</f>
-        <v>1.1007237635705669</v>
-      </c>
-      <c r="T72" s="110">
-        <f>E72/[2]Output!$E72</f>
-        <v>0.92307692307692313</v>
-      </c>
-      <c r="U72" s="110">
-        <f>E72/[3]Output!$E72</f>
-        <v>0.83720930232558144</v>
-      </c>
-      <c r="V72" s="110">
-        <f>E72/[1]Output!$E72</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="29" t="s">
         <v>37</v>
       </c>
       <c r="B73" s="30">
-        <v>762</v>
+        <v>830</v>
       </c>
       <c r="C73" s="31">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="D73" s="32">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E73" s="32">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F73" s="33">
-        <v>1153</v>
+        <v>1275</v>
       </c>
       <c r="G73" s="84">
-        <v>9.7156398104265407E-2</v>
+        <v>9.6844396082698583E-2</v>
       </c>
       <c r="H73" s="85">
-        <v>7.7669902912621352E-2</v>
+        <v>7.5842696629213488E-2</v>
       </c>
       <c r="I73" s="94">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J73" s="95">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="K73" s="78">
         <v>0.05</v>
       </c>
       <c r="L73" s="79">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="M73" s="94">
         <v>59.99</v>
@@ -6324,53 +4624,37 @@
       <c r="R73" s="43">
         <v>0</v>
       </c>
-      <c r="S73" s="110">
-        <f>[1]Output!$F73/F73</f>
-        <v>1.0988725065047702</v>
-      </c>
-      <c r="T73" s="110">
-        <f>E73/[2]Output!$E73</f>
-        <v>0.92307692307692313</v>
-      </c>
-      <c r="U73" s="110">
-        <f>E73/[3]Output!$E73</f>
-        <v>0.82758620689655171</v>
-      </c>
-      <c r="V73" s="110">
-        <f>E73/[1]Output!$E73</f>
-        <v>0.92307692307692313</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="29" t="s">
         <v>38</v>
       </c>
       <c r="B74" s="55">
-        <v>533</v>
+        <v>581</v>
       </c>
       <c r="C74" s="56">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="D74" s="57">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E74" s="57">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F74" s="58">
-        <v>745</v>
+        <v>842</v>
       </c>
       <c r="G74" s="88">
-        <v>9.6610169491525427E-2</v>
+        <v>9.6423017107309481E-2</v>
       </c>
       <c r="H74" s="89">
-        <v>7.7419354838709681E-2</v>
+        <v>7.5376884422110546E-2</v>
       </c>
       <c r="I74" s="98">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="J74" s="99">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="K74" s="82">
         <v>0.03</v>
@@ -6396,88 +4680,72 @@
       <c r="R74" s="64">
         <v>0</v>
       </c>
-      <c r="S74" s="110">
-        <f>[1]Output!$F74/F74</f>
-        <v>1.1006711409395973</v>
-      </c>
-      <c r="T74" s="110">
-        <f>E74/[2]Output!$E74</f>
-        <v>0.8</v>
-      </c>
-      <c r="U74" s="110">
-        <f>E74/[3]Output!$E74</f>
-        <v>0.75</v>
-      </c>
-      <c r="V74" s="110">
-        <f>E74/[1]Output!$E74</f>
-        <v>0.92307692307692313</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="29" t="s">
         <v>39</v>
       </c>
       <c r="B75" s="65">
         <f>SUM(B51:B74)</f>
-        <v>26287</v>
+        <v>25809</v>
       </c>
       <c r="C75" s="66">
         <f t="shared" ref="C75" si="1">SUM(C51:C74)</f>
-        <v>27355</v>
+        <v>26922</v>
       </c>
       <c r="D75" s="67">
         <f t="shared" ref="D75" si="2">SUM(D51:D74)</f>
-        <v>9419</v>
+        <v>9166</v>
       </c>
       <c r="E75" s="67">
         <f t="shared" ref="E75" si="3">SUM(E51:E74)</f>
-        <v>8046</v>
+        <v>7785</v>
       </c>
       <c r="F75" s="68">
         <f t="shared" ref="F75" si="4">SUM(F51:F74)</f>
-        <v>71107</v>
+        <v>69682</v>
       </c>
       <c r="G75" s="100">
         <f>D75/B75</f>
-        <v>0.35831399551108911</v>
+        <v>0.35514742919136733</v>
       </c>
       <c r="H75" s="101">
         <f>E75/C75</f>
-        <v>0.29413269968927069</v>
+        <v>0.2891687096055271</v>
       </c>
       <c r="I75" s="71"/>
       <c r="J75" s="71"/>
       <c r="K75" s="71"/>
       <c r="L75" s="71"/>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B77" s="72">
         <f>B75+C75</f>
-        <v>53642</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+        <v>52731</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B78" s="72">
         <f>D75+E75</f>
-        <v>17465</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+        <v>16951</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B79" s="72">
         <f>B77+B78</f>
-        <v>71107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+        <v>69682</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -16967,67 +15235,17 @@
       <c r="R764"/>
     </row>
   </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="B723:F723"/>
-    <mergeCell ref="G723:H723"/>
-    <mergeCell ref="I723:L723"/>
-    <mergeCell ref="M723:P723"/>
-    <mergeCell ref="Q723:R723"/>
-    <mergeCell ref="B633:F633"/>
-    <mergeCell ref="G633:H633"/>
-    <mergeCell ref="I633:L633"/>
-    <mergeCell ref="M633:P633"/>
-    <mergeCell ref="Q633:R633"/>
-    <mergeCell ref="B678:F678"/>
-    <mergeCell ref="G678:H678"/>
-    <mergeCell ref="I678:L678"/>
-    <mergeCell ref="M678:P678"/>
-    <mergeCell ref="Q678:R678"/>
-    <mergeCell ref="B543:F543"/>
-    <mergeCell ref="G543:H543"/>
-    <mergeCell ref="I543:L543"/>
-    <mergeCell ref="M543:P543"/>
-    <mergeCell ref="Q543:R543"/>
-    <mergeCell ref="B588:F588"/>
-    <mergeCell ref="G588:H588"/>
-    <mergeCell ref="I588:L588"/>
-    <mergeCell ref="M588:P588"/>
-    <mergeCell ref="Q588:R588"/>
-    <mergeCell ref="B453:F453"/>
-    <mergeCell ref="G453:H453"/>
-    <mergeCell ref="I453:L453"/>
-    <mergeCell ref="M453:P453"/>
-    <mergeCell ref="Q453:R453"/>
-    <mergeCell ref="B498:F498"/>
-    <mergeCell ref="G498:H498"/>
-    <mergeCell ref="I498:L498"/>
-    <mergeCell ref="M498:P498"/>
-    <mergeCell ref="Q498:R498"/>
-    <mergeCell ref="Q408:R408"/>
-    <mergeCell ref="B363:F363"/>
-    <mergeCell ref="G363:H363"/>
-    <mergeCell ref="I363:L363"/>
-    <mergeCell ref="M363:P363"/>
-    <mergeCell ref="Q363:R363"/>
-    <mergeCell ref="G228:H228"/>
-    <mergeCell ref="I228:L228"/>
-    <mergeCell ref="M228:P228"/>
-    <mergeCell ref="B408:F408"/>
-    <mergeCell ref="G408:H408"/>
-    <mergeCell ref="I408:L408"/>
-    <mergeCell ref="M408:P408"/>
-    <mergeCell ref="B273:F273"/>
-    <mergeCell ref="G273:H273"/>
-    <mergeCell ref="I273:L273"/>
-    <mergeCell ref="M273:P273"/>
-    <mergeCell ref="Q273:R273"/>
-    <mergeCell ref="B318:F318"/>
-    <mergeCell ref="G318:H318"/>
-    <mergeCell ref="I318:L318"/>
-    <mergeCell ref="M318:P318"/>
-    <mergeCell ref="Q318:R318"/>
+  <mergeCells count="84">
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:R3"/>
     <mergeCell ref="Q228:R228"/>
     <mergeCell ref="B93:F93"/>
     <mergeCell ref="G93:H93"/>
@@ -17044,18 +15262,65 @@
     <mergeCell ref="I183:L183"/>
     <mergeCell ref="M183:P183"/>
     <mergeCell ref="Q183:R183"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="Q273:R273"/>
+    <mergeCell ref="B318:F318"/>
+    <mergeCell ref="G318:H318"/>
+    <mergeCell ref="I318:L318"/>
+    <mergeCell ref="M318:P318"/>
+    <mergeCell ref="Q318:R318"/>
+    <mergeCell ref="G228:H228"/>
+    <mergeCell ref="I228:L228"/>
+    <mergeCell ref="M228:P228"/>
+    <mergeCell ref="B408:F408"/>
+    <mergeCell ref="G408:H408"/>
+    <mergeCell ref="I408:L408"/>
+    <mergeCell ref="M408:P408"/>
+    <mergeCell ref="B273:F273"/>
+    <mergeCell ref="G273:H273"/>
+    <mergeCell ref="I273:L273"/>
+    <mergeCell ref="M273:P273"/>
+    <mergeCell ref="Q408:R408"/>
+    <mergeCell ref="B363:F363"/>
+    <mergeCell ref="G363:H363"/>
+    <mergeCell ref="I363:L363"/>
+    <mergeCell ref="M363:P363"/>
+    <mergeCell ref="Q363:R363"/>
+    <mergeCell ref="B498:F498"/>
+    <mergeCell ref="G498:H498"/>
+    <mergeCell ref="I498:L498"/>
+    <mergeCell ref="M498:P498"/>
+    <mergeCell ref="Q498:R498"/>
+    <mergeCell ref="B453:F453"/>
+    <mergeCell ref="G453:H453"/>
+    <mergeCell ref="I453:L453"/>
+    <mergeCell ref="M453:P453"/>
+    <mergeCell ref="Q453:R453"/>
+    <mergeCell ref="B588:F588"/>
+    <mergeCell ref="G588:H588"/>
+    <mergeCell ref="I588:L588"/>
+    <mergeCell ref="M588:P588"/>
+    <mergeCell ref="Q588:R588"/>
+    <mergeCell ref="B543:F543"/>
+    <mergeCell ref="G543:H543"/>
+    <mergeCell ref="I543:L543"/>
+    <mergeCell ref="M543:P543"/>
+    <mergeCell ref="Q543:R543"/>
+    <mergeCell ref="B678:F678"/>
+    <mergeCell ref="G678:H678"/>
+    <mergeCell ref="I678:L678"/>
+    <mergeCell ref="M678:P678"/>
+    <mergeCell ref="Q678:R678"/>
+    <mergeCell ref="B633:F633"/>
+    <mergeCell ref="G633:H633"/>
+    <mergeCell ref="I633:L633"/>
+    <mergeCell ref="M633:P633"/>
+    <mergeCell ref="Q633:R633"/>
+    <mergeCell ref="B723:F723"/>
+    <mergeCell ref="G723:H723"/>
+    <mergeCell ref="I723:L723"/>
+    <mergeCell ref="M723:P723"/>
+    <mergeCell ref="Q723:R723"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Analysis & Profiles/Output_2020A2.xlsx
+++ b/Analysis & Profiles/Output_2020A2.xlsx
@@ -1183,6 +1183,55 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>116542</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>545279</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47371</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8973671" y="1613647"/>
+          <a:ext cx="8066667" cy="2028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1449,7 +1498,7 @@
   <dimension ref="A1:R764"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E15"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1977,49 +2026,49 @@
         <v>21</v>
       </c>
       <c r="B12" s="30">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="C12" s="31">
-        <v>2183</v>
+        <v>2403</v>
       </c>
       <c r="D12" s="32">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="E12" s="32">
-        <v>875</v>
+        <v>655</v>
       </c>
       <c r="F12" s="33">
         <v>3630</v>
       </c>
       <c r="G12" s="84">
-        <v>0.33566433566433568</v>
+        <v>0.25699300699300698</v>
       </c>
       <c r="H12" s="85">
-        <v>0.28613472858077177</v>
+        <v>0.21419228253760628</v>
       </c>
       <c r="I12" s="94">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J12" s="95">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="K12" s="78">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="L12" s="79">
-        <v>0.49</v>
+        <v>0.36</v>
       </c>
       <c r="M12" s="94">
-        <v>60</v>
+        <v>59.99</v>
       </c>
       <c r="N12" s="95">
-        <v>59.98</v>
+        <v>59.97</v>
       </c>
       <c r="O12" s="78">
         <v>64.98</v>
       </c>
       <c r="P12" s="79">
-        <v>64.87</v>
+        <v>64.92</v>
       </c>
       <c r="Q12" s="42">
         <v>0</v>
@@ -2033,49 +2082,49 @@
         <v>22</v>
       </c>
       <c r="B13" s="45">
-        <v>580</v>
+        <v>1427</v>
       </c>
       <c r="C13" s="46">
-        <v>2580</v>
+        <v>3171</v>
       </c>
       <c r="D13" s="47">
-        <v>293</v>
+        <v>476</v>
       </c>
       <c r="E13" s="47">
-        <v>1057</v>
+        <v>776</v>
       </c>
       <c r="F13" s="48">
-        <v>4510</v>
+        <v>5850</v>
       </c>
       <c r="G13" s="86">
-        <v>0.3356242840778923</v>
+        <v>0.25013137151865478</v>
       </c>
       <c r="H13" s="87">
-        <v>0.2906241407753643</v>
+        <v>0.19660501646820369</v>
       </c>
       <c r="I13" s="96">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="J13" s="97">
-        <v>0.44</v>
+        <v>0.54</v>
       </c>
       <c r="K13" s="80">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="L13" s="81">
-        <v>0.59</v>
+        <v>0.43</v>
       </c>
       <c r="M13" s="96">
         <v>59.99</v>
       </c>
       <c r="N13" s="97">
-        <v>59.97</v>
+        <v>59.96</v>
       </c>
       <c r="O13" s="80">
-        <v>64.97</v>
+        <v>64.95</v>
       </c>
       <c r="P13" s="81">
-        <v>64.790000000000006</v>
+        <v>64.89</v>
       </c>
       <c r="Q13" s="53">
         <v>0</v>
@@ -2089,49 +2138,49 @@
         <v>23</v>
       </c>
       <c r="B14" s="45">
-        <v>646</v>
+        <v>722</v>
       </c>
       <c r="C14" s="46">
-        <v>2269</v>
+        <v>2492</v>
       </c>
       <c r="D14" s="47">
-        <v>326</v>
+        <v>250</v>
       </c>
       <c r="E14" s="47">
-        <v>909</v>
+        <v>686</v>
       </c>
       <c r="F14" s="48">
         <v>4150</v>
       </c>
       <c r="G14" s="86">
-        <v>0.33539094650205764</v>
+        <v>0.25720164609053497</v>
       </c>
       <c r="H14" s="87">
-        <v>0.28602894902454373</v>
+        <v>0.21585903083700442</v>
       </c>
       <c r="I14" s="96">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="J14" s="97">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
       <c r="K14" s="80">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L14" s="81">
-        <v>0.51</v>
+        <v>0.38</v>
       </c>
       <c r="M14" s="96">
         <v>59.99</v>
       </c>
       <c r="N14" s="97">
-        <v>59.98</v>
+        <v>59.97</v>
       </c>
       <c r="O14" s="80">
-        <v>64.959999999999994</v>
+        <v>64.97</v>
       </c>
       <c r="P14" s="81">
-        <v>64.86</v>
+        <v>64.91</v>
       </c>
       <c r="Q14" s="53">
         <v>0</v>
@@ -2145,37 +2194,37 @@
         <v>24</v>
       </c>
       <c r="B15" s="45">
-        <v>702</v>
+        <v>779</v>
       </c>
       <c r="C15" s="46">
-        <v>1619</v>
+        <v>1751</v>
       </c>
       <c r="D15" s="47">
-        <v>346</v>
+        <v>269</v>
       </c>
       <c r="E15" s="47">
-        <v>644</v>
+        <v>512</v>
       </c>
       <c r="F15" s="48">
         <v>3311</v>
       </c>
       <c r="G15" s="86">
-        <v>0.33015267175572521</v>
+        <v>0.25667938931297712</v>
       </c>
       <c r="H15" s="87">
-        <v>0.28457799381352189</v>
+        <v>0.22624834290764473</v>
       </c>
       <c r="I15" s="96">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="J15" s="97">
+        <v>0.3</v>
+      </c>
+      <c r="K15" s="80">
+        <v>0.15</v>
+      </c>
+      <c r="L15" s="81">
         <v>0.28000000000000003</v>
-      </c>
-      <c r="K15" s="80">
-        <v>0.19</v>
-      </c>
-      <c r="L15" s="81">
-        <v>0.36</v>
       </c>
       <c r="M15" s="96">
         <v>59.99</v>
@@ -2184,16 +2233,16 @@
         <v>59.98</v>
       </c>
       <c r="O15" s="80">
-        <v>64.959999999999994</v>
+        <v>64.97</v>
       </c>
       <c r="P15" s="81">
-        <v>64.92</v>
+        <v>64.94</v>
       </c>
       <c r="Q15" s="53">
         <v>0</v>
       </c>
       <c r="R15" s="54">
-        <v>0.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -2481,37 +2530,37 @@
         <v>30</v>
       </c>
       <c r="B21" s="30">
-        <v>1883</v>
+        <v>2056</v>
       </c>
       <c r="C21" s="31">
-        <v>875</v>
+        <v>971</v>
       </c>
       <c r="D21" s="32">
-        <v>702</v>
+        <v>529</v>
       </c>
       <c r="E21" s="32">
-        <v>450</v>
+        <v>353</v>
       </c>
       <c r="F21" s="33">
-        <v>3910</v>
+        <v>3909</v>
       </c>
       <c r="G21" s="84">
-        <v>0.27156673114119922</v>
+        <v>0.204642166344294</v>
       </c>
       <c r="H21" s="85">
-        <v>0.33962264150943394</v>
+        <v>0.26661631419939574</v>
       </c>
       <c r="I21" s="94">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="J21" s="95">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="K21" s="78">
-        <v>0.39</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L21" s="79">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="M21" s="94">
         <v>59.98</v>
@@ -2520,13 +2569,13 @@
         <v>59.99</v>
       </c>
       <c r="O21" s="78">
-        <v>64.91</v>
+        <v>64.94</v>
       </c>
       <c r="P21" s="79">
-        <v>64.95</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="Q21" s="42">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="R21" s="43">
         <v>0</v>
@@ -2537,49 +2586,49 @@
         <v>31</v>
       </c>
       <c r="B22" s="45">
-        <v>2669</v>
+        <v>2886</v>
       </c>
       <c r="C22" s="46">
-        <v>881</v>
+        <v>976</v>
       </c>
       <c r="D22" s="47">
-        <v>957</v>
+        <v>740</v>
       </c>
       <c r="E22" s="47">
-        <v>450</v>
+        <v>355</v>
       </c>
       <c r="F22" s="48">
         <v>4957</v>
       </c>
       <c r="G22" s="86">
-        <v>0.26392719249862107</v>
+        <v>0.20408163265306123</v>
       </c>
       <c r="H22" s="87">
-        <v>0.33809166040570998</v>
+        <v>0.26671675432006009</v>
       </c>
       <c r="I22" s="96">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="J22" s="97">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="K22" s="80">
-        <v>0.53</v>
+        <v>0.41</v>
       </c>
       <c r="L22" s="81">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="M22" s="96">
-        <v>59.97</v>
+        <v>59.96</v>
       </c>
       <c r="N22" s="97">
         <v>59.99</v>
       </c>
       <c r="O22" s="80">
-        <v>64.84</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="P22" s="81">
-        <v>64.95</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="Q22" s="53">
         <v>0.23</v>
@@ -2593,37 +2642,37 @@
         <v>32</v>
       </c>
       <c r="B23" s="45">
-        <v>2521</v>
+        <v>2736</v>
       </c>
       <c r="C23" s="46">
-        <v>908</v>
+        <v>996</v>
       </c>
       <c r="D23" s="47">
-        <v>915</v>
+        <v>700</v>
       </c>
       <c r="E23" s="47">
-        <v>450</v>
+        <v>362</v>
       </c>
       <c r="F23" s="48">
         <v>4794</v>
       </c>
       <c r="G23" s="86">
-        <v>0.26629802095459837</v>
+        <v>0.20372526193247964</v>
       </c>
       <c r="H23" s="87">
-        <v>0.33136966126656847</v>
+        <v>0.26656848306332842</v>
       </c>
       <c r="I23" s="96">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="J23" s="97">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="K23" s="80">
-        <v>0.51</v>
+        <v>0.39</v>
       </c>
       <c r="L23" s="81">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="M23" s="96">
         <v>59.97</v>
@@ -2632,10 +2681,10 @@
         <v>59.99</v>
       </c>
       <c r="O23" s="80">
-        <v>64.849999999999994</v>
+        <v>64.91</v>
       </c>
       <c r="P23" s="81">
-        <v>64.95</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="Q23" s="53">
         <v>0.23</v>
@@ -2649,37 +2698,37 @@
         <v>33</v>
       </c>
       <c r="B24" s="45">
-        <v>1942</v>
+        <v>2125</v>
       </c>
       <c r="C24" s="46">
-        <v>760</v>
+        <v>856</v>
       </c>
       <c r="D24" s="47">
-        <v>722</v>
+        <v>539</v>
       </c>
       <c r="E24" s="47">
-        <v>408</v>
+        <v>311</v>
       </c>
       <c r="F24" s="48">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="G24" s="86">
-        <v>0.27102102102102105</v>
+        <v>0.20232732732732733</v>
       </c>
       <c r="H24" s="87">
-        <v>0.34931506849315069</v>
+        <v>0.26649528706083975</v>
       </c>
       <c r="I24" s="96">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="J24" s="97">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="K24" s="80">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="L24" s="81">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="M24" s="96">
         <v>59.98</v>
@@ -2688,13 +2737,13 @@
         <v>59.99</v>
       </c>
       <c r="O24" s="80">
-        <v>64.91</v>
+        <v>64.94</v>
       </c>
       <c r="P24" s="81">
-        <v>64.95</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="Q24" s="53">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="R24" s="54">
         <v>0</v>
@@ -2986,31 +3035,31 @@
       </c>
       <c r="B30" s="65">
         <f>SUM(B6:B29)</f>
-        <v>21532</v>
+        <v>23365</v>
       </c>
       <c r="C30" s="66">
         <f t="shared" ref="C30:F30" si="0">SUM(C6:C29)</f>
-        <v>20703</v>
+        <v>22244</v>
       </c>
       <c r="D30" s="67">
         <f t="shared" si="0"/>
-        <v>6984</v>
+        <v>6181</v>
       </c>
       <c r="E30" s="67">
         <f t="shared" si="0"/>
-        <v>7809</v>
+        <v>6576</v>
       </c>
       <c r="F30" s="68">
         <f t="shared" si="0"/>
-        <v>57028</v>
+        <v>58366</v>
       </c>
       <c r="G30" s="100">
         <f>D30/B30</f>
-        <v>0.32435444919190043</v>
+        <v>0.26454098009843785</v>
       </c>
       <c r="H30" s="101">
         <f>E30/C30</f>
-        <v>0.37719171134618174</v>
+        <v>0.29563028232332317</v>
       </c>
       <c r="I30" s="71"/>
       <c r="J30" s="71"/>
@@ -3023,7 +3072,7 @@
       </c>
       <c r="B32" s="72">
         <f>B30+C30</f>
-        <v>42235</v>
+        <v>45609</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -3032,7 +3081,7 @@
       </c>
       <c r="B33" s="72">
         <f>D30+E30</f>
-        <v>14793</v>
+        <v>12757</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -3041,7 +3090,7 @@
       </c>
       <c r="B34" s="72">
         <f>B32+B33</f>
-        <v>57028</v>
+        <v>58366</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -3678,37 +3727,37 @@
         <v>21</v>
       </c>
       <c r="B57" s="30">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="C57" s="31">
-        <v>2853</v>
+        <v>3070</v>
       </c>
       <c r="D57" s="32">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="E57" s="32">
-        <v>870</v>
+        <v>653</v>
       </c>
       <c r="F57" s="33">
-        <v>4424</v>
+        <v>4425</v>
       </c>
       <c r="G57" s="84">
-        <v>0.35663338088445079</v>
+        <v>0.27350427350427353</v>
       </c>
       <c r="H57" s="85">
-        <v>0.23368251410153101</v>
+        <v>0.17539618587160891</v>
       </c>
       <c r="I57" s="94">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="J57" s="95">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="K57" s="78">
-        <v>0.14000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="L57" s="79">
-        <v>0.48</v>
+        <v>0.36</v>
       </c>
       <c r="M57" s="94">
         <v>59.99</v>
@@ -3717,10 +3766,10 @@
         <v>59.96</v>
       </c>
       <c r="O57" s="78">
-        <v>64.97</v>
+        <v>64.98</v>
       </c>
       <c r="P57" s="79">
-        <v>64.87</v>
+        <v>64.92</v>
       </c>
       <c r="Q57" s="42">
         <v>0</v>
@@ -3734,49 +3783,49 @@
         <v>22</v>
       </c>
       <c r="B58" s="45">
-        <v>688</v>
+        <v>1433</v>
       </c>
       <c r="C58" s="46">
-        <v>3356</v>
+        <v>3766</v>
       </c>
       <c r="D58" s="47">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="E58" s="47">
-        <v>1072</v>
+        <v>682</v>
       </c>
       <c r="F58" s="48">
-        <v>5498</v>
+        <v>6283</v>
       </c>
       <c r="G58" s="86">
-        <v>0.35700934579439253</v>
+        <v>0.21907356948228882</v>
       </c>
       <c r="H58" s="87">
-        <v>0.24209575429087624</v>
+        <v>0.15332733812949639</v>
       </c>
       <c r="I58" s="96">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="J58" s="97">
-        <v>0.57999999999999996</v>
+        <v>0.65</v>
       </c>
       <c r="K58" s="80">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="L58" s="81">
-        <v>0.6</v>
+        <v>0.38</v>
       </c>
       <c r="M58" s="96">
         <v>59.99</v>
       </c>
       <c r="N58" s="97">
-        <v>59.95</v>
+        <v>59.93</v>
       </c>
       <c r="O58" s="80">
         <v>64.959999999999994</v>
       </c>
       <c r="P58" s="81">
-        <v>64.790000000000006</v>
+        <v>64.91</v>
       </c>
       <c r="Q58" s="53">
         <v>0</v>
@@ -3790,49 +3839,49 @@
         <v>23</v>
       </c>
       <c r="B59" s="45">
-        <v>767</v>
+        <v>866</v>
       </c>
       <c r="C59" s="46">
-        <v>2964</v>
+        <v>3184</v>
       </c>
       <c r="D59" s="47">
-        <v>425</v>
+        <v>326</v>
       </c>
       <c r="E59" s="47">
-        <v>905</v>
+        <v>684</v>
       </c>
       <c r="F59" s="48">
-        <v>5061</v>
+        <v>5060</v>
       </c>
       <c r="G59" s="86">
-        <v>0.35654362416107382</v>
+        <v>0.27348993288590606</v>
       </c>
       <c r="H59" s="87">
-        <v>0.23391057120703024</v>
+        <v>0.1768355739400207</v>
       </c>
       <c r="I59" s="96">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="J59" s="97">
-        <v>0.51</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K59" s="80">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="L59" s="81">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="M59" s="96">
         <v>59.99</v>
       </c>
       <c r="N59" s="97">
-        <v>59.96</v>
+        <v>59.95</v>
       </c>
       <c r="O59" s="80">
-        <v>64.95</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="P59" s="81">
-        <v>64.86</v>
+        <v>64.91</v>
       </c>
       <c r="Q59" s="53">
         <v>0</v>
@@ -3846,37 +3895,37 @@
         <v>24</v>
       </c>
       <c r="B60" s="45">
-        <v>836</v>
+        <v>934</v>
       </c>
       <c r="C60" s="46">
-        <v>2116</v>
+        <v>2247</v>
       </c>
       <c r="D60" s="47">
-        <v>450</v>
+        <v>352</v>
       </c>
       <c r="E60" s="47">
-        <v>639</v>
+        <v>508</v>
       </c>
       <c r="F60" s="48">
         <v>4041</v>
       </c>
       <c r="G60" s="86">
-        <v>0.34992223950233281</v>
+        <v>0.27371695178849142</v>
       </c>
       <c r="H60" s="87">
-        <v>0.23194192377495462</v>
+        <v>0.18439201451905626</v>
       </c>
       <c r="I60" s="96">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="J60" s="97">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
       <c r="K60" s="80">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="L60" s="81">
-        <v>0.36</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M60" s="96">
         <v>59.99</v>
@@ -3885,16 +3934,16 @@
         <v>59.98</v>
       </c>
       <c r="O60" s="80">
-        <v>64.95</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="P60" s="81">
-        <v>64.92</v>
+        <v>64.94</v>
       </c>
       <c r="Q60" s="53">
         <v>0</v>
       </c>
       <c r="R60" s="54">
-        <v>0.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -4182,49 +4231,49 @@
         <v>30</v>
       </c>
       <c r="B66" s="30">
-        <v>2234</v>
+        <v>2462</v>
       </c>
       <c r="C66" s="31">
-        <v>1164</v>
+        <v>1262</v>
       </c>
       <c r="D66" s="32">
-        <v>937</v>
+        <v>709</v>
       </c>
       <c r="E66" s="32">
-        <v>449</v>
+        <v>350</v>
       </c>
       <c r="F66" s="33">
-        <v>4784</v>
+        <v>4783</v>
       </c>
       <c r="G66" s="84">
-        <v>0.29549038158309682</v>
+        <v>0.22358877325764742</v>
       </c>
       <c r="H66" s="85">
-        <v>0.27836329820210787</v>
+        <v>0.21712158808933002</v>
       </c>
       <c r="I66" s="94">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="J66" s="95">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="K66" s="78">
-        <v>0.52</v>
+        <v>0.39</v>
       </c>
       <c r="L66" s="79">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="M66" s="94">
-        <v>59.98</v>
+        <v>59.97</v>
       </c>
       <c r="N66" s="95">
         <v>59.99</v>
       </c>
       <c r="O66" s="78">
-        <v>64.849999999999994</v>
+        <v>64.91</v>
       </c>
       <c r="P66" s="79">
-        <v>64.95</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="Q66" s="42">
         <v>0.23</v>
@@ -4238,52 +4287,52 @@
         <v>31</v>
       </c>
       <c r="B67" s="45">
-        <v>3185</v>
+        <v>3452</v>
       </c>
       <c r="C67" s="46">
-        <v>1171</v>
+        <v>1268</v>
       </c>
       <c r="D67" s="47">
-        <v>1262</v>
+        <v>995</v>
       </c>
       <c r="E67" s="47">
-        <v>449</v>
+        <v>352</v>
       </c>
       <c r="F67" s="48">
         <v>6067</v>
       </c>
       <c r="G67" s="86">
-        <v>0.28378682257701821</v>
+        <v>0.22374634585113559</v>
       </c>
       <c r="H67" s="87">
-        <v>0.27716049382716051</v>
+        <v>0.21728395061728395</v>
       </c>
       <c r="I67" s="96">
+        <v>0.59</v>
+      </c>
+      <c r="J67" s="97">
+        <v>0.22</v>
+      </c>
+      <c r="K67" s="80">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J67" s="97">
+      <c r="L67" s="81">
         <v>0.2</v>
       </c>
-      <c r="K67" s="80">
-        <v>0.7</v>
-      </c>
-      <c r="L67" s="81">
-        <v>0.25</v>
-      </c>
       <c r="M67" s="96">
-        <v>59.95</v>
+        <v>59.94</v>
       </c>
       <c r="N67" s="97">
         <v>59.99</v>
       </c>
       <c r="O67" s="80">
-        <v>64.62</v>
+        <v>64.819999999999993</v>
       </c>
       <c r="P67" s="81">
-        <v>64.95</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="Q67" s="53">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="R67" s="54">
         <v>0</v>
@@ -4294,52 +4343,52 @@
         <v>32</v>
       </c>
       <c r="B68" s="45">
-        <v>3006</v>
+        <v>3273</v>
       </c>
       <c r="C68" s="46">
-        <v>1203</v>
+        <v>1294</v>
       </c>
       <c r="D68" s="47">
-        <v>1209</v>
+        <v>941</v>
       </c>
       <c r="E68" s="47">
-        <v>450</v>
+        <v>359</v>
       </c>
       <c r="F68" s="48">
-        <v>5868</v>
+        <v>5867</v>
       </c>
       <c r="G68" s="86">
-        <v>0.28683274021352312</v>
+        <v>0.2233032747982914</v>
       </c>
       <c r="H68" s="87">
-        <v>0.27223230490018147</v>
+        <v>0.21718088324258925</v>
       </c>
       <c r="I68" s="96">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J68" s="97">
+        <v>0.22</v>
+      </c>
+      <c r="K68" s="80">
         <v>0.52</v>
       </c>
-      <c r="J68" s="97">
-        <v>0.21</v>
-      </c>
-      <c r="K68" s="80">
-        <v>0.67</v>
-      </c>
       <c r="L68" s="81">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="M68" s="96">
-        <v>59.96</v>
+        <v>59.95</v>
       </c>
       <c r="N68" s="97">
         <v>59.99</v>
       </c>
       <c r="O68" s="80">
-        <v>64.680000000000007</v>
+        <v>64.849999999999994</v>
       </c>
       <c r="P68" s="81">
-        <v>64.95</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="Q68" s="53">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="R68" s="54">
         <v>0</v>
@@ -4350,49 +4399,49 @@
         <v>33</v>
       </c>
       <c r="B69" s="45">
-        <v>2303</v>
+        <v>2544</v>
       </c>
       <c r="C69" s="46">
-        <v>1016</v>
+        <v>1112</v>
       </c>
       <c r="D69" s="47">
-        <v>964</v>
+        <v>724</v>
       </c>
       <c r="E69" s="47">
-        <v>404</v>
+        <v>308</v>
       </c>
       <c r="F69" s="48">
-        <v>4687</v>
+        <v>4688</v>
       </c>
       <c r="G69" s="86">
-        <v>0.29507193143556781</v>
+        <v>0.22154222766217871</v>
       </c>
       <c r="H69" s="87">
-        <v>0.28450704225352114</v>
+        <v>0.21690140845070421</v>
       </c>
       <c r="I69" s="96">
+        <v>0.44</v>
+      </c>
+      <c r="J69" s="97">
+        <v>0.19</v>
+      </c>
+      <c r="K69" s="80">
         <v>0.4</v>
       </c>
-      <c r="J69" s="97">
+      <c r="L69" s="81">
         <v>0.17</v>
       </c>
-      <c r="K69" s="80">
-        <v>0.54</v>
-      </c>
-      <c r="L69" s="81">
-        <v>0.22</v>
-      </c>
       <c r="M69" s="96">
-        <v>59.98</v>
+        <v>59.97</v>
       </c>
       <c r="N69" s="97">
         <v>59.99</v>
       </c>
       <c r="O69" s="80">
-        <v>64.84</v>
+        <v>64.91</v>
       </c>
       <c r="P69" s="81">
-        <v>64.95</v>
+        <v>64.97</v>
       </c>
       <c r="Q69" s="53">
         <v>0.23</v>
@@ -4687,31 +4736,31 @@
       </c>
       <c r="B75" s="65">
         <f>SUM(B51:B74)</f>
-        <v>25809</v>
+        <v>27813</v>
       </c>
       <c r="C75" s="66">
         <f t="shared" ref="C75" si="1">SUM(C51:C74)</f>
-        <v>26922</v>
+        <v>28282</v>
       </c>
       <c r="D75" s="67">
         <f t="shared" ref="D75" si="2">SUM(D51:D74)</f>
-        <v>9166</v>
+        <v>7928</v>
       </c>
       <c r="E75" s="67">
         <f t="shared" ref="E75" si="3">SUM(E51:E74)</f>
-        <v>7785</v>
+        <v>6443</v>
       </c>
       <c r="F75" s="68">
         <f t="shared" ref="F75" si="4">SUM(F51:F74)</f>
-        <v>69682</v>
+        <v>70466</v>
       </c>
       <c r="G75" s="100">
         <f>D75/B75</f>
-        <v>0.35514742919136733</v>
+        <v>0.28504656096070186</v>
       </c>
       <c r="H75" s="101">
         <f>E75/C75</f>
-        <v>0.2891687096055271</v>
+        <v>0.22781274308747612</v>
       </c>
       <c r="I75" s="71"/>
       <c r="J75" s="71"/>
@@ -4724,7 +4773,7 @@
       </c>
       <c r="B77" s="72">
         <f>B75+C75</f>
-        <v>52731</v>
+        <v>56095</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
@@ -4733,7 +4782,7 @@
       </c>
       <c r="B78" s="72">
         <f>D75+E75</f>
-        <v>16951</v>
+        <v>14371</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
@@ -4742,7 +4791,7 @@
       </c>
       <c r="B79" s="72">
         <f>B77+B78</f>
-        <v>69682</v>
+        <v>70466</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
@@ -15236,16 +15285,64 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="B723:F723"/>
+    <mergeCell ref="G723:H723"/>
+    <mergeCell ref="I723:L723"/>
+    <mergeCell ref="M723:P723"/>
+    <mergeCell ref="Q723:R723"/>
+    <mergeCell ref="B633:F633"/>
+    <mergeCell ref="G633:H633"/>
+    <mergeCell ref="I633:L633"/>
+    <mergeCell ref="M633:P633"/>
+    <mergeCell ref="Q633:R633"/>
+    <mergeCell ref="B678:F678"/>
+    <mergeCell ref="G678:H678"/>
+    <mergeCell ref="I678:L678"/>
+    <mergeCell ref="M678:P678"/>
+    <mergeCell ref="Q678:R678"/>
+    <mergeCell ref="B543:F543"/>
+    <mergeCell ref="G543:H543"/>
+    <mergeCell ref="I543:L543"/>
+    <mergeCell ref="M543:P543"/>
+    <mergeCell ref="Q543:R543"/>
+    <mergeCell ref="B588:F588"/>
+    <mergeCell ref="G588:H588"/>
+    <mergeCell ref="I588:L588"/>
+    <mergeCell ref="M588:P588"/>
+    <mergeCell ref="Q588:R588"/>
+    <mergeCell ref="B453:F453"/>
+    <mergeCell ref="G453:H453"/>
+    <mergeCell ref="I453:L453"/>
+    <mergeCell ref="M453:P453"/>
+    <mergeCell ref="Q453:R453"/>
+    <mergeCell ref="B498:F498"/>
+    <mergeCell ref="G498:H498"/>
+    <mergeCell ref="I498:L498"/>
+    <mergeCell ref="M498:P498"/>
+    <mergeCell ref="Q498:R498"/>
+    <mergeCell ref="Q408:R408"/>
+    <mergeCell ref="B363:F363"/>
+    <mergeCell ref="G363:H363"/>
+    <mergeCell ref="I363:L363"/>
+    <mergeCell ref="M363:P363"/>
+    <mergeCell ref="Q363:R363"/>
+    <mergeCell ref="G228:H228"/>
+    <mergeCell ref="I228:L228"/>
+    <mergeCell ref="M228:P228"/>
+    <mergeCell ref="B408:F408"/>
+    <mergeCell ref="G408:H408"/>
+    <mergeCell ref="I408:L408"/>
+    <mergeCell ref="M408:P408"/>
+    <mergeCell ref="B273:F273"/>
+    <mergeCell ref="G273:H273"/>
+    <mergeCell ref="I273:L273"/>
+    <mergeCell ref="M273:P273"/>
+    <mergeCell ref="Q273:R273"/>
+    <mergeCell ref="B318:F318"/>
+    <mergeCell ref="G318:H318"/>
+    <mergeCell ref="I318:L318"/>
+    <mergeCell ref="M318:P318"/>
+    <mergeCell ref="Q318:R318"/>
     <mergeCell ref="Q228:R228"/>
     <mergeCell ref="B93:F93"/>
     <mergeCell ref="G93:H93"/>
@@ -15262,65 +15359,18 @@
     <mergeCell ref="I183:L183"/>
     <mergeCell ref="M183:P183"/>
     <mergeCell ref="Q183:R183"/>
-    <mergeCell ref="Q273:R273"/>
-    <mergeCell ref="B318:F318"/>
-    <mergeCell ref="G318:H318"/>
-    <mergeCell ref="I318:L318"/>
-    <mergeCell ref="M318:P318"/>
-    <mergeCell ref="Q318:R318"/>
-    <mergeCell ref="G228:H228"/>
-    <mergeCell ref="I228:L228"/>
-    <mergeCell ref="M228:P228"/>
-    <mergeCell ref="B408:F408"/>
-    <mergeCell ref="G408:H408"/>
-    <mergeCell ref="I408:L408"/>
-    <mergeCell ref="M408:P408"/>
-    <mergeCell ref="B273:F273"/>
-    <mergeCell ref="G273:H273"/>
-    <mergeCell ref="I273:L273"/>
-    <mergeCell ref="M273:P273"/>
-    <mergeCell ref="Q408:R408"/>
-    <mergeCell ref="B363:F363"/>
-    <mergeCell ref="G363:H363"/>
-    <mergeCell ref="I363:L363"/>
-    <mergeCell ref="M363:P363"/>
-    <mergeCell ref="Q363:R363"/>
-    <mergeCell ref="B498:F498"/>
-    <mergeCell ref="G498:H498"/>
-    <mergeCell ref="I498:L498"/>
-    <mergeCell ref="M498:P498"/>
-    <mergeCell ref="Q498:R498"/>
-    <mergeCell ref="B453:F453"/>
-    <mergeCell ref="G453:H453"/>
-    <mergeCell ref="I453:L453"/>
-    <mergeCell ref="M453:P453"/>
-    <mergeCell ref="Q453:R453"/>
-    <mergeCell ref="B588:F588"/>
-    <mergeCell ref="G588:H588"/>
-    <mergeCell ref="I588:L588"/>
-    <mergeCell ref="M588:P588"/>
-    <mergeCell ref="Q588:R588"/>
-    <mergeCell ref="B543:F543"/>
-    <mergeCell ref="G543:H543"/>
-    <mergeCell ref="I543:L543"/>
-    <mergeCell ref="M543:P543"/>
-    <mergeCell ref="Q543:R543"/>
-    <mergeCell ref="B678:F678"/>
-    <mergeCell ref="G678:H678"/>
-    <mergeCell ref="I678:L678"/>
-    <mergeCell ref="M678:P678"/>
-    <mergeCell ref="Q678:R678"/>
-    <mergeCell ref="B633:F633"/>
-    <mergeCell ref="G633:H633"/>
-    <mergeCell ref="I633:L633"/>
-    <mergeCell ref="M633:P633"/>
-    <mergeCell ref="Q633:R633"/>
-    <mergeCell ref="B723:F723"/>
-    <mergeCell ref="G723:H723"/>
-    <mergeCell ref="I723:L723"/>
-    <mergeCell ref="M723:P723"/>
-    <mergeCell ref="Q723:R723"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="Q48:R48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Analysis & Profiles/Output_2020A2.xlsx
+++ b/Analysis & Profiles/Output_2020A2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="67">
   <si>
     <t>SEGMENT: 1</t>
   </si>
@@ -185,6 +185,42 @@
   <si>
     <t>Anderson Mainline</t>
   </si>
+  <si>
+    <t>Uncongested (Hourly ODME)</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>A-B</t>
+  </si>
+  <si>
+    <t>123-210</t>
+  </si>
+  <si>
+    <t>301-302</t>
+  </si>
+  <si>
+    <t>vol</t>
+  </si>
+  <si>
+    <t>v/c</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>Congested (Daily ODME- factored to hourly)</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Uncongested (Period ODME)</t>
+  </si>
 </sst>
 </file>
 
@@ -196,7 +232,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +409,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="37">
@@ -578,7 +627,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -867,6 +916,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -931,7 +1051,7 @@
     <xf numFmtId="0" fontId="1" fillId="36" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="16" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1115,6 +1235,60 @@
     </xf>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1495,10 +1669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R764"/>
+  <dimension ref="A1:W764"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T51" sqref="T51:V56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2022,58 +2196,58 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="30">
         <v>683</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="31">
         <v>2340</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="32">
         <v>256</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="32">
         <v>791</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="33">
         <v>4070</v>
       </c>
-      <c r="G12" s="86">
+      <c r="G12" s="84">
         <v>0.27263045793397234</v>
       </c>
-      <c r="H12" s="87">
+      <c r="H12" s="85">
         <v>0.25263494091344618</v>
       </c>
-      <c r="I12" s="96">
+      <c r="I12" s="94">
         <v>0.12</v>
       </c>
-      <c r="J12" s="97">
+      <c r="J12" s="95">
         <v>0.4</v>
       </c>
-      <c r="K12" s="80">
+      <c r="K12" s="78">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L12" s="81">
+      <c r="L12" s="79">
         <v>0.44</v>
       </c>
-      <c r="M12" s="96">
+      <c r="M12" s="94">
         <v>59.99</v>
       </c>
-      <c r="N12" s="97">
+      <c r="N12" s="95">
         <v>59.98</v>
       </c>
-      <c r="O12" s="80">
+      <c r="O12" s="78">
         <v>64.97</v>
       </c>
-      <c r="P12" s="81">
+      <c r="P12" s="79">
         <v>64.89</v>
       </c>
-      <c r="Q12" s="53">
+      <c r="Q12" s="42">
         <v>0</v>
       </c>
-      <c r="R12" s="54">
+      <c r="R12" s="43">
         <v>0.23</v>
       </c>
     </row>
@@ -3274,7 +3448,7 @@
       </c>
       <c r="R48" s="109"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>7</v>
       </c>
@@ -3330,7 +3504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
         <v>11</v>
       </c>
@@ -3386,7 +3560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
         <v>15</v>
       </c>
@@ -3441,8 +3615,13 @@
       <c r="R51" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T51" s="122" t="s">
+        <v>66</v>
+      </c>
+      <c r="U51" s="123"/>
+      <c r="V51" s="124"/>
+    </row>
+    <row r="52" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="29" t="s">
         <v>16</v>
       </c>
@@ -3497,8 +3676,15 @@
       <c r="R52" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T52" s="111"/>
+      <c r="U52" s="112" t="s">
+        <v>56</v>
+      </c>
+      <c r="V52" s="113" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
         <v>17</v>
       </c>
@@ -3553,8 +3739,17 @@
       <c r="R53" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T53" s="114" t="s">
+        <v>58</v>
+      </c>
+      <c r="U53" s="115" t="s">
+        <v>59</v>
+      </c>
+      <c r="V53" s="116" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
         <v>18</v>
       </c>
@@ -3609,8 +3804,22 @@
       <c r="R54" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T54" s="114" t="s">
+        <v>61</v>
+      </c>
+      <c r="U54" s="125">
+        <f>C58</f>
+        <v>3892</v>
+      </c>
+      <c r="V54" s="118">
+        <v>481</v>
+      </c>
+      <c r="W54">
+        <f>V54+U54</f>
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
         <v>19</v>
       </c>
@@ -3665,8 +3874,19 @@
       <c r="R55" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T55" s="114" t="s">
+        <v>62</v>
+      </c>
+      <c r="U55" s="126">
+        <f>J58</f>
+        <v>0.67</v>
+      </c>
+      <c r="V55" s="127">
+        <f>L58</f>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
         <v>20</v>
       </c>
@@ -3721,64 +3941,73 @@
       <c r="R56" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="44" t="s">
+      <c r="T56" s="119" t="s">
+        <v>63</v>
+      </c>
+      <c r="U56" s="120">
+        <v>59.8</v>
+      </c>
+      <c r="V56" s="121">
+        <v>64.900000000000006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A57" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="45">
+      <c r="B57" s="30">
         <v>795</v>
       </c>
-      <c r="C57" s="46">
+      <c r="C57" s="31">
         <v>3258</v>
       </c>
-      <c r="D57" s="47">
+      <c r="D57" s="32">
         <v>288</v>
       </c>
-      <c r="E57" s="47">
+      <c r="E57" s="32">
         <v>419</v>
       </c>
-      <c r="F57" s="48">
+      <c r="F57" s="33">
         <v>4760</v>
       </c>
-      <c r="G57" s="86">
+      <c r="G57" s="84">
         <v>0.26592797783933519</v>
       </c>
-      <c r="H57" s="87">
+      <c r="H57" s="85">
         <v>0.11395159097090019</v>
       </c>
-      <c r="I57" s="96">
+      <c r="I57" s="94">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J57" s="97">
+      <c r="J57" s="95">
         <v>0.56000000000000005</v>
       </c>
-      <c r="K57" s="80">
+      <c r="K57" s="78">
         <v>0.16</v>
       </c>
-      <c r="L57" s="81">
+      <c r="L57" s="79">
         <v>0.23</v>
       </c>
-      <c r="M57" s="96">
+      <c r="M57" s="94">
         <v>59.99</v>
       </c>
-      <c r="N57" s="97">
+      <c r="N57" s="95">
         <v>59.95</v>
       </c>
-      <c r="O57" s="80">
+      <c r="O57" s="78">
         <v>64.97</v>
       </c>
-      <c r="P57" s="81">
+      <c r="P57" s="79">
         <v>64.95</v>
       </c>
-      <c r="Q57" s="53">
+      <c r="Q57" s="42">
         <v>0</v>
       </c>
-      <c r="R57" s="54">
+      <c r="R57" s="43">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="44" t="s">
         <v>22</v>
       </c>
@@ -3833,8 +4062,9 @@
       <c r="R58" s="54">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T58" s="110"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
         <v>23</v>
       </c>
@@ -3889,64 +4119,76 @@
       <c r="R59" s="54">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="29" t="s">
+      <c r="T59" s="122" t="s">
+        <v>55</v>
+      </c>
+      <c r="U59" s="123"/>
+      <c r="V59" s="124"/>
+    </row>
+    <row r="60" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B60" s="30">
+      <c r="B60" s="45">
         <v>2428</v>
       </c>
-      <c r="C60" s="31">
+      <c r="C60" s="46">
         <v>2190</v>
       </c>
-      <c r="D60" s="32">
+      <c r="D60" s="47">
         <v>698</v>
       </c>
-      <c r="E60" s="32">
+      <c r="E60" s="47">
         <v>501</v>
       </c>
-      <c r="F60" s="33">
+      <c r="F60" s="48">
         <v>5817</v>
       </c>
-      <c r="G60" s="84">
+      <c r="G60" s="86">
         <v>0.22328854766474729</v>
       </c>
-      <c r="H60" s="85">
+      <c r="H60" s="87">
         <v>0.18617614269788182</v>
       </c>
-      <c r="I60" s="94">
+      <c r="I60" s="96">
         <v>0.42</v>
       </c>
-      <c r="J60" s="95">
+      <c r="J60" s="97">
         <v>0.38</v>
       </c>
-      <c r="K60" s="78">
+      <c r="K60" s="80">
         <v>0.39</v>
       </c>
-      <c r="L60" s="79">
+      <c r="L60" s="81">
         <v>0.28000000000000003</v>
       </c>
-      <c r="M60" s="94">
+      <c r="M60" s="96">
         <v>59.97</v>
       </c>
-      <c r="N60" s="95">
+      <c r="N60" s="97">
         <v>59.98</v>
       </c>
-      <c r="O60" s="78">
+      <c r="O60" s="80">
         <v>64.91</v>
       </c>
-      <c r="P60" s="79">
+      <c r="P60" s="81">
         <v>64.94</v>
       </c>
-      <c r="Q60" s="42">
+      <c r="Q60" s="53">
         <v>0.23</v>
       </c>
-      <c r="R60" s="43">
+      <c r="R60" s="54">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T60" s="111"/>
+      <c r="U60" s="112" t="s">
+        <v>56</v>
+      </c>
+      <c r="V60" s="113" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="29" t="s">
         <v>25</v>
       </c>
@@ -4001,8 +4243,17 @@
       <c r="R61" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T61" s="114" t="s">
+        <v>58</v>
+      </c>
+      <c r="U61" s="115" t="s">
+        <v>59</v>
+      </c>
+      <c r="V61" s="116" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
         <v>26</v>
       </c>
@@ -4057,8 +4308,21 @@
       <c r="R62" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T62" s="114" t="s">
+        <v>61</v>
+      </c>
+      <c r="U62" s="117">
+        <v>4255</v>
+      </c>
+      <c r="V62" s="118">
+        <v>681</v>
+      </c>
+      <c r="W62">
+        <f>V62+U62</f>
+        <v>4936</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="29" t="s">
         <v>27</v>
       </c>
@@ -4113,8 +4377,17 @@
       <c r="R63" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T63" s="114" t="s">
+        <v>62</v>
+      </c>
+      <c r="U63" s="117">
+        <v>0.73</v>
+      </c>
+      <c r="V63" s="118">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="29" t="s">
         <v>28</v>
       </c>
@@ -4169,8 +4442,17 @@
       <c r="R64" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T64" s="119" t="s">
+        <v>63</v>
+      </c>
+      <c r="U64" s="120">
+        <v>59.8</v>
+      </c>
+      <c r="V64" s="121">
+        <v>64.900000000000006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="29" t="s">
         <v>29</v>
       </c>
@@ -4225,8 +4507,9 @@
       <c r="R65" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T65" s="110"/>
+    </row>
+    <row r="66" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="29" t="s">
         <v>30</v>
       </c>
@@ -4281,8 +4564,9 @@
       <c r="R66" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T66" s="110"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="44" t="s">
         <v>31</v>
       </c>
@@ -4337,8 +4621,13 @@
       <c r="R67" s="54">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T67" s="122" t="s">
+        <v>64</v>
+      </c>
+      <c r="U67" s="123"/>
+      <c r="V67" s="124"/>
+    </row>
+    <row r="68" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="44" t="s">
         <v>32</v>
       </c>
@@ -4393,8 +4682,15 @@
       <c r="R68" s="54">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T68" s="111"/>
+      <c r="U68" s="112" t="s">
+        <v>56</v>
+      </c>
+      <c r="V68" s="113" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="44" t="s">
         <v>33</v>
       </c>
@@ -4449,8 +4745,17 @@
       <c r="R69" s="54">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T69" s="114" t="s">
+        <v>58</v>
+      </c>
+      <c r="U69" s="115" t="s">
+        <v>59</v>
+      </c>
+      <c r="V69" s="116" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="29" t="s">
         <v>34</v>
       </c>
@@ -4505,8 +4810,21 @@
       <c r="R70" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T70" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="U70" s="117">
+        <v>5958</v>
+      </c>
+      <c r="V70" s="118">
+        <v>846</v>
+      </c>
+      <c r="W70">
+        <f>V70+U70</f>
+        <v>6804</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="29" t="s">
         <v>35</v>
       </c>
@@ -4561,8 +4879,17 @@
       <c r="R71" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T71" s="114" t="s">
+        <v>62</v>
+      </c>
+      <c r="U71" s="117">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="V71" s="118">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="29" t="s">
         <v>36</v>
       </c>
@@ -4617,8 +4944,17 @@
       <c r="R72" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T72" s="119" t="s">
+        <v>63</v>
+      </c>
+      <c r="U72" s="120">
+        <v>24.103000000000002</v>
+      </c>
+      <c r="V72" s="121">
+        <v>64.87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="29" t="s">
         <v>37</v>
       </c>
@@ -4674,7 +5010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="29" t="s">
         <v>38</v>
       </c>
@@ -4730,7 +5066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="29" t="s">
         <v>39</v>
       </c>
@@ -4767,7 +5103,7 @@
       <c r="K75" s="71"/>
       <c r="L75" s="71"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>40</v>
       </c>
@@ -4776,7 +5112,7 @@
         <v>54641</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>41</v>
       </c>
@@ -4785,7 +5121,7 @@
         <v>14387</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>42</v>
       </c>
@@ -4794,7 +5130,7 @@
         <v>69028</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -15284,7 +15620,10 @@
       <c r="R764"/>
     </row>
   </sheetData>
-  <mergeCells count="84">
+  <mergeCells count="87">
+    <mergeCell ref="T59:V59"/>
+    <mergeCell ref="T67:V67"/>
+    <mergeCell ref="T51:V51"/>
     <mergeCell ref="B48:F48"/>
     <mergeCell ref="G48:H48"/>
     <mergeCell ref="I48:L48"/>
